--- a/RICE13_pyomo/Results/non_coop.xlsx
+++ b/RICE13_pyomo/Results/non_coop.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="US" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JAP" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RUS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EUR" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHI" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IND" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MEST" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AFR" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LAM" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OHI" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OTH" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="global" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="US" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JAP" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RUS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="EUR" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CHI" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="IND" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MEST" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AFR" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="LAM" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="OHI" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="OTH" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="global" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,46 +496,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.3363047032742</v>
+        <v>188.3111113166125</v>
       </c>
       <c r="C2" t="n">
-        <v>184.5987678018815</v>
+        <v>184.5246822823846</v>
       </c>
       <c r="D2" t="n">
-        <v>174.4580036641413</v>
+        <v>174.3294255504735</v>
       </c>
       <c r="E2" t="n">
-        <v>161.0797393953402</v>
+        <v>160.9136205157715</v>
       </c>
       <c r="F2" t="n">
-        <v>145.2003752094739</v>
+        <v>145.0191433960897</v>
       </c>
       <c r="G2" t="n">
-        <v>128.9534127702918</v>
+        <v>128.7746760642826</v>
       </c>
       <c r="H2" t="n">
-        <v>114.2305533293894</v>
+        <v>114.0648183872502</v>
       </c>
       <c r="I2" t="n">
-        <v>101.0014453493189</v>
+        <v>100.8545111266248</v>
       </c>
       <c r="J2" t="n">
-        <v>89.18080902358331</v>
+        <v>89.05512610085781</v>
       </c>
       <c r="K2" t="n">
-        <v>78.42031308922185</v>
+        <v>78.31666502760521</v>
       </c>
       <c r="L2" t="n">
-        <v>68.70110280211485</v>
+        <v>68.6183333722926</v>
       </c>
       <c r="M2" t="n">
-        <v>60.20792904891859</v>
+        <v>60.14394831583216</v>
       </c>
       <c r="N2" t="n">
-        <v>52.88985181839031</v>
+        <v>52.84264287889209</v>
       </c>
       <c r="O2" t="n">
-        <v>46.27696523306086</v>
+        <v>46.24417834840983</v>
       </c>
     </row>
     <row r="3">
@@ -548,43 +548,43 @@
         <v>30.15992716991271</v>
       </c>
       <c r="C3" t="n">
-        <v>49.9747066955747</v>
+        <v>50.04053647893066</v>
       </c>
       <c r="D3" t="n">
-        <v>69.77190704315248</v>
+        <v>69.8120251182926</v>
       </c>
       <c r="E3" t="n">
-        <v>89.11838804185449</v>
+        <v>88.99181668773376</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8368192731759</v>
+        <v>107.4220250049668</v>
       </c>
       <c r="G3" t="n">
-        <v>126.2489692774334</v>
+        <v>125.4659081974765</v>
       </c>
       <c r="H3" t="n">
-        <v>145.0345142479744</v>
+        <v>143.8350643315048</v>
       </c>
       <c r="I3" t="n">
-        <v>164.3048175823136</v>
+        <v>162.6759089293377</v>
       </c>
       <c r="J3" t="n">
-        <v>183.9905417843839</v>
+        <v>181.9457170916463</v>
       </c>
       <c r="K3" t="n">
-        <v>203.2982434195662</v>
+        <v>200.8829401334642</v>
       </c>
       <c r="L3" t="n">
-        <v>220.9359758986204</v>
+        <v>218.2501239420868</v>
       </c>
       <c r="M3" t="n">
-        <v>232.9829704580514</v>
+        <v>230.185716544268</v>
       </c>
       <c r="N3" t="n">
-        <v>229.1676491808906</v>
+        <v>226.5492227434329</v>
       </c>
       <c r="O3" t="n">
-        <v>176.0304354710755</v>
+        <v>174.2161915322889</v>
       </c>
     </row>
     <row r="4">
@@ -594,46 +594,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2470890138358539</v>
+        <v>0.2475007323804441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2423048954840279</v>
+        <v>0.2427204253788963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2381557070386773</v>
+        <v>0.2384909585344567</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2341259404363912</v>
+        <v>0.23437215816927</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2324210855979086</v>
+        <v>0.232591298060746</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2329364060264889</v>
+        <v>0.2330373837332292</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2331873203979852</v>
+        <v>0.2332284146143407</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2329025941110014</v>
+        <v>0.2328876942272925</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2310835030140257</v>
+        <v>0.2310157505596802</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2272561207912573</v>
+        <v>0.2271572316568042</v>
       </c>
       <c r="L4" t="n">
-        <v>0.217840844481785</v>
+        <v>0.2177267243181659</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1927422387334119</v>
+        <v>0.1926508672461854</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196733750912578</v>
+        <v>0.1196900246358691</v>
       </c>
       <c r="O4" t="n">
-        <v>2.578265821200569e-09</v>
+        <v>2.5647077651464e-09</v>
       </c>
     </row>
     <row r="5">
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.945859033643992</v>
+        <v>3.952442011979588</v>
       </c>
       <c r="C5" t="n">
-        <v>5.234680426808446</v>
+        <v>5.236396891705192</v>
       </c>
       <c r="D5" t="n">
-        <v>6.479042833124589</v>
+        <v>6.464986866926548</v>
       </c>
       <c r="E5" t="n">
-        <v>7.676315874651556</v>
+        <v>7.63924971806226</v>
       </c>
       <c r="F5" t="n">
-        <v>8.864859534791686</v>
+        <v>8.80101640863615</v>
       </c>
       <c r="G5" t="n">
-        <v>10.10142205760861</v>
+        <v>10.00878071754789</v>
       </c>
       <c r="H5" t="n">
-        <v>11.37344093936687</v>
+        <v>11.25237230665454</v>
       </c>
       <c r="I5" t="n">
-        <v>12.67009942888677</v>
+        <v>12.52241349243151</v>
       </c>
       <c r="J5" t="n">
-        <v>13.91447083170334</v>
+        <v>13.7442391315073</v>
       </c>
       <c r="K5" t="n">
-        <v>15.00502615080159</v>
+        <v>14.82065737336489</v>
       </c>
       <c r="L5" t="n">
-        <v>15.59473590197492</v>
+        <v>15.40866037765094</v>
       </c>
       <c r="M5" t="n">
-        <v>14.79315104717129</v>
+        <v>14.62884261654768</v>
       </c>
       <c r="N5" t="n">
-        <v>9.612461703329851</v>
+        <v>9.522336194024122</v>
       </c>
       <c r="O5" t="n">
-        <v>2.007696151507375e-07</v>
+        <v>1.981191276213677e-07</v>
       </c>
     </row>
     <row r="6">
@@ -695,43 +695,43 @@
         <v>15.99182389482275</v>
       </c>
       <c r="C6" t="n">
-        <v>21.65205675046738</v>
+        <v>21.66060923817663</v>
       </c>
       <c r="D6" t="n">
-        <v>27.29039426398662</v>
+        <v>27.29510081942093</v>
       </c>
       <c r="E6" t="n">
-        <v>32.92331446353455</v>
+        <v>32.90927957677101</v>
       </c>
       <c r="F6" t="n">
-        <v>38.34476804776132</v>
+        <v>38.30046040869897</v>
       </c>
       <c r="G6" t="n">
-        <v>43.65558037465001</v>
+        <v>43.57417109372817</v>
       </c>
       <c r="H6" t="n">
-        <v>49.17413970548672</v>
+        <v>49.05178238687829</v>
       </c>
       <c r="I6" t="n">
-        <v>54.93855343951458</v>
+        <v>54.77458595188101</v>
       </c>
       <c r="J6" t="n">
-        <v>60.92146967676378</v>
+        <v>60.71755478937372</v>
       </c>
       <c r="K6" t="n">
-        <v>66.9380503907789</v>
+        <v>66.69847251648272</v>
       </c>
       <c r="L6" t="n">
-        <v>72.73300233502238</v>
+        <v>72.46660791926816</v>
       </c>
       <c r="M6" t="n">
-        <v>78.16257522988825</v>
+        <v>77.87985202431128</v>
       </c>
       <c r="N6" t="n">
-        <v>82.01527373774127</v>
+        <v>81.73301483881454</v>
       </c>
       <c r="O6" t="n">
-        <v>79.74502994022369</v>
+        <v>79.49756950809063</v>
       </c>
     </row>
     <row r="7">
@@ -741,46 +741,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.9693827434404</v>
+        <v>15.96941541936174</v>
       </c>
       <c r="C7" t="n">
-        <v>21.60369239074454</v>
+        <v>21.5737793122724</v>
       </c>
       <c r="D7" t="n">
-        <v>27.20507063923674</v>
+        <v>27.10789082594299</v>
       </c>
       <c r="E7" t="n">
-        <v>32.78712243651236</v>
+        <v>32.59452734375123</v>
       </c>
       <c r="F7" t="n">
-        <v>38.14137392907631</v>
+        <v>37.83897541316263</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36557874280888</v>
+        <v>42.94924941744753</v>
       </c>
       <c r="H7" t="n">
-        <v>48.77383950360422</v>
+        <v>48.24614670241239</v>
       </c>
       <c r="I7" t="n">
-        <v>54.40085146861095</v>
+        <v>53.77018109084784</v>
       </c>
       <c r="J7" t="n">
-        <v>60.214038000189</v>
+        <v>59.49481409042124</v>
       </c>
       <c r="K7" t="n">
-        <v>66.02693955417921</v>
+        <v>65.24404820955193</v>
       </c>
       <c r="L7" t="n">
-        <v>71.58774994226988</v>
+        <v>70.77064345640061</v>
       </c>
       <c r="M7" t="n">
-        <v>76.75095580700491</v>
+        <v>75.93447579892654</v>
       </c>
       <c r="N7" t="n">
-        <v>80.32247520386052</v>
+        <v>79.55831092017701</v>
       </c>
       <c r="O7" t="n">
-        <v>77.87002158576851</v>
+        <v>77.24822699636445</v>
       </c>
     </row>
     <row r="8">
@@ -790,46 +790,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08348576249562208</v>
+        <v>0.08182986602904473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1049781948673704</v>
+        <v>0.102315191461686</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1250149800693601</v>
+        <v>0.1202120766310997</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1439341715320093</v>
+        <v>0.1360226426417118</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1614756549920564</v>
+        <v>0.1497605843342506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1769704645330689</v>
+        <v>0.1610598088911215</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1894809318208327</v>
+        <v>0.1693199734562904</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1976787273606507</v>
+        <v>0.1736054970409144</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1997548883303415</v>
+        <v>0.1726046091824382</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1934796832824426</v>
+        <v>0.1647129015980379</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1762556309438277</v>
+        <v>0.1480206176180804</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1457823663638672</v>
+        <v>0.1209334319715699</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09929972935428283</v>
+        <v>0.08152271362243524</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005910163464030172</v>
+        <v>0.005953195030739509</v>
       </c>
     </row>
     <row r="9">
@@ -839,46 +839,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005990042360195773</v>
+        <v>0.0005663283146766119</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001253767899950083</v>
+        <v>0.001167195259770896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002126875004457662</v>
+        <v>0.001906240894162615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00318120412287984</v>
+        <v>0.002714305892445293</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00432011440373337</v>
+        <v>0.003494672210060238</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005426393508519646</v>
+        <v>0.004160471396278141</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006375385828603346</v>
+        <v>0.004641132834780882</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006966034634040232</v>
+        <v>0.004828112863717756</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006961042382552527</v>
+        <v>0.004608632768192651</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006163162518476699</v>
+        <v>0.003912954059212375</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004572971774141384</v>
+        <v>0.002794516837156807</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002575029333671076</v>
+        <v>0.001520422575377601</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008262421084161243</v>
+        <v>0.0004739534402297886</v>
       </c>
       <c r="O9" t="n">
-        <v>2.680994262544527e-07</v>
+        <v>2.727519347689594e-07</v>
       </c>
     </row>
     <row r="10">
@@ -891,43 +891,43 @@
         <v>0.001365832145850479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002175802158927328</v>
+        <v>0.00395477014069717</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003048572656760885</v>
+        <v>0.006788901561848608</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004040019210296578</v>
+        <v>0.009481761106298604</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005191686230395618</v>
+        <v>0.01195782814198919</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006518645174119821</v>
+        <v>0.0142460817797107</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00801081256150475</v>
+        <v>0.01632957076490253</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009660537146357756</v>
+        <v>0.01824891472566435</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01149792737944059</v>
+        <v>0.02006227145361729</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01351918182256877</v>
+        <v>0.02174729492512931</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01568310649028587</v>
+        <v>0.02336482960423214</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01802709787139752</v>
+        <v>0.02495967509289258</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02062996579372183</v>
+        <v>0.02660161220634166</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02351253849627041</v>
+        <v>0.02829447809401673</v>
       </c>
     </row>
     <row r="11">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.02352370979641</v>
+        <v>12.01697340738215</v>
       </c>
       <c r="C11" t="n">
-        <v>16.3690119639361</v>
+        <v>16.33738242056721</v>
       </c>
       <c r="D11" t="n">
-        <v>20.72602780611216</v>
+        <v>20.64290395901644</v>
       </c>
       <c r="E11" t="n">
-        <v>25.1108065618608</v>
+        <v>24.95527762568898</v>
       </c>
       <c r="F11" t="n">
-        <v>29.27651439428462</v>
+        <v>29.03795900452648</v>
       </c>
       <c r="G11" t="n">
-        <v>33.26415668520028</v>
+        <v>32.94046869989965</v>
       </c>
       <c r="H11" t="n">
-        <v>37.40039856423736</v>
+        <v>36.99377439575785</v>
       </c>
       <c r="I11" t="n">
-        <v>41.73075203972417</v>
+        <v>41.24776759841632</v>
       </c>
       <c r="J11" t="n">
-        <v>46.29956716848567</v>
+        <v>45.75057495891393</v>
       </c>
       <c r="K11" t="n">
-        <v>51.0219134033776</v>
+        <v>50.42339083618704</v>
       </c>
       <c r="L11" t="n">
-        <v>55.99301404029495</v>
+        <v>55.36198307874967</v>
       </c>
       <c r="M11" t="n">
-        <v>61.95780475983364</v>
+        <v>61.30563318237886</v>
       </c>
       <c r="N11" t="n">
-        <v>70.71001350053066</v>
+        <v>70.03597472615289</v>
       </c>
       <c r="O11" t="n">
-        <v>77.87002138499889</v>
+        <v>77.24822679824533</v>
       </c>
     </row>
     <row r="12">
@@ -986,46 +986,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.484553810952531</v>
+        <v>1.487236003229974</v>
       </c>
       <c r="C12" t="n">
-        <v>1.672647344422981</v>
+        <v>1.678286711932156</v>
       </c>
       <c r="D12" t="n">
-        <v>1.78015532935774</v>
+        <v>1.790235521430954</v>
       </c>
       <c r="E12" t="n">
-        <v>1.837006610847344</v>
+        <v>1.853193394063035</v>
       </c>
       <c r="F12" t="n">
-        <v>1.852351259485814</v>
+        <v>1.876060254701954</v>
       </c>
       <c r="G12" t="n">
-        <v>1.847703989569406</v>
+        <v>1.879911239967569</v>
       </c>
       <c r="H12" t="n">
-        <v>1.84586345101512</v>
+        <v>1.887070495472665</v>
       </c>
       <c r="I12" t="n">
-        <v>1.853145302037269</v>
+        <v>1.903051182436667</v>
       </c>
       <c r="J12" t="n">
-        <v>1.874034385750368</v>
+        <v>1.93113006037622</v>
       </c>
       <c r="K12" t="n">
-        <v>1.909752009145797</v>
+        <v>1.970789619296453</v>
       </c>
       <c r="L12" t="n">
-        <v>1.961737292352616</v>
+        <v>2.021547228986521</v>
       </c>
       <c r="M12" t="n">
-        <v>2.034154671954902</v>
+        <v>2.085755808772393</v>
       </c>
       <c r="N12" t="n">
-        <v>2.103950956116284</v>
+        <v>2.13809264545587</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1196965966769</v>
+        <v>2.113027398259603</v>
       </c>
     </row>
     <row r="13">
@@ -1035,46 +1035,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.484553810952531</v>
+        <v>1.487236003229974</v>
       </c>
       <c r="C13" t="n">
-        <v>1.672647344422981</v>
+        <v>1.678286711932156</v>
       </c>
       <c r="D13" t="n">
-        <v>1.78015532935774</v>
+        <v>1.790235521430954</v>
       </c>
       <c r="E13" t="n">
-        <v>1.837006610847344</v>
+        <v>1.853193394063035</v>
       </c>
       <c r="F13" t="n">
-        <v>1.852351259485814</v>
+        <v>1.876060254701954</v>
       </c>
       <c r="G13" t="n">
-        <v>1.847703989569406</v>
+        <v>1.879911239967569</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84586345101512</v>
+        <v>1.887070495472665</v>
       </c>
       <c r="I13" t="n">
-        <v>1.853145302037269</v>
+        <v>1.903051182436667</v>
       </c>
       <c r="J13" t="n">
-        <v>1.874034385750368</v>
+        <v>1.93113006037622</v>
       </c>
       <c r="K13" t="n">
-        <v>1.909752009145797</v>
+        <v>1.970789619296453</v>
       </c>
       <c r="L13" t="n">
-        <v>1.961737292352616</v>
+        <v>2.021547228986521</v>
       </c>
       <c r="M13" t="n">
-        <v>2.034154671954902</v>
+        <v>2.085755808772393</v>
       </c>
       <c r="N13" t="n">
-        <v>2.103950956116284</v>
+        <v>2.13809264545587</v>
       </c>
       <c r="O13" t="n">
-        <v>2.1196965966769</v>
+        <v>2.113027398259603</v>
       </c>
     </row>
     <row r="14">
@@ -1245,46 +1245,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.3789928465474</v>
+        <v>174.2887810144852</v>
       </c>
       <c r="C2" t="n">
-        <v>208.3436179054902</v>
+        <v>208.0501478232463</v>
       </c>
       <c r="D2" t="n">
-        <v>221.4923507158459</v>
+        <v>221.000997227132</v>
       </c>
       <c r="E2" t="n">
-        <v>218.785365985446</v>
+        <v>218.1899388185118</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1961965941768</v>
+        <v>203.5924979473354</v>
       </c>
       <c r="G2" t="n">
-        <v>185.2196105446369</v>
+        <v>184.6636406931345</v>
       </c>
       <c r="H2" t="n">
-        <v>165.8501976233952</v>
+        <v>165.3669021978963</v>
       </c>
       <c r="I2" t="n">
-        <v>147.1434016796951</v>
+        <v>146.7400408645157</v>
       </c>
       <c r="J2" t="n">
-        <v>129.6641405345933</v>
+        <v>129.3380529769612</v>
       </c>
       <c r="K2" t="n">
-        <v>113.8144084336566</v>
+        <v>113.5583366105967</v>
       </c>
       <c r="L2" t="n">
-        <v>99.66153989372189</v>
+        <v>99.46548623524245</v>
       </c>
       <c r="M2" t="n">
-        <v>87.1300114820293</v>
+        <v>86.98428792509243</v>
       </c>
       <c r="N2" t="n">
-        <v>76.3117644804904</v>
+        <v>76.20811793783983</v>
       </c>
       <c r="O2" t="n">
-        <v>66.39532585666772</v>
+        <v>66.3259343606332</v>
       </c>
     </row>
     <row r="3">
@@ -1297,43 +1297,43 @@
         <v>13.44037364302173</v>
       </c>
       <c r="C3" t="n">
-        <v>21.12791313236878</v>
+        <v>21.15551447395548</v>
       </c>
       <c r="D3" t="n">
-        <v>30.57604157671877</v>
+        <v>30.58632561728432</v>
       </c>
       <c r="E3" t="n">
-        <v>41.58904522783388</v>
+        <v>41.51062641538527</v>
       </c>
       <c r="F3" t="n">
-        <v>53.80880255355536</v>
+        <v>53.56889167858775</v>
       </c>
       <c r="G3" t="n">
-        <v>67.30301845796644</v>
+        <v>66.84007251255197</v>
       </c>
       <c r="H3" t="n">
-        <v>82.20210204910707</v>
+        <v>81.46692249307553</v>
       </c>
       <c r="I3" t="n">
-        <v>98.45158177828753</v>
+        <v>97.41391910544388</v>
       </c>
       <c r="J3" t="n">
-        <v>115.8870450986488</v>
+        <v>114.5350776502051</v>
       </c>
       <c r="K3" t="n">
-        <v>134.1582471358585</v>
+        <v>132.5017887864228</v>
       </c>
       <c r="L3" t="n">
-        <v>152.2925080000731</v>
+        <v>150.3843381983619</v>
       </c>
       <c r="M3" t="n">
-        <v>167.2767010912383</v>
+        <v>165.2213840810057</v>
       </c>
       <c r="N3" t="n">
-        <v>170.7724588187942</v>
+        <v>168.7881276423252</v>
       </c>
       <c r="O3" t="n">
-        <v>136.1449815010104</v>
+        <v>134.7262545428931</v>
       </c>
     </row>
     <row r="4">
@@ -1343,46 +1343,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2312661611695381</v>
+        <v>0.2316543071571797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2261064666344833</v>
+        <v>0.2264683467959693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2211649284531043</v>
+        <v>0.2214448508733568</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2170834071997521</v>
+        <v>0.2172812078392471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2168483324375888</v>
+        <v>0.2169788064902563</v>
       </c>
       <c r="G4" t="n">
-        <v>0.218256902779103</v>
+        <v>0.21832623205341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2194805957928372</v>
+        <v>0.2194975823171904</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2203632005303028</v>
+        <v>0.2203311963897747</v>
       </c>
       <c r="J4" t="n">
-        <v>0.220547743812476</v>
+        <v>0.2204691442266089</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2186069611687302</v>
+        <v>0.2185019136446496</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2109031082761269</v>
+        <v>0.2107863751562246</v>
       </c>
       <c r="M4" t="n">
-        <v>0.188183387274059</v>
+        <v>0.1880911830007797</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1193426617620993</v>
+        <v>0.1193572609356539</v>
       </c>
       <c r="O4" t="n">
-        <v>1.014847286598941e-09</v>
+        <v>1.008429144746635e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1392,46 +1392,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.644154461615881</v>
+        <v>1.646914595774551</v>
       </c>
       <c r="C5" t="n">
-        <v>2.320919378315612</v>
+        <v>2.320985383099255</v>
       </c>
       <c r="D5" t="n">
-        <v>3.092783874643083</v>
+        <v>3.08458341107599</v>
       </c>
       <c r="E5" t="n">
-        <v>3.930759913826589</v>
+        <v>3.909503121249736</v>
       </c>
       <c r="F5" t="n">
-        <v>4.854104911994386</v>
+        <v>4.816175492417612</v>
       </c>
       <c r="G5" t="n">
-        <v>5.873499055916182</v>
+        <v>5.816123027322801</v>
       </c>
       <c r="H5" t="n">
-        <v>6.978948106286385</v>
+        <v>6.90081596508107</v>
       </c>
       <c r="I5" t="n">
-        <v>8.155910113881792</v>
+        <v>8.056894429249137</v>
       </c>
       <c r="J5" t="n">
-        <v>9.375093302306333</v>
+        <v>9.256587657461694</v>
       </c>
       <c r="K5" t="n">
-        <v>10.55144196621916</v>
+        <v>10.41838211738523</v>
       </c>
       <c r="L5" t="n">
-        <v>11.4175586962856</v>
+        <v>11.278560762253</v>
       </c>
       <c r="M5" t="n">
-        <v>11.24466796172273</v>
+        <v>11.11789931697972</v>
       </c>
       <c r="N5" t="n">
-        <v>7.660030694803171</v>
+        <v>7.587347348916746</v>
       </c>
       <c r="O5" t="n">
-        <v>6.46242634035708e-08</v>
+        <v>6.369951788544867e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1444,43 +1444,43 @@
         <v>7.122862075485028</v>
       </c>
       <c r="C6" t="n">
-        <v>10.29378381494493</v>
+        <v>10.2978162874327</v>
       </c>
       <c r="D6" t="n">
-        <v>14.03726676898128</v>
+        <v>14.03868300361427</v>
       </c>
       <c r="E6" t="n">
-        <v>18.19563481351271</v>
+        <v>18.18533530262487</v>
       </c>
       <c r="F6" t="n">
-        <v>22.52193677226969</v>
+        <v>22.49176488327661</v>
       </c>
       <c r="G6" t="n">
-        <v>27.11372905550556</v>
+        <v>27.05764303388008</v>
       </c>
       <c r="H6" t="n">
-        <v>32.08706351425325</v>
+        <v>32.00070086378368</v>
       </c>
       <c r="I6" t="n">
-        <v>37.41187406574361</v>
+        <v>37.29314065193413</v>
       </c>
       <c r="J6" t="n">
-        <v>43.04833142643307</v>
+        <v>42.89704833635018</v>
       </c>
       <c r="K6" t="n">
-        <v>48.97870914668654</v>
+        <v>48.79649685729435</v>
       </c>
       <c r="L6" t="n">
-        <v>55.05224265121762</v>
+        <v>54.8443932836744</v>
       </c>
       <c r="M6" t="n">
-        <v>60.90397728878906</v>
+        <v>60.6785082186008</v>
       </c>
       <c r="N6" t="n">
-        <v>65.58619862187173</v>
+        <v>65.35663431340711</v>
       </c>
       <c r="O6" t="n">
-        <v>65.25115768852646</v>
+        <v>65.04642030763465</v>
       </c>
     </row>
     <row r="7">
@@ -1490,46 +1490,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.109360285574048</v>
+        <v>7.109363154025467</v>
       </c>
       <c r="C7" t="n">
-        <v>10.26471915138782</v>
+        <v>10.24860831960011</v>
       </c>
       <c r="D7" t="n">
-        <v>13.9840611089424</v>
+        <v>13.92935260815817</v>
       </c>
       <c r="E7" t="n">
-        <v>18.10714123447329</v>
+        <v>17.99282671579281</v>
       </c>
       <c r="F7" t="n">
-        <v>22.38479243731997</v>
+        <v>22.19652495246759</v>
       </c>
       <c r="G7" t="n">
-        <v>26.91094293526528</v>
+        <v>26.63959787434054</v>
       </c>
       <c r="H7" t="n">
-        <v>31.79756315621477</v>
+        <v>31.4391433938843</v>
       </c>
       <c r="I7" t="n">
-        <v>37.01121645653467</v>
+        <v>36.56719775168001</v>
       </c>
       <c r="J7" t="n">
-        <v>42.50822583919808</v>
+        <v>41.98586468838162</v>
       </c>
       <c r="K7" t="n">
-        <v>48.26672448950566</v>
+        <v>47.68096509364527</v>
       </c>
       <c r="L7" t="n">
-        <v>54.1365122098488</v>
+        <v>53.50706730401277</v>
       </c>
       <c r="M7" t="n">
-        <v>59.75377595550806</v>
+        <v>59.10909347055164</v>
       </c>
       <c r="N7" t="n">
-        <v>64.18518392084192</v>
+        <v>63.56837690006245</v>
       </c>
       <c r="O7" t="n">
-        <v>63.67880592177189</v>
+        <v>63.16707347986557</v>
       </c>
     </row>
     <row r="8">
@@ -1539,46 +1539,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03896490330350672</v>
+        <v>0.03774513382351904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05015288555717325</v>
+        <v>0.04844847426800667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06228064298522116</v>
+        <v>0.05945643646513241</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07514735082308763</v>
+        <v>0.07056847818208908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08829215874532791</v>
+        <v>0.08141218946684611</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1011052107954604</v>
+        <v>0.0915139091932211</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1127794658341923</v>
+        <v>0.1002600949291284</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1221685571119993</v>
+        <v>0.1067712685153832</v>
       </c>
       <c r="J8" t="n">
-        <v>0.127741219494342</v>
+        <v>0.1098842115357404</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1276043853779407</v>
+        <v>0.108189301304341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1195465168813863</v>
+        <v>0.1000296791195887</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1012982364119945</v>
+        <v>0.08376175205606365</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07040661474536501</v>
+        <v>0.05763919952882419</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004161503204129642</v>
+        <v>0.004670655010072472</v>
       </c>
     </row>
     <row r="9">
@@ -1588,46 +1588,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.366599732315949e-05</v>
+        <v>3.079754590362067e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.212010669649268e-05</v>
+        <v>7.457191645377362e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001729455634728239</v>
+        <v>0.0001518872950208234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003227523231096764</v>
+        <v>0.0002705049977981011</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005389090190742503</v>
+        <v>0.0004288265733574353</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008213986543689001</v>
+        <v>0.0006200870903881195</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001152338058342729</v>
+        <v>0.0008266545124310616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001477505506550396</v>
+        <v>0.001010030493180872</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001704043890740935</v>
+        <v>0.001113893659196705</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00171978937313258</v>
+        <v>0.001079316896264153</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001440202160954632</v>
+        <v>0.0008710400728619989</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0009003800491205539</v>
+        <v>0.0005268147613729679</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000315965888890287</v>
+        <v>0.0001798083914611269</v>
       </c>
       <c r="O9" t="n">
-        <v>1.035414846295925e-07</v>
+        <v>1.425957974626152e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1640,43 +1640,43 @@
         <v>0.001890830367193471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002815538384275557</v>
+        <v>0.004771244169125317</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003777994345209594</v>
+        <v>0.007776976525004118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004845713140539881</v>
+        <v>0.01057104961966305</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006065438657071201</v>
+        <v>0.01310751316162237</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007448799136867437</v>
+        <v>0.01542725180927543</v>
       </c>
       <c r="H10" t="n">
-        <v>0.008986425942406862</v>
+        <v>0.01752245420416885</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01066987724274151</v>
+        <v>0.01943877230740412</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01250690852592843</v>
+        <v>0.0212152068639696</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01450150239118311</v>
+        <v>0.02283877980036225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01660768381408799</v>
+        <v>0.02436812333169876</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01887070441692549</v>
+        <v>0.02585574331583265</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02135660801469012</v>
+        <v>0.02735877732593716</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0240969159615318</v>
+        <v>0.02889239217600274</v>
       </c>
     </row>
     <row r="11">
@@ -1686,46 +1686,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.465205823958167</v>
+        <v>5.462448558250916</v>
       </c>
       <c r="C11" t="n">
-        <v>7.943799773072208</v>
+        <v>7.927622936500858</v>
       </c>
       <c r="D11" t="n">
-        <v>10.89127723429931</v>
+        <v>10.84476919708218</v>
       </c>
       <c r="E11" t="n">
-        <v>14.17638132064671</v>
+        <v>14.08332359454308</v>
       </c>
       <c r="F11" t="n">
-        <v>17.53068752532559</v>
+        <v>17.38034946004998</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0374438793491</v>
+        <v>20.82347484701774</v>
       </c>
       <c r="H11" t="n">
-        <v>24.81861504992838</v>
+        <v>24.53832742880323</v>
       </c>
       <c r="I11" t="n">
-        <v>28.85530634265288</v>
+        <v>28.51030332243087</v>
       </c>
       <c r="J11" t="n">
-        <v>33.13313253689175</v>
+        <v>32.72927703091992</v>
       </c>
       <c r="K11" t="n">
-        <v>37.7152825232865</v>
+        <v>37.26258297626004</v>
       </c>
       <c r="L11" t="n">
-        <v>42.71895351356319</v>
+        <v>42.22850654175977</v>
       </c>
       <c r="M11" t="n">
-        <v>48.50910799378533</v>
+        <v>47.99119415357193</v>
       </c>
       <c r="N11" t="n">
-        <v>56.52515322603875</v>
+        <v>55.9810295511457</v>
       </c>
       <c r="O11" t="n">
-        <v>63.67880585714762</v>
+        <v>63.16707341616605</v>
       </c>
     </row>
     <row r="12">
@@ -1735,46 +1735,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5115468412123166</v>
+        <v>0.5121961090971626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6368026818183418</v>
+        <v>0.6381952721486883</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7556172937972343</v>
+        <v>0.7579695131827672</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8601095398413867</v>
+        <v>0.8638786051007113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9429756850738259</v>
+        <v>0.9488188030098362</v>
       </c>
       <c r="G12" t="n">
-        <v>1.013967426662064</v>
+        <v>1.022666746237851</v>
       </c>
       <c r="H12" t="n">
-        <v>1.080885893140791</v>
+        <v>1.093187766281611</v>
       </c>
       <c r="I12" t="n">
-        <v>1.145555966201086</v>
+        <v>1.161949780561169</v>
       </c>
       <c r="J12" t="n">
-        <v>1.210518229116297</v>
+        <v>1.230958965854354</v>
       </c>
       <c r="K12" t="n">
-        <v>1.279974405002939</v>
+        <v>1.303592338899159</v>
       </c>
       <c r="L12" t="n">
-        <v>1.355738426204787</v>
+        <v>1.38055876727059</v>
       </c>
       <c r="M12" t="n">
-        <v>1.435696311855113</v>
+        <v>1.45829252044021</v>
       </c>
       <c r="N12" t="n">
-        <v>1.505626534252946</v>
+        <v>1.520963061483369</v>
       </c>
       <c r="O12" t="n">
-        <v>1.516116474226407</v>
+        <v>1.51058665583795</v>
       </c>
     </row>
     <row r="13">
@@ -1784,46 +1784,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5115468412123166</v>
+        <v>0.5121961090971626</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6368026818183418</v>
+        <v>0.6381952721486883</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7556172937972343</v>
+        <v>0.7579695131827672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8601095398413867</v>
+        <v>0.8638786051007113</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9429756850738259</v>
+        <v>0.9488188030098362</v>
       </c>
       <c r="G13" t="n">
-        <v>1.013967426662064</v>
+        <v>1.022666746237851</v>
       </c>
       <c r="H13" t="n">
-        <v>1.080885893140791</v>
+        <v>1.093187766281611</v>
       </c>
       <c r="I13" t="n">
-        <v>1.145555966201086</v>
+        <v>1.161949780561169</v>
       </c>
       <c r="J13" t="n">
-        <v>1.210518229116297</v>
+        <v>1.230958965854354</v>
       </c>
       <c r="K13" t="n">
-        <v>1.279974405002939</v>
+        <v>1.303592338899159</v>
       </c>
       <c r="L13" t="n">
-        <v>1.355738426204787</v>
+        <v>1.38055876727059</v>
       </c>
       <c r="M13" t="n">
-        <v>1.435696311855113</v>
+        <v>1.45829252044021</v>
       </c>
       <c r="N13" t="n">
-        <v>1.505626534252946</v>
+        <v>1.520963061483369</v>
       </c>
       <c r="O13" t="n">
-        <v>1.516116474226407</v>
+        <v>1.51058665583795</v>
       </c>
     </row>
     <row r="14">
@@ -1994,46 +1994,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.39593391373384</v>
+        <v>74.38349509275555</v>
       </c>
       <c r="C2" t="n">
-        <v>72.34668784870537</v>
+        <v>72.30846000102505</v>
       </c>
       <c r="D2" t="n">
-        <v>67.32375125473708</v>
+        <v>67.25860453409445</v>
       </c>
       <c r="E2" t="n">
-        <v>60.55953373198098</v>
+        <v>60.47825872921361</v>
       </c>
       <c r="F2" t="n">
-        <v>52.86517255912037</v>
+        <v>52.78005727781743</v>
       </c>
       <c r="G2" t="n">
-        <v>45.35879110914033</v>
+        <v>45.27829811840741</v>
       </c>
       <c r="H2" t="n">
-        <v>38.78285038088421</v>
+        <v>38.7112643399963</v>
       </c>
       <c r="I2" t="n">
-        <v>33.06883822505471</v>
+        <v>33.00790274561678</v>
       </c>
       <c r="J2" t="n">
-        <v>28.13265286026753</v>
+        <v>28.08250692569701</v>
       </c>
       <c r="K2" t="n">
-        <v>24.27003638154068</v>
+        <v>24.22947151459143</v>
       </c>
       <c r="L2" t="n">
-        <v>21.25055998232589</v>
+        <v>21.21821495621722</v>
       </c>
       <c r="M2" t="n">
-        <v>18.61133380426053</v>
+        <v>18.58636675508711</v>
       </c>
       <c r="N2" t="n">
-        <v>16.34092488411529</v>
+        <v>16.32253102381134</v>
       </c>
       <c r="O2" t="n">
-        <v>14.28216142274817</v>
+        <v>14.26941289252552</v>
       </c>
     </row>
     <row r="3">
@@ -2046,43 +2046,43 @@
         <v>9.580191347594166</v>
       </c>
       <c r="C3" t="n">
-        <v>15.36190258036937</v>
+        <v>15.38320804421043</v>
       </c>
       <c r="D3" t="n">
-        <v>21.02471664213415</v>
+        <v>21.035532717581</v>
       </c>
       <c r="E3" t="n">
-        <v>26.31944321870802</v>
+        <v>26.27364383557365</v>
       </c>
       <c r="F3" t="n">
-        <v>31.14238305295513</v>
+        <v>31.00307877872207</v>
       </c>
       <c r="G3" t="n">
-        <v>35.59576649155132</v>
+        <v>35.34203606392749</v>
       </c>
       <c r="H3" t="n">
-        <v>39.88300251936921</v>
+        <v>39.50563612052295</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13875644606996</v>
+        <v>43.63904521876176</v>
       </c>
       <c r="J3" t="n">
-        <v>48.40336707668829</v>
+        <v>47.78963441797401</v>
       </c>
       <c r="K3" t="n">
-        <v>52.91517389588768</v>
+        <v>52.1982132422682</v>
       </c>
       <c r="L3" t="n">
-        <v>57.40487065980199</v>
+        <v>56.60962687826266</v>
       </c>
       <c r="M3" t="n">
-        <v>60.61470224078867</v>
+        <v>59.78650942981199</v>
       </c>
       <c r="N3" t="n">
-        <v>59.66340451142872</v>
+        <v>58.88922001317216</v>
       </c>
       <c r="O3" t="n">
-        <v>45.84243425319514</v>
+        <v>45.30711569114447</v>
       </c>
     </row>
     <row r="4">
@@ -2092,46 +2092,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2365830439955264</v>
+        <v>0.2370022779662524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2307940261029817</v>
+        <v>0.2312048435430623</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2250211565684799</v>
+        <v>0.2253368239061483</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2202971647142752</v>
+        <v>0.2205122059302926</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2185336484989311</v>
+        <v>0.218665325573035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2192505292357774</v>
+        <v>0.2193081398801797</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2204365767072964</v>
+        <v>0.2204324620351452</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2221028956937304</v>
+        <v>0.2220422952141106</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2254336232990283</v>
+        <v>0.2253198735671291</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2253535470187614</v>
+        <v>0.2252124455674687</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2163249991109053</v>
+        <v>0.2161767429296104</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1914332584877346</v>
+        <v>0.1913217587447023</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1188960301384618</v>
+        <v>0.1189149566991616</v>
       </c>
       <c r="O4" t="n">
-        <v>9.27685947754843e-09</v>
+        <v>9.220334727583994e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2141,46 +2141,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.202149640543072</v>
+        <v>1.204280186927178</v>
       </c>
       <c r="C5" t="n">
-        <v>1.566835241344279</v>
+        <v>1.567173973299193</v>
       </c>
       <c r="D5" t="n">
-        <v>1.898857781638418</v>
+        <v>1.893900710093499</v>
       </c>
       <c r="E5" t="n">
-        <v>2.196536064715549</v>
+        <v>2.184202563039126</v>
       </c>
       <c r="F5" t="n">
-        <v>2.473708894765024</v>
+        <v>2.453193091706526</v>
       </c>
       <c r="G5" t="n">
-        <v>2.747152618493125</v>
+        <v>2.718263011579477</v>
       </c>
       <c r="H5" t="n">
-        <v>3.023241334111193</v>
+        <v>2.986428164109959</v>
       </c>
       <c r="I5" t="n">
-        <v>3.301313433111879</v>
+        <v>3.25736402036428</v>
       </c>
       <c r="J5" t="n">
-        <v>3.603796336800031</v>
+        <v>3.553499806045974</v>
       </c>
       <c r="K5" t="n">
-        <v>3.895449036816363</v>
+        <v>3.840923530894141</v>
       </c>
       <c r="L5" t="n">
-        <v>4.059886148498665</v>
+        <v>4.004795303525633</v>
       </c>
       <c r="M5" t="n">
-        <v>3.852836468698454</v>
+        <v>3.804295316616137</v>
       </c>
       <c r="N5" t="n">
-        <v>2.503909143709487</v>
+        <v>2.47737143182459</v>
       </c>
       <c r="O5" t="n">
-        <v>1.891983991471958e-07</v>
+        <v>1.863476991513769e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2193,43 +2193,43 @@
         <v>5.097074969620485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.818849386629489</v>
+        <v>6.82168513466986</v>
       </c>
       <c r="D6" t="n">
-        <v>8.490069520204377</v>
+        <v>8.491379588317869</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0516917711419</v>
+        <v>10.04644118201679</v>
       </c>
       <c r="F6" t="n">
-        <v>11.43659700795636</v>
+        <v>11.42122566550857</v>
       </c>
       <c r="G6" t="n">
-        <v>12.6920343963644</v>
+        <v>12.66482535575066</v>
       </c>
       <c r="H6" t="n">
-        <v>13.93147459275274</v>
+        <v>13.89179773133953</v>
       </c>
       <c r="I6" t="n">
-        <v>15.14432748549349</v>
+        <v>15.09268598831378</v>
       </c>
       <c r="J6" t="n">
-        <v>16.35206818595781</v>
+        <v>16.28958911311109</v>
       </c>
       <c r="K6" t="n">
-        <v>17.75990896766186</v>
+        <v>17.68737396571561</v>
       </c>
       <c r="L6" t="n">
-        <v>19.37588625766519</v>
+        <v>19.29496704971264</v>
       </c>
       <c r="M6" t="n">
-        <v>20.88446983500319</v>
+        <v>20.79845244803785</v>
       </c>
       <c r="N6" t="n">
-        <v>21.97519292884106</v>
+        <v>21.88925737857773</v>
       </c>
       <c r="O6" t="n">
-        <v>21.40266875589894</v>
+        <v>21.32738227730832</v>
       </c>
     </row>
     <row r="7">
@@ -2239,46 +2239,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.081300926053699</v>
+        <v>5.08130215988329</v>
       </c>
       <c r="C7" t="n">
-        <v>6.788889937060795</v>
+        <v>6.778292138189156</v>
       </c>
       <c r="D7" t="n">
-        <v>8.438574446045676</v>
+        <v>8.404754612509757</v>
       </c>
       <c r="E7" t="n">
-        <v>9.970786812279</v>
+        <v>9.905132252541101</v>
       </c>
       <c r="F7" t="n">
-        <v>11.31957898363246</v>
+        <v>11.21893965253833</v>
       </c>
       <c r="G7" t="n">
-        <v>12.52974224540591</v>
+        <v>12.39472010963485</v>
       </c>
       <c r="H7" t="n">
-        <v>13.71478989226712</v>
+        <v>13.54804159304727</v>
       </c>
       <c r="I7" t="n">
-        <v>14.86389190379687</v>
+        <v>14.67001598602317</v>
       </c>
       <c r="J7" t="n">
-        <v>15.98606403100635</v>
+        <v>15.77091159243566</v>
       </c>
       <c r="K7" t="n">
-        <v>17.28594507763419</v>
+        <v>17.05466818770228</v>
       </c>
       <c r="L7" t="n">
-        <v>18.76753109989497</v>
+        <v>18.5255603782949</v>
       </c>
       <c r="M7" t="n">
-        <v>20.12626488800697</v>
+        <v>19.88427945455252</v>
       </c>
       <c r="N7" t="n">
-        <v>21.05965304975725</v>
+        <v>20.83313571809136</v>
       </c>
       <c r="O7" t="n">
-        <v>20.39466045649263</v>
+        <v>20.21051346366962</v>
       </c>
     </row>
     <row r="8">
@@ -2288,46 +2288,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03773429443581595</v>
+        <v>0.03713175539982524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04720333492169123</v>
+        <v>0.04621772293678499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05609365246938093</v>
+        <v>0.05416358073372345</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06452167821911829</v>
+        <v>0.06117087742296878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07238311658953439</v>
+        <v>0.06727325684627702</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07940806355798798</v>
+        <v>0.07234799057977785</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08524327815813204</v>
+        <v>0.07619714263104534</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08920077352570634</v>
+        <v>0.07832496580619004</v>
       </c>
       <c r="J8" t="n">
-        <v>0.09032042169745466</v>
+        <v>0.07801658392986181</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08762392217894581</v>
+        <v>0.0745676239789221</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0800414578774295</v>
+        <v>0.06719714813715785</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06635533151139726</v>
+        <v>0.05503945136622052</v>
       </c>
       <c r="N8" t="n">
-        <v>0.04533698833238205</v>
+        <v>0.03726587584073116</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007981883849103776</v>
+        <v>0.007946247558044716</v>
       </c>
     </row>
     <row r="9">
@@ -2337,46 +2337,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.79967618649024e-05</v>
+        <v>2.676293227459189e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.645376868682163e-05</v>
+        <v>5.323704304410088e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>9.313320345028814e-05</v>
+        <v>8.444885496078831e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001351578578733858</v>
+        <v>0.0001163492899718042</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001778887820097378</v>
+        <v>0.0001447234628516271</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002168712912255127</v>
+        <v>0.0001667413296239749</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002485208092052947</v>
+        <v>0.0001810106147043353</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002649360515430069</v>
+        <v>0.0001834619753627319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002579166964282208</v>
+        <v>0.0001705059833985138</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002256896736823655</v>
+        <v>0.0001430644192678559</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001687209052973705</v>
+        <v>0.0001029560201882343</v>
       </c>
       <c r="M9" t="n">
-        <v>9.554509637932357e-05</v>
+        <v>5.637040223540104e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.090363652745373e-05</v>
+        <v>1.777919862217577e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.086428257188499e-07</v>
+        <v>2.053202590603867e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2389,43 +2389,43 @@
         <v>0.003089231941607784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004385343348196247</v>
+        <v>0.006353233633929208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006054360430491961</v>
+        <v>0.01019157441415171</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008035443470015467</v>
+        <v>0.01405398962952711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01021633755745739</v>
+        <v>0.01769873877177996</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01276984245438937</v>
+        <v>0.02131403293797625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01553576961544409</v>
+        <v>0.02473222935736075</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01850003877118064</v>
+        <v>0.02799279999877885</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0223669712048483</v>
+        <v>0.03183057663957282</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02667458494390908</v>
+        <v>0.03576351779637769</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0313888319108151</v>
+        <v>0.03987069339975961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03630015068082935</v>
+        <v>0.04395118460697599</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04166102106187871</v>
+        <v>0.04824758844132355</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04709730838990403</v>
+        <v>0.05236782432070532</v>
       </c>
     </row>
     <row r="11">
@@ -2435,46 +2435,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.879151285510628</v>
+        <v>3.877021972956112</v>
       </c>
       <c r="C11" t="n">
-        <v>5.222054695716516</v>
+        <v>5.211118164889963</v>
       </c>
       <c r="D11" t="n">
-        <v>6.539716664407257</v>
+        <v>6.510853902416258</v>
       </c>
       <c r="E11" t="n">
-        <v>7.77425074756345</v>
+        <v>7.720929689501975</v>
       </c>
       <c r="F11" t="n">
-        <v>8.845870088867438</v>
+        <v>8.765746560831804</v>
       </c>
       <c r="G11" t="n">
-        <v>9.782589626912788</v>
+        <v>9.676457098055376</v>
       </c>
       <c r="H11" t="n">
-        <v>10.69154855815592</v>
+        <v>10.56161342893731</v>
       </c>
       <c r="I11" t="n">
-        <v>11.56257847068499</v>
+        <v>11.41265196565889</v>
       </c>
       <c r="J11" t="n">
-        <v>12.38226769420631</v>
+        <v>12.21741178638969</v>
       </c>
       <c r="K11" t="n">
-        <v>13.39049604081782</v>
+        <v>13.21374465680814</v>
       </c>
       <c r="L11" t="n">
-        <v>14.7076449513963</v>
+        <v>14.52076507476927</v>
       </c>
       <c r="M11" t="n">
-        <v>16.27342841930851</v>
+        <v>16.07998413793638</v>
       </c>
       <c r="N11" t="n">
-        <v>18.55574390604776</v>
+        <v>18.35576428626677</v>
       </c>
       <c r="O11" t="n">
-        <v>20.39466026729423</v>
+        <v>20.21051327732193</v>
       </c>
     </row>
     <row r="12">
@@ -2484,46 +2484,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5507224568163731</v>
+        <v>0.551067301048387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6149652637085413</v>
+        <v>0.6158574185622866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6488344908747338</v>
+        <v>0.650261532152586</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6598116720329275</v>
+        <v>0.6618291662815899</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6528220654356828</v>
+        <v>0.6555359356224048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6372738039044069</v>
+        <v>0.640784435953188</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6219895489272994</v>
+        <v>0.6263515308017221</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6076377655630357</v>
+        <v>0.6127967773530542</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5960601127942843</v>
+        <v>0.601813831961645</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5947424629517717</v>
+        <v>0.6007895489693811</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6030527118156417</v>
+        <v>0.6089187518388508</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6114976472165267</v>
+        <v>0.616359952403701</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6129776152702288</v>
+        <v>0.6157426209027304</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5806420941922028</v>
+        <v>0.5786204003751219</v>
       </c>
     </row>
     <row r="13">
@@ -2533,46 +2533,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5507224568163731</v>
+        <v>0.551067301048387</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6149652637085413</v>
+        <v>0.6158574185622866</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6488344908747338</v>
+        <v>0.650261532152586</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6598116720329275</v>
+        <v>0.6618291662815899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6528220654356828</v>
+        <v>0.6555359356224048</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6372738039044069</v>
+        <v>0.640784435953188</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6219895489272994</v>
+        <v>0.6263515308017221</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6076377655630357</v>
+        <v>0.6127967773530542</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5960601127942843</v>
+        <v>0.601813831961645</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5947424629517717</v>
+        <v>0.6007895489693811</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6030527118156417</v>
+        <v>0.6089187518388508</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6114976472165267</v>
+        <v>0.616359952403701</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6129776152702288</v>
+        <v>0.6157426209027304</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5806420941922028</v>
+        <v>0.5786204003751219</v>
       </c>
     </row>
     <row r="14">
@@ -2743,46 +2743,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-150.1215718261245</v>
+        <v>-150.5154812763527</v>
       </c>
       <c r="C2" t="n">
-        <v>21.29545627919041</v>
+        <v>19.95470403506133</v>
       </c>
       <c r="D2" t="n">
-        <v>146.6516830880087</v>
+        <v>144.4229739949427</v>
       </c>
       <c r="E2" t="n">
-        <v>227.2939578379302</v>
+        <v>224.6222662514232</v>
       </c>
       <c r="F2" t="n">
-        <v>265.7521188154965</v>
+        <v>263.0930281828295</v>
       </c>
       <c r="G2" t="n">
-        <v>275.0436440430263</v>
+        <v>272.6524231575822</v>
       </c>
       <c r="H2" t="n">
-        <v>269.7869283714546</v>
+        <v>267.7486330005852</v>
       </c>
       <c r="I2" t="n">
-        <v>256.2293644565282</v>
+        <v>254.5549244722202</v>
       </c>
       <c r="J2" t="n">
-        <v>238.3189892287971</v>
+        <v>236.9821829838453</v>
       </c>
       <c r="K2" t="n">
-        <v>216.5439269035587</v>
+        <v>215.5139175618728</v>
       </c>
       <c r="L2" t="n">
-        <v>193.0341637627768</v>
+        <v>192.2648909305503</v>
       </c>
       <c r="M2" t="n">
-        <v>171.0840055446697</v>
+        <v>170.5242773602004</v>
       </c>
       <c r="N2" t="n">
-        <v>151.571864370577</v>
+        <v>151.1806561349328</v>
       </c>
       <c r="O2" t="n">
-        <v>132.9103548148704</v>
+        <v>132.6521668559507</v>
       </c>
     </row>
     <row r="3">
@@ -2795,43 +2795,43 @@
         <v>7.827276852851487</v>
       </c>
       <c r="C3" t="n">
-        <v>12.31197763822644</v>
+        <v>12.3353636535514</v>
       </c>
       <c r="D3" t="n">
-        <v>19.17835015569427</v>
+        <v>19.18422710643834</v>
       </c>
       <c r="E3" t="n">
-        <v>28.80492133733075</v>
+        <v>28.71813412768255</v>
       </c>
       <c r="F3" t="n">
-        <v>41.15592430526139</v>
+        <v>40.88059396635344</v>
       </c>
       <c r="G3" t="n">
-        <v>56.44291639084621</v>
+        <v>55.87652241227048</v>
       </c>
       <c r="H3" t="n">
-        <v>75.09347061814769</v>
+        <v>74.13116151596822</v>
       </c>
       <c r="I3" t="n">
-        <v>97.31362232030797</v>
+        <v>95.86292704318045</v>
       </c>
       <c r="J3" t="n">
-        <v>122.9415307122798</v>
+        <v>120.932703435108</v>
       </c>
       <c r="K3" t="n">
-        <v>150.8321163673372</v>
+        <v>148.2420878052813</v>
       </c>
       <c r="L3" t="n">
-        <v>179.469362258245</v>
+        <v>176.3555478076644</v>
       </c>
       <c r="M3" t="n">
-        <v>205.3221243241435</v>
+        <v>201.8341337623203</v>
       </c>
       <c r="N3" t="n">
-        <v>217.5773052797707</v>
+        <v>214.0780891320596</v>
       </c>
       <c r="O3" t="n">
-        <v>179.5259347250692</v>
+        <v>176.9277060232634</v>
       </c>
     </row>
     <row r="4">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2300622753307803</v>
+        <v>0.2306235070507656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2260508113551372</v>
+        <v>0.2265568152207459</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2217978222295737</v>
+        <v>0.2221959639080178</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2162754601071829</v>
+        <v>0.216567200750872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2150614040619823</v>
+        <v>0.2152679640281759</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2170444323832418</v>
+        <v>0.217174069407447</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2186354173857035</v>
+        <v>0.2186978230728385</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2192897789836307</v>
+        <v>0.2192870280962001</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2175221025663511</v>
+        <v>0.2174538658143033</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2144383982338989</v>
+        <v>0.21432734603525</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2076791864544769</v>
+        <v>0.2075397727267002</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1865642146357604</v>
+        <v>0.1864417946680299</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1201076143981047</v>
+        <v>0.120115976622538</v>
       </c>
       <c r="O4" t="n">
-        <v>2.993292216049037e-10</v>
+        <v>2.956303011089983e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2890,46 +2890,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9582774954943348</v>
+        <v>0.9606160970268305</v>
       </c>
       <c r="C5" t="n">
-        <v>1.488542899825139</v>
+        <v>1.48831517496518</v>
       </c>
       <c r="D5" t="n">
-        <v>2.211784412135167</v>
+        <v>2.202900774568549</v>
       </c>
       <c r="E5" t="n">
-        <v>3.11122692661577</v>
+        <v>3.086719975613052</v>
       </c>
       <c r="F5" t="n">
-        <v>4.209273290321399</v>
+        <v>4.162234067772089</v>
       </c>
       <c r="G5" t="n">
-        <v>5.541304257629271</v>
+        <v>5.464822284304505</v>
       </c>
       <c r="H5" t="n">
-        <v>7.113014812347703</v>
+        <v>7.001498928299148</v>
       </c>
       <c r="I5" t="n">
-        <v>8.901036868115428</v>
+        <v>8.75073675702717</v>
       </c>
       <c r="J5" t="n">
-        <v>10.79650552150732</v>
+        <v>10.60754614144519</v>
       </c>
       <c r="K5" t="n">
-        <v>12.68774552063002</v>
+        <v>12.46667278745516</v>
       </c>
       <c r="L5" t="n">
-        <v>14.27450270461968</v>
+        <v>14.03427564497629</v>
       </c>
       <c r="M5" t="n">
-        <v>14.598590725241</v>
+        <v>14.3702878212879</v>
       </c>
       <c r="N5" t="n">
-        <v>10.36614193189572</v>
+        <v>10.22832918451081</v>
       </c>
       <c r="O5" t="n">
-        <v>2.623261801973375e-08</v>
+        <v>2.561843740383609e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2942,43 +2942,43 @@
         <v>4.17964548697053</v>
       </c>
       <c r="C6" t="n">
-        <v>6.617421586136707</v>
+        <v>6.621189925113684</v>
       </c>
       <c r="D6" t="n">
-        <v>10.03649194687828</v>
+        <v>10.03741451284306</v>
       </c>
       <c r="E6" t="n">
-        <v>14.50303455506487</v>
+        <v>14.4899117195842</v>
       </c>
       <c r="F6" t="n">
-        <v>19.77066744455105</v>
+        <v>19.7308948557377</v>
       </c>
       <c r="G6" t="n">
-        <v>25.84680436101423</v>
+        <v>25.76871917590178</v>
       </c>
       <c r="H6" t="n">
-        <v>33.01847044175686</v>
+        <v>32.89095923275315</v>
       </c>
       <c r="I6" t="n">
-        <v>41.3080636347249</v>
+        <v>41.1223524889576</v>
       </c>
       <c r="J6" t="n">
-        <v>50.67424007557558</v>
+        <v>50.42440569102716</v>
       </c>
       <c r="K6" t="n">
-        <v>60.62699484302815</v>
+        <v>60.31278058326137</v>
       </c>
       <c r="L6" t="n">
-        <v>70.71370379834916</v>
+        <v>70.3433791464718</v>
       </c>
       <c r="M6" t="n">
-        <v>80.86329854862295</v>
+        <v>80.44871523107504</v>
       </c>
       <c r="N6" t="n">
-        <v>89.64884313082709</v>
+        <v>89.21384912477447</v>
       </c>
       <c r="O6" t="n">
-        <v>91.5584838342705</v>
+        <v>91.15892337913296</v>
       </c>
     </row>
     <row r="7">
@@ -2988,46 +2988,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.165296088272347</v>
+        <v>4.16530001347771</v>
       </c>
       <c r="C7" t="n">
-        <v>6.584992510761499</v>
+        <v>6.56928008771238</v>
       </c>
       <c r="D7" t="n">
-        <v>9.972074522200858</v>
+        <v>9.914224974313582</v>
       </c>
       <c r="E7" t="n">
-        <v>14.38548287019661</v>
+        <v>14.25294303528381</v>
       </c>
       <c r="F7" t="n">
-        <v>19.57242541347984</v>
+        <v>19.33512999280889</v>
       </c>
       <c r="G7" t="n">
-        <v>25.5307367103747</v>
+        <v>25.16332773620308</v>
       </c>
       <c r="H7" t="n">
-        <v>32.53368048690551</v>
+        <v>32.01448843853952</v>
       </c>
       <c r="I7" t="n">
-        <v>40.59029522201244</v>
+        <v>39.90540084837242</v>
       </c>
       <c r="J7" t="n">
-        <v>49.63406198326003</v>
+        <v>48.7806740143383</v>
       </c>
       <c r="K7" t="n">
-        <v>59.16732089553684</v>
+        <v>58.16650566561298</v>
       </c>
       <c r="L7" t="n">
-        <v>68.73342942215655</v>
+        <v>67.62210182940402</v>
       </c>
       <c r="M7" t="n">
-        <v>78.24968337975554</v>
+        <v>77.07653665786152</v>
       </c>
       <c r="N7" t="n">
-        <v>86.30711702870441</v>
+        <v>85.15377780803574</v>
       </c>
       <c r="O7" t="n">
-        <v>87.63801235002444</v>
+        <v>86.65700812039094</v>
       </c>
     </row>
     <row r="8">
@@ -3037,46 +3037,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03717182984311859</v>
+        <v>0.03548514616244819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04950948786017725</v>
+        <v>0.047194526685301</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0645063501861525</v>
+        <v>0.06084347233922689</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08194330134744261</v>
+        <v>0.07611205493770988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1012083900730126</v>
+        <v>0.09239414637923211</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1212967275969527</v>
+        <v>0.108793951126679</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1409817750903844</v>
+        <v>0.1242943373597296</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1584397895583054</v>
+        <v>0.1374236072481369</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1712367580443658</v>
+        <v>0.1462793167289185</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1761621035699231</v>
+        <v>0.1484205665338993</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1692556810824658</v>
+        <v>0.1408303916173957</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1465769572578138</v>
+        <v>0.1206073569536803</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1036642973453266</v>
+        <v>0.08450111537668946</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002320333742374327</v>
+        <v>0.002307784685595066</v>
       </c>
     </row>
     <row r="9">
@@ -3086,46 +3086,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.219351478263561e-05</v>
+        <v>2.826830942037938e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>9.132858740618702e-05</v>
+        <v>7.991401392721437e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002369083634866211</v>
+        <v>0.0002011558057226335</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005529039830963636</v>
+        <v>0.0004492504803886808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001139113432847964</v>
+        <v>0.0008808270815907518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002091880704813581</v>
+        <v>0.001537937736908408</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003479692269090113</v>
+        <v>0.002435947139185215</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0052059597777028</v>
+        <v>0.003479331162397721</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00690225815828449</v>
+        <v>0.004418606586914862</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007831950620519142</v>
+        <v>0.004822161182253181</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00720306391218269</v>
+        <v>0.00428218751081351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004885695825339242</v>
+        <v>0.002815507961585071</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001832340943476453</v>
+        <v>0.001028837834489859</v>
       </c>
       <c r="O9" t="n">
-        <v>4.023801789123919e-08</v>
+        <v>3.945864910686846e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3138,43 +3138,43 @@
         <v>0.003425459223283617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00488675934680474</v>
+        <v>0.007827886523959899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006394716067489438</v>
+        <v>0.01225299429114794</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00806719314092116</v>
+        <v>0.01632304174084961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009969461991668333</v>
+        <v>0.02001348842687635</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01214756631223216</v>
+        <v>0.02343358619571982</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0145770005740052</v>
+        <v>0.02657371105808524</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01724996018297408</v>
+        <v>0.02950882515168909</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02039055410828545</v>
+        <v>0.03251031018881523</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02394712125563564</v>
+        <v>0.03550578726029513</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02790224816828911</v>
+        <v>0.0386247456764845</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03226098266908391</v>
+        <v>0.0418821239789109</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0372552912512793</v>
+        <v>0.04549789655670421</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04281931373071392</v>
+        <v>0.04938534871194277</v>
       </c>
     </row>
     <row r="11">
@@ -3184,46 +3184,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.207018592778013</v>
+        <v>3.204683916450879</v>
       </c>
       <c r="C11" t="n">
-        <v>5.09644961093636</v>
+        <v>5.080964912747201</v>
       </c>
       <c r="D11" t="n">
-        <v>7.760290110065691</v>
+        <v>7.711324199745033</v>
       </c>
       <c r="E11" t="n">
-        <v>11.27425594358084</v>
+        <v>11.16622305967076</v>
       </c>
       <c r="F11" t="n">
-        <v>15.36315212315844</v>
+        <v>15.1728959250368</v>
       </c>
       <c r="G11" t="n">
-        <v>19.98943245274543</v>
+        <v>19.69850545189858</v>
       </c>
       <c r="H11" t="n">
-        <v>25.42066567455781</v>
+        <v>25.01298951024037</v>
       </c>
       <c r="I11" t="n">
-        <v>31.68925835389701</v>
+        <v>31.15466409134525</v>
       </c>
       <c r="J11" t="n">
-        <v>38.83755646175271</v>
+        <v>38.1731278728931</v>
       </c>
       <c r="K11" t="n">
-        <v>46.47957537490682</v>
+        <v>45.69983287815782</v>
       </c>
       <c r="L11" t="n">
-        <v>54.45892671753686</v>
+        <v>53.58782618442773</v>
       </c>
       <c r="M11" t="n">
-        <v>63.65109265451453</v>
+        <v>62.70624883657362</v>
       </c>
       <c r="N11" t="n">
-        <v>75.9409750968087</v>
+        <v>74.92544862352493</v>
       </c>
       <c r="O11" t="n">
-        <v>87.63801232379183</v>
+        <v>86.65700809477251</v>
       </c>
     </row>
     <row r="12">
@@ -3233,46 +3233,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6057884902801</v>
+        <v>0.6068497113703876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7960113857344838</v>
+        <v>0.7984045047536082</v>
       </c>
       <c r="D12" t="n">
-        <v>1.013922252492606</v>
+        <v>1.017985779379088</v>
       </c>
       <c r="E12" t="n">
-        <v>1.24340835722319</v>
+        <v>1.250173924798125</v>
       </c>
       <c r="F12" t="n">
-        <v>1.452423190657886</v>
+        <v>1.463716283723136</v>
       </c>
       <c r="G12" t="n">
-        <v>1.642445208970082</v>
+        <v>1.660782459956639</v>
       </c>
       <c r="H12" t="n">
-        <v>1.832573683750548</v>
+        <v>1.860959039598535</v>
       </c>
       <c r="I12" t="n">
-        <v>2.024373783781192</v>
+        <v>2.06559984813796</v>
       </c>
       <c r="J12" t="n">
-        <v>2.221694621244145</v>
+        <v>2.277315645993249</v>
       </c>
       <c r="K12" t="n">
-        <v>2.417436514966951</v>
+        <v>2.485889304721789</v>
       </c>
       <c r="L12" t="n">
-        <v>2.618032709744745</v>
+        <v>2.693433370571553</v>
       </c>
       <c r="M12" t="n">
-        <v>2.848231821834049</v>
+        <v>2.919856159179447</v>
       </c>
       <c r="N12" t="n">
-        <v>3.087301453286404</v>
+        <v>3.138005852026379</v>
       </c>
       <c r="O12" t="n">
-        <v>3.282323268558134</v>
+        <v>3.268040343044737</v>
       </c>
     </row>
     <row r="13">
@@ -3282,46 +3282,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6057884902801</v>
+        <v>0.6068497113703876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7960113857344838</v>
+        <v>0.7984045047536082</v>
       </c>
       <c r="D13" t="n">
-        <v>1.013922252492606</v>
+        <v>1.017985779379088</v>
       </c>
       <c r="E13" t="n">
-        <v>1.24340835722319</v>
+        <v>1.250173924798125</v>
       </c>
       <c r="F13" t="n">
-        <v>1.452423190657886</v>
+        <v>1.463716283723136</v>
       </c>
       <c r="G13" t="n">
-        <v>1.642445208970082</v>
+        <v>1.660782459956639</v>
       </c>
       <c r="H13" t="n">
-        <v>1.832573683750548</v>
+        <v>1.860959039598535</v>
       </c>
       <c r="I13" t="n">
-        <v>2.024373783781192</v>
+        <v>2.06559984813796</v>
       </c>
       <c r="J13" t="n">
-        <v>2.221694621244145</v>
+        <v>2.277315645993249</v>
       </c>
       <c r="K13" t="n">
-        <v>2.417436514966951</v>
+        <v>2.485889304721789</v>
       </c>
       <c r="L13" t="n">
-        <v>2.618032709744745</v>
+        <v>2.693433370571553</v>
       </c>
       <c r="M13" t="n">
-        <v>2.848231821834049</v>
+        <v>2.919856159179447</v>
       </c>
       <c r="N13" t="n">
-        <v>3.087301453286404</v>
+        <v>3.138005852026379</v>
       </c>
       <c r="O13" t="n">
-        <v>3.282323268558134</v>
+        <v>3.268040343044737</v>
       </c>
     </row>
     <row r="14">
@@ -3495,43 +3495,43 @@
         <v>825.23</v>
       </c>
       <c r="C2" t="n">
-        <v>833.1757068116181</v>
+        <v>833.3681975301668</v>
       </c>
       <c r="D2" t="n">
-        <v>852.2114293287432</v>
+        <v>852.7534655007752</v>
       </c>
       <c r="E2" t="n">
-        <v>878.6725404795563</v>
+        <v>879.7509056277615</v>
       </c>
       <c r="F2" t="n">
-        <v>909.8276279605002</v>
+        <v>911.6983642145448</v>
       </c>
       <c r="G2" t="n">
-        <v>942.5306454558996</v>
+        <v>945.5340198921716</v>
       </c>
       <c r="H2" t="n">
-        <v>975.3534770206577</v>
+        <v>979.91663650034</v>
       </c>
       <c r="I2" t="n">
-        <v>1008.268228721937</v>
+        <v>1014.883804828238</v>
       </c>
       <c r="J2" t="n">
-        <v>1041.614346202618</v>
+        <v>1050.786205099936</v>
       </c>
       <c r="K2" t="n">
-        <v>1076.079916136787</v>
+        <v>1088.223759345061</v>
       </c>
       <c r="L2" t="n">
-        <v>1112.731017770001</v>
+        <v>1128.026751660705</v>
       </c>
       <c r="M2" t="n">
-        <v>1152.847549801868</v>
+        <v>1171.067263257407</v>
       </c>
       <c r="N2" t="n">
-        <v>1197.641202007937</v>
+        <v>1217.956171475455</v>
       </c>
       <c r="O2" t="n">
-        <v>1246.462804378493</v>
+        <v>1267.23685406446</v>
       </c>
     </row>
     <row r="3">
@@ -3541,46 +3541,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>825.23</v>
+        <v>9903.01790909091</v>
       </c>
       <c r="C3" t="n">
-        <v>833.1757068116181</v>
+        <v>10855.64191571199</v>
       </c>
       <c r="D3" t="n">
-        <v>852.2114293287432</v>
+        <v>11358.07517581502</v>
       </c>
       <c r="E3" t="n">
-        <v>878.6725404795563</v>
+        <v>11526.48191422059</v>
       </c>
       <c r="F3" t="n">
-        <v>909.8276279605002</v>
+        <v>11451.26041006065</v>
       </c>
       <c r="G3" t="n">
-        <v>942.5306454558996</v>
+        <v>11201.30112443796</v>
       </c>
       <c r="H3" t="n">
-        <v>975.3534770206577</v>
+        <v>10830.55954778939</v>
       </c>
       <c r="I3" t="n">
-        <v>1008.268228721937</v>
+        <v>10381.29422715839</v>
       </c>
       <c r="J3" t="n">
-        <v>1041.614346202618</v>
+        <v>9885.84003684564</v>
       </c>
       <c r="K3" t="n">
-        <v>1076.079916136787</v>
+        <v>9368.777352459794</v>
       </c>
       <c r="L3" t="n">
-        <v>1112.731017770001</v>
+        <v>8848.680997004147</v>
       </c>
       <c r="M3" t="n">
-        <v>1152.847549801868</v>
+        <v>8339.329848182342</v>
       </c>
       <c r="N3" t="n">
-        <v>1197.641202007937</v>
+        <v>7850.504426439144</v>
       </c>
       <c r="O3" t="n">
-        <v>1246.462804378493</v>
+        <v>7387.041873574169</v>
       </c>
     </row>
     <row r="4">
@@ -3691,43 +3691,43 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.237186374031827</v>
+        <v>1.669951985575993</v>
       </c>
       <c r="D6" t="n">
-        <v>1.463474577552665</v>
+        <v>2.187914215687494</v>
       </c>
       <c r="E6" t="n">
-        <v>1.683092368189002</v>
+        <v>2.584816487791114</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9063397977064</v>
+        <v>2.901594336862202</v>
       </c>
       <c r="G6" t="n">
-        <v>2.133766436616219</v>
+        <v>3.165111995863384</v>
       </c>
       <c r="H6" t="n">
-        <v>2.363030975571516</v>
+        <v>3.38631139401664</v>
       </c>
       <c r="I6" t="n">
-        <v>2.592553216108548</v>
+        <v>3.5770423722863</v>
       </c>
       <c r="J6" t="n">
-        <v>2.821894111473982</v>
+        <v>3.744335440804132</v>
       </c>
       <c r="K6" t="n">
-        <v>3.051908467037205</v>
+        <v>3.890167057262859</v>
       </c>
       <c r="L6" t="n">
-        <v>3.27734360948031</v>
+        <v>4.02168139544506</v>
       </c>
       <c r="M6" t="n">
-        <v>3.503874095577741</v>
+        <v>4.144921435839178</v>
       </c>
       <c r="N6" t="n">
-        <v>3.736863996194084</v>
+        <v>4.264729879140004</v>
       </c>
       <c r="O6" t="n">
-        <v>3.978517406638679</v>
+        <v>4.383043982922405</v>
       </c>
     </row>
     <row r="7">
@@ -3743,40 +3743,40 @@
         <v>0.09456200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1516932187015913</v>
+        <v>0.1733314992787997</v>
       </c>
       <c r="E7" t="n">
-        <v>0.217282286644145</v>
+        <v>0.2740606350992344</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2905727907213879</v>
+        <v>0.3895984277338284</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3713611410706384</v>
+        <v>0.5151982231902471</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4594814058479175</v>
+        <v>0.6476939118239039</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5546588843340974</v>
+        <v>0.7846247859335407</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6565536009228199</v>
+        <v>0.9242456652511787</v>
       </c>
       <c r="K7" t="n">
-        <v>0.764820626450378</v>
+        <v>1.065250154028826</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8791750184797192</v>
+        <v>1.206495999190528</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9990834480297487</v>
+        <v>1.347255269003254</v>
       </c>
       <c r="N7" t="n">
-        <v>1.124322980407148</v>
+        <v>1.487138577345051</v>
       </c>
       <c r="O7" t="n">
-        <v>1.254950031196495</v>
+        <v>1.626018142434798</v>
       </c>
     </row>
     <row r="8">
@@ -3786,46 +3786,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.574408610980383</v>
+        <v>4.477605569014966</v>
       </c>
       <c r="C8" t="n">
-        <v>2.689155352076089</v>
+        <v>4.769759253730737</v>
       </c>
       <c r="D8" t="n">
-        <v>2.911296430501307</v>
+        <v>4.961641907782264</v>
       </c>
       <c r="E8" t="n">
-        <v>3.200383044762318</v>
+        <v>5.130852773713768</v>
       </c>
       <c r="F8" t="n">
-        <v>3.526378262106223</v>
+        <v>5.308774321812815</v>
       </c>
       <c r="G8" t="n">
-        <v>3.858063584392756</v>
+        <v>5.491273828974729</v>
       </c>
       <c r="H8" t="n">
-        <v>4.182426645462892</v>
+        <v>5.643502409584019</v>
       </c>
       <c r="I8" t="n">
-        <v>4.499671960379684</v>
+        <v>5.787192056940178</v>
       </c>
       <c r="J8" t="n">
-        <v>4.813004645466642</v>
+        <v>5.91768086750276</v>
       </c>
       <c r="K8" t="n">
-        <v>5.128093063546324</v>
+        <v>6.021739707043278</v>
       </c>
       <c r="L8" t="n">
-        <v>5.416961335395836</v>
+        <v>6.127578092532005</v>
       </c>
       <c r="M8" t="n">
-        <v>5.724366674936468</v>
+        <v>6.240954324132408</v>
       </c>
       <c r="N8" t="n">
-        <v>6.057479342201633</v>
+        <v>6.36537284803213</v>
       </c>
       <c r="O8" t="n">
-        <v>6.409208952896513</v>
+        <v>6.49423784168135</v>
       </c>
     </row>
     <row r="9">
@@ -3835,46 +3835,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.69733068116181</v>
+        <v>10.71657975301667</v>
       </c>
       <c r="C9" t="n">
-        <v>11.90168073345192</v>
+        <v>11.93894516742285</v>
       </c>
       <c r="D9" t="n">
-        <v>12.87264826702624</v>
+        <v>12.93278559870794</v>
       </c>
       <c r="E9" t="n">
-        <v>13.65957923384906</v>
+        <v>13.75175672621146</v>
       </c>
       <c r="F9" t="n">
-        <v>14.18823328506595</v>
+        <v>14.32394593833723</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5926509019466</v>
+        <v>14.78466989952289</v>
       </c>
       <c r="H9" t="n">
-        <v>14.99571689437586</v>
+        <v>15.25571647079386</v>
       </c>
       <c r="I9" t="n">
-        <v>15.43383049273127</v>
+        <v>15.7688456851087</v>
       </c>
       <c r="J9" t="n">
-        <v>15.94592914784837</v>
+        <v>16.35318988571168</v>
       </c>
       <c r="K9" t="n">
-        <v>16.57806915696279</v>
+        <v>17.03898434370514</v>
       </c>
       <c r="L9" t="n">
-        <v>17.36442541642673</v>
+        <v>17.84037217959866</v>
       </c>
       <c r="M9" t="n">
-        <v>18.31353581822938</v>
+        <v>18.74169798089374</v>
       </c>
       <c r="N9" t="n">
-        <v>19.25385466115081</v>
+        <v>19.54354231660587</v>
       </c>
       <c r="O9" t="n">
-        <v>19.75268080713963</v>
+        <v>19.67504100439017</v>
       </c>
     </row>
     <row r="10">
@@ -3889,43 +3889,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.90168073345192</v>
+        <v>158.7997451674229</v>
       </c>
       <c r="D10" t="n">
-        <v>12.87264826702624</v>
+        <v>130.421425598708</v>
       </c>
       <c r="E10" t="n">
-        <v>13.65957923384906</v>
+        <v>107.7426687262115</v>
       </c>
       <c r="F10" t="n">
-        <v>14.18823328506595</v>
+        <v>89.51667553833725</v>
       </c>
       <c r="G10" t="n">
-        <v>14.5926509019466</v>
+        <v>74.93885357952291</v>
       </c>
       <c r="H10" t="n">
-        <v>14.99571689437586</v>
+        <v>63.37906341479387</v>
       </c>
       <c r="I10" t="n">
-        <v>15.43383049273127</v>
+        <v>54.26752324030872</v>
       </c>
       <c r="J10" t="n">
-        <v>15.94592914784837</v>
+        <v>47.1521319298717</v>
       </c>
       <c r="K10" t="n">
-        <v>16.57806915696279</v>
+        <v>41.67813797903315</v>
       </c>
       <c r="L10" t="n">
-        <v>17.36442541642673</v>
+        <v>37.55169508786107</v>
       </c>
       <c r="M10" t="n">
-        <v>18.31353581822938</v>
+        <v>34.51075630750366</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25385466115081</v>
+        <v>32.15878897789381</v>
       </c>
       <c r="O10" t="n">
-        <v>19.75268080713963</v>
+        <v>29.76723833342052</v>
       </c>
     </row>
     <row r="11">
@@ -4003,46 +4003,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.47680061535</v>
+        <v>263.4289570731352</v>
       </c>
       <c r="C2" t="n">
-        <v>250.7356307171452</v>
+        <v>250.5892960236054</v>
       </c>
       <c r="D2" t="n">
-        <v>229.618245290814</v>
+        <v>229.3736420365804</v>
       </c>
       <c r="E2" t="n">
-        <v>205.5775806809213</v>
+        <v>205.2759967734694</v>
       </c>
       <c r="F2" t="n">
-        <v>179.7343663128527</v>
+        <v>179.4205147893419</v>
       </c>
       <c r="G2" t="n">
-        <v>154.9638864073896</v>
+        <v>154.6680493600617</v>
       </c>
       <c r="H2" t="n">
-        <v>133.0558735409288</v>
+        <v>132.7935871134857</v>
       </c>
       <c r="I2" t="n">
-        <v>113.8918791869956</v>
+        <v>113.6693336896407</v>
       </c>
       <c r="J2" t="n">
-        <v>97.22666816002705</v>
+        <v>97.04404771198692</v>
       </c>
       <c r="K2" t="n">
-        <v>84.03620826637747</v>
+        <v>83.88905848017089</v>
       </c>
       <c r="L2" t="n">
-        <v>73.60964890591455</v>
+        <v>73.49290173431673</v>
       </c>
       <c r="M2" t="n">
-        <v>64.48431376623662</v>
+        <v>64.39461986390891</v>
       </c>
       <c r="N2" t="n">
-        <v>56.62506070955208</v>
+        <v>56.5592464624652</v>
       </c>
       <c r="O2" t="n">
-        <v>49.49208718569121</v>
+        <v>49.44662868719436</v>
       </c>
     </row>
     <row r="3">
@@ -4055,43 +4055,43 @@
         <v>30.92935159935833</v>
       </c>
       <c r="C3" t="n">
-        <v>47.9374796560024</v>
+        <v>48.00561927831703</v>
       </c>
       <c r="D3" t="n">
-        <v>64.59444851606197</v>
+        <v>64.63008250333451</v>
       </c>
       <c r="E3" t="n">
-        <v>80.74651713741862</v>
+        <v>80.60678863790467</v>
       </c>
       <c r="F3" t="n">
-        <v>96.16600217252872</v>
+        <v>95.73355514198941</v>
       </c>
       <c r="G3" t="n">
-        <v>111.0293134199022</v>
+        <v>110.2323449286804</v>
       </c>
       <c r="H3" t="n">
-        <v>125.8959303088485</v>
+        <v>124.6964287853483</v>
       </c>
       <c r="I3" t="n">
-        <v>140.7732552941597</v>
+        <v>139.1692539904778</v>
       </c>
       <c r="J3" t="n">
-        <v>156.0852783162381</v>
+        <v>154.0942037658232</v>
       </c>
       <c r="K3" t="n">
-        <v>172.117674127394</v>
+        <v>169.7718565451875</v>
       </c>
       <c r="L3" t="n">
-        <v>188.1051722648969</v>
+        <v>185.4832914253923</v>
       </c>
       <c r="M3" t="n">
-        <v>200.0557379157655</v>
+        <v>197.3034552241718</v>
       </c>
       <c r="N3" t="n">
-        <v>198.4115357900846</v>
+        <v>195.8158770946373</v>
       </c>
       <c r="O3" t="n">
-        <v>153.5514705297152</v>
+        <v>151.7407465785004</v>
       </c>
     </row>
     <row r="4">
@@ -4101,46 +4101,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2272855055607876</v>
+        <v>0.2277022125986301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2240998520381791</v>
+        <v>0.2245108356867079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2216189491816544</v>
+        <v>0.2219417156473032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2187998918713986</v>
+        <v>0.2190279207694122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2179220503933334</v>
+        <v>0.2180706324289066</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2189293448421121</v>
+        <v>0.219006492487289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2200104411561963</v>
+        <v>0.2200266018892347</v>
       </c>
       <c r="I4" t="n">
-        <v>0.221842357212233</v>
+        <v>0.2218017502334333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2248342680277987</v>
+        <v>0.2247384594567812</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2245987894742456</v>
+        <v>0.2244718432179588</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2157999342635396</v>
+        <v>0.2156602745409857</v>
       </c>
       <c r="M4" t="n">
-        <v>0.191334147548551</v>
+        <v>0.1912249462058761</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1192617338283319</v>
+        <v>0.11927855007335</v>
       </c>
       <c r="O4" t="n">
-        <v>2.02557291517962e-09</v>
+        <v>2.012924876517347e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4150,46 +4150,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.715308158703369</v>
+        <v>3.722122120934832</v>
       </c>
       <c r="C5" t="n">
-        <v>4.787968288728157</v>
+        <v>4.789155805733643</v>
       </c>
       <c r="D5" t="n">
-        <v>5.822382558971837</v>
+        <v>5.807167228710769</v>
       </c>
       <c r="E5" t="n">
-        <v>6.801143253354567</v>
+        <v>6.76277058182544</v>
       </c>
       <c r="F5" t="n">
-        <v>7.749830179173163</v>
+        <v>7.685211825654422</v>
       </c>
       <c r="G5" t="n">
-        <v>8.7182402500223</v>
+        <v>8.626078670705084</v>
       </c>
       <c r="H5" t="n">
-        <v>9.687605869913208</v>
+        <v>9.569029771556181</v>
       </c>
       <c r="I5" t="n">
-        <v>10.70006792524714</v>
+        <v>10.55688853745427</v>
       </c>
       <c r="J5" t="n">
-        <v>11.76941027615137</v>
+        <v>11.60425299476687</v>
       </c>
       <c r="K5" t="n">
-        <v>12.8091450136517</v>
+        <v>12.62875053123353</v>
       </c>
       <c r="L5" t="n">
-        <v>13.44675198756995</v>
+        <v>13.26294305053523</v>
       </c>
       <c r="M5" t="n">
-        <v>12.8656413160561</v>
+        <v>12.70204161007329</v>
       </c>
       <c r="N5" t="n">
-        <v>8.436964573258315</v>
+        <v>8.346397200632895</v>
       </c>
       <c r="O5" t="n">
-        <v>1.395023354335146e-07</v>
+        <v>1.373652817893086e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4202,43 +4202,43 @@
         <v>16.39053328158728</v>
       </c>
       <c r="C6" t="n">
-        <v>21.44877509813216</v>
+        <v>21.45791691114866</v>
       </c>
       <c r="D6" t="n">
-        <v>26.41412179419961</v>
+        <v>26.41849241190842</v>
       </c>
       <c r="E6" t="n">
-        <v>31.30718710836661</v>
+        <v>31.29092451834842</v>
       </c>
       <c r="F6" t="n">
-        <v>35.88857531769325</v>
+        <v>35.84008292905069</v>
       </c>
       <c r="G6" t="n">
-        <v>40.28021952184873</v>
+        <v>40.19326128228212</v>
       </c>
       <c r="H6" t="n">
-        <v>44.65136719220926</v>
+        <v>44.52331152428975</v>
       </c>
       <c r="I6" t="n">
-        <v>49.04407509695019</v>
+        <v>48.87575649959534</v>
       </c>
       <c r="J6" t="n">
-        <v>53.41122855711568</v>
+        <v>53.20591002039668</v>
       </c>
       <c r="K6" t="n">
-        <v>58.41406855730739</v>
+        <v>58.1740801310312</v>
       </c>
       <c r="L6" t="n">
-        <v>64.08969665170473</v>
+        <v>63.82038693751828</v>
       </c>
       <c r="M6" t="n">
-        <v>69.46632116240065</v>
+        <v>69.17822323513417</v>
       </c>
       <c r="N6" t="n">
-        <v>73.43834741338181</v>
+        <v>73.14879738100569</v>
       </c>
       <c r="O6" t="n">
-        <v>71.85383523475356</v>
+        <v>71.59858257579317</v>
       </c>
     </row>
     <row r="7">
@@ -4248,46 +4248,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.34643682858918</v>
+        <v>16.34644687223924</v>
       </c>
       <c r="C7" t="n">
-        <v>21.36533444882618</v>
+        <v>21.33151298058788</v>
       </c>
       <c r="D7" t="n">
-        <v>26.27204298401129</v>
+        <v>26.16528042857513</v>
       </c>
       <c r="E7" t="n">
-        <v>31.08385107133414</v>
+        <v>30.87629448368428</v>
       </c>
       <c r="F7" t="n">
-        <v>35.56239566021559</v>
+        <v>35.24184682758641</v>
       </c>
       <c r="G7" t="n">
-        <v>39.8221638872109</v>
+        <v>39.3873194019841</v>
       </c>
       <c r="H7" t="n">
-        <v>44.03248236312339</v>
+        <v>43.49033112084057</v>
       </c>
       <c r="I7" t="n">
-        <v>48.23275437436213</v>
+        <v>47.59605605611211</v>
       </c>
       <c r="J7" t="n">
-        <v>52.34704824753936</v>
+        <v>51.6344777961711</v>
       </c>
       <c r="K7" t="n">
-        <v>57.03122908024624</v>
+        <v>56.25984243810572</v>
       </c>
       <c r="L7" t="n">
-        <v>62.31119593923734</v>
+        <v>61.49924031565044</v>
       </c>
       <c r="M7" t="n">
-        <v>67.24174163836304</v>
+        <v>66.42460548216367</v>
       </c>
       <c r="N7" t="n">
-        <v>70.74326611252086</v>
+        <v>69.97399947853411</v>
       </c>
       <c r="O7" t="n">
-        <v>68.8705572572015</v>
+        <v>68.24163355115888</v>
       </c>
     </row>
     <row r="8">
@@ -4297,46 +4297,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06147642903205399</v>
+        <v>0.06052262231808816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0769545996185909</v>
+        <v>0.07539356308482482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09178326189776298</v>
+        <v>0.08867481580205018</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1061280802971769</v>
+        <v>0.1006655274188484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1197571048323709</v>
+        <v>0.1113488115570067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1322271494198415</v>
+        <v>0.120510909967401</v>
       </c>
       <c r="H8" t="n">
-        <v>0.142746238949394</v>
+        <v>0.1276296149315788</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1502325721629206</v>
+        <v>0.1319370032952902</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1528723444735161</v>
+        <v>0.1320575591212735</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1489891496894647</v>
+        <v>0.1267881729370365</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1366820062417117</v>
+        <v>0.1147357257130946</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1137537797979123</v>
+        <v>0.09432212962067069</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07785960612917095</v>
+        <v>0.06389576930639504</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004966944574722842</v>
+        <v>0.004949009981895766</v>
       </c>
     </row>
     <row r="9">
@@ -4346,46 +4346,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002344570751048706</v>
+        <v>0.0002244134250421716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004811657975781015</v>
+        <v>0.0004545262107489729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0008206549863968512</v>
+        <v>0.0007453075604262594</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001247510570595582</v>
+        <v>0.00107537486562177</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001728557029622107</v>
+        <v>0.001407902351128047</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002224471347505877</v>
+        <v>0.001711844369444275</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002674324355801944</v>
+        <v>0.001949170248002362</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002986690610892158</v>
+        <v>0.002069113031629857</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003027727603903639</v>
+        <v>0.002001982420233475</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002746639865160257</v>
+        <v>0.001741010031680888</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002120748629944473</v>
+        <v>0.001293674190991055</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001237140916740781</v>
+        <v>0.0007291686809013005</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004088518713039157</v>
+        <v>0.0002341520733738048</v>
       </c>
       <c r="O9" t="n">
-        <v>1.63356488794585e-07</v>
+        <v>1.611358245340034e-07</v>
       </c>
     </row>
     <row r="10">
@@ -4398,43 +4398,43 @@
         <v>0.002676056670607093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003867795859150651</v>
+        <v>0.00586960071061638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.005347827056394723</v>
+        <v>0.009556437658761232</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007093851188007995</v>
+        <v>0.01321644106603555</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009040512128885597</v>
+        <v>0.01665253398812299</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01131650146650947</v>
+        <v>0.02000907640413577</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01380048458712352</v>
+        <v>0.02315711023962563</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01648178766505962</v>
+        <v>0.02614038987738599</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0198675935873235</v>
+        <v>0.02949729158290314</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02362603515353577</v>
+        <v>0.03287540909260778</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02771709114947405</v>
+        <v>0.03634971611732867</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03200604762015639</v>
+        <v>0.03979414988634019</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03669298866192396</v>
+        <v>0.04339871418340806</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04151869979450568</v>
+        <v>0.04688568883252696</v>
       </c>
     </row>
     <row r="11">
@@ -4444,46 +4444,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.63112866988581</v>
+        <v>12.62432475130441</v>
       </c>
       <c r="C11" t="n">
-        <v>16.57736616009802</v>
+        <v>16.54235717485424</v>
       </c>
       <c r="D11" t="n">
-        <v>20.44966042503945</v>
+        <v>20.35811319986436</v>
       </c>
       <c r="E11" t="n">
-        <v>24.28270781797957</v>
+        <v>24.11352390185884</v>
       </c>
       <c r="F11" t="n">
-        <v>27.81256548104243</v>
+        <v>27.55663500193198</v>
       </c>
       <c r="G11" t="n">
-        <v>31.1039236371886</v>
+        <v>30.76124073127902</v>
       </c>
       <c r="H11" t="n">
-        <v>34.34487649321018</v>
+        <v>33.92130134928438</v>
       </c>
       <c r="I11" t="n">
-        <v>37.53268644911499</v>
+        <v>37.03916751865783</v>
       </c>
       <c r="J11" t="n">
-        <v>40.57763797138798</v>
+        <v>40.03022480140423</v>
       </c>
       <c r="K11" t="n">
-        <v>44.22208406659454</v>
+        <v>43.63109190687219</v>
       </c>
       <c r="L11" t="n">
-        <v>48.8644439516674</v>
+        <v>48.23629726511521</v>
       </c>
       <c r="M11" t="n">
-        <v>54.37610032230695</v>
+        <v>53.72256387209038</v>
       </c>
       <c r="N11" t="n">
-        <v>62.30630153926254</v>
+        <v>61.62760227790121</v>
       </c>
       <c r="O11" t="n">
-        <v>68.87055711769916</v>
+        <v>68.24163341379361</v>
       </c>
     </row>
     <row r="12">
@@ -4493,46 +4493,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.901115446659691</v>
+        <v>0.9020312360864775</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0153284553668</v>
+        <v>1.017479040398489</v>
       </c>
       <c r="D12" t="n">
-        <v>1.088769363001325</v>
+        <v>1.092676535248927</v>
       </c>
       <c r="E12" t="n">
-        <v>1.134958845964695</v>
+        <v>1.141301548625273</v>
       </c>
       <c r="F12" t="n">
-        <v>1.154966219991631</v>
+        <v>1.164423247756326</v>
       </c>
       <c r="G12" t="n">
-        <v>1.161120987312724</v>
+        <v>1.174257358824277</v>
       </c>
       <c r="H12" t="n">
-        <v>1.163510103377422</v>
+        <v>1.180631512406202</v>
       </c>
       <c r="I12" t="n">
-        <v>1.166617967616918</v>
+        <v>1.187645337494355</v>
       </c>
       <c r="J12" t="n">
-        <v>1.173092217132988</v>
+        <v>1.197295986116474</v>
       </c>
       <c r="K12" t="n">
-        <v>1.199928496840418</v>
+        <v>1.226173562700825</v>
       </c>
       <c r="L12" t="n">
-        <v>1.249202849225926</v>
+        <v>1.275575967889565</v>
       </c>
       <c r="M12" t="n">
-        <v>1.305542294504952</v>
+        <v>1.32863414605171</v>
       </c>
       <c r="N12" t="n">
-        <v>1.353960264737231</v>
+        <v>1.369043903743102</v>
       </c>
       <c r="O12" t="n">
-        <v>1.352287575326903</v>
+        <v>1.347508013187724</v>
       </c>
     </row>
     <row r="13">
@@ -4542,46 +4542,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.901115446659691</v>
+        <v>0.9020312360864775</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0153284553668</v>
+        <v>1.017479040398489</v>
       </c>
       <c r="D13" t="n">
-        <v>1.088769363001325</v>
+        <v>1.092676535248927</v>
       </c>
       <c r="E13" t="n">
-        <v>1.134958845964695</v>
+        <v>1.141301548625273</v>
       </c>
       <c r="F13" t="n">
-        <v>1.154966219991631</v>
+        <v>1.164423247756326</v>
       </c>
       <c r="G13" t="n">
-        <v>1.161120987312724</v>
+        <v>1.174257358824277</v>
       </c>
       <c r="H13" t="n">
-        <v>1.163510103377422</v>
+        <v>1.180631512406202</v>
       </c>
       <c r="I13" t="n">
-        <v>1.166617967616918</v>
+        <v>1.187645337494355</v>
       </c>
       <c r="J13" t="n">
-        <v>1.173092217132988</v>
+        <v>1.197295986116474</v>
       </c>
       <c r="K13" t="n">
-        <v>1.199928496840418</v>
+        <v>1.226173562700825</v>
       </c>
       <c r="L13" t="n">
-        <v>1.249202849225926</v>
+        <v>1.275575967889565</v>
       </c>
       <c r="M13" t="n">
-        <v>1.305542294504952</v>
+        <v>1.32863414605171</v>
       </c>
       <c r="N13" t="n">
-        <v>1.353960264737231</v>
+        <v>1.369043903743102</v>
       </c>
       <c r="O13" t="n">
-        <v>1.352287575326903</v>
+        <v>1.347508013187724</v>
       </c>
     </row>
     <row r="14">
@@ -4752,46 +4752,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.33752927386114</v>
+        <v>67.32730762248437</v>
       </c>
       <c r="C2" t="n">
-        <v>59.65112765603814</v>
+        <v>59.61947790307769</v>
       </c>
       <c r="D2" t="n">
-        <v>50.64708086499404</v>
+        <v>50.59685118518736</v>
       </c>
       <c r="E2" t="n">
-        <v>41.94090574984237</v>
+        <v>41.8826484639972</v>
       </c>
       <c r="F2" t="n">
-        <v>34.95484545718936</v>
+        <v>34.89628620060567</v>
       </c>
       <c r="G2" t="n">
-        <v>29.57659236990718</v>
+        <v>29.52194394366171</v>
       </c>
       <c r="H2" t="n">
-        <v>24.94242618514507</v>
+        <v>24.89454115664953</v>
       </c>
       <c r="I2" t="n">
-        <v>20.97774713818983</v>
+        <v>20.93762453463168</v>
       </c>
       <c r="J2" t="n">
-        <v>17.60075147489469</v>
+        <v>17.56826208402158</v>
       </c>
       <c r="K2" t="n">
-        <v>15.08097656316756</v>
+        <v>15.05494745597645</v>
       </c>
       <c r="L2" t="n">
-        <v>13.20917033957194</v>
+        <v>13.18849067343592</v>
       </c>
       <c r="M2" t="n">
-        <v>11.57282045232361</v>
+        <v>11.55692484995703</v>
       </c>
       <c r="N2" t="n">
-        <v>10.16459445136044</v>
+        <v>10.15293904601182</v>
       </c>
       <c r="O2" t="n">
-        <v>8.887698124788672</v>
+        <v>8.879666503441062</v>
       </c>
     </row>
     <row r="3">
@@ -4804,43 +4804,43 @@
         <v>8.331421097670153</v>
       </c>
       <c r="C3" t="n">
-        <v>12.18258154218581</v>
+        <v>12.19982937688008</v>
       </c>
       <c r="D3" t="n">
-        <v>15.34191243791497</v>
+        <v>15.35020001600316</v>
       </c>
       <c r="E3" t="n">
-        <v>17.93853664143705</v>
+        <v>17.90689004141287</v>
       </c>
       <c r="F3" t="n">
-        <v>20.33981000431608</v>
+        <v>20.24637200638348</v>
       </c>
       <c r="G3" t="n">
-        <v>22.74637263546277</v>
+        <v>22.57903421275939</v>
       </c>
       <c r="H3" t="n">
-        <v>25.11242056194202</v>
+        <v>24.86697378299543</v>
       </c>
       <c r="I3" t="n">
-        <v>27.45344813002576</v>
+        <v>27.13251656623547</v>
       </c>
       <c r="J3" t="n">
-        <v>29.85894538645064</v>
+        <v>29.46832458293223</v>
       </c>
       <c r="K3" t="n">
-        <v>32.54337033456834</v>
+        <v>32.08915502853819</v>
       </c>
       <c r="L3" t="n">
-        <v>35.3614603946196</v>
+        <v>34.85797087732377</v>
       </c>
       <c r="M3" t="n">
-        <v>37.47127785968812</v>
+        <v>36.94649207688648</v>
       </c>
       <c r="N3" t="n">
-        <v>37.05235327902182</v>
+        <v>36.56096933603411</v>
       </c>
       <c r="O3" t="n">
-        <v>28.64019973078488</v>
+        <v>28.29946410409821</v>
       </c>
     </row>
     <row r="4">
@@ -4850,46 +4850,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2101301267947481</v>
+        <v>0.2105207591791062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2060008921905524</v>
+        <v>0.2063766056538131</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2050651332194312</v>
+        <v>0.2053509688584661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2093269488765956</v>
+        <v>0.2095226596092302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2137332815224136</v>
+        <v>0.2138511122774051</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2148103822766545</v>
+        <v>0.2148555979778376</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2162250806759098</v>
+        <v>0.2162096846048132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2187721887019158</v>
+        <v>0.2187014087660245</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2240837081082044</v>
+        <v>0.2239614712221202</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2255179279870264</v>
+        <v>0.2253708680807746</v>
       </c>
       <c r="L4" t="n">
-        <v>0.216670693839922</v>
+        <v>0.2165197892488125</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1919431269948963</v>
+        <v>0.1918322818723495</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196475833876818</v>
+        <v>0.1196707205313035</v>
       </c>
       <c r="O4" t="n">
-        <v>1.651869453929156e-08</v>
+        <v>1.642130328086967e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4899,46 +4899,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9277594630033955</v>
+        <v>0.9294842464728216</v>
       </c>
       <c r="C5" t="n">
-        <v>1.109410890939457</v>
+        <v>1.109638253938646</v>
       </c>
       <c r="D5" t="n">
-        <v>1.258914254443407</v>
+        <v>1.255460624460989</v>
       </c>
       <c r="E5" t="n">
-        <v>1.408502903050311</v>
+        <v>1.400262551970142</v>
       </c>
       <c r="F5" t="n">
-        <v>1.565431941122746</v>
+        <v>1.551956080388929</v>
       </c>
       <c r="G5" t="n">
-        <v>1.718125083347553</v>
+        <v>1.699415135472596</v>
       </c>
       <c r="H5" t="n">
-        <v>1.869728850135265</v>
+        <v>1.846193893757303</v>
       </c>
       <c r="I5" t="n">
-        <v>2.028651991710699</v>
+        <v>2.000780103062983</v>
       </c>
       <c r="J5" t="n">
-        <v>2.213219983418964</v>
+        <v>2.18141855806009</v>
       </c>
       <c r="K5" t="n">
-        <v>2.401428879076569</v>
+        <v>2.366917435784599</v>
       </c>
       <c r="L5" t="n">
-        <v>2.514149900963423</v>
+        <v>2.479226916633</v>
       </c>
       <c r="M5" t="n">
-        <v>2.398692656635209</v>
+        <v>2.367852411149832</v>
       </c>
       <c r="N5" t="n">
-        <v>1.572084298742143</v>
+        <v>1.55514423474659</v>
       </c>
       <c r="O5" t="n">
-        <v>2.112513234142905e-07</v>
+        <v>2.080766514756507e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4951,43 +4951,43 @@
         <v>4.422632286096618</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39973027322754</v>
+        <v>5.402022583982865</v>
       </c>
       <c r="D6" t="n">
-        <v>6.161802717292368</v>
+        <v>6.16280109548074</v>
       </c>
       <c r="E6" t="n">
-        <v>6.76166547196293</v>
+        <v>6.758084645075376</v>
       </c>
       <c r="F6" t="n">
-        <v>7.370222244713072</v>
+        <v>7.360048566198287</v>
       </c>
       <c r="G6" t="n">
-        <v>8.061338039606717</v>
+        <v>8.043500564205342</v>
       </c>
       <c r="H6" t="n">
-        <v>8.730744232735942</v>
+        <v>8.705056092298767</v>
       </c>
       <c r="I6" t="n">
-        <v>9.380878156120616</v>
+        <v>9.347843834416047</v>
       </c>
       <c r="J6" t="n">
-        <v>10.01371034070048</v>
+        <v>9.974228627867996</v>
       </c>
       <c r="K6" t="n">
-        <v>10.82214986880752</v>
+        <v>10.77661256969539</v>
       </c>
       <c r="L6" t="n">
-        <v>11.82305699421235</v>
+        <v>11.77230095513405</v>
       </c>
       <c r="M6" t="n">
-        <v>12.76847523651773</v>
+        <v>12.71456336263236</v>
       </c>
       <c r="N6" t="n">
-        <v>13.46573628276432</v>
+        <v>13.41191142110149</v>
       </c>
       <c r="O6" t="n">
-        <v>13.15016414378419</v>
+        <v>13.10303269246658</v>
       </c>
     </row>
     <row r="7">
@@ -4997,46 +4997,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.415166340758061</v>
+        <v>4.415166704211046</v>
       </c>
       <c r="C7" t="n">
-        <v>5.38546643726787</v>
+        <v>5.376763758776084</v>
       </c>
       <c r="D7" t="n">
-        <v>6.139094611936286</v>
+        <v>6.113731196107915</v>
       </c>
       <c r="E7" t="n">
-        <v>6.728722272069543</v>
+        <v>6.683107949191266</v>
       </c>
       <c r="F7" t="n">
-        <v>7.324231069547231</v>
+        <v>7.257180305780921</v>
       </c>
       <c r="G7" t="n">
-        <v>7.998333530894135</v>
+        <v>7.909568805593285</v>
       </c>
       <c r="H7" t="n">
-        <v>8.647141415281599</v>
+        <v>8.53890470786156</v>
       </c>
       <c r="I7" t="n">
-        <v>9.272897088737375</v>
+        <v>9.148455487104329</v>
       </c>
       <c r="J7" t="n">
-        <v>9.876755441543551</v>
+        <v>9.740151045429618</v>
       </c>
       <c r="K7" t="n">
-        <v>10.64850542265854</v>
+        <v>10.50232204339861</v>
       </c>
       <c r="L7" t="n">
-        <v>11.60355309897561</v>
+        <v>11.4503479115436</v>
       </c>
       <c r="M7" t="n">
-        <v>12.4968926691446</v>
+        <v>12.34334694890126</v>
       </c>
       <c r="N7" t="n">
-        <v>13.1392900235041</v>
+        <v>12.99519404447637</v>
       </c>
       <c r="O7" t="n">
-        <v>12.78862097194216</v>
+        <v>12.67114113397161</v>
       </c>
     </row>
     <row r="8">
@@ -5046,46 +5046,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02677104143983447</v>
+        <v>0.02638532036100722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03297923994664211</v>
+        <v>0.03236448310273715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0387289541514829</v>
+        <v>0.03746915790387903</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04407034461661268</v>
+        <v>0.04184476574029371</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04901816480155048</v>
+        <v>0.04560949349499489</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05354544414609728</v>
+        <v>0.04882194240714172</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05734750569218566</v>
+        <v>0.05128515696585447</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05997638012055309</v>
+        <v>0.05267758067280952</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06072409551942108</v>
+        <v>0.05246255826302404</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05894664075456959</v>
+        <v>0.05017601658483047</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05394485423232034</v>
+        <v>0.04530924475768493</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04486029823983079</v>
+        <v>0.03725620332025311</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03092111861500426</v>
+        <v>0.0255629095895499</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009326989557865324</v>
+        <v>0.009288293105581305</v>
       </c>
     </row>
     <row r="9">
@@ -5095,46 +5095,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.127012336001547e-06</v>
+        <v>8.763559351330267e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1.626500902673e-05</v>
+        <v>1.543679473357989e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>2.402228302274592e-05</v>
+        <v>2.190138091192659e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>3.162719658589019e-05</v>
+        <v>2.734108773834358e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>3.924078003055384e-05</v>
+        <v>3.202526209233938e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>4.691885907330434e-05</v>
+        <v>3.61480177642879e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>5.304520874675816e-05</v>
+        <v>3.868142879836523e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>5.61276318322693e-05</v>
+        <v>3.889128290233084e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>5.428565154220092e-05</v>
+        <v>3.590350900759759e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>4.756838203585011e-05</v>
+        <v>3.017109279981742e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>3.594383313703914e-05</v>
+        <v>2.195932570886256e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>2.065048926591252e-05</v>
+        <v>1.222460360027189e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>6.884471323540786e-06</v>
+        <v>4.024624913507045e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>2.111003541334236e-07</v>
+        <v>2.079093362705031e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5147,43 +5147,43 @@
         <v>0.00168605885451114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00263857085997136</v>
+        <v>0.00467295129178003</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00368140365958141</v>
+        <v>0.007958718321751455</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004867376659384819</v>
+        <v>0.01109032495634528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006234809868694697</v>
+        <v>0.01397222236108045</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007809818859373964</v>
+        <v>0.016646435159108</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009569604837618179</v>
+        <v>0.01908232425467834</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01150478003820905</v>
+        <v>0.02132571527295613</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01367131750845218</v>
+        <v>0.02346463948855727</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01604088650327197</v>
+        <v>0.02544958848898533</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01856270772533964</v>
+        <v>0.02734648778447553</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02126815550436307</v>
+        <v>0.02919519754948544</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02424222247740964</v>
+        <v>0.03107039249786431</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02749341808882081</v>
+        <v>0.0329611747694062</v>
       </c>
     </row>
     <row r="11">
@@ -5193,46 +5193,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.487406877754666</v>
+        <v>3.485682457738224</v>
       </c>
       <c r="C11" t="n">
-        <v>4.276055546328413</v>
+        <v>4.267125504837439</v>
       </c>
       <c r="D11" t="n">
-        <v>4.880180357492879</v>
+        <v>4.858270571646926</v>
       </c>
       <c r="E11" t="n">
-        <v>5.320219369019232</v>
+        <v>5.282845397221124</v>
       </c>
       <c r="F11" t="n">
-        <v>5.758799128424485</v>
+        <v>5.705224225391992</v>
       </c>
       <c r="G11" t="n">
-        <v>6.280208447546582</v>
+        <v>6.210153670120689</v>
       </c>
       <c r="H11" t="n">
-        <v>6.777412565146333</v>
+        <v>6.692710814104257</v>
       </c>
       <c r="I11" t="n">
-        <v>7.244245097026677</v>
+        <v>7.147675384041346</v>
       </c>
       <c r="J11" t="n">
-        <v>7.663535458124588</v>
+        <v>7.558732487369531</v>
       </c>
       <c r="K11" t="n">
-        <v>8.247076543581972</v>
+        <v>8.135404607614012</v>
       </c>
       <c r="L11" t="n">
-        <v>9.089403198012191</v>
+        <v>8.971120994910599</v>
       </c>
       <c r="M11" t="n">
-        <v>10.09820001250939</v>
+        <v>9.975494537751427</v>
       </c>
       <c r="N11" t="n">
-        <v>11.56720572476196</v>
+        <v>11.44004980972978</v>
       </c>
       <c r="O11" t="n">
-        <v>12.78862076069084</v>
+        <v>12.67114092589496</v>
       </c>
     </row>
     <row r="12">
@@ -5242,46 +5242,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3730241880446779</v>
+        <v>0.3731720291985767</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3856220737686036</v>
+        <v>0.3860310319795563</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3778187707405533</v>
+        <v>0.3783752191610049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3604641112636352</v>
+        <v>0.3611119993965612</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3454910237417917</v>
+        <v>0.3462507746413723</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3357117312368271</v>
+        <v>0.3366406357629445</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3261255760635862</v>
+        <v>0.3272572237047323</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3172112754237704</v>
+        <v>0.3185485397849893</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3093533110854486</v>
+        <v>0.3108438372244279</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3082469632163183</v>
+        <v>0.3098107012663782</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3133614141767358</v>
+        <v>0.3148642522635103</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3179105391202849</v>
+        <v>0.3190885121015888</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3180037367364364</v>
+        <v>0.3184838920027461</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2980494726019385</v>
+        <v>0.2969928349817506</v>
       </c>
     </row>
     <row r="13">
@@ -5291,46 +5291,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3730241880446779</v>
+        <v>0.3731720291985767</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3856220737686036</v>
+        <v>0.3860310319795563</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3778187707405533</v>
+        <v>0.3783752191610049</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3604641112636352</v>
+        <v>0.3611119993965612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3454910237417917</v>
+        <v>0.3462507746413723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3357117312368271</v>
+        <v>0.3366406357629445</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3261255760635862</v>
+        <v>0.3272572237047323</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3172112754237704</v>
+        <v>0.3185485397849893</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3093533110854486</v>
+        <v>0.3108438372244279</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3082469632163183</v>
+        <v>0.3098107012663782</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3133614141767358</v>
+        <v>0.3148642522635103</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3179105391202849</v>
+        <v>0.3190885121015888</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3180037367364364</v>
+        <v>0.3184838920027461</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2980494726019385</v>
+        <v>0.2969928349817506</v>
       </c>
     </row>
     <row r="14">
@@ -5501,46 +5501,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.74217470292922</v>
+        <v>52.73093692018786</v>
       </c>
       <c r="C2" t="n">
-        <v>50.41549766322407</v>
+        <v>50.38008442086534</v>
       </c>
       <c r="D2" t="n">
-        <v>45.24745038984994</v>
+        <v>45.1914294568022</v>
       </c>
       <c r="E2" t="n">
-        <v>39.65736199071198</v>
+        <v>39.59205920456427</v>
       </c>
       <c r="F2" t="n">
-        <v>34.26823399804932</v>
+        <v>34.20313720517598</v>
       </c>
       <c r="G2" t="n">
-        <v>29.33484803781599</v>
+        <v>29.27560501919591</v>
       </c>
       <c r="H2" t="n">
-        <v>24.91699732093936</v>
+        <v>24.86629547011412</v>
       </c>
       <c r="I2" t="n">
-        <v>21.03743860762776</v>
+        <v>20.99587874574277</v>
       </c>
       <c r="J2" t="n">
-        <v>17.67292280141893</v>
+        <v>17.63995148139051</v>
       </c>
       <c r="K2" t="n">
-        <v>15.22965061564732</v>
+        <v>15.20357697418102</v>
       </c>
       <c r="L2" t="n">
-        <v>13.48712314172954</v>
+        <v>13.46653659465288</v>
       </c>
       <c r="M2" t="n">
-        <v>11.94043885230438</v>
+        <v>11.92470209935937</v>
       </c>
       <c r="N2" t="n">
-        <v>10.6001212103269</v>
+        <v>10.58863747186179</v>
       </c>
       <c r="O2" t="n">
-        <v>9.352403801520053</v>
+        <v>9.344528954439514</v>
       </c>
     </row>
     <row r="3">
@@ -5553,43 +5553,43 @@
         <v>4.214901559230878</v>
       </c>
       <c r="C3" t="n">
-        <v>6.086778678763357</v>
+        <v>6.092837570708184</v>
       </c>
       <c r="D3" t="n">
-        <v>7.857174625427931</v>
+        <v>7.859971406370136</v>
       </c>
       <c r="E3" t="n">
-        <v>9.578488114478724</v>
+        <v>9.565965301172255</v>
       </c>
       <c r="F3" t="n">
-        <v>11.27645927291397</v>
+        <v>11.23896844233136</v>
       </c>
       <c r="G3" t="n">
-        <v>12.97425661372839</v>
+        <v>12.90580904222578</v>
       </c>
       <c r="H3" t="n">
-        <v>14.6840046611667</v>
+        <v>14.58156689750334</v>
       </c>
       <c r="I3" t="n">
-        <v>16.41156396206479</v>
+        <v>16.27503657381681</v>
       </c>
       <c r="J3" t="n">
-        <v>18.21740106521339</v>
+        <v>18.04814523149431</v>
       </c>
       <c r="K3" t="n">
-        <v>20.31326935675323</v>
+        <v>20.11221506435241</v>
       </c>
       <c r="L3" t="n">
-        <v>22.60645842313546</v>
+        <v>22.37848842397397</v>
       </c>
       <c r="M3" t="n">
-        <v>24.52036668645672</v>
+        <v>24.2773962774077</v>
       </c>
       <c r="N3" t="n">
-        <v>24.80231801522277</v>
+        <v>24.56979182081626</v>
       </c>
       <c r="O3" t="n">
-        <v>19.6143016139904</v>
+        <v>19.4494632743815</v>
       </c>
     </row>
     <row r="4">
@@ -5599,46 +5599,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2056901157680166</v>
+        <v>0.2059600239451516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2043373610162948</v>
+        <v>0.204597527923663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2057689977824991</v>
+        <v>0.2059695491437088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2070621056587631</v>
+        <v>0.207199577213902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.208371906986298</v>
+        <v>0.2084556312353866</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2097555875879109</v>
+        <v>0.2097903889764371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2115926332650629</v>
+        <v>0.2115861983178241</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2148567295674523</v>
+        <v>0.2148119152565666</v>
       </c>
       <c r="J4" t="n">
-        <v>0.22210223471472</v>
+        <v>0.2220209190301573</v>
       </c>
       <c r="K4" t="n">
-        <v>0.225007815272094</v>
+        <v>0.2249076834221383</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2165852451422822</v>
+        <v>0.2164806855397843</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1924655659314432</v>
+        <v>0.192387107712325</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1211458947111471</v>
+        <v>0.121159461191942</v>
       </c>
       <c r="O4" t="n">
-        <v>1.070230507155217e-08</v>
+        <v>1.065135776531268e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5648,46 +5648,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4617133377915676</v>
+        <v>0.4623192269860504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5734846130482784</v>
+        <v>0.5735530306432931</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6838860722491209</v>
+        <v>0.6825362731968512</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7936646978641141</v>
+        <v>0.7903522583067892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9042398384597563</v>
+        <v>0.8987023057420553</v>
       </c>
       <c r="G5" t="n">
-        <v>1.016016110363478</v>
+        <v>1.008158953243158</v>
       </c>
       <c r="H5" t="n">
-        <v>1.129156812238805</v>
+        <v>1.119075857378155</v>
       </c>
       <c r="I5" t="n">
-        <v>1.249504254331926</v>
+        <v>1.237339086636541</v>
       </c>
       <c r="J5" t="n">
-        <v>1.396125437065855</v>
+        <v>1.381921593833672</v>
       </c>
       <c r="K5" t="n">
-        <v>1.552365935049161</v>
+        <v>1.536579264837985</v>
       </c>
       <c r="L5" t="n">
-        <v>1.663798202729234</v>
+        <v>1.647449984194055</v>
       </c>
       <c r="M5" t="n">
-        <v>1.625259480830904</v>
+        <v>1.61047871571202</v>
       </c>
       <c r="N5" t="n">
-        <v>1.096626805757839</v>
+        <v>1.088250658871754</v>
       </c>
       <c r="O5" t="n">
-        <v>9.605297904844658e-08</v>
+        <v>9.497581872688456e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5700,43 +5700,43 @@
         <v>2.24719363913384</v>
       </c>
       <c r="C6" t="n">
-        <v>2.811522051647203</v>
+        <v>2.812361351598296</v>
       </c>
       <c r="D6" t="n">
-        <v>3.33179573751098</v>
+        <v>3.332151481500187</v>
       </c>
       <c r="E6" t="n">
-        <v>3.845552263089528</v>
+        <v>3.844043282188013</v>
       </c>
       <c r="F6" t="n">
-        <v>4.357831128934291</v>
+        <v>4.353479518779006</v>
       </c>
       <c r="G6" t="n">
-        <v>4.869413192285196</v>
+        <v>4.861692130644287</v>
       </c>
       <c r="H6" t="n">
-        <v>5.371111821798463</v>
+        <v>5.359843367996904</v>
       </c>
       <c r="I6" t="n">
-        <v>5.861040556138913</v>
+        <v>5.846370409887592</v>
       </c>
       <c r="J6" t="n">
-        <v>6.34437419881313</v>
+        <v>6.326632929772004</v>
       </c>
       <c r="K6" t="n">
-        <v>6.974339277323819</v>
+        <v>6.953558193647294</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7787447831924</v>
+        <v>7.755128318975145</v>
       </c>
       <c r="M6" t="n">
-        <v>8.566373792464853</v>
+        <v>8.540819917496659</v>
       </c>
       <c r="N6" t="n">
-        <v>9.201287597237652</v>
+        <v>9.175323107663379</v>
       </c>
       <c r="O6" t="n">
-        <v>9.143186779268703</v>
+        <v>9.12006688277307</v>
       </c>
     </row>
     <row r="7">
@@ -5746,46 +5746,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.244703572982095</v>
+        <v>2.244703696039425</v>
       </c>
       <c r="C7" t="n">
-        <v>2.806557793425482</v>
+        <v>2.803323365946486</v>
       </c>
       <c r="D7" t="n">
-        <v>3.323562245134705</v>
+        <v>3.313772720455065</v>
       </c>
       <c r="E7" t="n">
-        <v>3.83297897671372</v>
+        <v>3.814449184376814</v>
       </c>
       <c r="F7" t="n">
-        <v>4.339547742005437</v>
+        <v>4.31124024050589</v>
       </c>
       <c r="G7" t="n">
-        <v>4.843809512047704</v>
+        <v>4.805553572601414</v>
       </c>
       <c r="H7" t="n">
-        <v>5.336465617043983</v>
+        <v>5.288983243118668</v>
       </c>
       <c r="I7" t="n">
-        <v>5.815523008506261</v>
+        <v>5.760104532184311</v>
       </c>
       <c r="J7" t="n">
-        <v>6.285958531030149</v>
+        <v>6.22428553070697</v>
       </c>
       <c r="K7" t="n">
-        <v>6.899164516449971</v>
+        <v>6.83204433684872</v>
       </c>
       <c r="L7" t="n">
-        <v>7.681955442699841</v>
+        <v>7.610147667844902</v>
       </c>
       <c r="M7" t="n">
-        <v>8.444416916685373</v>
+        <v>8.371032419283296</v>
       </c>
       <c r="N7" t="n">
-        <v>9.052116940260914</v>
+        <v>8.981970109191368</v>
       </c>
       <c r="O7" t="n">
-        <v>8.974980474418107</v>
+        <v>8.916780453679223</v>
       </c>
     </row>
     <row r="8">
@@ -5795,46 +5795,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02367761064713533</v>
+        <v>0.02333270186940666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02953864338682309</v>
+        <v>0.02900105713526557</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03529044664652643</v>
+        <v>0.03417344690144086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04096817066400006</v>
+        <v>0.03894221172768722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.046526912209909</v>
+        <v>0.04334011563205731</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05180935613268659</v>
+        <v>0.04729181705864789</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05649113617416117</v>
+        <v>0.05057601320536617</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06007182853335821</v>
+        <v>0.05282231880458572</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06175852498177519</v>
+        <v>0.05342030369552348</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06078239334968624</v>
+        <v>0.05180014014154341</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05634532774178489</v>
+        <v>0.04737512848831905</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04739298270214459</v>
+        <v>0.03938318912514045</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03290704712039259</v>
+        <v>0.0271608315782657</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008388904329123075</v>
+        <v>0.008183072640653067</v>
       </c>
     </row>
     <row r="9">
@@ -5844,46 +5844,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.056975728966538e-06</v>
+        <v>2.933918399187937e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>5.793560946085397e-06</v>
+        <v>5.50478548697484e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>9.339645875865582e-06</v>
+        <v>8.536215000828533e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>1.369761514029146e-05</v>
+        <v>1.187960026670319e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>1.87546219008766e-05</v>
+        <v>1.536012529544967e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>2.420240146340434e-05</v>
+        <v>1.871660790609758e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.933232688168432e-05</v>
+        <v>2.147506124234288e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>3.305524103838309e-05</v>
+        <v>2.300183259619154e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>3.386817712026119e-05</v>
+        <v>2.250101427799091e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.139854116169924e-05</v>
+        <v>2.000609283617977e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.512801423532188e-05</v>
+        <v>1.541617426654839e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.520751106518063e-05</v>
+        <v>9.028837445731751e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>5.273674854672348e-06</v>
+        <v>3.072682804956493e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>1.027790300528713e-07</v>
+        <v>9.563045189498695e-08</v>
       </c>
     </row>
     <row r="10">
@@ -5896,43 +5896,43 @@
         <v>0.001106717789115114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001763622895246414</v>
+        <v>0.003211707080667304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002468384432397136</v>
+        <v>0.00551302212162667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003266003918661249</v>
+        <v>0.00769559966923518</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004191220762475772</v>
+        <v>0.009698889811169276</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005253092482797692</v>
+        <v>0.01154327339677305</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006445010563196041</v>
+        <v>0.01321655222985879</v>
       </c>
       <c r="I10" t="n">
-        <v>0.007760480746711866</v>
+        <v>0.01475152442014751</v>
       </c>
       <c r="J10" t="n">
-        <v>0.009202136850121879</v>
+        <v>0.01617367392523032</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01077426252792214</v>
+        <v>0.01747218435832364</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01243956643074392</v>
+        <v>0.01869282221949532</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01423492264319304</v>
+        <v>0.01987847431698107</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01621135973911562</v>
+        <v>0.02107281929153179</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01839689007042461</v>
+        <v>0.02229000467610412</v>
       </c>
     </row>
     <row r="11">
@@ -5942,46 +5942,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.782990235190528</v>
+        <v>1.782384469053375</v>
       </c>
       <c r="C11" t="n">
-        <v>2.233073180377203</v>
+        <v>2.229770335303193</v>
       </c>
       <c r="D11" t="n">
-        <v>2.639676172885584</v>
+        <v>2.631236447258214</v>
       </c>
       <c r="E11" t="n">
-        <v>3.039314278849606</v>
+        <v>3.024096926070025</v>
       </c>
       <c r="F11" t="n">
-        <v>3.43530790354568</v>
+        <v>3.412537934763835</v>
       </c>
       <c r="G11" t="n">
-        <v>3.827793401684226</v>
+        <v>3.797394619358257</v>
       </c>
       <c r="H11" t="n">
-        <v>4.207308804805178</v>
+        <v>4.169907385740514</v>
       </c>
       <c r="I11" t="n">
-        <v>4.566018754174335</v>
+        <v>4.52276544554777</v>
       </c>
       <c r="J11" t="n">
-        <v>4.889833093964294</v>
+        <v>4.842363936873298</v>
       </c>
       <c r="K11" t="n">
-        <v>5.34679858140081</v>
+        <v>5.295465072010736</v>
       </c>
       <c r="L11" t="n">
-        <v>6.018157239970607</v>
+        <v>5.962697683650847</v>
       </c>
       <c r="M11" t="n">
-        <v>6.81915743585447</v>
+        <v>6.760553703571275</v>
       </c>
       <c r="N11" t="n">
-        <v>7.955490134503076</v>
+        <v>7.893719450319612</v>
       </c>
       <c r="O11" t="n">
-        <v>8.974980378365128</v>
+        <v>8.916780358703404</v>
       </c>
     </row>
     <row r="12">
@@ -5991,46 +5991,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.412450708845376</v>
+        <v>0.4125964167297926</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4378775327816614</v>
+        <v>0.43825088296682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4462593048487777</v>
+        <v>0.4468237145442938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4483217553188934</v>
+        <v>0.4490925455102716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447042011632831</v>
+        <v>0.448088265919366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.443946202018705</v>
+        <v>0.4453540438937655</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4392908804581484</v>
+        <v>0.441117519973265</v>
       </c>
       <c r="I12" t="n">
-        <v>0.433921558425563</v>
+        <v>0.4361738435100239</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4290613144275139</v>
+        <v>0.4316639334893613</v>
       </c>
       <c r="K12" t="n">
-        <v>0.434836706171393</v>
+        <v>0.4376872362245925</v>
       </c>
       <c r="L12" t="n">
-        <v>0.45134708994006</v>
+        <v>0.4542541813973059</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4671658686197784</v>
+        <v>0.469688639296683</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4765038862006011</v>
+        <v>0.4779825453720158</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4560298170295367</v>
+        <v>0.4549710984836567</v>
       </c>
     </row>
     <row r="13">
@@ -6040,46 +6040,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.412450708845376</v>
+        <v>0.4125964167297926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4378775327816614</v>
+        <v>0.43825088296682</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4462593048487777</v>
+        <v>0.4468237145442938</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4483217553188934</v>
+        <v>0.4490925455102716</v>
       </c>
       <c r="F13" t="n">
-        <v>0.447042011632831</v>
+        <v>0.448088265919366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.443946202018705</v>
+        <v>0.4453540438937655</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4392908804581484</v>
+        <v>0.441117519973265</v>
       </c>
       <c r="I13" t="n">
-        <v>0.433921558425563</v>
+        <v>0.4361738435100239</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4290613144275139</v>
+        <v>0.4316639334893613</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434836706171393</v>
+        <v>0.4376872362245925</v>
       </c>
       <c r="L13" t="n">
-        <v>0.45134708994006</v>
+        <v>0.4542541813973059</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4671658686197784</v>
+        <v>0.469688639296683</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4765038862006011</v>
+        <v>0.4779825453720158</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4560298170295367</v>
+        <v>0.4549710984836567</v>
       </c>
     </row>
     <row r="14">
@@ -6250,46 +6250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.78961464549392</v>
+        <v>19.76768711625975</v>
       </c>
       <c r="C2" t="n">
-        <v>31.85884595270719</v>
+        <v>31.78626301410479</v>
       </c>
       <c r="D2" t="n">
-        <v>36.98746485621877</v>
+        <v>36.870488527009</v>
       </c>
       <c r="E2" t="n">
-        <v>37.87774327391556</v>
+        <v>37.74127442953992</v>
       </c>
       <c r="F2" t="n">
-        <v>36.11041312123359</v>
+        <v>35.97598964275747</v>
       </c>
       <c r="G2" t="n">
-        <v>33.10605884604999</v>
+        <v>32.98543235164932</v>
       </c>
       <c r="H2" t="n">
-        <v>29.66464764854548</v>
+        <v>29.56261268163836</v>
       </c>
       <c r="I2" t="n">
-        <v>26.15994995122165</v>
+        <v>26.07708456953763</v>
       </c>
       <c r="J2" t="n">
-        <v>22.80331160720483</v>
+        <v>22.73806662940262</v>
       </c>
       <c r="K2" t="n">
-        <v>20.04753810853875</v>
+        <v>19.99684075586276</v>
       </c>
       <c r="L2" t="n">
-        <v>17.8305627039913</v>
+        <v>17.7916011885527</v>
       </c>
       <c r="M2" t="n">
-        <v>15.81598592128086</v>
+        <v>15.78693355021892</v>
       </c>
       <c r="N2" t="n">
-        <v>14.0470370158021</v>
+        <v>14.02630900906731</v>
       </c>
       <c r="O2" t="n">
-        <v>12.375762581011</v>
+        <v>12.36185898298567</v>
       </c>
     </row>
     <row r="3">
@@ -6302,43 +6302,43 @@
         <v>2.049368038767686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.993169763281911</v>
+        <v>2.996433202262812</v>
       </c>
       <c r="D3" t="n">
-        <v>4.156621059886084</v>
+        <v>4.157950929756623</v>
       </c>
       <c r="E3" t="n">
-        <v>5.544796428298591</v>
+        <v>5.535904067320346</v>
       </c>
       <c r="F3" t="n">
-        <v>7.135621435265182</v>
+        <v>7.10775604510228</v>
       </c>
       <c r="G3" t="n">
-        <v>8.930413907491268</v>
+        <v>8.87582695069927</v>
       </c>
       <c r="H3" t="n">
-        <v>10.92219517207424</v>
+        <v>10.83454751898484</v>
       </c>
       <c r="I3" t="n">
-        <v>13.11375473517039</v>
+        <v>12.98883885612152</v>
       </c>
       <c r="J3" t="n">
-        <v>15.50320841265683</v>
+        <v>15.33882677001396</v>
       </c>
       <c r="K3" t="n">
-        <v>18.18364375282229</v>
+        <v>17.97873968533432</v>
       </c>
       <c r="L3" t="n">
-        <v>21.04680950062625</v>
+        <v>20.80553427663001</v>
       </c>
       <c r="M3" t="n">
-        <v>23.62021905292606</v>
+        <v>23.35439698367093</v>
       </c>
       <c r="N3" t="n">
-        <v>24.65276714360206</v>
+        <v>24.3903989199456</v>
       </c>
       <c r="O3" t="n">
-        <v>20.07132410689796</v>
+        <v>19.87986278798396</v>
       </c>
     </row>
     <row r="4">
@@ -6348,46 +6348,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2086340858147745</v>
+        <v>0.2089328897041501</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2068709783260337</v>
+        <v>0.2071569171033902</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206658316096638</v>
+        <v>0.2068825954421791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.206338285827162</v>
+        <v>0.2064958832148192</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2075650276415582</v>
+        <v>0.2076644080817228</v>
       </c>
       <c r="G4" t="n">
-        <v>0.209294267908091</v>
+        <v>0.2093389679472362</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2112840674911911</v>
+        <v>0.2112818578925047</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2137756712805</v>
+        <v>0.2137296442721213</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2182448798544414</v>
+        <v>0.2181576101628915</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2193610218331835</v>
+        <v>0.2192518905569708</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2119898837348996</v>
+        <v>0.2118742645477401</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1896723802962829</v>
+        <v>0.1895835167699994</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1211056373900583</v>
+        <v>0.1211166936596928</v>
       </c>
       <c r="O4" t="n">
-        <v>5.918773698769028e-09</v>
+        <v>5.881271081254956e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6397,46 +6397,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2278599312333597</v>
+        <v>0.2281862751314499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3112967295870461</v>
+        <v>0.3113159274927778</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4095472281050702</v>
+        <v>0.4086116223120462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5202270465973977</v>
+        <v>0.5177505650365777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.644237655629888</v>
+        <v>0.6397505660281662</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7808352381362836</v>
+        <v>0.7739738023217481</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9305420760103792</v>
+        <v>0.9211065728012556</v>
       </c>
       <c r="I5" t="n">
-        <v>1.093072486774363</v>
+        <v>1.080989869895124</v>
       </c>
       <c r="J5" t="n">
-        <v>1.277800922695191</v>
+        <v>1.263042149420173</v>
       </c>
       <c r="K5" t="n">
-        <v>1.470656496155806</v>
+        <v>1.453673536818367</v>
       </c>
       <c r="L5" t="n">
-        <v>1.628165034716584</v>
+        <v>1.60999557466485</v>
       </c>
       <c r="M5" t="n">
-        <v>1.641690600940749</v>
+        <v>1.624722421020308</v>
       </c>
       <c r="N5" t="n">
-        <v>1.147543571511826</v>
+        <v>1.13754565391606</v>
       </c>
       <c r="O5" t="n">
-        <v>5.669144318545302e-08</v>
+        <v>5.591720652552362e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6449,43 +6449,43 @@
         <v>1.09355370754314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.507855010152395</v>
+        <v>1.508348024238624</v>
       </c>
       <c r="D6" t="n">
-        <v>1.987417353107777</v>
+        <v>1.987608088119147</v>
       </c>
       <c r="E6" t="n">
-        <v>2.530766461019204</v>
+        <v>2.529548176492105</v>
       </c>
       <c r="F6" t="n">
-        <v>3.118858398047155</v>
+        <v>3.115199546931532</v>
       </c>
       <c r="G6" t="n">
-        <v>3.753531224816679</v>
+        <v>3.746633435418771</v>
       </c>
       <c r="H6" t="n">
-        <v>4.437176832177817</v>
+        <v>4.426464550465889</v>
       </c>
       <c r="I6" t="n">
-        <v>5.159288752773262</v>
+        <v>5.144495794657149</v>
       </c>
       <c r="J6" t="n">
-        <v>5.917625868300952</v>
+        <v>5.898732085291174</v>
       </c>
       <c r="K6" t="n">
-        <v>6.788533794016522</v>
+        <v>6.76549353410346</v>
       </c>
       <c r="L6" t="n">
-        <v>7.792041777627649</v>
+        <v>7.765135762354585</v>
       </c>
       <c r="M6" t="n">
-        <v>8.799625458724456</v>
+        <v>8.769798375337189</v>
       </c>
       <c r="N6" t="n">
-        <v>9.655666828403506</v>
+        <v>9.624723033612819</v>
       </c>
       <c r="O6" t="n">
-        <v>9.785149450484957</v>
+        <v>9.757053149161717</v>
       </c>
     </row>
     <row r="7">
@@ -6495,46 +6495,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.092151027688035</v>
+        <v>1.092151051251733</v>
       </c>
       <c r="C7" t="n">
-        <v>1.50478685848546</v>
+        <v>1.502802473824239</v>
       </c>
       <c r="D7" t="n">
-        <v>1.98176021096367</v>
+        <v>1.975089404880594</v>
       </c>
       <c r="E7" t="n">
-        <v>2.521233732808863</v>
+        <v>2.507316644651738</v>
       </c>
       <c r="F7" t="n">
-        <v>3.103787102046955</v>
+        <v>3.080694337261699</v>
       </c>
       <c r="G7" t="n">
-        <v>3.730800876396567</v>
+        <v>3.697227563082416</v>
       </c>
       <c r="H7" t="n">
-        <v>4.404222651805847</v>
+        <v>4.359610342265606</v>
       </c>
       <c r="I7" t="n">
-        <v>5.11317532171431</v>
+        <v>5.057744205660136</v>
       </c>
       <c r="J7" t="n">
-        <v>5.854895306352302</v>
+        <v>5.789585559161096</v>
       </c>
       <c r="K7" t="n">
-        <v>6.70427445981807</v>
+        <v>6.630152803360398</v>
       </c>
       <c r="L7" t="n">
-        <v>7.680390243303583</v>
+        <v>7.598825549207185</v>
       </c>
       <c r="M7" t="n">
-        <v>8.65540147899395</v>
+        <v>8.569956126467483</v>
       </c>
       <c r="N7" t="n">
-        <v>9.475558663019173</v>
+        <v>9.392145868118517</v>
       </c>
       <c r="O7" t="n">
-        <v>9.578241384231934</v>
+        <v>9.507673724434397</v>
       </c>
     </row>
     <row r="8">
@@ -6544,46 +6544,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01710356988906219</v>
+        <v>0.01688841713790911</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02209618439746106</v>
+        <v>0.02174531803183727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02767946618953984</v>
+        <v>0.02686806946696385</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03376858518375202</v>
+        <v>0.03216991682763908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04018772446637483</v>
+        <v>0.03750747640918576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04666862057447534</v>
+        <v>0.04266799403786983</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05283907734152138</v>
+        <v>0.0473656613175536</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05809267383613374</v>
+        <v>0.05112528256780272</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06156974253418859</v>
+        <v>0.05327889154876808</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06226377146889126</v>
+        <v>0.05306448468139298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05908395323931676</v>
+        <v>0.04966490776522066</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05069834014310243</v>
+        <v>0.04210432041980317</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03571717774590875</v>
+        <v>0.02942478240643974</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007768105561147055</v>
+        <v>0.007785337611910031</v>
       </c>
     </row>
     <row r="9">
@@ -6593,46 +6593,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.766334730225497e-07</v>
+        <v>6.530697751947911e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>1.46735620763823e-06</v>
+        <v>1.403502750370259e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>2.845447162295137e-06</v>
+        <v>2.618259629227681e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>5.038712037733692e-06</v>
+        <v>4.39677486199276e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>8.185173250555143e-06</v>
+        <v>6.738860876296776e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>1.22990477002887e-05</v>
+        <v>9.551882896856193e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>1.713080466863788e-05</v>
+        <v>1.25820521320724e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.187048746407472e-05</v>
+        <v>1.524936076278786e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>2.512139117617174e-05</v>
+        <v>1.67024744021256e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>2.555092626680793e-05</v>
+        <v>1.627503852048941e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.194874331164048e-05</v>
+        <v>1.34502911484569e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.410504404674704e-05</v>
+        <v>8.356646811052321e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>5.106719011675744e-06</v>
+        <v>2.958619265758151e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>6.396371997853503e-08</v>
+        <v>6.417700569990765e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6645,43 +6645,43 @@
         <v>0.001282061605169162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002033805830188382</v>
+        <v>0.003675641710362232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002845047462277019</v>
+        <v>0.006297048725922273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00376474465149423</v>
+        <v>0.00878699811771474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004829687310068872</v>
+        <v>0.01107424108447178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006052447152220531</v>
+        <v>0.01318418823322583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00742297429492707</v>
+        <v>0.01510045441143675</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008933704388364166</v>
+        <v>0.01686002731819338</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01059638475851765</v>
+        <v>0.0185005560648868</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01240824393426908</v>
+        <v>0.02000215579578929</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01432610203672969</v>
+        <v>0.02141582168626827</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01638818326562783</v>
+        <v>0.02278660052035816</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01865257592935188</v>
+        <v>0.02416424930492118</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02114510394923493</v>
+        <v>0.02555888102051991</v>
       </c>
     </row>
     <row r="11">
@@ -6691,46 +6691,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8642910964546755</v>
+        <v>0.8639647761202833</v>
       </c>
       <c r="C11" t="n">
-        <v>1.193490128898414</v>
+        <v>1.191486546331462</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5722129828586</v>
+        <v>1.566477782568548</v>
       </c>
       <c r="E11" t="n">
-        <v>2.001006686211465</v>
+        <v>1.98956607961516</v>
       </c>
       <c r="F11" t="n">
-        <v>2.459549446417066</v>
+        <v>2.440943771233533</v>
       </c>
       <c r="G11" t="n">
-        <v>2.949965638260283</v>
+        <v>2.923253760760668</v>
       </c>
       <c r="H11" t="n">
-        <v>3.473680575795468</v>
+        <v>3.438503769464351</v>
       </c>
       <c r="I11" t="n">
-        <v>4.020102834939947</v>
+        <v>3.976754335765013</v>
       </c>
       <c r="J11" t="n">
-        <v>4.577094383657111</v>
+        <v>4.526543409740923</v>
       </c>
       <c r="K11" t="n">
-        <v>5.233617963662264</v>
+        <v>5.176479266542031</v>
       </c>
       <c r="L11" t="n">
-        <v>6.052225208586998</v>
+        <v>5.988829974542336</v>
       </c>
       <c r="M11" t="n">
-        <v>7.0137108780532</v>
+        <v>6.945233705447175</v>
       </c>
       <c r="N11" t="n">
-        <v>8.328015091507348</v>
+        <v>8.254600214202457</v>
       </c>
       <c r="O11" t="n">
-        <v>9.578241327540491</v>
+        <v>9.507673668517191</v>
       </c>
     </row>
     <row r="12">
@@ -6740,46 +6740,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2284815592832318</v>
+        <v>0.2285315731347034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2519217466072671</v>
+        <v>0.252094533565999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2705320500365717</v>
+        <v>0.2707837926837911</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2854479344342994</v>
+        <v>0.2857825804041489</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2959756924294917</v>
+        <v>0.2964540060851943</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3039237499456064</v>
+        <v>0.3046382984477636</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3105499454021938</v>
+        <v>0.3115904734621652</v>
       </c>
       <c r="I12" t="n">
-        <v>0.315995887009354</v>
+        <v>0.317420602562691</v>
       </c>
       <c r="J12" t="n">
-        <v>0.321056461280708</v>
+        <v>0.3228588087645051</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3302603908677121</v>
+        <v>0.3323683797667488</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3441813514962825</v>
+        <v>0.3464264213730269</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3575153709428466</v>
+        <v>0.3595291548908303</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3657499279144696</v>
+        <v>0.3669568387842349</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3521977583800057</v>
+        <v>0.351180386654999</v>
       </c>
     </row>
     <row r="13">
@@ -6789,46 +6789,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2284815592832318</v>
+        <v>0.2285315731347034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2519217466072671</v>
+        <v>0.252094533565999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2705320500365717</v>
+        <v>0.2707837926837911</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2854479344342994</v>
+        <v>0.2857825804041489</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2959756924294917</v>
+        <v>0.2964540060851943</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3039237499456064</v>
+        <v>0.3046382984477636</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3105499454021938</v>
+        <v>0.3115904734621652</v>
       </c>
       <c r="I13" t="n">
-        <v>0.315995887009354</v>
+        <v>0.317420602562691</v>
       </c>
       <c r="J13" t="n">
-        <v>0.321056461280708</v>
+        <v>0.3228588087645051</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3302603908677121</v>
+        <v>0.3323683797667488</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3441813514962825</v>
+        <v>0.3464264213730269</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3575153709428466</v>
+        <v>0.3595291548908303</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3657499279144696</v>
+        <v>0.3669568387842349</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3521977583800057</v>
+        <v>0.351180386654999</v>
       </c>
     </row>
     <row r="14">
@@ -6999,46 +6999,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.7001910029017</v>
+        <v>271.4773711446916</v>
       </c>
       <c r="C2" t="n">
-        <v>359.9313607123936</v>
+        <v>359.2264301988918</v>
       </c>
       <c r="D2" t="n">
-        <v>389.7396185003467</v>
+        <v>388.6144838161555</v>
       </c>
       <c r="E2" t="n">
-        <v>382.8003113079866</v>
+        <v>381.4976250728776</v>
       </c>
       <c r="F2" t="n">
-        <v>353.884158166397</v>
+        <v>352.6100805969713</v>
       </c>
       <c r="G2" t="n">
-        <v>318.5897969897479</v>
+        <v>317.4473593287838</v>
       </c>
       <c r="H2" t="n">
-        <v>281.8215157882822</v>
+        <v>280.8537013959142</v>
       </c>
       <c r="I2" t="n">
-        <v>246.234425095645</v>
+        <v>245.4462793831673</v>
       </c>
       <c r="J2" t="n">
-        <v>213.057865279854</v>
+        <v>212.4338444601061</v>
       </c>
       <c r="K2" t="n">
-        <v>186.363793963943</v>
+        <v>185.8746431779807</v>
       </c>
       <c r="L2" t="n">
-        <v>165.2237738133075</v>
+        <v>164.843283820138</v>
       </c>
       <c r="M2" t="n">
-        <v>146.2143912058516</v>
+        <v>145.9267069458725</v>
       </c>
       <c r="N2" t="n">
-        <v>129.6579283421786</v>
+        <v>129.4493804045056</v>
       </c>
       <c r="O2" t="n">
-        <v>114.0485265275977</v>
+        <v>113.9057086273508</v>
       </c>
     </row>
     <row r="3">
@@ -7051,43 +7051,43 @@
         <v>22.26872927438124</v>
       </c>
       <c r="C3" t="n">
-        <v>33.63103941460351</v>
+        <v>33.67627648868589</v>
       </c>
       <c r="D3" t="n">
-        <v>46.91368830555732</v>
+        <v>46.93396148207399</v>
       </c>
       <c r="E3" t="n">
-        <v>61.76166935722793</v>
+        <v>61.65712218541563</v>
       </c>
       <c r="F3" t="n">
-        <v>77.86303135519734</v>
+        <v>77.53957228419172</v>
       </c>
       <c r="G3" t="n">
-        <v>95.38227244862026</v>
+        <v>94.76542156594357</v>
       </c>
       <c r="H3" t="n">
-        <v>114.2902714772602</v>
+        <v>113.3252856818759</v>
       </c>
       <c r="I3" t="n">
-        <v>134.4240378363518</v>
+        <v>133.0826633023986</v>
       </c>
       <c r="J3" t="n">
-        <v>156.0842637398549</v>
+        <v>154.3552797010657</v>
       </c>
       <c r="K3" t="n">
-        <v>179.6708559357218</v>
+        <v>177.553898049587</v>
       </c>
       <c r="L3" t="n">
-        <v>204.1181739066956</v>
+        <v>201.6614856511219</v>
       </c>
       <c r="M3" t="n">
-        <v>224.5008227881295</v>
+        <v>221.8279124258036</v>
       </c>
       <c r="N3" t="n">
-        <v>229.5412981145776</v>
+        <v>226.9296801169398</v>
       </c>
       <c r="O3" t="n">
-        <v>182.6920202064972</v>
+        <v>180.8048250609975</v>
       </c>
     </row>
     <row r="4">
@@ -7097,46 +7097,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2176987077074699</v>
+        <v>0.2180786511872516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.211867997634469</v>
+        <v>0.2122197633784292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2085608517754546</v>
+        <v>0.2088414788893221</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2068919433562672</v>
+        <v>0.2071038536171562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2082965973349283</v>
+        <v>0.2084522875924611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2098683040866836</v>
+        <v>0.2099703605874275</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2115670200074855</v>
+        <v>0.2116212581776906</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2141913237678418</v>
+        <v>0.2141983478937125</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2185816297767931</v>
+        <v>0.2185371481572935</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2195559044432883</v>
+        <v>0.2194751204428915</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2115536840626669</v>
+        <v>0.2114478297211968</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1885537957791378</v>
+        <v>0.1884583571526809</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1189934073528818</v>
+        <v>0.1189938379187987</v>
       </c>
       <c r="O4" t="n">
-        <v>4.233453595172321e-10</v>
+        <v>4.201281821670197e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7146,46 +7146,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.586641362820306</v>
+        <v>2.591165070228543</v>
       </c>
       <c r="C5" t="n">
-        <v>3.518726994353175</v>
+        <v>3.519176992762268</v>
       </c>
       <c r="D5" t="n">
-        <v>4.540387769950859</v>
+        <v>4.529226170813257</v>
       </c>
       <c r="E5" t="n">
-        <v>5.632806882574712</v>
+        <v>5.60410630995259</v>
       </c>
       <c r="F5" t="n">
-        <v>6.823311213423266</v>
+        <v>6.77290444558704</v>
       </c>
       <c r="G5" t="n">
-        <v>8.103252950668205</v>
+        <v>8.028262631484381</v>
       </c>
       <c r="H5" t="n">
-        <v>9.457348425905522</v>
+        <v>9.35685794669552</v>
       </c>
       <c r="I5" t="n">
-        <v>10.92134999151323</v>
+        <v>10.79522242564319</v>
       </c>
       <c r="J5" t="n">
-        <v>12.52476383307522</v>
+        <v>12.37335399022202</v>
       </c>
       <c r="K5" t="n">
-        <v>14.14708201275963</v>
+        <v>13.97522694455175</v>
       </c>
       <c r="L5" t="n">
-        <v>15.33292163142823</v>
+        <v>15.15129001807219</v>
       </c>
       <c r="M5" t="n">
-        <v>15.12627014236461</v>
+        <v>14.95830696416711</v>
       </c>
       <c r="N5" t="n">
-        <v>10.26559184413772</v>
+        <v>10.16793381854309</v>
       </c>
       <c r="O5" t="n">
-        <v>3.625410854529254e-08</v>
+        <v>3.569009880520268e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7198,43 +7198,43 @@
         <v>11.9469150777149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.73055848098227</v>
+        <v>16.73730658174228</v>
       </c>
       <c r="D6" t="n">
-        <v>21.98848517008285</v>
+        <v>21.99133535550356</v>
       </c>
       <c r="E6" t="n">
-        <v>27.58772554541402</v>
+        <v>27.57370748625202</v>
       </c>
       <c r="F6" t="n">
-        <v>33.30969344621849</v>
+        <v>33.26812034719329</v>
       </c>
       <c r="G6" t="n">
-        <v>39.42719820798196</v>
+        <v>39.35053001607758</v>
       </c>
       <c r="H6" t="n">
-        <v>45.85276501848482</v>
+        <v>45.73627569814894</v>
       </c>
       <c r="I6" t="n">
-        <v>52.55382309105067</v>
+        <v>52.39594515425514</v>
       </c>
       <c r="J6" t="n">
-        <v>59.46464122245683</v>
+        <v>59.2662588638939</v>
       </c>
       <c r="K6" t="n">
-        <v>67.39204918309467</v>
+        <v>67.15284774619543</v>
       </c>
       <c r="L6" t="n">
-        <v>76.47208709327667</v>
+        <v>76.19479932776888</v>
       </c>
       <c r="M6" t="n">
-        <v>85.42227330342013</v>
+        <v>85.11588154038439</v>
       </c>
       <c r="N6" t="n">
-        <v>92.79520378588725</v>
+        <v>92.47719963836248</v>
       </c>
       <c r="O6" t="n">
-        <v>93.04075307505558</v>
+        <v>92.75137323291086</v>
       </c>
     </row>
     <row r="7">
@@ -7244,46 +7244,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.88174881725102</v>
+        <v>11.88179152852362</v>
       </c>
       <c r="C7" t="n">
-        <v>16.60810992523729</v>
+        <v>16.58270152006008</v>
       </c>
       <c r="D7" t="n">
-        <v>21.77008643424237</v>
+        <v>21.68738794084853</v>
       </c>
       <c r="E7" t="n">
-        <v>27.22583968808799</v>
+        <v>27.05940141660576</v>
       </c>
       <c r="F7" t="n">
-        <v>32.75767007586684</v>
+        <v>32.49138939088327</v>
       </c>
       <c r="G7" t="n">
-        <v>38.61113275743275</v>
+        <v>38.23521857572641</v>
       </c>
       <c r="H7" t="n">
-        <v>44.70143042885847</v>
+        <v>44.21511348750657</v>
       </c>
       <c r="I7" t="n">
-        <v>50.98875995253054</v>
+        <v>50.39825251593393</v>
       </c>
       <c r="J7" t="n">
-        <v>57.30016674258037</v>
+        <v>56.61899633336579</v>
       </c>
       <c r="K7" t="n">
-        <v>64.43498774779636</v>
+        <v>63.67567729932365</v>
       </c>
       <c r="L7" t="n">
-        <v>72.47768668914448</v>
+        <v>71.65498003952004</v>
       </c>
       <c r="M7" t="n">
-        <v>80.22257032726482</v>
+        <v>79.3719482126682</v>
       </c>
       <c r="N7" t="n">
-        <v>86.27025708823109</v>
+        <v>85.44924675411912</v>
       </c>
       <c r="O7" t="n">
-        <v>85.63719367713263</v>
+        <v>84.95049920505994</v>
       </c>
     </row>
     <row r="8">
@@ -7293,46 +7293,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06630210172860461</v>
+        <v>0.06387158129547148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0847277698695527</v>
+        <v>0.08148246024979727</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1046452613398825</v>
+        <v>0.09949642513060121</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1257806017479091</v>
+        <v>0.1176631308218197</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1474749093144384</v>
+        <v>0.1354797696698219</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1689544803151913</v>
+        <v>0.1523826135027146</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1888876271004952</v>
+        <v>0.1673635089592268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2053799037955409</v>
+        <v>0.1789723916145149</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2151838446179226</v>
+        <v>0.1846600541046168</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2151058380309274</v>
+        <v>0.182033912062145</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2016766077413465</v>
+        <v>0.1685038855569612</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1709842101377742</v>
+        <v>0.1412228773511084</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1187441758574585</v>
+        <v>0.09711914250665052</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00300436673110747</v>
+        <v>0.00299317124875864</v>
       </c>
     </row>
     <row r="9">
@@ -7342,46 +7342,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004301674460791692</v>
+        <v>0.0003874561734774716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009115643194113716</v>
+        <v>0.0008174662906955415</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001681826100054739</v>
+        <v>0.001460439351478872</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002796194248660962</v>
+        <v>0.002318576634196084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004243159279153555</v>
+        <v>0.003341832172553961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006005399520794973</v>
+        <v>0.004489113119505828</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007904670616952167</v>
+        <v>0.005619004484513497</v>
       </c>
       <c r="I9" t="n">
-        <v>0.009602358009475443</v>
+        <v>0.006511933030064586</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01049526664984596</v>
+        <v>0.006815840456759661</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01017400587871993</v>
+        <v>0.006352549399628764</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008327313374731977</v>
+        <v>0.005016485859970368</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005103545376360752</v>
+        <v>0.002976931181760833</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001752814937436427</v>
+        <v>0.0009949110775105631</v>
       </c>
       <c r="O9" t="n">
-        <v>5.246433670616904e-08</v>
+        <v>5.175728133444475e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7394,43 +7394,43 @@
         <v>0.005418645114382654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007264371453213779</v>
+        <v>0.009188312028606632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009855927230280049</v>
+        <v>0.01375482527157439</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01301628372684226</v>
+        <v>0.01856795983156536</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01644506911950218</v>
+        <v>0.02324715421449161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02054571686162629</v>
+        <v>0.02822890382360302</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02493698948249765</v>
+        <v>0.0331365679217118</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02959748100182535</v>
+        <v>0.03800257251642407</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03622285729713889</v>
+        <v>0.04455227545466075</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04372752372336076</v>
+        <v>0.05168534193204451</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05212454952218096</v>
+        <v>0.05951590977861799</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06081083106195626</v>
+        <v>0.06744870983709127</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07029667069635794</v>
+        <v>0.07598584300444083</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07957329558114763</v>
+        <v>0.0841052127243743</v>
       </c>
     </row>
     <row r="11">
@@ -7440,46 +7440,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.295107454430712</v>
+        <v>9.290626458295076</v>
       </c>
       <c r="C11" t="n">
-        <v>13.08938293088412</v>
+        <v>13.06352452729782</v>
       </c>
       <c r="D11" t="n">
-        <v>17.22969866429152</v>
+        <v>17.15816177003528</v>
       </c>
       <c r="E11" t="n">
-        <v>21.59303280551328</v>
+        <v>21.45529510665317</v>
       </c>
       <c r="F11" t="n">
-        <v>25.93435886244358</v>
+        <v>25.71848494529623</v>
       </c>
       <c r="G11" t="n">
-        <v>30.50787980676454</v>
+        <v>30.20695594424203</v>
       </c>
       <c r="H11" t="n">
-        <v>35.24408200295296</v>
+        <v>34.85825554081105</v>
       </c>
       <c r="I11" t="n">
-        <v>40.0674099610173</v>
+        <v>39.60303009029074</v>
       </c>
       <c r="J11" t="n">
-        <v>44.77540290950515</v>
+        <v>44.24564234314377</v>
       </c>
       <c r="K11" t="n">
-        <v>50.28790573503674</v>
+        <v>49.7004503547719</v>
       </c>
       <c r="L11" t="n">
-        <v>57.14476505771625</v>
+        <v>56.50369002144785</v>
       </c>
       <c r="M11" t="n">
-        <v>65.09630018490022</v>
+        <v>64.41364124850108</v>
       </c>
       <c r="N11" t="n">
-        <v>76.00466524409337</v>
+        <v>75.28131293557603</v>
       </c>
       <c r="O11" t="n">
-        <v>85.63719364087852</v>
+        <v>84.95049916936985</v>
       </c>
     </row>
     <row r="12">
@@ -7489,46 +7489,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.662279019549981</v>
+        <v>2.669209230668264</v>
       </c>
       <c r="C12" t="n">
-        <v>2.913674320802551</v>
+        <v>2.925184795634991</v>
       </c>
       <c r="D12" t="n">
-        <v>3.047298352242457</v>
+        <v>3.065219445169342</v>
       </c>
       <c r="E12" t="n">
-        <v>3.092323716957237</v>
+        <v>3.119451276595508</v>
       </c>
       <c r="F12" t="n">
-        <v>3.065789711600187</v>
+        <v>3.10504559205318</v>
       </c>
       <c r="G12" t="n">
-        <v>3.022622401650807</v>
+        <v>3.076901622732844</v>
       </c>
       <c r="H12" t="n">
-        <v>2.970658558849102</v>
+        <v>3.041742313723623</v>
       </c>
       <c r="I12" t="n">
-        <v>2.922691773140684</v>
+        <v>3.010749328072203</v>
       </c>
       <c r="J12" t="n">
-        <v>2.892756230622485</v>
+        <v>2.995237981170118</v>
       </c>
       <c r="K12" t="n">
-        <v>2.931962917629382</v>
+        <v>3.044657502675484</v>
       </c>
       <c r="L12" t="n">
-        <v>3.052411105980146</v>
+        <v>3.167719955462575</v>
       </c>
       <c r="M12" t="n">
-        <v>3.218916277149213</v>
+        <v>3.322514015815659</v>
       </c>
       <c r="N12" t="n">
-        <v>3.403067956423722</v>
+        <v>3.474627136452712</v>
       </c>
       <c r="O12" t="n">
-        <v>3.556513263352033</v>
+        <v>3.54549143674772</v>
       </c>
     </row>
     <row r="13">
@@ -7538,46 +7538,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.662279019549981</v>
+        <v>2.669209230668264</v>
       </c>
       <c r="C13" t="n">
-        <v>2.913674320802551</v>
+        <v>2.925184795634991</v>
       </c>
       <c r="D13" t="n">
-        <v>3.047298352242457</v>
+        <v>3.065219445169342</v>
       </c>
       <c r="E13" t="n">
-        <v>3.092323716957237</v>
+        <v>3.119451276595508</v>
       </c>
       <c r="F13" t="n">
-        <v>3.065789711600187</v>
+        <v>3.10504559205318</v>
       </c>
       <c r="G13" t="n">
-        <v>3.022622401650807</v>
+        <v>3.076901622732844</v>
       </c>
       <c r="H13" t="n">
-        <v>2.970658558849102</v>
+        <v>3.041742313723623</v>
       </c>
       <c r="I13" t="n">
-        <v>2.922691773140684</v>
+        <v>3.010749328072203</v>
       </c>
       <c r="J13" t="n">
-        <v>2.892756230622485</v>
+        <v>2.995237981170118</v>
       </c>
       <c r="K13" t="n">
-        <v>2.931962917629382</v>
+        <v>3.044657502675484</v>
       </c>
       <c r="L13" t="n">
-        <v>3.052411105980146</v>
+        <v>3.167719955462575</v>
       </c>
       <c r="M13" t="n">
-        <v>3.218916277149213</v>
+        <v>3.322514015815659</v>
       </c>
       <c r="N13" t="n">
-        <v>3.403067956423722</v>
+        <v>3.474627136452712</v>
       </c>
       <c r="O13" t="n">
-        <v>3.556513263352033</v>
+        <v>3.54549143674772</v>
       </c>
     </row>
     <row r="14">
@@ -7748,46 +7748,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-204.8268045194499</v>
+        <v>-205.443485435071</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.405686807048584</v>
+        <v>-6.516808725295333</v>
       </c>
       <c r="D2" t="n">
-        <v>136.4103824565789</v>
+        <v>133.0556423132346</v>
       </c>
       <c r="E2" t="n">
-        <v>223.3075850863924</v>
+        <v>219.4416587703178</v>
       </c>
       <c r="F2" t="n">
-        <v>263.0185294940549</v>
+        <v>259.2933265628119</v>
       </c>
       <c r="G2" t="n">
-        <v>271.3546313465824</v>
+        <v>268.0954428696219</v>
       </c>
       <c r="H2" t="n">
-        <v>263.9043420619151</v>
+        <v>261.1949174652846</v>
       </c>
       <c r="I2" t="n">
-        <v>247.8553424356963</v>
+        <v>245.6809048474969</v>
       </c>
       <c r="J2" t="n">
-        <v>227.587929116947</v>
+        <v>225.8896524338664</v>
       </c>
       <c r="K2" t="n">
-        <v>205.6594011944738</v>
+        <v>204.367698192507</v>
       </c>
       <c r="L2" t="n">
-        <v>183.8032479095702</v>
+        <v>182.8434160972494</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2938879334119</v>
+        <v>162.5991581628449</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0517687559186</v>
+        <v>144.5688932279108</v>
       </c>
       <c r="O2" t="n">
-        <v>127.4095288348344</v>
+        <v>127.0933852759697</v>
       </c>
     </row>
     <row r="3">
@@ -7800,43 +7800,43 @@
         <v>8.636725107995959</v>
       </c>
       <c r="C3" t="n">
-        <v>13.37493187615356</v>
+        <v>13.40903036337503</v>
       </c>
       <c r="D3" t="n">
-        <v>20.25209076900591</v>
+        <v>20.25578658185385</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4515085050539</v>
+        <v>29.3274958957897</v>
       </c>
       <c r="F3" t="n">
-        <v>40.82310325579481</v>
+        <v>40.46275467210275</v>
       </c>
       <c r="G3" t="n">
-        <v>54.3849455174681</v>
+        <v>53.68544435699224</v>
       </c>
       <c r="H3" t="n">
-        <v>70.40854583417226</v>
+        <v>69.27518372208992</v>
       </c>
       <c r="I3" t="n">
-        <v>88.87673405788186</v>
+        <v>87.237792210884</v>
       </c>
       <c r="J3" t="n">
-        <v>109.6981851979383</v>
+        <v>107.5080379742663</v>
       </c>
       <c r="K3" t="n">
-        <v>132.4304533250574</v>
+        <v>129.6810870876779</v>
       </c>
       <c r="L3" t="n">
-        <v>155.9201254004479</v>
+        <v>152.6808495402992</v>
       </c>
       <c r="M3" t="n">
-        <v>177.0493733106744</v>
+        <v>173.4813765844135</v>
       </c>
       <c r="N3" t="n">
-        <v>186.4722909811662</v>
+        <v>182.947924693481</v>
       </c>
       <c r="O3" t="n">
-        <v>152.9973204330981</v>
+        <v>150.4208891562996</v>
       </c>
     </row>
     <row r="4">
@@ -7846,46 +7846,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2264186506422355</v>
+        <v>0.2271630129927229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2209789679179641</v>
+        <v>0.2215918327194919</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2170281516708927</v>
+        <v>0.2174796498086586</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2121218133271323</v>
+        <v>0.2124319223826336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.211131601761586</v>
+        <v>0.2113335520551838</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2131106278189126</v>
+        <v>0.2132187104108815</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2147572891872142</v>
+        <v>0.2147859023127363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.216009298899945</v>
+        <v>0.21596351767339</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2163275232320581</v>
+        <v>0.2162099564904072</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2146683854200023</v>
+        <v>0.2145091284848835</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2079028006662562</v>
+        <v>0.2077224160422513</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1866649170531077</v>
+        <v>0.1865192207441139</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1199135015784189</v>
+        <v>0.1199354710535158</v>
       </c>
       <c r="O4" t="n">
-        <v>2.536929591905163e-10</v>
+        <v>2.493361831012739e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7895,46 +7895,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.036349203792502</v>
+        <v>1.03975905251465</v>
       </c>
       <c r="C5" t="n">
-        <v>1.558854038598491</v>
+        <v>1.558034679149871</v>
       </c>
       <c r="D5" t="n">
-        <v>2.239004108695331</v>
+        <v>2.226473982743039</v>
       </c>
       <c r="E5" t="n">
-        <v>3.055399721166073</v>
+        <v>3.023688915111965</v>
       </c>
       <c r="F5" t="n">
-        <v>4.015080955419633</v>
+        <v>3.957695417577446</v>
       </c>
       <c r="G5" t="n">
-        <v>5.144568786621799</v>
+        <v>5.055622672761851</v>
       </c>
       <c r="H5" t="n">
-        <v>6.432679212671331</v>
+        <v>6.308302921302475</v>
       </c>
       <c r="I5" t="n">
-        <v>7.870878420545346</v>
+        <v>7.709010066840737</v>
       </c>
       <c r="J5" t="n">
-        <v>9.418106122843941</v>
+        <v>9.219535210859913</v>
       </c>
       <c r="K5" t="n">
-        <v>10.9744481513331</v>
+        <v>10.74638503840954</v>
       </c>
       <c r="L5" t="n">
-        <v>12.26833872058499</v>
+        <v>12.02448561335592</v>
       </c>
       <c r="M5" t="n">
-        <v>12.47389916745177</v>
+        <v>12.2458708919627</v>
       </c>
       <c r="N5" t="n">
-        <v>8.797845289191176</v>
+        <v>8.663089215464433</v>
       </c>
       <c r="O5" t="n">
-        <v>1.883874380500813e-08</v>
+        <v>1.827661772712777e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7947,43 +7947,43 @@
         <v>4.604494857796085</v>
       </c>
       <c r="C6" t="n">
-        <v>7.111524146647947</v>
+        <v>7.116958405754355</v>
       </c>
       <c r="D6" t="n">
-        <v>10.42183723021783</v>
+        <v>10.42240775946056</v>
       </c>
       <c r="E6" t="n">
-        <v>14.58273751301263</v>
+        <v>14.56428907005454</v>
       </c>
       <c r="F6" t="n">
-        <v>19.29940720871806</v>
+        <v>19.24814132675773</v>
       </c>
       <c r="G6" t="n">
-        <v>24.56395541142523</v>
+        <v>24.46874284140463</v>
       </c>
       <c r="H6" t="n">
-        <v>30.56642918572831</v>
+        <v>30.41798211525741</v>
       </c>
       <c r="I6" t="n">
-        <v>37.29790084229641</v>
+        <v>37.09021609884456</v>
       </c>
       <c r="J6" t="n">
-        <v>44.71172514813865</v>
+        <v>44.44202863703221</v>
       </c>
       <c r="K6" t="n">
-        <v>52.68923766222265</v>
+        <v>52.35866298719749</v>
       </c>
       <c r="L6" t="n">
-        <v>61.04382723652797</v>
+        <v>60.66056796190028</v>
       </c>
       <c r="M6" t="n">
-        <v>69.40178025825618</v>
+        <v>68.97919958469421</v>
       </c>
       <c r="N6" t="n">
-        <v>76.5285385269319</v>
+        <v>76.09171522489683</v>
       </c>
       <c r="O6" t="n">
-        <v>77.82790554408047</v>
+        <v>77.43238588755479</v>
       </c>
     </row>
     <row r="7">
@@ -7993,46 +7993,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.57713709030993</v>
+        <v>4.577149417136663</v>
       </c>
       <c r="C7" t="n">
-        <v>7.054309526765453</v>
+        <v>7.031101552926601</v>
       </c>
       <c r="D7" t="n">
-        <v>10.31665289252713</v>
+        <v>10.23761986329259</v>
       </c>
       <c r="E7" t="n">
-        <v>14.40398643233387</v>
+        <v>14.23368428435007</v>
       </c>
       <c r="F7" t="n">
-        <v>19.01695872109918</v>
+        <v>18.72724600088114</v>
       </c>
       <c r="G7" t="n">
-        <v>24.14036709137432</v>
+        <v>23.71097106355935</v>
       </c>
       <c r="H7" t="n">
-        <v>29.9532520503351</v>
+        <v>29.37019074984423</v>
       </c>
       <c r="I7" t="n">
-        <v>36.43768328784363</v>
+        <v>35.69589044432666</v>
       </c>
       <c r="J7" t="n">
-        <v>43.53632853615665</v>
+        <v>42.64158487663803</v>
       </c>
       <c r="K7" t="n">
-        <v>51.12279635336805</v>
+        <v>50.09756514472454</v>
       </c>
       <c r="L7" t="n">
-        <v>59.00997332055763</v>
+        <v>57.88727977682535</v>
       </c>
       <c r="M7" t="n">
-        <v>66.82508617247471</v>
+        <v>65.65473972659811</v>
       </c>
       <c r="N7" t="n">
-        <v>73.36826273426531</v>
+        <v>72.23125185041316</v>
       </c>
       <c r="O7" t="n">
-        <v>74.25804746461556</v>
+        <v>73.30110495717457</v>
       </c>
     </row>
     <row r="8">
@@ -8042,46 +8042,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04591192835589854</v>
+        <v>0.04237178033757004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0597431672684899</v>
+        <v>0.05515164628529125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07598269293399545</v>
+        <v>0.06957298202312365</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09439112557640057</v>
+        <v>0.08534220483423265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1142527311435803</v>
+        <v>0.1018056098319067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1345688471124777</v>
+        <v>0.1181160068466437</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1540552673416689</v>
+        <v>0.1332416785022171</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1709244751177442</v>
+        <v>0.1457746827440353</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1826898324495445</v>
+        <v>0.1537904195092466</v>
       </c>
       <c r="K8" t="n">
-        <v>0.186135220491246</v>
+        <v>0.154850354164598</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1774916542182839</v>
+        <v>0.1460916431454799</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1527446322087941</v>
+        <v>0.1245337744661543</v>
       </c>
       <c r="N8" t="n">
-        <v>0.10747050917266</v>
+        <v>0.08692893638989568</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00244682804823255</v>
+        <v>0.002430956983399817</v>
       </c>
     </row>
     <row r="9">
@@ -8091,46 +8091,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.125827038087804e-05</v>
+        <v>4.893144364753935e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001544559360182977</v>
+        <v>0.0001235642985993617</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003528550271003158</v>
+        <v>0.0002757101196351648</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000732359358072719</v>
+        <v>0.0005516022254207344</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001356442589133839</v>
+        <v>0.0009794461882216918</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002267970320049718</v>
+        <v>0.001568088435939361</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00346460324657864</v>
+        <v>0.002296344923574851</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004805403711379878</v>
+        <v>0.003060291761164642</v>
       </c>
       <c r="J9" t="n">
-        <v>0.005955334158213327</v>
+        <v>0.003654940527277609</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006400693151849379</v>
+        <v>0.003799512227419073</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005663363557230086</v>
+        <v>0.003262811485711789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003716065139505981</v>
+        <v>0.002085115907346528</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001354403061407436</v>
+        <v>0.0007435532005636204</v>
       </c>
       <c r="O9" t="n">
-        <v>3.081889786007436e-08</v>
+        <v>3.010863784684752e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8140,46 +8140,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005928231013127826</v>
+        <v>0.005928231013127825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008023619518098974</v>
+        <v>0.01204633828684952</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01005882939330925</v>
+        <v>0.01770341271486501</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01220749678596595</v>
+        <v>0.02266181218262643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0145648020164456</v>
+        <v>0.02701122518077178</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01715197502495447</v>
+        <v>0.03090488523708486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01994712985419016</v>
+        <v>0.03437095256773108</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02293459233425129</v>
+        <v>0.03751030619635796</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02615513657657361</v>
+        <v>0.04042994604368059</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02960833530566104</v>
+        <v>0.04311222253321337</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03322515386452499</v>
+        <v>0.04566434945563197</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03707366022985958</v>
+        <v>0.04816487813996323</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04127769130849836</v>
+        <v>0.05072457375780996</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04586861259711335</v>
+        <v>0.05335339797319016</v>
       </c>
     </row>
     <row r="11">
@@ -8189,46 +8189,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.540787886517427</v>
+        <v>3.537390364622013</v>
       </c>
       <c r="C11" t="n">
-        <v>5.495455488166961</v>
+        <v>5.47306687377673</v>
       </c>
       <c r="D11" t="n">
-        <v>8.077648783831794</v>
+        <v>8.011145880549547</v>
       </c>
       <c r="E11" t="n">
-        <v>11.3485867111678</v>
+        <v>11.2099953692381</v>
       </c>
       <c r="F11" t="n">
-        <v>15.00187776567955</v>
+        <v>14.76955058330369</v>
       </c>
       <c r="G11" t="n">
-        <v>18.99579830475252</v>
+        <v>18.6553483907975</v>
       </c>
       <c r="H11" t="n">
-        <v>23.52057283766376</v>
+        <v>23.06188782854176</v>
       </c>
       <c r="I11" t="n">
-        <v>28.56680486729829</v>
+        <v>27.98688037748593</v>
       </c>
       <c r="J11" t="n">
-        <v>34.11822241331271</v>
+        <v>33.42204966577812</v>
       </c>
       <c r="K11" t="n">
-        <v>40.14834820203495</v>
+        <v>39.35118010631501</v>
       </c>
       <c r="L11" t="n">
-        <v>46.74163459997263</v>
+        <v>45.86279416346944</v>
       </c>
       <c r="M11" t="n">
-        <v>54.35118700502295</v>
+        <v>53.40886883463541</v>
       </c>
       <c r="N11" t="n">
-        <v>64.57041744507414</v>
+        <v>63.56816263494873</v>
       </c>
       <c r="O11" t="n">
-        <v>74.25804744577681</v>
+        <v>73.30110493889795</v>
       </c>
     </row>
     <row r="12">
@@ -8238,46 +8238,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.689847557180292</v>
+        <v>0.6924072395985956</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8584696594828555</v>
+        <v>0.8633209937698136</v>
       </c>
       <c r="D12" t="n">
-        <v>1.028807688994481</v>
+        <v>1.036001019782769</v>
       </c>
       <c r="E12" t="n">
-        <v>1.192829697729674</v>
+        <v>1.203224440650778</v>
       </c>
       <c r="F12" t="n">
-        <v>1.324179270309852</v>
+        <v>1.339220628613691</v>
       </c>
       <c r="G12" t="n">
-        <v>1.430549640436892</v>
+        <v>1.452095649659145</v>
       </c>
       <c r="H12" t="n">
-        <v>1.529199938518871</v>
+        <v>1.559214965743307</v>
       </c>
       <c r="I12" t="n">
-        <v>1.623997076035249</v>
+        <v>1.663943443685655</v>
       </c>
       <c r="J12" t="n">
-        <v>1.720345264388885</v>
+        <v>1.770431387734682</v>
       </c>
       <c r="K12" t="n">
-        <v>1.82492994450046</v>
+        <v>1.883190218362485</v>
       </c>
       <c r="L12" t="n">
-        <v>1.946330667482168</v>
+        <v>2.007947224472908</v>
       </c>
       <c r="M12" t="n">
-        <v>2.090499357642627</v>
+        <v>2.146953534705053</v>
       </c>
       <c r="N12" t="n">
-        <v>2.240850295432322</v>
+        <v>2.279338376002771</v>
       </c>
       <c r="O12" t="n">
-        <v>2.363437299746471</v>
+        <v>2.351463775998208</v>
       </c>
     </row>
     <row r="13">
@@ -8287,46 +8287,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.689847557180292</v>
+        <v>0.6924072395985956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8584696594828555</v>
+        <v>0.8633209937698136</v>
       </c>
       <c r="D13" t="n">
-        <v>1.028807688994481</v>
+        <v>1.036001019782769</v>
       </c>
       <c r="E13" t="n">
-        <v>1.192829697729674</v>
+        <v>1.203224440650778</v>
       </c>
       <c r="F13" t="n">
-        <v>1.324179270309852</v>
+        <v>1.339220628613691</v>
       </c>
       <c r="G13" t="n">
-        <v>1.430549640436892</v>
+        <v>1.452095649659145</v>
       </c>
       <c r="H13" t="n">
-        <v>1.529199938518871</v>
+        <v>1.559214965743307</v>
       </c>
       <c r="I13" t="n">
-        <v>1.623997076035249</v>
+        <v>1.663943443685655</v>
       </c>
       <c r="J13" t="n">
-        <v>1.720345264388885</v>
+        <v>1.770431387734682</v>
       </c>
       <c r="K13" t="n">
-        <v>1.82492994450046</v>
+        <v>1.883190218362485</v>
       </c>
       <c r="L13" t="n">
-        <v>1.946330667482168</v>
+        <v>2.007947224472908</v>
       </c>
       <c r="M13" t="n">
-        <v>2.090499357642627</v>
+        <v>2.146953534705053</v>
       </c>
       <c r="N13" t="n">
-        <v>2.240850295432322</v>
+        <v>2.279338376002771</v>
       </c>
       <c r="O13" t="n">
-        <v>2.363437299746471</v>
+        <v>2.351463775998208</v>
       </c>
     </row>
     <row r="14">
@@ -8497,46 +8497,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.9596357723458</v>
+        <v>135.8216521971943</v>
       </c>
       <c r="C2" t="n">
-        <v>175.2123385399558</v>
+        <v>174.7755366433959</v>
       </c>
       <c r="D2" t="n">
-        <v>198.4066965475556</v>
+        <v>197.6576264247655</v>
       </c>
       <c r="E2" t="n">
-        <v>208.6403260626874</v>
+        <v>207.6935564424608</v>
       </c>
       <c r="F2" t="n">
-        <v>204.8985558359301</v>
+        <v>203.8997792478925</v>
       </c>
       <c r="G2" t="n">
-        <v>194.0768198278587</v>
+        <v>193.1222672420341</v>
       </c>
       <c r="H2" t="n">
-        <v>181.561189825501</v>
+        <v>180.6974901813431</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4275914196755</v>
+        <v>167.6764326290015</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3360160614548</v>
+        <v>154.7033539587011</v>
       </c>
       <c r="K2" t="n">
-        <v>139.3687341264315</v>
+        <v>138.8625605658716</v>
       </c>
       <c r="L2" t="n">
-        <v>121.7817845909484</v>
+        <v>121.3953343147411</v>
       </c>
       <c r="M2" t="n">
-        <v>106.2571548177841</v>
+        <v>105.9703736616692</v>
       </c>
       <c r="N2" t="n">
-        <v>92.93662769609877</v>
+        <v>92.73275374346062</v>
       </c>
       <c r="O2" t="n">
-        <v>80.66251256602673</v>
+        <v>80.52599318280473</v>
       </c>
     </row>
     <row r="3">
@@ -8549,43 +8549,43 @@
         <v>10.83233191914928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.55202163413432</v>
+        <v>18.59225845344636</v>
       </c>
       <c r="D3" t="n">
-        <v>28.3003897967105</v>
+        <v>28.31264926559676</v>
       </c>
       <c r="E3" t="n">
-        <v>40.0240086430414</v>
+        <v>39.90194775631405</v>
       </c>
       <c r="F3" t="n">
-        <v>53.31133307327079</v>
+        <v>52.9464445520315</v>
       </c>
       <c r="G3" t="n">
-        <v>68.17476573149759</v>
+        <v>67.47483073063185</v>
       </c>
       <c r="H3" t="n">
-        <v>84.98660553115131</v>
+        <v>83.87402150066461</v>
       </c>
       <c r="I3" t="n">
-        <v>103.6612584131969</v>
+        <v>102.0854715234681</v>
       </c>
       <c r="J3" t="n">
-        <v>123.7999608160986</v>
+        <v>121.7414218883558</v>
       </c>
       <c r="K3" t="n">
-        <v>143.4748642488773</v>
+        <v>140.9733457741565</v>
       </c>
       <c r="L3" t="n">
-        <v>160.7521869906109</v>
+        <v>157.9268443095907</v>
       </c>
       <c r="M3" t="n">
-        <v>173.8055079219156</v>
+        <v>170.8236096010234</v>
       </c>
       <c r="N3" t="n">
-        <v>174.5642089849959</v>
+        <v>171.7405729368175</v>
       </c>
       <c r="O3" t="n">
-        <v>136.6629932998937</v>
+        <v>134.684921318597</v>
       </c>
     </row>
     <row r="4">
@@ -8595,46 +8595,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.257111391037472</v>
+        <v>0.2578105431080333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2490043689664646</v>
+        <v>0.2496242456061581</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2421192031377031</v>
+        <v>0.2425895179526069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2347897772683023</v>
+        <v>0.2351212780511254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2326449320704265</v>
+        <v>0.2328676014546858</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2336053897583379</v>
+        <v>0.2337327603166158</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2336854901267894</v>
+        <v>0.2337318411026614</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2320543701889411</v>
+        <v>0.2320266348133229</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2257812746588428</v>
+        <v>0.2256845389782159</v>
       </c>
       <c r="K4" t="n">
-        <v>0.218806476900084</v>
+        <v>0.2186702076926274</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2107470439833871</v>
+        <v>0.2105908264966301</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1876789141421577</v>
+        <v>0.1875541093937723</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1180610780963501</v>
+        <v>0.1180862521806851</v>
       </c>
       <c r="O4" t="n">
-        <v>6.426500922920633e-10</v>
+        <v>6.360944272238746e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8644,46 +8644,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.47750210379199</v>
+        <v>1.481525785723194</v>
       </c>
       <c r="C5" t="n">
-        <v>2.183169983261909</v>
+        <v>2.182992959011304</v>
       </c>
       <c r="D5" t="n">
-        <v>3.015627287450242</v>
+        <v>3.002993737528736</v>
       </c>
       <c r="E5" t="n">
-        <v>3.935582417306619</v>
+        <v>3.903349565140822</v>
       </c>
       <c r="F5" t="n">
-        <v>4.958625327585799</v>
+        <v>4.901354703538836</v>
       </c>
       <c r="G5" t="n">
-        <v>6.121553456170978</v>
+        <v>6.034700277549635</v>
       </c>
       <c r="H5" t="n">
-        <v>7.402826136720102</v>
+        <v>7.284040854170247</v>
       </c>
       <c r="I5" t="n">
-        <v>8.765551493378213</v>
+        <v>8.614641892067995</v>
       </c>
       <c r="J5" t="n">
-        <v>10.03084870270789</v>
+        <v>9.852473669456858</v>
       </c>
       <c r="K5" t="n">
-        <v>11.07255951307531</v>
+        <v>10.87724780093799</v>
       </c>
       <c r="L5" t="n">
-        <v>11.77546861193659</v>
+        <v>11.57579238772397</v>
       </c>
       <c r="M5" t="n">
-        <v>11.39619756019942</v>
+        <v>11.21780632088813</v>
       </c>
       <c r="N5" t="n">
-        <v>7.57962172137149</v>
+        <v>7.480268624510718</v>
       </c>
       <c r="O5" t="n">
-        <v>4.030773160684978e-08</v>
+        <v>3.945340288051532e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8696,43 +8696,43 @@
         <v>5.773373341602125</v>
       </c>
       <c r="C6" t="n">
-        <v>8.824011336263103</v>
+        <v>8.829748408502969</v>
       </c>
       <c r="D6" t="n">
-        <v>12.55820969055181</v>
+        <v>12.55984147349198</v>
       </c>
       <c r="E6" t="n">
-        <v>16.93480182105086</v>
+        <v>16.91929147713932</v>
       </c>
       <c r="F6" t="n">
-        <v>21.58146010855709</v>
+        <v>21.53703935516495</v>
       </c>
       <c r="G6" t="n">
-        <v>26.59939003648008</v>
+        <v>26.51716692950672</v>
       </c>
       <c r="H6" t="n">
-        <v>32.24264758721079</v>
+        <v>32.11543371089427</v>
       </c>
       <c r="I6" t="n">
-        <v>38.55772513663774</v>
+        <v>38.38094307745497</v>
       </c>
       <c r="J6" t="n">
-        <v>45.49916844948188</v>
+        <v>45.2708676620826</v>
       </c>
       <c r="K6" t="n">
-        <v>52.00947399409604</v>
+        <v>51.73575804792841</v>
       </c>
       <c r="L6" t="n">
-        <v>57.64071220907181</v>
+        <v>57.33489988592644</v>
       </c>
       <c r="M6" t="n">
-        <v>62.8872227961897</v>
+        <v>62.56158222433044</v>
       </c>
       <c r="N6" t="n">
-        <v>66.77586594144246</v>
+        <v>66.44997767717379</v>
       </c>
       <c r="O6" t="n">
-        <v>65.53611302137234</v>
+        <v>65.25008684552607</v>
       </c>
     </row>
     <row r="7">
@@ -8742,46 +8742,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.746544709007685</v>
+        <v>5.746567878344577</v>
       </c>
       <c r="C7" t="n">
-        <v>8.767597100097204</v>
+        <v>8.74511589893995</v>
       </c>
       <c r="D7" t="n">
-        <v>12.45513469551249</v>
+        <v>12.37890970258414</v>
       </c>
       <c r="E7" t="n">
-        <v>16.76215405583563</v>
+        <v>16.60143053616809</v>
       </c>
       <c r="F7" t="n">
-        <v>21.31413430525415</v>
+        <v>21.0478171841891</v>
       </c>
       <c r="G7" t="n">
-        <v>26.20467559632787</v>
+        <v>25.81880378845907</v>
       </c>
       <c r="H7" t="n">
-        <v>31.67858703038683</v>
+        <v>31.16409308978531</v>
       </c>
       <c r="I7" t="n">
-        <v>37.77369711348771</v>
+        <v>37.12781465368797</v>
       </c>
       <c r="J7" t="n">
-        <v>44.42728351970098</v>
+        <v>43.65595319051901</v>
       </c>
       <c r="K7" t="n">
-        <v>50.60434988006087</v>
+        <v>49.74270576551305</v>
       </c>
       <c r="L7" t="n">
-        <v>55.87489337627358</v>
+        <v>54.96817017292634</v>
       </c>
       <c r="M7" t="n">
-        <v>60.72177906766525</v>
+        <v>59.81103990281651</v>
       </c>
       <c r="N7" t="n">
-        <v>64.20085131854997</v>
+        <v>63.34580432839101</v>
       </c>
       <c r="O7" t="n">
-        <v>62.72111696598223</v>
+        <v>62.02444352908883</v>
       </c>
     </row>
     <row r="8">
@@ -8791,46 +8791,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06036745792895333</v>
+        <v>0.0564297139430547</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07773585340652486</v>
+        <v>0.07250767184676235</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09606688172593024</v>
+        <v>0.08877303993149022</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1151807907275544</v>
+        <v>0.1050447636225162</v>
       </c>
       <c r="F8" t="n">
-        <v>0.134211135135556</v>
+        <v>0.1206061699295649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1521439288569363</v>
+        <v>0.1346606938944975</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16776135532024</v>
+        <v>0.1462794091694803</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1795776022813283</v>
+        <v>0.1543405874759918</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1857824342618681</v>
+        <v>0.1575056097465811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1835878483449427</v>
+        <v>0.1537019725038222</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1700280747344054</v>
+        <v>0.1407321102281912</v>
       </c>
       <c r="M8" t="n">
-        <v>0.142495268877616</v>
+        <v>0.1167414544018134</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09802897366046236</v>
+        <v>0.07962386364307415</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003113714008320436</v>
+        <v>0.003097447826320134</v>
       </c>
     </row>
     <row r="9">
@@ -8840,46 +8840,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001346212213917607</v>
+        <v>0.0001114518844994553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003396833117315974</v>
+        <v>0.0002796995284976387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007211880192151618</v>
+        <v>0.0005782100626058442</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001349685974484749</v>
+        <v>0.001041883056260808</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00222870521717716</v>
+        <v>0.001648862880307132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003329292698762369</v>
+        <v>0.002358135965881718</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004568163062034083</v>
+        <v>0.003100275246991409</v>
       </c>
       <c r="I9" t="n">
-        <v>0.005738753624396931</v>
+        <v>0.003738179607351135</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00651508650275349</v>
+        <v>0.004082736970470891</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006344849359387546</v>
+        <v>0.003837682980971789</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005027205183712515</v>
+        <v>0.002944825102973665</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002980915013160832</v>
+        <v>0.001697008175345215</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0009949103515959202</v>
+        <v>0.0005530799015265764</v>
       </c>
       <c r="O9" t="n">
-        <v>5.614076486118535e-08</v>
+        <v>5.508197726286931e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8892,43 +8892,43 @@
         <v>0.00462364198426167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006354768904673167</v>
+        <v>0.009553251817830961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008150350212508255</v>
+        <v>0.01435954117939081</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01011515109836177</v>
+        <v>0.01872531472981826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01228355712506481</v>
+        <v>0.02263882700193925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01471406475549572</v>
+        <v>0.02624733656246274</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01735255742409472</v>
+        <v>0.02952600156043681</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02018504117573283</v>
+        <v>0.03255235916528435</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02341514976171564</v>
+        <v>0.03558208220387838</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02689470123913508</v>
+        <v>0.03844951102468792</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0305477076901453</v>
+        <v>0.04122767969596441</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03438636208375099</v>
+        <v>0.04393823198847455</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03854715586613489</v>
+        <v>0.04670611454467843</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04295335608828977</v>
+        <v>0.04943507997149442</v>
       </c>
     </row>
     <row r="11">
@@ -8938,46 +8938,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.269042605215694</v>
+        <v>4.265042092621384</v>
       </c>
       <c r="C11" t="n">
-        <v>6.584427116835293</v>
+        <v>6.562122939928646</v>
       </c>
       <c r="D11" t="n">
-        <v>9.439507408062246</v>
+        <v>9.375915965055409</v>
       </c>
       <c r="E11" t="n">
-        <v>12.82657163852902</v>
+        <v>12.69808097102727</v>
       </c>
       <c r="F11" t="n">
-        <v>16.35550897766835</v>
+        <v>16.14646248065027</v>
       </c>
       <c r="G11" t="n">
-        <v>20.08312214015689</v>
+        <v>19.78410351090943</v>
       </c>
       <c r="H11" t="n">
-        <v>24.27576089366673</v>
+        <v>23.88005223561506</v>
       </c>
       <c r="I11" t="n">
-        <v>29.00814562010951</v>
+        <v>28.51317276161997</v>
       </c>
       <c r="J11" t="n">
-        <v>34.39643481699309</v>
+        <v>33.80347952106216</v>
       </c>
       <c r="K11" t="n">
-        <v>39.53179036698556</v>
+        <v>38.86545796457506</v>
       </c>
       <c r="L11" t="n">
-        <v>44.09942476433699</v>
+        <v>43.39237778520237</v>
       </c>
       <c r="M11" t="n">
-        <v>49.32558150746583</v>
+        <v>48.59323358192839</v>
       </c>
       <c r="N11" t="n">
-        <v>56.62122959717848</v>
+        <v>55.86553570388029</v>
       </c>
       <c r="O11" t="n">
-        <v>62.72111692567449</v>
+        <v>62.02444348963543</v>
       </c>
     </row>
     <row r="12">
@@ -8987,46 +8987,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7631459497071296</v>
+        <v>0.7663440864672705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9746828234767502</v>
+        <v>0.9808454569333516</v>
       </c>
       <c r="D12" t="n">
-        <v>1.173356648195403</v>
+        <v>1.182978163389216</v>
       </c>
       <c r="E12" t="n">
-        <v>1.353120913698316</v>
+        <v>1.367368059734487</v>
       </c>
       <c r="F12" t="n">
-        <v>1.490429270155918</v>
+        <v>1.510733873714496</v>
       </c>
       <c r="G12" t="n">
-        <v>1.604839378908549</v>
+        <v>1.632868886696166</v>
       </c>
       <c r="H12" t="n">
-        <v>1.718730908002721</v>
+        <v>1.756138887848721</v>
       </c>
       <c r="I12" t="n">
-        <v>1.838462958871221</v>
+        <v>1.886327524324731</v>
       </c>
       <c r="J12" t="n">
-        <v>1.96771935837966</v>
+        <v>2.02583965161014</v>
       </c>
       <c r="K12" t="n">
-        <v>2.074661984953864</v>
+        <v>2.139289566302222</v>
       </c>
       <c r="L12" t="n">
-        <v>2.162843065289395</v>
+        <v>2.227306114428979</v>
       </c>
       <c r="M12" t="n">
-        <v>2.267747145855914</v>
+        <v>2.323759936906967</v>
       </c>
       <c r="N12" t="n">
-        <v>2.36716835194931</v>
+        <v>2.403683151052472</v>
       </c>
       <c r="O12" t="n">
-        <v>2.409998669665053</v>
+        <v>2.399519610373999</v>
       </c>
     </row>
     <row r="13">
@@ -9036,46 +9036,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7631459497071296</v>
+        <v>0.7663440864672705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9746828234767502</v>
+        <v>0.9808454569333516</v>
       </c>
       <c r="D13" t="n">
-        <v>1.173356648195403</v>
+        <v>1.182978163389216</v>
       </c>
       <c r="E13" t="n">
-        <v>1.353120913698316</v>
+        <v>1.367368059734487</v>
       </c>
       <c r="F13" t="n">
-        <v>1.490429270155918</v>
+        <v>1.510733873714496</v>
       </c>
       <c r="G13" t="n">
-        <v>1.604839378908549</v>
+        <v>1.632868886696166</v>
       </c>
       <c r="H13" t="n">
-        <v>1.718730908002721</v>
+        <v>1.756138887848721</v>
       </c>
       <c r="I13" t="n">
-        <v>1.838462958871221</v>
+        <v>1.886327524324731</v>
       </c>
       <c r="J13" t="n">
-        <v>1.96771935837966</v>
+        <v>2.02583965161014</v>
       </c>
       <c r="K13" t="n">
-        <v>2.074661984953864</v>
+        <v>2.139289566302222</v>
       </c>
       <c r="L13" t="n">
-        <v>2.162843065289395</v>
+        <v>2.227306114428979</v>
       </c>
       <c r="M13" t="n">
-        <v>2.267747145855914</v>
+        <v>2.323759936906967</v>
       </c>
       <c r="N13" t="n">
-        <v>2.36716835194931</v>
+        <v>2.403683151052472</v>
       </c>
       <c r="O13" t="n">
-        <v>2.409998669665053</v>
+        <v>2.399519610373999</v>
       </c>
     </row>
     <row r="14">
@@ -9246,46 +9246,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-356.1902648040111</v>
+        <v>-356.8037512515442</v>
       </c>
       <c r="C2" t="n">
-        <v>-175.8972583029327</v>
+        <v>-178.0275250791432</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.8935838856977</v>
+        <v>-23.57259687653664</v>
       </c>
       <c r="E2" t="n">
-        <v>103.2589399840913</v>
+        <v>98.64877907346684</v>
       </c>
       <c r="F2" t="n">
-        <v>184.4150240419264</v>
+        <v>179.6819203086878</v>
       </c>
       <c r="G2" t="n">
-        <v>226.7135057211318</v>
+        <v>222.3719504146443</v>
       </c>
       <c r="H2" t="n">
-        <v>246.7887951992246</v>
+        <v>243.0042701539797</v>
       </c>
       <c r="I2" t="n">
-        <v>252.704695798168</v>
+        <v>249.5210613639635</v>
       </c>
       <c r="J2" t="n">
-        <v>249.7835941171214</v>
+        <v>247.1798262126805</v>
       </c>
       <c r="K2" t="n">
-        <v>234.3959117102909</v>
+        <v>232.3778463075356</v>
       </c>
       <c r="L2" t="n">
-        <v>210.2998395510424</v>
+        <v>208.8104730184262</v>
       </c>
       <c r="M2" t="n">
-        <v>186.9050897829493</v>
+        <v>185.8334099952439</v>
       </c>
       <c r="N2" t="n">
-        <v>165.8871996369945</v>
+        <v>165.1464565311034</v>
       </c>
       <c r="O2" t="n">
-        <v>145.1141804094428</v>
+        <v>144.631640626427</v>
       </c>
     </row>
     <row r="3">
@@ -9298,43 +9298,43 @@
         <v>4.61992195780226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.709598657663151</v>
+        <v>7.728804763081626</v>
       </c>
       <c r="D3" t="n">
-        <v>12.74479931375777</v>
+        <v>12.74682056784137</v>
       </c>
       <c r="E3" t="n">
-        <v>20.20028368642373</v>
+        <v>20.11281861470019</v>
       </c>
       <c r="F3" t="n">
-        <v>30.13075017746372</v>
+        <v>29.85538588768306</v>
       </c>
       <c r="G3" t="n">
-        <v>42.6491762615214</v>
+        <v>42.0765783907322</v>
       </c>
       <c r="H3" t="n">
-        <v>58.292917080501</v>
+        <v>57.30520594241026</v>
       </c>
       <c r="I3" t="n">
-        <v>77.32561324949621</v>
+        <v>75.81332858992683</v>
       </c>
       <c r="J3" t="n">
-        <v>99.44590909948076</v>
+        <v>97.32695394319846</v>
       </c>
       <c r="K3" t="n">
-        <v>122.5215438790131</v>
+        <v>119.7909901173807</v>
       </c>
       <c r="L3" t="n">
-        <v>144.5787198222781</v>
+        <v>141.3360829074558</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6824210763996</v>
+        <v>160.1037150381202</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3210625182657</v>
+        <v>167.7934816481759</v>
       </c>
       <c r="O3" t="n">
-        <v>139.4256138935532</v>
+        <v>136.8579846450578</v>
       </c>
     </row>
     <row r="4">
@@ -9344,46 +9344,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2496070546625824</v>
+        <v>0.2503929145713579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2439152999068114</v>
+        <v>0.2445992537717274</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2373792838453912</v>
+        <v>0.2378952596832088</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2273478485637606</v>
+        <v>0.2277007698681993</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2231994718151507</v>
+        <v>0.2234229277239578</v>
       </c>
       <c r="G4" t="n">
-        <v>0.225008452047849</v>
+        <v>0.2251187967039689</v>
       </c>
       <c r="H4" t="n">
-        <v>0.225967514077955</v>
+        <v>0.2259817548037155</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2247965162934722</v>
+        <v>0.2247244817618887</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2179407938097768</v>
+        <v>0.2177899833919697</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2110480977137468</v>
+        <v>0.2108553665184204</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2044231100256958</v>
+        <v>0.2042122948629108</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1835430779270968</v>
+        <v>0.1833760226984686</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1176919648487049</v>
+        <v>0.117711156396136</v>
       </c>
       <c r="O4" t="n">
-        <v>1.295080876116348e-10</v>
+        <v>1.253767727052829e-10</v>
       </c>
     </row>
     <row r="5">
@@ -9393,46 +9393,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.609873147603292</v>
+        <v>0.6117937581451395</v>
       </c>
       <c r="C5" t="n">
-        <v>1.005662848000673</v>
+        <v>1.005195297921262</v>
       </c>
       <c r="D5" t="n">
-        <v>1.575644694231512</v>
+        <v>1.566827710287066</v>
       </c>
       <c r="E5" t="n">
-        <v>2.308734677210401</v>
+        <v>2.284247966709516</v>
       </c>
       <c r="F5" t="n">
-        <v>3.214323329060055</v>
+        <v>3.166664901083131</v>
       </c>
       <c r="G5" t="n">
-        <v>4.342206883008377</v>
+        <v>4.263401022438438</v>
       </c>
       <c r="H5" t="n">
-        <v>5.700012985298848</v>
+        <v>5.583223877231795</v>
       </c>
       <c r="I5" t="n">
-        <v>7.248413489187052</v>
+        <v>7.089248079167404</v>
       </c>
       <c r="J5" t="n">
-        <v>8.78468994198797</v>
+        <v>8.585517963678171</v>
       </c>
       <c r="K5" t="n">
-        <v>10.18580990239001</v>
+        <v>9.956754733529293</v>
       </c>
       <c r="L5" t="n">
-        <v>11.32709385771127</v>
+        <v>11.08228701201043</v>
       </c>
       <c r="M5" t="n">
-        <v>11.42485312655553</v>
+        <v>11.19687680344692</v>
       </c>
       <c r="N5" t="n">
-        <v>7.968965305840975</v>
+        <v>7.835201520502381</v>
       </c>
       <c r="O5" t="n">
-        <v>8.789780668433187e-09</v>
+        <v>8.388961780997154e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9445,43 +9445,43 @@
         <v>2.45867138086419</v>
       </c>
       <c r="C6" t="n">
-        <v>4.158667084651083</v>
+        <v>4.161772392403245</v>
       </c>
       <c r="D6" t="n">
-        <v>6.712555705580011</v>
+        <v>6.712875060022022</v>
       </c>
       <c r="E6" t="n">
-        <v>10.30019436670256</v>
+        <v>10.28679441790943</v>
       </c>
       <c r="F6" t="n">
-        <v>14.65530881704737</v>
+        <v>14.61499925732403</v>
       </c>
       <c r="G6" t="n">
-        <v>19.71321373977327</v>
+        <v>19.6334382757306</v>
       </c>
       <c r="H6" t="n">
-        <v>25.87504393814152</v>
+        <v>25.7427288705378</v>
       </c>
       <c r="I6" t="n">
-        <v>33.22459270911637</v>
+        <v>33.02830780360299</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76317339368852</v>
+        <v>41.49419600213526</v>
       </c>
       <c r="K6" t="n">
-        <v>50.30954577958622</v>
+        <v>49.97052410526506</v>
       </c>
       <c r="L6" t="n">
-        <v>58.13477437591282</v>
+        <v>57.74050714371459</v>
       </c>
       <c r="M6" t="n">
-        <v>65.75286204018764</v>
+        <v>65.31823967044774</v>
       </c>
       <c r="N6" t="n">
-        <v>72.0596737301864</v>
+        <v>71.61130519946562</v>
       </c>
       <c r="O6" t="n">
-        <v>72.79156905011834</v>
+        <v>72.38679585592553</v>
       </c>
     </row>
     <row r="7">
@@ -9491,46 +9491,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.443332975615276</v>
+        <v>2.443334944970211</v>
       </c>
       <c r="C7" t="n">
-        <v>4.123000272573673</v>
+        <v>4.109559953356858</v>
       </c>
       <c r="D7" t="n">
-        <v>6.637667233244133</v>
+        <v>6.586208200926405</v>
       </c>
       <c r="E7" t="n">
-        <v>10.15507598508419</v>
+        <v>10.03179729270003</v>
       </c>
       <c r="F7" t="n">
-        <v>14.40112426306319</v>
+        <v>14.17341064027051</v>
       </c>
       <c r="G7" t="n">
-        <v>19.29797233610135</v>
+        <v>18.93844976456946</v>
       </c>
       <c r="H7" t="n">
-        <v>25.22492230158553</v>
+        <v>24.70652501163779</v>
       </c>
       <c r="I7" t="n">
-        <v>32.24433193494973</v>
+        <v>31.54639861036127</v>
       </c>
       <c r="J7" t="n">
-        <v>40.30768993920169</v>
+        <v>39.42108737033283</v>
       </c>
       <c r="K7" t="n">
-        <v>48.26297897366241</v>
+        <v>47.22077933292473</v>
       </c>
       <c r="L7" t="n">
-        <v>55.4100456464412</v>
+        <v>54.26846125719337</v>
       </c>
       <c r="M7" t="n">
-        <v>62.24616725177438</v>
+        <v>61.0596556664244</v>
       </c>
       <c r="N7" t="n">
-        <v>67.71035997304675</v>
+        <v>66.56294747572102</v>
       </c>
       <c r="O7" t="n">
-        <v>67.87051550627272</v>
+        <v>66.91001530815187</v>
       </c>
     </row>
     <row r="8">
@@ -9540,46 +9540,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03807671696328099</v>
+        <v>0.03576126925089181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05124291684901917</v>
+        <v>0.04804484528819273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06737588100296393</v>
+        <v>0.06256234731659986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08636946531313375</v>
+        <v>0.07908565031196367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1073823777977445</v>
+        <v>0.09678791180307227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1290764527223021</v>
+        <v>0.1144771406050782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1500595424555966</v>
+        <v>0.1309981944580289</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1683521873979557</v>
+        <v>0.1447553340855167</v>
       </c>
       <c r="J8" t="n">
-        <v>0.181558737732553</v>
+        <v>0.1538954411347655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1862319363897336</v>
+        <v>0.1558164735213918</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1782055511549365</v>
+        <v>0.147367870687127</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1535645157493854</v>
+        <v>0.1256826373566154</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1080414776611921</v>
+        <v>0.08766654506129862</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002438802151330707</v>
+        <v>0.002433163865611322</v>
       </c>
     </row>
     <row r="9">
@@ -9589,46 +9589,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.222433838436804e-05</v>
+        <v>1.025498344861338e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.708948434672927e-05</v>
+        <v>3.098926270364899e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000102432634764931</v>
+        <v>8.323826574964784e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002545769201331417</v>
+        <v>0.0001986637157379749</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005464185833169103</v>
+        <v>0.0004073952625384487</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001022140308586114</v>
+        <v>0.0007274285633418552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001719573438195084</v>
+        <v>0.001169496569198677</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002589123851838035</v>
+        <v>0.001686334627626451</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003449951755722147</v>
+        <v>0.002157699520786371</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003862550920011857</v>
+        <v>0.002328646254932361</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003442206659049875</v>
+        <v>0.002008306378417937</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002255403155774601</v>
+        <v>0.001278498859692417</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008168592466506193</v>
+        <v>0.000452186903943181</v>
       </c>
       <c r="O9" t="n">
-        <v>1.802414287609394e-08</v>
+        <v>1.780812938642654e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9641,43 +9641,43 @@
         <v>0.006233521498567667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008567582320923384</v>
+        <v>0.01253827573053579</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01114121699413924</v>
+        <v>0.01885684147225171</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01406418165918739</v>
+        <v>0.02476947153236145</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01730691168416892</v>
+        <v>0.03018687952172813</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02101226460744999</v>
+        <v>0.03536115645398701</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02505897437963402</v>
+        <v>0.04020686258772694</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02942614402753953</v>
+        <v>0.04481679374602015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03476827512706548</v>
+        <v>0.04990941220249891</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04060271710568045</v>
+        <v>0.05498073464866108</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04680996102636</v>
+        <v>0.06009710949555921</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05329713835294723</v>
+        <v>0.06517789711800343</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06034577556065403</v>
+        <v>0.07049034398682642</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06760471837669904</v>
+        <v>0.07565993860123138</v>
       </c>
     </row>
     <row r="11">
@@ -9687,46 +9687,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.833459828011983</v>
+        <v>1.831541186825072</v>
       </c>
       <c r="C11" t="n">
-        <v>3.117337424573</v>
+        <v>3.104364655435596</v>
       </c>
       <c r="D11" t="n">
-        <v>5.062022539012621</v>
+        <v>5.019380490639339</v>
       </c>
       <c r="E11" t="n">
-        <v>7.846341307873785</v>
+        <v>7.747549325990519</v>
       </c>
       <c r="F11" t="n">
-        <v>11.18680093400313</v>
+        <v>11.00674573918737</v>
       </c>
       <c r="G11" t="n">
-        <v>14.95576545309297</v>
+        <v>14.67504874213102</v>
       </c>
       <c r="H11" t="n">
-        <v>19.52490931628668</v>
+        <v>19.12330113440599</v>
       </c>
       <c r="I11" t="n">
-        <v>24.99591844576268</v>
+        <v>24.45715053119387</v>
       </c>
       <c r="J11" t="n">
-        <v>31.52299999721372</v>
+        <v>30.83556940665465</v>
       </c>
       <c r="K11" t="n">
-        <v>38.0771690712724</v>
+        <v>37.26402459939543</v>
       </c>
       <c r="L11" t="n">
-        <v>44.08295178872993</v>
+        <v>43.18617424518295</v>
       </c>
       <c r="M11" t="n">
-        <v>50.82131412521885</v>
+        <v>49.86277886297749</v>
       </c>
       <c r="N11" t="n">
-        <v>59.74139466720577</v>
+        <v>58.72774595521864</v>
       </c>
       <c r="O11" t="n">
-        <v>67.87051549748294</v>
+        <v>66.9100152997629</v>
       </c>
     </row>
     <row r="12">
@@ -9736,46 +9736,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2343746526301083</v>
+        <v>0.2349388163870778</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3196774454810897</v>
+        <v>0.3209945247770845</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4220767224443567</v>
+        <v>0.4242753625831997</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5364160785374595</v>
+        <v>0.5399891850509674</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6394998845510382</v>
+        <v>0.645310272496271</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7291159813305373</v>
+        <v>0.7383381213907403</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8207940868700575</v>
+        <v>0.8349104217773068</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9157837226259364</v>
+        <v>0.9362040211852033</v>
       </c>
       <c r="J12" t="n">
-        <v>1.015489276825584</v>
+        <v>1.043051430616504</v>
       </c>
       <c r="K12" t="n">
-        <v>1.099537668875784</v>
+        <v>1.132947672679614</v>
       </c>
       <c r="L12" t="n">
-        <v>1.168747779246227</v>
+        <v>1.204380990171279</v>
       </c>
       <c r="M12" t="n">
-        <v>1.248707348755578</v>
+        <v>1.281314437551894</v>
       </c>
       <c r="N12" t="n">
-        <v>1.330732752608768</v>
+        <v>1.352661363105383</v>
       </c>
       <c r="O12" t="n">
-        <v>1.395019773206378</v>
+        <v>1.387270306267032</v>
       </c>
     </row>
     <row r="13">
@@ -9785,46 +9785,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2343746526301083</v>
+        <v>0.2349388163870778</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3196774454810897</v>
+        <v>0.3209945247770845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4220767224443567</v>
+        <v>0.4242753625831997</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5364160785374595</v>
+        <v>0.5399891850509674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6394998845510382</v>
+        <v>0.645310272496271</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7291159813305373</v>
+        <v>0.7383381213907403</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8207940868700575</v>
+        <v>0.8349104217773068</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9157837226259364</v>
+        <v>0.9362040211852033</v>
       </c>
       <c r="J13" t="n">
-        <v>1.015489276825584</v>
+        <v>1.043051430616504</v>
       </c>
       <c r="K13" t="n">
-        <v>1.099537668875784</v>
+        <v>1.132947672679614</v>
       </c>
       <c r="L13" t="n">
-        <v>1.168747779246227</v>
+        <v>1.204380990171279</v>
       </c>
       <c r="M13" t="n">
-        <v>1.248707348755578</v>
+        <v>1.281314437551894</v>
       </c>
       <c r="N13" t="n">
-        <v>1.330732752608768</v>
+        <v>1.352661363105383</v>
       </c>
       <c r="O13" t="n">
-        <v>1.395019773206378</v>
+        <v>1.387270306267032</v>
       </c>
     </row>
     <row r="14">

--- a/RICE13_pyomo/Results/non_coop.xlsx
+++ b/RICE13_pyomo/Results/non_coop.xlsx
@@ -496,46 +496,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.3111113166125</v>
+        <v>188.3188498143458</v>
       </c>
       <c r="C2" t="n">
-        <v>184.5246822823846</v>
+        <v>184.4812664830201</v>
       </c>
       <c r="D2" t="n">
-        <v>174.3294255504735</v>
+        <v>174.2232087585059</v>
       </c>
       <c r="E2" t="n">
-        <v>160.9136205157715</v>
+        <v>160.7366386995243</v>
       </c>
       <c r="F2" t="n">
-        <v>145.0191433960897</v>
+        <v>144.7754529953347</v>
       </c>
       <c r="G2" t="n">
-        <v>128.7746760642826</v>
+        <v>128.4768589937207</v>
       </c>
       <c r="H2" t="n">
-        <v>114.0648183872502</v>
+        <v>113.7275556955319</v>
       </c>
       <c r="I2" t="n">
-        <v>100.8545111266248</v>
+        <v>100.4933906759979</v>
       </c>
       <c r="J2" t="n">
-        <v>89.05512610085781</v>
+        <v>88.68454269621263</v>
       </c>
       <c r="K2" t="n">
-        <v>78.31666502760521</v>
+        <v>77.94996166215924</v>
       </c>
       <c r="L2" t="n">
-        <v>68.6183333722926</v>
+        <v>68.26604635027887</v>
       </c>
       <c r="M2" t="n">
-        <v>60.14394831583216</v>
+        <v>59.81369165242241</v>
       </c>
       <c r="N2" t="n">
-        <v>52.84264287889209</v>
+        <v>52.54235154543769</v>
       </c>
       <c r="O2" t="n">
-        <v>46.24417834840983</v>
+        <v>45.9625998064278</v>
       </c>
     </row>
     <row r="3">
@@ -548,43 +548,43 @@
         <v>30.15992716991271</v>
       </c>
       <c r="C3" t="n">
-        <v>50.04053647893066</v>
+        <v>49.99879849561503</v>
       </c>
       <c r="D3" t="n">
-        <v>69.8120251182926</v>
+        <v>69.73106828994499</v>
       </c>
       <c r="E3" t="n">
-        <v>88.99181668773376</v>
+        <v>88.80841523397237</v>
       </c>
       <c r="F3" t="n">
-        <v>107.4220250049668</v>
+        <v>106.9887867800782</v>
       </c>
       <c r="G3" t="n">
-        <v>125.4659081974765</v>
+        <v>124.5629814042075</v>
       </c>
       <c r="H3" t="n">
-        <v>143.8350643315048</v>
+        <v>142.1866613737315</v>
       </c>
       <c r="I3" t="n">
-        <v>162.6759089293377</v>
+        <v>159.9802701063665</v>
       </c>
       <c r="J3" t="n">
-        <v>181.9457170916463</v>
+        <v>177.89728089171</v>
       </c>
       <c r="K3" t="n">
-        <v>200.8829401334642</v>
+        <v>195.2080271864078</v>
       </c>
       <c r="L3" t="n">
-        <v>218.2501239420868</v>
+        <v>210.7474567741875</v>
       </c>
       <c r="M3" t="n">
-        <v>230.185716544268</v>
+        <v>220.8388416246165</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5492227434329</v>
+        <v>215.8738911248236</v>
       </c>
       <c r="O3" t="n">
-        <v>174.2161915322889</v>
+        <v>164.7206388833234</v>
       </c>
     </row>
     <row r="4">
@@ -594,46 +594,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2475007323804441</v>
+        <v>0.247272852566729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2427204253788963</v>
+        <v>0.2426953669140039</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2384909585344567</v>
+        <v>0.2386563730949165</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23437215816927</v>
+        <v>0.2346867304887608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.232591298060746</v>
+        <v>0.2330144670452753</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2330373837332292</v>
+        <v>0.2335335879074341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2332284146143407</v>
+        <v>0.233771532576654</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2328876942272925</v>
+        <v>0.2334579430113262</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2310157505596802</v>
+        <v>0.2315940445497483</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2271572316568042</v>
+        <v>0.2277219122991874</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2177267243181659</v>
+        <v>0.2182156978788351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1926508672461854</v>
+        <v>0.192918855834171</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196900246358691</v>
+        <v>0.119408994117835</v>
       </c>
       <c r="O4" t="n">
-        <v>2.5647077651464e-09</v>
+        <v>2.452553280281895e-09</v>
       </c>
     </row>
     <row r="5">
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.952442011979588</v>
+        <v>3.948268213648026</v>
       </c>
       <c r="C5" t="n">
-        <v>5.236396891705192</v>
+        <v>5.229756522361971</v>
       </c>
       <c r="D5" t="n">
-        <v>6.464986866926548</v>
+        <v>6.449469511612777</v>
       </c>
       <c r="E5" t="n">
-        <v>7.63924971806226</v>
+        <v>7.602320708854362</v>
       </c>
       <c r="F5" t="n">
-        <v>8.80101640863615</v>
+        <v>8.725829812153837</v>
       </c>
       <c r="G5" t="n">
-        <v>10.00878071754789</v>
+        <v>9.875423532350711</v>
       </c>
       <c r="H5" t="n">
-        <v>11.25237230665454</v>
+        <v>11.04028468155469</v>
       </c>
       <c r="I5" t="n">
-        <v>12.52241349243151</v>
+        <v>12.21156098642454</v>
       </c>
       <c r="J5" t="n">
-        <v>13.7442391315073</v>
+        <v>13.31790807870548</v>
       </c>
       <c r="K5" t="n">
-        <v>14.82065737336489</v>
+        <v>14.26826263598324</v>
       </c>
       <c r="L5" t="n">
-        <v>15.40866037765094</v>
+        <v>14.73557471415506</v>
       </c>
       <c r="M5" t="n">
-        <v>14.62884261654768</v>
+        <v>13.88721483136614</v>
       </c>
       <c r="N5" t="n">
-        <v>9.522336194024122</v>
+        <v>8.945006726760266</v>
       </c>
       <c r="O5" t="n">
-        <v>1.981191276213677e-07</v>
+        <v>1.770785796018684e-07</v>
       </c>
     </row>
     <row r="6">
@@ -695,43 +695,43 @@
         <v>15.99182389482275</v>
       </c>
       <c r="C6" t="n">
-        <v>21.66060923817663</v>
+        <v>21.65518762845828</v>
       </c>
       <c r="D6" t="n">
-        <v>27.29510081942093</v>
+        <v>27.28560121424054</v>
       </c>
       <c r="E6" t="n">
-        <v>32.90927957677101</v>
+        <v>32.88891826075483</v>
       </c>
       <c r="F6" t="n">
-        <v>38.30046040869897</v>
+        <v>38.2540545633416</v>
       </c>
       <c r="G6" t="n">
-        <v>43.57417109372817</v>
+        <v>43.4798575214369</v>
       </c>
       <c r="H6" t="n">
-        <v>49.05178238687829</v>
+        <v>48.88245603826704</v>
       </c>
       <c r="I6" t="n">
-        <v>54.77458595188101</v>
+        <v>54.50069725693179</v>
       </c>
       <c r="J6" t="n">
-        <v>60.71755478937372</v>
+        <v>60.30905387106416</v>
       </c>
       <c r="K6" t="n">
-        <v>66.69847251648272</v>
+        <v>66.12752570450793</v>
       </c>
       <c r="L6" t="n">
-        <v>72.46660791926816</v>
+        <v>71.7100930403432</v>
       </c>
       <c r="M6" t="n">
-        <v>77.87985202431128</v>
+        <v>76.91733780329697</v>
       </c>
       <c r="N6" t="n">
-        <v>81.73301483881454</v>
+        <v>80.55801970515463</v>
       </c>
       <c r="O6" t="n">
-        <v>79.49756950809063</v>
+        <v>78.17208612842333</v>
       </c>
     </row>
     <row r="7">
@@ -741,46 +741,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.96941541936174</v>
+        <v>15.96725306746945</v>
       </c>
       <c r="C7" t="n">
-        <v>21.5737793122724</v>
+        <v>21.54864589654515</v>
       </c>
       <c r="D7" t="n">
-        <v>27.10789082594299</v>
+        <v>27.02408248300893</v>
       </c>
       <c r="E7" t="n">
-        <v>32.59452734375123</v>
+        <v>32.39348340241349</v>
       </c>
       <c r="F7" t="n">
-        <v>37.83897541316263</v>
+        <v>37.44758822403239</v>
       </c>
       <c r="G7" t="n">
-        <v>42.94924941744753</v>
+        <v>42.28695161513572</v>
       </c>
       <c r="H7" t="n">
-        <v>48.24614670241239</v>
+        <v>47.2268139745996</v>
       </c>
       <c r="I7" t="n">
-        <v>53.77018109084784</v>
+        <v>52.30732708816894</v>
       </c>
       <c r="J7" t="n">
-        <v>59.49481409042124</v>
+        <v>57.50539960816948</v>
       </c>
       <c r="K7" t="n">
-        <v>65.24404820955193</v>
+        <v>62.65652036698691</v>
       </c>
       <c r="L7" t="n">
-        <v>70.77064345640061</v>
+        <v>67.52756496160525</v>
       </c>
       <c r="M7" t="n">
-        <v>75.93447579892654</v>
+        <v>71.98474597684371</v>
       </c>
       <c r="N7" t="n">
-        <v>79.55831092017701</v>
+        <v>74.91066140238289</v>
       </c>
       <c r="O7" t="n">
-        <v>77.24822699636445</v>
+        <v>72.20172586077929</v>
       </c>
     </row>
     <row r="8">
@@ -790,46 +790,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08182986602904473</v>
+        <v>0.1434825589085797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102315191461686</v>
+        <v>0.180213638589713</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1202120766310997</v>
+        <v>0.2130609039200759</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1360226426417118</v>
+        <v>0.2423955520676057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1497605843342506</v>
+        <v>0.2677929104010096</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1610598088911215</v>
+        <v>0.288322876243346</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1693199734562904</v>
+        <v>0.3028111310482987</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1736054970409144</v>
+        <v>0.3096241071528561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1726046091824382</v>
+        <v>0.3065734838482679</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1647129015980379</v>
+        <v>0.2910438376764701</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1480206176180804</v>
+        <v>0.2599818262328196</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1209334319715699</v>
+        <v>0.2109742084216768</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08152271362243524</v>
+        <v>0.1411258381648895</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005953195030739509</v>
+        <v>0.0053804414958124</v>
       </c>
     </row>
     <row r="9">
@@ -839,46 +839,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005663283146766119</v>
+        <v>0.002728680206964789</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001167195259770896</v>
+        <v>0.005693874543004172</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001906240894162615</v>
+        <v>0.009461989695065091</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002714305892445293</v>
+        <v>0.01367563909010886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003494672210060238</v>
+        <v>0.01776659747138663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004160471396278141</v>
+        <v>0.02119819588255779</v>
       </c>
       <c r="H9" t="n">
-        <v>0.004641132834780882</v>
+        <v>0.02355160052392065</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004828112863717756</v>
+        <v>0.02427504222607315</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004608632768192651</v>
+        <v>0.02286601617151292</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003912954059212375</v>
+        <v>0.01909929546487627</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002794516837156807</v>
+        <v>0.01338712326958163</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001520422575377601</v>
+        <v>0.007133058783791579</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004739534402297886</v>
+        <v>0.002171526241957518</v>
       </c>
       <c r="O9" t="n">
-        <v>2.727519347689594e-07</v>
+        <v>2.020484572814933e-07</v>
       </c>
     </row>
     <row r="10">
@@ -891,43 +891,43 @@
         <v>0.001365832145850479</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00395477014069717</v>
+        <v>0.004656983772220575</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006788901561848608</v>
+        <v>0.009237719907926954</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009481761106298604</v>
+        <v>0.01464807128746771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01195782814198919</v>
+        <v>0.02061741561360184</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0142460817797107</v>
+        <v>0.0269482877178456</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01632957076490253</v>
+        <v>0.03338806180004255</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01824891472566435</v>
+        <v>0.03979940139684942</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02006227145361729</v>
+        <v>0.04610896819353821</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02174729492512931</v>
+        <v>0.05220074402120487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02336482960423214</v>
+        <v>0.05813883065421048</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02495967509289258</v>
+        <v>0.06403574159406301</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02660161220634166</v>
+        <v>0.07007603708739983</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02829447809401673</v>
+        <v>0.07637457769551674</v>
       </c>
     </row>
     <row r="11">
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.01697340738215</v>
+        <v>12.01898485382143</v>
       </c>
       <c r="C11" t="n">
-        <v>16.33738242056721</v>
+        <v>16.31888937418318</v>
       </c>
       <c r="D11" t="n">
-        <v>20.64290395901644</v>
+        <v>20.57461297139615</v>
       </c>
       <c r="E11" t="n">
-        <v>24.95527762568898</v>
+        <v>24.79116269355913</v>
       </c>
       <c r="F11" t="n">
-        <v>29.03795900452648</v>
+        <v>28.72175841187856</v>
       </c>
       <c r="G11" t="n">
-        <v>32.94046869989965</v>
+        <v>32.41152808278501</v>
       </c>
       <c r="H11" t="n">
-        <v>36.99377439575785</v>
+        <v>36.18652929304491</v>
       </c>
       <c r="I11" t="n">
-        <v>41.24776759841632</v>
+        <v>40.0957661017444</v>
       </c>
       <c r="J11" t="n">
-        <v>45.75057495891393</v>
+        <v>44.187491529464</v>
       </c>
       <c r="K11" t="n">
-        <v>50.42339083618704</v>
+        <v>48.38825773100366</v>
       </c>
       <c r="L11" t="n">
-        <v>55.36198307874967</v>
+        <v>52.79199024745019</v>
       </c>
       <c r="M11" t="n">
-        <v>61.30563318237886</v>
+        <v>58.09753114547757</v>
       </c>
       <c r="N11" t="n">
-        <v>70.03597472615289</v>
+        <v>65.96565467562262</v>
       </c>
       <c r="O11" t="n">
-        <v>77.24822679824533</v>
+        <v>72.20172568370072</v>
       </c>
     </row>
     <row r="12">
@@ -986,46 +986,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.487236003229974</v>
+        <v>1.387372044303354</v>
       </c>
       <c r="C12" t="n">
-        <v>1.678286711932156</v>
+        <v>1.532266308391087</v>
       </c>
       <c r="D12" t="n">
-        <v>1.790235521430954</v>
+        <v>1.600744877286262</v>
       </c>
       <c r="E12" t="n">
-        <v>1.853193394063035</v>
+        <v>1.624022764556592</v>
       </c>
       <c r="F12" t="n">
-        <v>1.876060254701954</v>
+        <v>1.613663428842048</v>
       </c>
       <c r="G12" t="n">
-        <v>1.879911239967569</v>
+        <v>1.591286314981613</v>
       </c>
       <c r="H12" t="n">
-        <v>1.887070495472665</v>
+        <v>1.578348953085741</v>
       </c>
       <c r="I12" t="n">
-        <v>1.903051182436667</v>
+        <v>1.581873031691862</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93113006037622</v>
+        <v>1.607559712463809</v>
       </c>
       <c r="K12" t="n">
-        <v>1.970789619296453</v>
+        <v>1.658403704762285</v>
       </c>
       <c r="L12" t="n">
-        <v>2.021547228986521</v>
+        <v>1.737558941001253</v>
       </c>
       <c r="M12" t="n">
-        <v>2.085755808772393</v>
+        <v>1.848979195152453</v>
       </c>
       <c r="N12" t="n">
-        <v>2.13809264545587</v>
+        <v>1.970601910572009</v>
       </c>
       <c r="O12" t="n">
-        <v>2.113027398259603</v>
+        <v>2.078993542458209</v>
       </c>
     </row>
     <row r="13">
@@ -1035,46 +1035,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.487236003229974</v>
+        <v>74.44388782821534</v>
       </c>
       <c r="C13" t="n">
-        <v>1.678286711932156</v>
+        <v>83.32664066240312</v>
       </c>
       <c r="D13" t="n">
-        <v>1.790235521430954</v>
+        <v>87.20114283257723</v>
       </c>
       <c r="E13" t="n">
-        <v>1.853193394063035</v>
+        <v>87.70260174484636</v>
       </c>
       <c r="F13" t="n">
-        <v>1.876060254701954</v>
+        <v>85.5777222921446</v>
       </c>
       <c r="G13" t="n">
-        <v>1.879911239967569</v>
+        <v>82.16156789499011</v>
       </c>
       <c r="H13" t="n">
-        <v>1.887070495472665</v>
+        <v>78.70385992830106</v>
       </c>
       <c r="I13" t="n">
-        <v>1.903051182436667</v>
+        <v>75.59868488788203</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93113006037622</v>
+        <v>73.09186264789609</v>
       </c>
       <c r="K13" t="n">
-        <v>1.970789619296453</v>
+        <v>71.2412891475727</v>
       </c>
       <c r="L13" t="n">
-        <v>2.021547228986521</v>
+        <v>70.08196218326952</v>
       </c>
       <c r="M13" t="n">
-        <v>2.085755808772393</v>
+        <v>69.67570457776183</v>
       </c>
       <c r="N13" t="n">
-        <v>2.13809264545587</v>
+        <v>69.15938688649172</v>
       </c>
       <c r="O13" t="n">
-        <v>2.113027398259603</v>
+        <v>67.85526244050567</v>
       </c>
     </row>
     <row r="14">
@@ -1245,46 +1245,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.2887810144852</v>
+        <v>174.2610852764797</v>
       </c>
       <c r="C2" t="n">
-        <v>208.0501478232463</v>
+        <v>207.9011712455437</v>
       </c>
       <c r="D2" t="n">
-        <v>221.000997227132</v>
+        <v>220.6565139006532</v>
       </c>
       <c r="E2" t="n">
-        <v>218.1899388185118</v>
+        <v>217.6302706619635</v>
       </c>
       <c r="F2" t="n">
-        <v>203.5924979473354</v>
+        <v>202.8548081251106</v>
       </c>
       <c r="G2" t="n">
-        <v>184.6636406931345</v>
+        <v>183.8045322449057</v>
       </c>
       <c r="H2" t="n">
-        <v>165.3669021978963</v>
+        <v>164.4417281859728</v>
       </c>
       <c r="I2" t="n">
-        <v>146.7400408645157</v>
+        <v>145.797597330874</v>
       </c>
       <c r="J2" t="n">
-        <v>129.3380529769612</v>
+        <v>128.4164195999977</v>
       </c>
       <c r="K2" t="n">
-        <v>113.5583366105967</v>
+        <v>112.6839565320123</v>
       </c>
       <c r="L2" t="n">
-        <v>99.46548623524245</v>
+        <v>98.6553333869342</v>
       </c>
       <c r="M2" t="n">
-        <v>86.98428792509243</v>
+        <v>86.25012211496494</v>
       </c>
       <c r="N2" t="n">
-        <v>76.20811793783983</v>
+        <v>75.56150272414631</v>
       </c>
       <c r="O2" t="n">
-        <v>66.3259343606332</v>
+        <v>65.74030889002889</v>
       </c>
     </row>
     <row r="3">
@@ -1297,43 +1297,43 @@
         <v>13.44037364302173</v>
       </c>
       <c r="C3" t="n">
-        <v>21.15551447395548</v>
+        <v>21.16295208598453</v>
       </c>
       <c r="D3" t="n">
-        <v>30.58632561728432</v>
+        <v>30.60142706841699</v>
       </c>
       <c r="E3" t="n">
-        <v>41.51062641538527</v>
+        <v>41.49735479474366</v>
       </c>
       <c r="F3" t="n">
-        <v>53.56889167858775</v>
+        <v>53.44068506468439</v>
       </c>
       <c r="G3" t="n">
-        <v>66.84007251255197</v>
+        <v>66.45574030446207</v>
       </c>
       <c r="H3" t="n">
-        <v>81.46692249307553</v>
+        <v>80.63362638633228</v>
       </c>
       <c r="I3" t="n">
-        <v>97.41391910544388</v>
+        <v>95.90033436002511</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5350776502051</v>
+        <v>112.0855777613523</v>
       </c>
       <c r="K3" t="n">
-        <v>132.5017887864228</v>
+        <v>128.8536900156013</v>
       </c>
       <c r="L3" t="n">
-        <v>150.3843381983619</v>
+        <v>145.3034789762114</v>
       </c>
       <c r="M3" t="n">
-        <v>165.2213840810057</v>
+        <v>158.5940070759784</v>
       </c>
       <c r="N3" t="n">
-        <v>168.7881276423252</v>
+        <v>160.9091060559036</v>
       </c>
       <c r="O3" t="n">
-        <v>134.7262545428931</v>
+        <v>127.4452635166703</v>
       </c>
     </row>
     <row r="4">
@@ -1343,46 +1343,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2316543071571797</v>
+        <v>0.2317622599561225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2264683467959693</v>
+        <v>0.2267439869642184</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2214448508733568</v>
+        <v>0.2218578031057218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2172812078392471</v>
+        <v>0.2177926490527917</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2169788064902563</v>
+        <v>0.2175565678628464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.21832623205341</v>
+        <v>0.2189410177741026</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2194975823171904</v>
+        <v>0.2201290021184822</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2203311963897747</v>
+        <v>0.2209646955275307</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2204691442266089</v>
+        <v>0.2210904370006463</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2185019136446496</v>
+        <v>0.2190913646337711</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2107863751562246</v>
+        <v>0.2112882603985749</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1880911830007797</v>
+        <v>0.188372139889965</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1193572609356539</v>
+        <v>0.1191154988820926</v>
       </c>
       <c r="O4" t="n">
-        <v>1.008429144746635e-09</v>
+        <v>9.557822461153684e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1392,46 +1392,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.646914595774551</v>
+        <v>1.647658356977455</v>
       </c>
       <c r="C5" t="n">
-        <v>2.320985383099255</v>
+        <v>2.322236194716487</v>
       </c>
       <c r="D5" t="n">
-        <v>3.08458341107599</v>
+        <v>3.08272969396941</v>
       </c>
       <c r="E5" t="n">
-        <v>3.909503121249736</v>
+        <v>3.897145212657692</v>
       </c>
       <c r="F5" t="n">
-        <v>4.816175492417612</v>
+        <v>4.782212559823255</v>
       </c>
       <c r="G5" t="n">
-        <v>5.816123027322801</v>
+        <v>5.746194252128174</v>
       </c>
       <c r="H5" t="n">
-        <v>6.90081596508107</v>
+        <v>6.778512729203256</v>
       </c>
       <c r="I5" t="n">
-        <v>8.056894429249137</v>
+        <v>7.864719877163034</v>
       </c>
       <c r="J5" t="n">
-        <v>9.256587657461694</v>
+        <v>8.977186560406569</v>
       </c>
       <c r="K5" t="n">
-        <v>10.41838211738523</v>
+        <v>10.03749753404426</v>
       </c>
       <c r="L5" t="n">
-        <v>11.278560762253</v>
+        <v>10.79298166854498</v>
       </c>
       <c r="M5" t="n">
-        <v>11.11789931697972</v>
+        <v>10.56107950594431</v>
       </c>
       <c r="N5" t="n">
-        <v>7.587347348916746</v>
+        <v>7.133972741921236</v>
       </c>
       <c r="O5" t="n">
-        <v>6.369951788544867e-08</v>
+        <v>5.647113561747491e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1444,43 +1444,43 @@
         <v>7.122862075485028</v>
       </c>
       <c r="C6" t="n">
-        <v>10.2978162874327</v>
+        <v>10.2989022700941</v>
       </c>
       <c r="D6" t="n">
-        <v>14.03868300361427</v>
+        <v>14.04076204896167</v>
       </c>
       <c r="E6" t="n">
-        <v>18.18533530262487</v>
+        <v>18.18359086339893</v>
       </c>
       <c r="F6" t="n">
-        <v>22.49176488327661</v>
+        <v>22.47560245205922</v>
       </c>
       <c r="G6" t="n">
-        <v>27.05764303388008</v>
+        <v>27.01087414168954</v>
       </c>
       <c r="H6" t="n">
-        <v>32.00070086378368</v>
+        <v>31.9021501355481</v>
       </c>
       <c r="I6" t="n">
-        <v>37.29314065193413</v>
+        <v>37.11835240967862</v>
       </c>
       <c r="J6" t="n">
-        <v>42.89704833635018</v>
+        <v>42.61973806778638</v>
       </c>
       <c r="K6" t="n">
-        <v>48.79649685729435</v>
+        <v>48.38950509434361</v>
       </c>
       <c r="L6" t="n">
-        <v>54.8443932836744</v>
+        <v>54.2818021274783</v>
       </c>
       <c r="M6" t="n">
-        <v>60.6785082186008</v>
+        <v>59.93783474400391</v>
       </c>
       <c r="N6" t="n">
-        <v>65.35663431340711</v>
+        <v>64.4260191097967</v>
       </c>
       <c r="O6" t="n">
-        <v>65.04642030763465</v>
+        <v>63.9712504611126</v>
       </c>
     </row>
     <row r="7">
@@ -1490,46 +1490,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.109363154025467</v>
+        <v>7.109260831722095</v>
       </c>
       <c r="C7" t="n">
-        <v>10.24860831960011</v>
+        <v>10.24166605610119</v>
       </c>
       <c r="D7" t="n">
-        <v>13.92935260815817</v>
+        <v>13.89506995388573</v>
       </c>
       <c r="E7" t="n">
-        <v>17.99282671579281</v>
+        <v>17.89383264130758</v>
       </c>
       <c r="F7" t="n">
-        <v>22.19652495246759</v>
+        <v>21.98146719632979</v>
       </c>
       <c r="G7" t="n">
-        <v>26.63959787434054</v>
+        <v>26.24539846643511</v>
       </c>
       <c r="H7" t="n">
-        <v>31.4391433938843</v>
+        <v>30.79336509032458</v>
       </c>
       <c r="I7" t="n">
-        <v>36.56719775168001</v>
+        <v>35.59265365169227</v>
       </c>
       <c r="J7" t="n">
-        <v>41.98586468838162</v>
+        <v>40.60413775553905</v>
       </c>
       <c r="K7" t="n">
-        <v>47.68096509364527</v>
+        <v>45.81420883850326</v>
       </c>
       <c r="L7" t="n">
-        <v>53.50706730401277</v>
+        <v>51.08178584169828</v>
       </c>
       <c r="M7" t="n">
-        <v>59.10909347055164</v>
+        <v>56.06497602094142</v>
       </c>
       <c r="N7" t="n">
-        <v>63.56837690006245</v>
+        <v>59.89122161997454</v>
       </c>
       <c r="O7" t="n">
-        <v>63.16707347986557</v>
+        <v>59.08368338812868</v>
       </c>
     </row>
     <row r="8">
@@ -1539,46 +1539,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03774513382351904</v>
+        <v>0.06366580307873985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04844847426800667</v>
+        <v>0.08187774999457895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05945643646513241</v>
+        <v>0.100934432348511</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07056847818208908</v>
+        <v>0.1202997906152205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08141218946684611</v>
+        <v>0.1391204279581449</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0915139091932211</v>
+        <v>0.1564218295857761</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1002600949291284</v>
+        <v>0.1710629892247838</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1067712685153832</v>
+        <v>0.1815250796178107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1098842115357404</v>
+        <v>0.1858874430565957</v>
       </c>
       <c r="K8" t="n">
-        <v>0.108189301304341</v>
+        <v>0.1818972004654577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1000296791195887</v>
+        <v>0.1669822985779731</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08376175205606365</v>
+        <v>0.1386999339767435</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05763919952882419</v>
+        <v>0.09456343083497358</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004670655010072472</v>
+        <v>0.003725475877066315</v>
       </c>
     </row>
     <row r="9">
@@ -1588,46 +1588,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.079754590362067e-05</v>
+        <v>0.0001331198492763991</v>
       </c>
       <c r="C9" t="n">
-        <v>7.457191645377362e-05</v>
+        <v>0.000324116639301417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001518872950208234</v>
+        <v>0.0006685579724546342</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002705049977981011</v>
+        <v>0.001204384523549685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004288265733574353</v>
+        <v>0.001921027638791241</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0006200870903881195</v>
+        <v>0.002776962895545791</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008266545124310616</v>
+        <v>0.003678432169757486</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001010030493180872</v>
+        <v>0.004442674250848352</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001113893659196705</v>
+        <v>0.004822901788961938</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001079316896264153</v>
+        <v>0.004584671977518749</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0008710400728619989</v>
+        <v>0.003619732880405725</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0005268147613729679</v>
+        <v>0.002136040555859706</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0001798083914611269</v>
+        <v>0.0007089185760164565</v>
       </c>
       <c r="O9" t="n">
-        <v>1.425957974626152e-07</v>
+        <v>7.445935483938814e-08</v>
       </c>
     </row>
     <row r="10">
@@ -1640,43 +1640,43 @@
         <v>0.001890830367193471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004771244169125317</v>
+        <v>0.005526035286194664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007776976525004118</v>
+        <v>0.01032875114596867</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01057104961966305</v>
+        <v>0.01586891388700449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01310751316162237</v>
+        <v>0.02189993479109333</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01542725180927543</v>
+        <v>0.02823672822871388</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01752245420416885</v>
+        <v>0.03464050568247955</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01943877230740412</v>
+        <v>0.04098393341776843</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0212152068639696</v>
+        <v>0.04717948775894283</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02283877980036225</v>
+        <v>0.05312539524533783</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02436812333169876</v>
+        <v>0.05888523275985989</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02585574331583265</v>
+        <v>0.06457895416214948</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02735877732593716</v>
+        <v>0.07037666821432081</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02889239217600274</v>
+        <v>0.07640255526236404</v>
       </c>
     </row>
     <row r="11">
@@ -1686,46 +1686,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.462448558250916</v>
+        <v>5.461602474744639</v>
       </c>
       <c r="C11" t="n">
-        <v>7.927622936500858</v>
+        <v>7.919429861384707</v>
       </c>
       <c r="D11" t="n">
-        <v>10.84476919708218</v>
+        <v>10.81234025991632</v>
       </c>
       <c r="E11" t="n">
-        <v>14.08332359454308</v>
+        <v>13.99668742864989</v>
       </c>
       <c r="F11" t="n">
-        <v>17.38034946004998</v>
+        <v>17.19925463650654</v>
       </c>
       <c r="G11" t="n">
-        <v>20.82347484701774</v>
+        <v>20.49920421430694</v>
       </c>
       <c r="H11" t="n">
-        <v>24.53832742880323</v>
+        <v>24.01485236112132</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51030332243087</v>
+        <v>27.72793377452923</v>
       </c>
       <c r="J11" t="n">
-        <v>32.72927703091992</v>
+        <v>31.62695119513248</v>
       </c>
       <c r="K11" t="n">
-        <v>37.26258297626004</v>
+        <v>35.776711304459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.22850654175977</v>
+        <v>40.2888041731533</v>
       </c>
       <c r="M11" t="n">
-        <v>47.99119415357193</v>
+        <v>45.5038965149971</v>
       </c>
       <c r="N11" t="n">
-        <v>55.9810295511457</v>
+        <v>52.7572488780533</v>
       </c>
       <c r="O11" t="n">
-        <v>63.16707341616605</v>
+        <v>59.08368333165754</v>
       </c>
     </row>
     <row r="12">
@@ -1735,46 +1735,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5121961090971626</v>
+        <v>0.4983988643085002</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6381952721486883</v>
+        <v>0.6158395581358376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7579695131827672</v>
+        <v>0.7246503382296514</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8638786051007113</v>
+        <v>0.8175764140655983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9488188030098362</v>
+        <v>0.8885723882571006</v>
       </c>
       <c r="G12" t="n">
-        <v>1.022666746237851</v>
+        <v>0.9479596698383532</v>
       </c>
       <c r="H12" t="n">
-        <v>1.093187766281611</v>
+        <v>1.00406025306535</v>
       </c>
       <c r="I12" t="n">
-        <v>1.161949780561169</v>
+        <v>1.059716709093119</v>
       </c>
       <c r="J12" t="n">
-        <v>1.230958965854354</v>
+        <v>1.118574439216686</v>
       </c>
       <c r="K12" t="n">
-        <v>1.303592338899159</v>
+        <v>1.185876699055094</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38055876727059</v>
+        <v>1.264744973373267</v>
       </c>
       <c r="M12" t="n">
-        <v>1.45829252044021</v>
+        <v>1.354119107948939</v>
       </c>
       <c r="N12" t="n">
-        <v>1.520963061483369</v>
+        <v>1.440559176569387</v>
       </c>
       <c r="O12" t="n">
-        <v>1.51058665583795</v>
+        <v>1.487028525181764</v>
       </c>
     </row>
     <row r="13">
@@ -1784,46 +1784,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5121961090971626</v>
+        <v>24.37915617946047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6381952721486883</v>
+        <v>29.79339300924933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7579695131827672</v>
+        <v>34.34157766296993</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8638786051007113</v>
+        <v>37.633264687404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9488188030098362</v>
+        <v>39.42952184731633</v>
       </c>
       <c r="G13" t="n">
-        <v>1.022666746237851</v>
+        <v>40.28081350322419</v>
       </c>
       <c r="H13" t="n">
-        <v>1.093187766281611</v>
+        <v>40.61109766818729</v>
       </c>
       <c r="I13" t="n">
-        <v>1.161949780561169</v>
+        <v>40.57789895051906</v>
       </c>
       <c r="J13" t="n">
-        <v>1.230958965854354</v>
+        <v>40.34653757283209</v>
       </c>
       <c r="K13" t="n">
-        <v>1.303592338899159</v>
+        <v>40.10609900957559</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38055876727059</v>
+        <v>39.93616326224465</v>
       </c>
       <c r="M13" t="n">
-        <v>1.45829252044021</v>
+        <v>39.77682943865079</v>
       </c>
       <c r="N13" t="n">
-        <v>1.520963061483369</v>
+        <v>39.25545536807871</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51058665583795</v>
+        <v>37.5227376278656</v>
       </c>
     </row>
     <row r="14">
@@ -1994,46 +1994,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>74.38349509275555</v>
+        <v>74.37954457421445</v>
       </c>
       <c r="C2" t="n">
-        <v>72.30846000102505</v>
+        <v>72.2876104852316</v>
       </c>
       <c r="D2" t="n">
-        <v>67.25860453409445</v>
+        <v>67.21052517825326</v>
       </c>
       <c r="E2" t="n">
-        <v>60.47825872921361</v>
+        <v>60.39884030221796</v>
       </c>
       <c r="F2" t="n">
-        <v>52.78005727781743</v>
+        <v>52.67274683367896</v>
       </c>
       <c r="G2" t="n">
-        <v>45.27829811840741</v>
+        <v>45.15057540705352</v>
       </c>
       <c r="H2" t="n">
-        <v>38.7112643399963</v>
+        <v>38.5709761725323</v>
       </c>
       <c r="I2" t="n">
-        <v>33.00790274561678</v>
+        <v>32.86244473883959</v>
       </c>
       <c r="J2" t="n">
-        <v>28.08250692569701</v>
+        <v>27.93789792320144</v>
       </c>
       <c r="K2" t="n">
-        <v>24.22947151459143</v>
+        <v>24.08829259129221</v>
       </c>
       <c r="L2" t="n">
-        <v>21.21821495621722</v>
+        <v>21.08209094292181</v>
       </c>
       <c r="M2" t="n">
-        <v>18.58636675508711</v>
+        <v>18.45833079025206</v>
       </c>
       <c r="N2" t="n">
-        <v>16.32253102381134</v>
+        <v>16.20573149618456</v>
       </c>
       <c r="O2" t="n">
-        <v>14.26941289252552</v>
+        <v>14.15939691079903</v>
       </c>
     </row>
     <row r="3">
@@ -2046,43 +2046,43 @@
         <v>9.580191347594166</v>
       </c>
       <c r="C3" t="n">
-        <v>15.38320804421043</v>
+        <v>15.38899041552645</v>
       </c>
       <c r="D3" t="n">
-        <v>21.035532717581</v>
+        <v>21.04968271512499</v>
       </c>
       <c r="E3" t="n">
-        <v>26.27364383557365</v>
+        <v>26.27393009881907</v>
       </c>
       <c r="F3" t="n">
-        <v>31.00307877872207</v>
+        <v>30.94039114705087</v>
       </c>
       <c r="G3" t="n">
-        <v>35.34203606392749</v>
+        <v>35.14753403743374</v>
       </c>
       <c r="H3" t="n">
-        <v>39.50563612052295</v>
+        <v>39.09849656880772</v>
       </c>
       <c r="I3" t="n">
-        <v>43.63904521876176</v>
+        <v>42.93528819236361</v>
       </c>
       <c r="J3" t="n">
-        <v>47.78963441797401</v>
+        <v>46.70715025132309</v>
       </c>
       <c r="K3" t="n">
-        <v>52.1982132422682</v>
+        <v>50.64908934114798</v>
       </c>
       <c r="L3" t="n">
-        <v>56.60962687826266</v>
+        <v>54.51581113015146</v>
       </c>
       <c r="M3" t="n">
-        <v>59.78650942981199</v>
+        <v>57.12631576587882</v>
       </c>
       <c r="N3" t="n">
-        <v>58.88922001317216</v>
+        <v>55.80530219368142</v>
       </c>
       <c r="O3" t="n">
-        <v>45.30711569114447</v>
+        <v>42.53143609265872</v>
       </c>
     </row>
     <row r="4">
@@ -2092,46 +2092,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2370022779662524</v>
+        <v>0.2371206321989626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2312048435430623</v>
+        <v>0.2315456668159704</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2253368239061483</v>
+        <v>0.2258631609273782</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2205122059302926</v>
+        <v>0.2211701223062388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.218665325573035</v>
+        <v>0.2194095423825922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2193081398801797</v>
+        <v>0.2201012326585697</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2204324620351452</v>
+        <v>0.2212509946825793</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2220422952141106</v>
+        <v>0.2228690704528105</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2253198735671291</v>
+        <v>0.2261286936399972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2252124455674687</v>
+        <v>0.2259597440133283</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2161767429296104</v>
+        <v>0.2167777095677333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1913217587447023</v>
+        <v>0.1916118001306639</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1189149566991616</v>
+        <v>0.1185344492561125</v>
       </c>
       <c r="O4" t="n">
-        <v>9.220334727583994e-09</v>
+        <v>8.752213945879616e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2141,46 +2141,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.204280186927178</v>
+        <v>1.20485842405878</v>
       </c>
       <c r="C5" t="n">
-        <v>1.567173973299193</v>
+        <v>1.568387354232538</v>
       </c>
       <c r="D5" t="n">
-        <v>1.893900710093499</v>
+        <v>1.893435956510935</v>
       </c>
       <c r="E5" t="n">
-        <v>2.184202563039126</v>
+        <v>2.177923818489819</v>
       </c>
       <c r="F5" t="n">
-        <v>2.453193091706526</v>
+        <v>2.43592867161962</v>
       </c>
       <c r="G5" t="n">
-        <v>2.718263011579477</v>
+        <v>2.684330922727366</v>
       </c>
       <c r="H5" t="n">
-        <v>2.986428164109959</v>
+        <v>2.930248539849653</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25736402036428</v>
+        <v>3.173654093916579</v>
       </c>
       <c r="J5" t="n">
-        <v>3.553499806045974</v>
+        <v>3.436331305000032</v>
       </c>
       <c r="K5" t="n">
-        <v>3.840923530894141</v>
+        <v>3.685556566619443</v>
       </c>
       <c r="L5" t="n">
-        <v>4.004795303525633</v>
+        <v>3.811782778023139</v>
       </c>
       <c r="M5" t="n">
-        <v>3.804295316616137</v>
+        <v>3.588658752377475</v>
       </c>
       <c r="N5" t="n">
-        <v>2.47737143182459</v>
+        <v>2.307333037445676</v>
       </c>
       <c r="O5" t="n">
-        <v>1.863476991513769e-07</v>
+        <v>1.638415883911861e-07</v>
       </c>
     </row>
     <row r="6">
@@ -2193,43 +2193,43 @@
         <v>5.097074969620485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.82168513466986</v>
+        <v>6.822454291427354</v>
       </c>
       <c r="D6" t="n">
-        <v>8.491379588317869</v>
+        <v>8.493092757047622</v>
       </c>
       <c r="E6" t="n">
-        <v>10.04644118201679</v>
+        <v>10.04647402004918</v>
       </c>
       <c r="F6" t="n">
-        <v>11.42122566550857</v>
+        <v>11.41429270706503</v>
       </c>
       <c r="G6" t="n">
-        <v>12.66482535575066</v>
+        <v>12.64387500152464</v>
       </c>
       <c r="H6" t="n">
-        <v>13.89179773133953</v>
+        <v>13.84869182071701</v>
       </c>
       <c r="I6" t="n">
-        <v>15.09268598831378</v>
+        <v>15.01925113317745</v>
       </c>
       <c r="J6" t="n">
-        <v>16.28958911311109</v>
+        <v>16.17800735418452</v>
       </c>
       <c r="K6" t="n">
-        <v>17.68737396571561</v>
+        <v>17.52823388169681</v>
       </c>
       <c r="L6" t="n">
-        <v>19.29496704971264</v>
+        <v>19.07803745198099</v>
       </c>
       <c r="M6" t="n">
-        <v>20.79845244803785</v>
+        <v>20.5163890954667</v>
       </c>
       <c r="N6" t="n">
-        <v>21.88925737857773</v>
+        <v>21.53887056566511</v>
       </c>
       <c r="O6" t="n">
-        <v>21.32738227730832</v>
+        <v>20.92669491838897</v>
       </c>
     </row>
     <row r="7">
@@ -2239,46 +2239,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.08130215988329</v>
+        <v>5.081204502895431</v>
       </c>
       <c r="C7" t="n">
-        <v>6.778292138189156</v>
+        <v>6.773555194531334</v>
       </c>
       <c r="D7" t="n">
-        <v>8.404754612509757</v>
+        <v>8.383111033851739</v>
       </c>
       <c r="E7" t="n">
-        <v>9.905132252541101</v>
+        <v>9.847278627780478</v>
       </c>
       <c r="F7" t="n">
-        <v>11.21893965253833</v>
+        <v>11.10220022870292</v>
       </c>
       <c r="G7" t="n">
-        <v>12.39472010963485</v>
+        <v>12.19589227331323</v>
       </c>
       <c r="H7" t="n">
-        <v>13.54804159304727</v>
+        <v>13.24400165546634</v>
       </c>
       <c r="I7" t="n">
-        <v>14.67001598602317</v>
+        <v>14.23999340719895</v>
       </c>
       <c r="J7" t="n">
-        <v>15.77091159243566</v>
+        <v>15.19635235000632</v>
       </c>
       <c r="K7" t="n">
-        <v>17.05466818770228</v>
+        <v>16.31067773913768</v>
       </c>
       <c r="L7" t="n">
-        <v>18.5255603782949</v>
+        <v>17.58383177691121</v>
       </c>
       <c r="M7" t="n">
-        <v>19.88427945455252</v>
+        <v>18.72879827823911</v>
       </c>
       <c r="N7" t="n">
-        <v>20.83313571809136</v>
+        <v>19.46550603580497</v>
       </c>
       <c r="O7" t="n">
-        <v>20.21051346366962</v>
+        <v>18.72001637577881</v>
       </c>
     </row>
     <row r="8">
@@ -2288,46 +2288,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03713175539982524</v>
+        <v>0.06428164605912376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04621772293678499</v>
+        <v>0.0808682615127415</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05416358073372345</v>
+        <v>0.09590105575248151</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06117087742296878</v>
+        <v>0.1094371366106892</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06727325684627702</v>
+        <v>0.1212669895876333</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07234799057977785</v>
+        <v>0.1309830733500992</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07619714263104534</v>
+        <v>0.1381277893872273</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07832496580619004</v>
+        <v>0.1417801136750604</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07801658392986181</v>
+        <v>0.1406954722385227</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0745676239789221</v>
+        <v>0.1337252344277</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06719714813715785</v>
+        <v>0.1196433624467078</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05503945136622052</v>
+        <v>0.09712735694750771</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03726587584073116</v>
+        <v>0.06493950883774076</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007946247558044716</v>
+        <v>0.007147375160715767</v>
       </c>
     </row>
     <row r="9">
@@ -2337,46 +2337,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.676293227459189e-05</v>
+        <v>0.0001244199201341341</v>
       </c>
       <c r="C9" t="n">
-        <v>5.323704304410088e-05</v>
+        <v>0.0002550220096970761</v>
       </c>
       <c r="D9" t="n">
-        <v>8.444885496078831e-05</v>
+        <v>0.0004182213838547676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001163492899718042</v>
+        <v>0.0005930634896483498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001447234628516271</v>
+        <v>0.0007530011493259548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001667413296239749</v>
+        <v>0.0008772686648728662</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001810106147043353</v>
+        <v>0.0009543616836016356</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001834619753627319</v>
+        <v>0.00096167894018305</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001705059833985138</v>
+        <v>0.0008827047390835748</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001430644192678559</v>
+        <v>0.0007275502826176058</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001029560201882343</v>
+        <v>0.0005119731113558035</v>
       </c>
       <c r="M9" t="n">
-        <v>5.637040223540104e-05</v>
+        <v>0.000272765832251728</v>
       </c>
       <c r="N9" t="n">
-        <v>1.777919862217577e-05</v>
+        <v>8.284333000039513e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.053202590603867e-07</v>
+        <v>1.497446993430026e-07</v>
       </c>
     </row>
     <row r="10">
@@ -2389,43 +2389,43 @@
         <v>0.003089231941607784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006353233633929208</v>
+        <v>0.007129996451195718</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01019157441415171</v>
+        <v>0.012900306748812</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01405398962952711</v>
+        <v>0.01976836135570665</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01769873877177996</v>
+        <v>0.02727628292027877</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02131403293797625</v>
+        <v>0.03536142673766027</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02473222935736075</v>
+        <v>0.0435951504577441</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02799279999877885</v>
+        <v>0.05181989701997687</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03183057663957282</v>
+        <v>0.06062380106324362</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03576351779637769</v>
+        <v>0.06942106092903656</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03987069339975961</v>
+        <v>0.07829388666056163</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04395118460697599</v>
+        <v>0.08711659947194415</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04824758844132355</v>
+        <v>0.09625767889504491</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05236782432070532</v>
+        <v>0.1054480127820599</v>
       </c>
     </row>
     <row r="11">
@@ -2435,46 +2435,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.877021972956112</v>
+        <v>3.876346078836651</v>
       </c>
       <c r="C11" t="n">
-        <v>5.211118164889963</v>
+        <v>5.205167840298796</v>
       </c>
       <c r="D11" t="n">
-        <v>6.510853902416258</v>
+        <v>6.489675077340804</v>
       </c>
       <c r="E11" t="n">
-        <v>7.720929689501975</v>
+        <v>7.669354809290658</v>
       </c>
       <c r="F11" t="n">
-        <v>8.765746560831804</v>
+        <v>8.666271557083306</v>
       </c>
       <c r="G11" t="n">
-        <v>9.676457098055376</v>
+        <v>9.511561350585861</v>
       </c>
       <c r="H11" t="n">
-        <v>10.56161342893731</v>
+        <v>10.31375311561668</v>
       </c>
       <c r="I11" t="n">
-        <v>11.41265196565889</v>
+        <v>11.06633931328237</v>
       </c>
       <c r="J11" t="n">
-        <v>12.21741178638969</v>
+        <v>11.76002104500629</v>
       </c>
       <c r="K11" t="n">
-        <v>13.21374465680814</v>
+        <v>12.62512117251824</v>
       </c>
       <c r="L11" t="n">
-        <v>14.52076507476927</v>
+        <v>13.77204899888807</v>
       </c>
       <c r="M11" t="n">
-        <v>16.07998413793638</v>
+        <v>15.14013952586164</v>
       </c>
       <c r="N11" t="n">
-        <v>18.35576428626677</v>
+        <v>17.15817299835929</v>
       </c>
       <c r="O11" t="n">
-        <v>20.21051327732193</v>
+        <v>18.72001621193722</v>
       </c>
     </row>
     <row r="12">
@@ -2484,46 +2484,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.551067301048387</v>
+        <v>0.5355289165879138</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6158574185622866</v>
+        <v>0.5935504747498764</v>
       </c>
       <c r="D12" t="n">
-        <v>0.650261532152586</v>
+        <v>0.6216924660366074</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6618291662815899</v>
+        <v>0.6278058378809019</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6555359356224048</v>
+        <v>0.6172133474230579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.640784435953188</v>
+        <v>0.599288700172146</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6263515308017221</v>
+        <v>0.5825484077758429</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6127967773530542</v>
+        <v>0.5678308257018905</v>
       </c>
       <c r="J12" t="n">
-        <v>0.601813831961645</v>
+        <v>0.5570588197466844</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6007895489693811</v>
+        <v>0.5573245127976255</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6089187518388508</v>
+        <v>0.5682216567474422</v>
       </c>
       <c r="M12" t="n">
-        <v>0.616359952403701</v>
+        <v>0.5809210785327693</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6157426209027304</v>
+        <v>0.5884701742438233</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5786204003751219</v>
+        <v>0.5682067847158485</v>
       </c>
     </row>
     <row r="13">
@@ -2533,46 +2533,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.551067301048387</v>
+        <v>27.18554514342186</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6158574185622866</v>
+        <v>30.80825541882067</v>
       </c>
       <c r="D13" t="n">
-        <v>0.650261532152586</v>
+        <v>32.56679936350884</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6618291662815899</v>
+        <v>32.80710003177178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6555359356224048</v>
+        <v>31.84369819670509</v>
       </c>
       <c r="G13" t="n">
-        <v>0.640784435953188</v>
+        <v>30.24544238188911</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6263515308017221</v>
+        <v>28.52428958683792</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6127967773530542</v>
+        <v>26.77691460441328</v>
       </c>
       <c r="J13" t="n">
-        <v>0.601813831961645</v>
+        <v>25.13227083418391</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6007895489693811</v>
+        <v>23.91477644408476</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6089187518388508</v>
+        <v>23.06956140939523</v>
       </c>
       <c r="M13" t="n">
-        <v>0.616359952403701</v>
+        <v>22.21472780329806</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6157426209027304</v>
+        <v>21.1161691605271</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5786204003751219</v>
+        <v>19.07442225629945</v>
       </c>
     </row>
     <row r="14">
@@ -2743,46 +2743,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-150.5154812763527</v>
+        <v>-150.6122743449763</v>
       </c>
       <c r="C2" t="n">
-        <v>19.95470403506133</v>
+        <v>19.32061677162201</v>
       </c>
       <c r="D2" t="n">
-        <v>144.4229739949427</v>
+        <v>142.9265993917817</v>
       </c>
       <c r="E2" t="n">
-        <v>224.6222662514232</v>
+        <v>222.185976836743</v>
       </c>
       <c r="F2" t="n">
-        <v>263.0930281828295</v>
+        <v>259.913260292683</v>
       </c>
       <c r="G2" t="n">
-        <v>272.6524231575822</v>
+        <v>269.0121521174286</v>
       </c>
       <c r="H2" t="n">
-        <v>267.7486330005852</v>
+        <v>263.8831427900558</v>
       </c>
       <c r="I2" t="n">
-        <v>254.5549244722202</v>
+        <v>250.661109951372</v>
       </c>
       <c r="J2" t="n">
-        <v>236.9821829838453</v>
+        <v>233.2071227498729</v>
       </c>
       <c r="K2" t="n">
-        <v>215.5139175618728</v>
+        <v>211.9882963495682</v>
       </c>
       <c r="L2" t="n">
-        <v>192.2648909305503</v>
+        <v>189.070061528524</v>
       </c>
       <c r="M2" t="n">
-        <v>170.5242773602004</v>
+        <v>167.6848137378519</v>
       </c>
       <c r="N2" t="n">
-        <v>151.1806561349328</v>
+        <v>148.7206425920301</v>
       </c>
       <c r="O2" t="n">
-        <v>132.6521668559507</v>
+        <v>130.4623209944963</v>
       </c>
     </row>
     <row r="3">
@@ -2795,43 +2795,43 @@
         <v>7.827276852851487</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3353636535514</v>
+        <v>12.34038729210399</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18422710643834</v>
+        <v>19.19128165058401</v>
       </c>
       <c r="E3" t="n">
-        <v>28.71813412768255</v>
+        <v>28.68627753259664</v>
       </c>
       <c r="F3" t="n">
-        <v>40.88059396635344</v>
+        <v>40.70275747060448</v>
       </c>
       <c r="G3" t="n">
-        <v>55.87652241227048</v>
+        <v>55.35645645560738</v>
       </c>
       <c r="H3" t="n">
-        <v>74.13116151596822</v>
+        <v>72.96525826439849</v>
       </c>
       <c r="I3" t="n">
-        <v>95.86292704318045</v>
+        <v>93.64016450304398</v>
       </c>
       <c r="J3" t="n">
-        <v>120.932703435108</v>
+        <v>117.1510334882074</v>
       </c>
       <c r="K3" t="n">
-        <v>148.2420878052813</v>
+        <v>142.368899354622</v>
       </c>
       <c r="L3" t="n">
-        <v>176.3555478076644</v>
+        <v>167.8949335199089</v>
       </c>
       <c r="M3" t="n">
-        <v>201.8341337623203</v>
+        <v>190.4645665194141</v>
       </c>
       <c r="N3" t="n">
-        <v>214.0780891320596</v>
+        <v>200.1728566186356</v>
       </c>
       <c r="O3" t="n">
-        <v>176.9277060232634</v>
+        <v>163.7168736091891</v>
       </c>
     </row>
     <row r="4">
@@ -2841,46 +2841,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2306235070507656</v>
+        <v>0.2307480434224782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2265568152207459</v>
+        <v>0.2268712852892974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2221959639080178</v>
+        <v>0.2226594225786498</v>
       </c>
       <c r="E4" t="n">
-        <v>0.216567200750872</v>
+        <v>0.2171316593056455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2152679640281759</v>
+        <v>0.215899403799368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.217174069407447</v>
+        <v>0.2178436439196502</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2186978230728385</v>
+        <v>0.219385926715214</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2192870280962001</v>
+        <v>0.2199813429184268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2174538658143033</v>
+        <v>0.2181445858467584</v>
       </c>
       <c r="K4" t="n">
-        <v>0.21432734603525</v>
+        <v>0.2150085085238628</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2075397727267002</v>
+        <v>0.208155966950738</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1864417946680299</v>
+        <v>0.1868221305531565</v>
       </c>
       <c r="N4" t="n">
-        <v>0.120115976622538</v>
+        <v>0.1198360413922457</v>
       </c>
       <c r="O4" t="n">
-        <v>2.956303011089983e-10</v>
+        <v>2.650383054119314e-10</v>
       </c>
     </row>
     <row r="5">
@@ -2890,46 +2890,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9606160970268305</v>
+        <v>0.9611184608820893</v>
       </c>
       <c r="C5" t="n">
-        <v>1.48831517496518</v>
+        <v>1.488845465934333</v>
       </c>
       <c r="D5" t="n">
-        <v>2.202900774568549</v>
+        <v>2.199469138315125</v>
       </c>
       <c r="E5" t="n">
-        <v>3.086719975613052</v>
+        <v>3.070047096826301</v>
       </c>
       <c r="F5" t="n">
-        <v>4.162234067772089</v>
+        <v>4.116428247298837</v>
       </c>
       <c r="G5" t="n">
-        <v>5.464822284304505</v>
+        <v>5.366365537799372</v>
       </c>
       <c r="H5" t="n">
-        <v>7.001498928299148</v>
+        <v>6.819875206991987</v>
       </c>
       <c r="I5" t="n">
-        <v>8.75073675702717</v>
+        <v>8.450072699857866</v>
       </c>
       <c r="J5" t="n">
-        <v>10.60754614144519</v>
+        <v>10.15208597418509</v>
       </c>
       <c r="K5" t="n">
-        <v>12.46667278745516</v>
+        <v>11.82539677741854</v>
       </c>
       <c r="L5" t="n">
-        <v>14.03427564497629</v>
+        <v>13.19232229989991</v>
       </c>
       <c r="M5" t="n">
-        <v>14.3702878212879</v>
+        <v>13.37619686703236</v>
       </c>
       <c r="N5" t="n">
-        <v>10.22832918451081</v>
+        <v>9.392091421304224</v>
       </c>
       <c r="O5" t="n">
-        <v>2.561843740383609e-08</v>
+        <v>2.092752026027239e-08</v>
       </c>
     </row>
     <row r="6">
@@ -2942,43 +2942,43 @@
         <v>4.17964548697053</v>
       </c>
       <c r="C6" t="n">
-        <v>6.621189925113684</v>
+        <v>6.621998763647989</v>
       </c>
       <c r="D6" t="n">
-        <v>10.03741451284306</v>
+        <v>10.038521676637</v>
       </c>
       <c r="E6" t="n">
-        <v>14.4899117195842</v>
+        <v>14.48508781378699</v>
       </c>
       <c r="F6" t="n">
-        <v>19.7308948557377</v>
+        <v>19.70510587981857</v>
       </c>
       <c r="G6" t="n">
-        <v>25.76871917590178</v>
+        <v>25.69653149583452</v>
       </c>
       <c r="H6" t="n">
-        <v>32.89095923275315</v>
+        <v>32.73490879083436</v>
       </c>
       <c r="I6" t="n">
-        <v>41.1223524889576</v>
+        <v>40.8339503294338</v>
       </c>
       <c r="J6" t="n">
-        <v>50.42440569102716</v>
+        <v>49.94609018956694</v>
       </c>
       <c r="K6" t="n">
-        <v>60.31278058326137</v>
+        <v>59.58575306791068</v>
       </c>
       <c r="L6" t="n">
-        <v>70.3433791464718</v>
+        <v>69.31348998365384</v>
       </c>
       <c r="M6" t="n">
-        <v>80.44871523107504</v>
+        <v>79.06148840161048</v>
       </c>
       <c r="N6" t="n">
-        <v>89.21384912477447</v>
+        <v>87.43436646927823</v>
       </c>
       <c r="O6" t="n">
-        <v>91.15892337913296</v>
+        <v>89.06118434976995</v>
       </c>
     </row>
     <row r="7">
@@ -2988,46 +2988,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.16530001347771</v>
+        <v>4.165229081151386</v>
       </c>
       <c r="C7" t="n">
-        <v>6.56928008771238</v>
+        <v>6.562511708063078</v>
       </c>
       <c r="D7" t="n">
-        <v>9.914224974313582</v>
+        <v>9.878176781574153</v>
       </c>
       <c r="E7" t="n">
-        <v>14.25294303528381</v>
+        <v>14.13910392728473</v>
       </c>
       <c r="F7" t="n">
-        <v>19.33512999280889</v>
+        <v>19.06641785414179</v>
       </c>
       <c r="G7" t="n">
-        <v>25.16332773620308</v>
+        <v>24.63402393222319</v>
       </c>
       <c r="H7" t="n">
-        <v>32.01448843853952</v>
+        <v>31.08620187768426</v>
       </c>
       <c r="I7" t="n">
-        <v>39.90540084837242</v>
+        <v>38.41267894701102</v>
       </c>
       <c r="J7" t="n">
-        <v>48.7806740143383</v>
+        <v>46.53833573168168</v>
       </c>
       <c r="K7" t="n">
-        <v>58.16650566561298</v>
+        <v>54.99966889034114</v>
       </c>
       <c r="L7" t="n">
-        <v>67.62210182940402</v>
+        <v>63.37710368409468</v>
       </c>
       <c r="M7" t="n">
-        <v>77.07653665786152</v>
+        <v>71.59856719023142</v>
       </c>
       <c r="N7" t="n">
-        <v>85.15377780803574</v>
+        <v>78.37451331158509</v>
       </c>
       <c r="O7" t="n">
-        <v>86.65700812039094</v>
+        <v>78.96036094762279</v>
       </c>
     </row>
     <row r="8">
@@ -3037,46 +3037,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03548514616244819</v>
+        <v>0.05556049486041403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.047194526685301</v>
+        <v>0.07487203159849432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06084347233922689</v>
+        <v>0.09786727899585546</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07611205493770988</v>
+        <v>0.1238892551126754</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09239414637923211</v>
+        <v>0.1516970935536106</v>
       </c>
       <c r="G8" t="n">
-        <v>0.108793951126679</v>
+        <v>0.1795525699486113</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1242943373597296</v>
+        <v>0.2055666403212694</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1374236072481369</v>
+        <v>0.227180888525186</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1462793167289185</v>
+        <v>0.241227910003005</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1484205665338993</v>
+        <v>0.2437690819186441</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1408303916173957</v>
+        <v>0.2300796260462113</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1206073569536803</v>
+        <v>0.1957992363565964</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08450111537668946</v>
+        <v>0.1361843416544206</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002307784685595066</v>
+        <v>0.002195332871925723</v>
       </c>
     </row>
     <row r="9">
@@ -3086,46 +3086,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.826830942037938e-05</v>
+        <v>9.920063574373646e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.991401392721437e-05</v>
+        <v>0.0002909875086275588</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002011558057226335</v>
+        <v>0.0007613184176411046</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004492504803886808</v>
+        <v>0.001756986751814995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0008808270815907518</v>
+        <v>0.003525774208550578</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001537937736908408</v>
+        <v>0.006236826751411395</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002435947139185215</v>
+        <v>0.009917588408068221</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003479331162397721</v>
+        <v>0.0141158966628487</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004418606586914862</v>
+        <v>0.01775951132117672</v>
       </c>
       <c r="K9" t="n">
-        <v>0.004822161182253181</v>
+        <v>0.01911311649642928</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00428218751081351</v>
+        <v>0.0166789686476821</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002815507961585071</v>
+        <v>0.01074550361561185</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001028837834489859</v>
+        <v>0.003836525353811687</v>
       </c>
       <c r="O9" t="n">
-        <v>3.945864910686846e-08</v>
+        <v>3.351864813260426e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3138,43 +3138,43 @@
         <v>0.003425459223283617</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007827886523959899</v>
+        <v>0.00893930521419675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01225299429114794</v>
+        <v>0.01589711929562388</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01632304174084961</v>
+        <v>0.02376422595262509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02001348842687635</v>
+        <v>0.03223338434931955</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02343358619571982</v>
+        <v>0.04110557633162108</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02657371105808524</v>
+        <v>0.05006243747961955</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02950882515168909</v>
+        <v>0.05894985585134617</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03251031018881523</v>
+        <v>0.06787307942833221</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03550578726029513</v>
+        <v>0.07664535272215192</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0386247456764845</v>
+        <v>0.08540483724639647</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0418821239789109</v>
+        <v>0.0942579738737146</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04549789655670421</v>
+        <v>0.1035750243219074</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04938534871194277</v>
+        <v>0.1134144290347206</v>
       </c>
     </row>
     <row r="11">
@@ -3184,46 +3184,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.204683916450879</v>
+        <v>3.204110620269297</v>
       </c>
       <c r="C11" t="n">
-        <v>5.080964912747201</v>
+        <v>5.073666242128745</v>
       </c>
       <c r="D11" t="n">
-        <v>7.711324199745033</v>
+        <v>7.678707643259027</v>
       </c>
       <c r="E11" t="n">
-        <v>11.16622305967076</v>
+        <v>11.06905683045842</v>
       </c>
       <c r="F11" t="n">
-        <v>15.1728959250368</v>
+        <v>14.94998960684296</v>
       </c>
       <c r="G11" t="n">
-        <v>19.69850545189858</v>
+        <v>19.26765839442382</v>
       </c>
       <c r="H11" t="n">
-        <v>25.01298951024037</v>
+        <v>24.26632667069227</v>
       </c>
       <c r="I11" t="n">
-        <v>31.15466409134525</v>
+        <v>29.96260624715316</v>
       </c>
       <c r="J11" t="n">
-        <v>38.1731278728931</v>
+        <v>36.38624975749659</v>
       </c>
       <c r="K11" t="n">
-        <v>45.69983287815782</v>
+        <v>43.17427211292259</v>
       </c>
       <c r="L11" t="n">
-        <v>53.58782618442773</v>
+        <v>50.18478138419478</v>
       </c>
       <c r="M11" t="n">
-        <v>62.70624883657362</v>
+        <v>58.22237032319906</v>
       </c>
       <c r="N11" t="n">
-        <v>74.92544862352493</v>
+        <v>68.98242189028088</v>
       </c>
       <c r="O11" t="n">
-        <v>86.65700809477251</v>
+        <v>78.96036092669527</v>
       </c>
     </row>
     <row r="12">
@@ -3233,46 +3233,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6068497113703876</v>
+        <v>0.5942187814116123</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7984045047536082</v>
+        <v>0.7753068050674121</v>
       </c>
       <c r="D12" t="n">
-        <v>1.017985779379088</v>
+        <v>0.9779621951664089</v>
       </c>
       <c r="E12" t="n">
-        <v>1.250173924798125</v>
+        <v>1.185128754893916</v>
       </c>
       <c r="F12" t="n">
-        <v>1.463716283723136</v>
+        <v>1.366288967829592</v>
       </c>
       <c r="G12" t="n">
-        <v>1.660782459956639</v>
+        <v>1.524639112249867</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860959039598535</v>
+        <v>1.680237699087238</v>
       </c>
       <c r="I12" t="n">
-        <v>2.06559984813796</v>
+        <v>1.837680145246309</v>
       </c>
       <c r="J12" t="n">
-        <v>2.277315645993249</v>
+        <v>2.004838913172182</v>
       </c>
       <c r="K12" t="n">
-        <v>2.485889304721789</v>
+        <v>2.18094208137034</v>
       </c>
       <c r="L12" t="n">
-        <v>2.693433370571553</v>
+        <v>2.378305728666598</v>
       </c>
       <c r="M12" t="n">
-        <v>2.919856159179447</v>
+        <v>2.624151978658891</v>
       </c>
       <c r="N12" t="n">
-        <v>3.138005852026379</v>
+        <v>2.901796095862769</v>
       </c>
       <c r="O12" t="n">
-        <v>3.268040343044737</v>
+        <v>3.193196432074558</v>
       </c>
     </row>
     <row r="13">
@@ -3282,46 +3282,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6068497113703876</v>
+        <v>22.1660461251647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7984045047536082</v>
+        <v>29.65164594613459</v>
       </c>
       <c r="D13" t="n">
-        <v>1.017985779379088</v>
+        <v>37.84804793061534</v>
       </c>
       <c r="E13" t="n">
-        <v>1.250173924798125</v>
+        <v>45.87984528350216</v>
       </c>
       <c r="F13" t="n">
-        <v>1.463716283723136</v>
+        <v>52.37439976487124</v>
       </c>
       <c r="G13" t="n">
-        <v>1.660782459956639</v>
+        <v>57.35256709473565</v>
       </c>
       <c r="H13" t="n">
-        <v>1.860959039598535</v>
+        <v>61.5265301143896</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06559984813796</v>
+        <v>65.01999909389188</v>
       </c>
       <c r="J13" t="n">
-        <v>2.277315645993249</v>
+        <v>68.05772513721898</v>
       </c>
       <c r="K13" t="n">
-        <v>2.485889304721789</v>
+        <v>70.54338459112559</v>
       </c>
       <c r="L13" t="n">
-        <v>2.693433370571553</v>
+        <v>72.80320557548939</v>
       </c>
       <c r="M13" t="n">
-        <v>2.919856159179447</v>
+        <v>75.55997669978042</v>
       </c>
       <c r="N13" t="n">
-        <v>3.138005852026379</v>
+        <v>78.22967451172343</v>
       </c>
       <c r="O13" t="n">
-        <v>3.268040343044737</v>
+        <v>80.38536918779533</v>
       </c>
     </row>
     <row r="14">
@@ -3495,43 +3495,43 @@
         <v>825.23</v>
       </c>
       <c r="C2" t="n">
-        <v>833.3681975301668</v>
+        <v>829.5055500414444</v>
       </c>
       <c r="D2" t="n">
-        <v>852.7534655007752</v>
+        <v>843.4610636850449</v>
       </c>
       <c r="E2" t="n">
-        <v>879.7509056277615</v>
+        <v>863.3655850095707</v>
       </c>
       <c r="F2" t="n">
-        <v>911.6983642145448</v>
+        <v>886.4945087180716</v>
       </c>
       <c r="G2" t="n">
-        <v>945.5340198921716</v>
+        <v>909.9209826394988</v>
       </c>
       <c r="H2" t="n">
-        <v>979.91663650034</v>
+        <v>932.4893103024335</v>
       </c>
       <c r="I2" t="n">
-        <v>1014.883804828238</v>
+        <v>954.4767460771626</v>
       </c>
       <c r="J2" t="n">
-        <v>1050.786205099936</v>
+        <v>976.6528489958156</v>
       </c>
       <c r="K2" t="n">
-        <v>1088.223759345061</v>
+        <v>1000.301556149064</v>
       </c>
       <c r="L2" t="n">
-        <v>1128.026751660705</v>
+        <v>1027.235610272131</v>
       </c>
       <c r="M2" t="n">
-        <v>1171.067263257407</v>
+        <v>1059.656319122223</v>
       </c>
       <c r="N2" t="n">
-        <v>1217.956171475455</v>
+        <v>1099.790630351542</v>
       </c>
       <c r="O2" t="n">
-        <v>1267.23685406446</v>
+        <v>1148.087366758786</v>
       </c>
     </row>
     <row r="3">
@@ -3544,43 +3544,43 @@
         <v>9903.01790909091</v>
       </c>
       <c r="C3" t="n">
-        <v>10855.64191571199</v>
+        <v>15361.63852643903</v>
       </c>
       <c r="D3" t="n">
-        <v>11358.07517581502</v>
+        <v>20710.87544287963</v>
       </c>
       <c r="E3" t="n">
-        <v>11526.48191422059</v>
+        <v>25827.22240483027</v>
       </c>
       <c r="F3" t="n">
-        <v>11451.26041006065</v>
+        <v>30600.74867701969</v>
       </c>
       <c r="G3" t="n">
-        <v>11201.30112443796</v>
+        <v>34891.73906262362</v>
       </c>
       <c r="H3" t="n">
-        <v>10830.55954778939</v>
+        <v>38647.63379565868</v>
       </c>
       <c r="I3" t="n">
-        <v>10381.29422715839</v>
+        <v>41888.27639959186</v>
       </c>
       <c r="J3" t="n">
-        <v>9885.84003684564</v>
+        <v>44659.13710039204</v>
       </c>
       <c r="K3" t="n">
-        <v>9368.777352459794</v>
+        <v>47029.54429935671</v>
       </c>
       <c r="L3" t="n">
-        <v>8848.680997004147</v>
+        <v>49093.22666313374</v>
       </c>
       <c r="M3" t="n">
-        <v>8339.329848182342</v>
+        <v>50952.38593510019</v>
       </c>
       <c r="N3" t="n">
-        <v>7850.504426439144</v>
+        <v>52695.04636724172</v>
       </c>
       <c r="O3" t="n">
-        <v>7387.041873574169</v>
+        <v>54335.47773564234</v>
       </c>
     </row>
     <row r="4">
@@ -3691,43 +3691,43 @@
         <v>0.98</v>
       </c>
       <c r="C6" t="n">
-        <v>1.669951985575993</v>
+        <v>1.812554870334593</v>
       </c>
       <c r="D6" t="n">
-        <v>2.187914215687494</v>
+        <v>2.553195534920792</v>
       </c>
       <c r="E6" t="n">
-        <v>2.584816487791114</v>
+        <v>3.214803999361046</v>
       </c>
       <c r="F6" t="n">
-        <v>2.901594336862202</v>
+        <v>3.813586094556884</v>
       </c>
       <c r="G6" t="n">
-        <v>3.165111995863384</v>
+        <v>4.359029407903024</v>
       </c>
       <c r="H6" t="n">
-        <v>3.38631139401664</v>
+        <v>4.850893904833668</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5770423722863</v>
+        <v>5.294919027574138</v>
       </c>
       <c r="J6" t="n">
-        <v>3.744335440804132</v>
+        <v>5.695692164535785</v>
       </c>
       <c r="K6" t="n">
-        <v>3.890167057262859</v>
+        <v>6.055660314340482</v>
       </c>
       <c r="L6" t="n">
-        <v>4.02168139544506</v>
+        <v>6.384941975528509</v>
       </c>
       <c r="M6" t="n">
-        <v>4.144921435839178</v>
+        <v>6.694547182876305</v>
       </c>
       <c r="N6" t="n">
-        <v>4.264729879140004</v>
+        <v>6.995418741071267</v>
       </c>
       <c r="O6" t="n">
-        <v>4.383043982922405</v>
+        <v>7.295020634100339</v>
       </c>
     </row>
     <row r="7">
@@ -3743,40 +3743,40 @@
         <v>0.09456200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1733314992787997</v>
+        <v>0.1804616435167297</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2740606350992344</v>
+        <v>0.2990983380869328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3895984277338284</v>
+        <v>0.4448836211506384</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5151982231902471</v>
+        <v>0.6133187448209507</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6476939118239039</v>
+        <v>0.8006042779750543</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7846247859335407</v>
+        <v>1.003118759317985</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9242456652511787</v>
+        <v>1.217708772730793</v>
       </c>
       <c r="K7" t="n">
-        <v>1.065250154028826</v>
+        <v>1.441607942321042</v>
       </c>
       <c r="L7" t="n">
-        <v>1.206495999190528</v>
+        <v>1.672310560922014</v>
       </c>
       <c r="M7" t="n">
-        <v>1.347255269003254</v>
+        <v>1.907942131652339</v>
       </c>
       <c r="N7" t="n">
-        <v>1.487138577345051</v>
+        <v>2.147272384213537</v>
       </c>
       <c r="O7" t="n">
-        <v>1.626018142434798</v>
+        <v>2.389679702056424</v>
       </c>
     </row>
     <row r="8">
@@ -3789,43 +3789,43 @@
         <v>4.477605569014966</v>
       </c>
       <c r="C8" t="n">
-        <v>4.769759253730737</v>
+        <v>5.45535004583939</v>
       </c>
       <c r="D8" t="n">
-        <v>4.961641907782264</v>
+        <v>6.245759124221238</v>
       </c>
       <c r="E8" t="n">
-        <v>5.130852773713768</v>
+        <v>6.948277129247232</v>
       </c>
       <c r="F8" t="n">
-        <v>5.308774321812815</v>
+        <v>7.600208577293129</v>
       </c>
       <c r="G8" t="n">
-        <v>5.491273828974729</v>
+        <v>8.195254875898678</v>
       </c>
       <c r="H8" t="n">
-        <v>5.643502409584019</v>
+        <v>8.702250885760686</v>
       </c>
       <c r="I8" t="n">
-        <v>5.787192056940178</v>
+        <v>9.150762463337644</v>
       </c>
       <c r="J8" t="n">
-        <v>5.91768086750276</v>
+        <v>9.544968356103922</v>
       </c>
       <c r="K8" t="n">
-        <v>6.021739707043278</v>
+        <v>9.882425401676064</v>
       </c>
       <c r="L8" t="n">
-        <v>6.127578092532005</v>
+        <v>10.20453776816318</v>
       </c>
       <c r="M8" t="n">
-        <v>6.240954324132408</v>
+        <v>10.5315209082556</v>
       </c>
       <c r="N8" t="n">
-        <v>6.36537284803213</v>
+        <v>10.88012022148236</v>
       </c>
       <c r="O8" t="n">
-        <v>6.49423784168135</v>
+        <v>11.25037884213395</v>
       </c>
     </row>
     <row r="9">
@@ -3835,46 +3835,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.71657975301667</v>
+        <v>10.33031500414444</v>
       </c>
       <c r="C9" t="n">
-        <v>11.93894516742285</v>
+        <v>11.34961796485738</v>
       </c>
       <c r="D9" t="n">
-        <v>12.93278559870794</v>
+        <v>12.11198489667312</v>
       </c>
       <c r="E9" t="n">
-        <v>13.75175672621146</v>
+        <v>12.67327939096494</v>
       </c>
       <c r="F9" t="n">
-        <v>14.32394593833723</v>
+        <v>12.98058149675957</v>
       </c>
       <c r="G9" t="n">
-        <v>14.78466989952289</v>
+        <v>13.17588455796746</v>
       </c>
       <c r="H9" t="n">
-        <v>15.25571647079386</v>
+        <v>13.38861530110211</v>
       </c>
       <c r="I9" t="n">
-        <v>15.7688456851087</v>
+        <v>13.67133124479125</v>
       </c>
       <c r="J9" t="n">
-        <v>16.35318988571168</v>
+        <v>14.08470490327464</v>
       </c>
       <c r="K9" t="n">
-        <v>17.03898434370514</v>
+        <v>14.6970240860954</v>
       </c>
       <c r="L9" t="n">
-        <v>17.84037217959866</v>
+        <v>15.56889820827479</v>
       </c>
       <c r="M9" t="n">
-        <v>18.74169798089374</v>
+        <v>16.72930695239859</v>
       </c>
       <c r="N9" t="n">
-        <v>19.54354231660587</v>
+        <v>18.02716120494292</v>
       </c>
       <c r="O9" t="n">
-        <v>19.67504100439017</v>
+        <v>19.27870838569964</v>
       </c>
     </row>
     <row r="10">
@@ -3889,43 +3889,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>158.7997451674229</v>
+        <v>688.5400769084508</v>
       </c>
       <c r="D10" t="n">
-        <v>130.421425598708</v>
+        <v>718.7434506238603</v>
       </c>
       <c r="E10" t="n">
-        <v>107.7426687262115</v>
+        <v>735.6248512672446</v>
       </c>
       <c r="F10" t="n">
-        <v>89.51667553833725</v>
+        <v>735.1065253305894</v>
       </c>
       <c r="G10" t="n">
-        <v>74.93885357952291</v>
+        <v>724.5068639297421</v>
       </c>
       <c r="H10" t="n">
-        <v>63.37906341479387</v>
+        <v>710.5405983499045</v>
       </c>
       <c r="I10" t="n">
-        <v>54.26752324030872</v>
+        <v>695.968834075937</v>
       </c>
       <c r="J10" t="n">
-        <v>47.1521319298717</v>
+        <v>683.6320909003872</v>
       </c>
       <c r="K10" t="n">
-        <v>41.67813797903315</v>
+        <v>676.6636793712696</v>
       </c>
       <c r="L10" t="n">
-        <v>37.55169508786107</v>
+        <v>676.8481938279821</v>
       </c>
       <c r="M10" t="n">
-        <v>34.51075630750366</v>
+        <v>683.789902565155</v>
       </c>
       <c r="N10" t="n">
-        <v>32.15878897789381</v>
+        <v>690.9936005124791</v>
       </c>
       <c r="O10" t="n">
-        <v>29.76723833342052</v>
+        <v>693.8110261612792</v>
       </c>
     </row>
     <row r="11">
@@ -4003,46 +4003,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.4289570731352</v>
+        <v>263.4250591144052</v>
       </c>
       <c r="C2" t="n">
-        <v>250.5892960236054</v>
+        <v>250.5081950385938</v>
       </c>
       <c r="D2" t="n">
-        <v>229.3736420365804</v>
+        <v>229.1871258218458</v>
       </c>
       <c r="E2" t="n">
-        <v>205.2759967734694</v>
+        <v>204.9736121963792</v>
       </c>
       <c r="F2" t="n">
-        <v>179.4205147893419</v>
+        <v>179.0168574725917</v>
       </c>
       <c r="G2" t="n">
-        <v>154.6680493600617</v>
+        <v>154.1910363696382</v>
       </c>
       <c r="H2" t="n">
-        <v>132.7935871134857</v>
+        <v>132.2726862590838</v>
       </c>
       <c r="I2" t="n">
-        <v>113.6693336896407</v>
+        <v>113.1319999510649</v>
       </c>
       <c r="J2" t="n">
-        <v>97.04404771198692</v>
+        <v>96.51222183107282</v>
       </c>
       <c r="K2" t="n">
-        <v>83.88905848017089</v>
+        <v>83.37257274638546</v>
       </c>
       <c r="L2" t="n">
-        <v>73.49290173431673</v>
+        <v>72.99797824186928</v>
       </c>
       <c r="M2" t="n">
-        <v>64.39461986390891</v>
+        <v>63.93183072284538</v>
       </c>
       <c r="N2" t="n">
-        <v>56.5592464624652</v>
+        <v>56.13934886127712</v>
       </c>
       <c r="O2" t="n">
-        <v>49.44662868719436</v>
+        <v>49.05360608190136</v>
       </c>
     </row>
     <row r="3">
@@ -4055,43 +4055,43 @@
         <v>30.92935159935833</v>
       </c>
       <c r="C3" t="n">
-        <v>48.00561927831703</v>
+        <v>48.00153934908207</v>
       </c>
       <c r="D3" t="n">
-        <v>64.63008250333451</v>
+        <v>64.62787666380207</v>
       </c>
       <c r="E3" t="n">
-        <v>80.60678863790467</v>
+        <v>80.53750543821732</v>
       </c>
       <c r="F3" t="n">
-        <v>95.73355514198941</v>
+        <v>95.4438152323636</v>
       </c>
       <c r="G3" t="n">
-        <v>110.2323449286804</v>
+        <v>109.5020217421114</v>
       </c>
       <c r="H3" t="n">
-        <v>124.6964287853483</v>
+        <v>123.2595250247286</v>
       </c>
       <c r="I3" t="n">
-        <v>139.1692539904778</v>
+        <v>136.7461762435632</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0942037658232</v>
+        <v>150.4000648063214</v>
       </c>
       <c r="K3" t="n">
-        <v>169.7718565451875</v>
+        <v>164.5112328348386</v>
       </c>
       <c r="L3" t="n">
-        <v>185.4832914253923</v>
+        <v>178.3917897241233</v>
       </c>
       <c r="M3" t="n">
-        <v>197.3034552241718</v>
+        <v>188.2987008813566</v>
       </c>
       <c r="N3" t="n">
-        <v>195.8158770946373</v>
+        <v>185.3605914616123</v>
       </c>
       <c r="O3" t="n">
-        <v>151.7407465785004</v>
+        <v>142.3073869366302</v>
       </c>
     </row>
     <row r="4">
@@ -4101,46 +4101,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2277022125986301</v>
+        <v>0.2276906544422519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2245108356867079</v>
+        <v>0.2247118774732253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2219417156473032</v>
+        <v>0.22232773099293</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2190279207694122</v>
+        <v>0.2195502384317569</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2180706324289066</v>
+        <v>0.2186860045736606</v>
       </c>
       <c r="G4" t="n">
-        <v>0.219006492487289</v>
+        <v>0.2196802082909783</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2200266018892347</v>
+        <v>0.2207360003818394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2218017502334333</v>
+        <v>0.2225347659586403</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2247384594567812</v>
+        <v>0.2254717017771972</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2244718432179588</v>
+        <v>0.2251688595017907</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2156602745409857</v>
+        <v>0.216241507049071</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1912249462058761</v>
+        <v>0.191524294853508</v>
       </c>
       <c r="N4" t="n">
-        <v>0.11927855007335</v>
+        <v>0.1189254288349939</v>
       </c>
       <c r="O4" t="n">
-        <v>2.012924876517347e-09</v>
+        <v>1.90792156734234e-09</v>
       </c>
     </row>
     <row r="5">
@@ -4150,46 +4150,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.722122120934832</v>
+        <v>3.721714128011337</v>
       </c>
       <c r="C5" t="n">
-        <v>4.789155805733643</v>
+        <v>4.789077480116536</v>
       </c>
       <c r="D5" t="n">
-        <v>5.807167228710769</v>
+        <v>5.800315821610762</v>
       </c>
       <c r="E5" t="n">
-        <v>6.76277058182544</v>
+        <v>6.736212346662072</v>
       </c>
       <c r="F5" t="n">
-        <v>7.685211825654422</v>
+        <v>7.622282112969822</v>
       </c>
       <c r="G5" t="n">
-        <v>8.626078670705084</v>
+        <v>8.507853089589291</v>
       </c>
       <c r="H5" t="n">
-        <v>9.569029771556181</v>
+        <v>9.376823733047388</v>
       </c>
       <c r="I5" t="n">
-        <v>10.55688853745427</v>
+        <v>10.27196213840761</v>
       </c>
       <c r="J5" t="n">
-        <v>11.60425299476687</v>
+        <v>11.20699728472315</v>
       </c>
       <c r="K5" t="n">
-        <v>12.62875053123353</v>
+        <v>12.10302696803438</v>
       </c>
       <c r="L5" t="n">
-        <v>13.26294305053523</v>
+        <v>12.6097329913702</v>
       </c>
       <c r="M5" t="n">
-        <v>12.70204161007329</v>
+        <v>11.97048941654444</v>
       </c>
       <c r="N5" t="n">
-        <v>8.346397200632895</v>
+        <v>7.76761450497818</v>
       </c>
       <c r="O5" t="n">
-        <v>1.373652817893086e-07</v>
+        <v>1.204772564062192e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4202,43 +4202,43 @@
         <v>16.39053328158728</v>
       </c>
       <c r="C6" t="n">
-        <v>21.45791691114866</v>
+        <v>21.4573697915314</v>
       </c>
       <c r="D6" t="n">
-        <v>26.41849241190842</v>
+        <v>26.4182219079163</v>
       </c>
       <c r="E6" t="n">
-        <v>31.29092451834842</v>
+        <v>31.28285353111104</v>
       </c>
       <c r="F6" t="n">
-        <v>35.84008292905069</v>
+        <v>35.80750713721887</v>
       </c>
       <c r="G6" t="n">
-        <v>40.19326128228212</v>
+        <v>40.1131875200294</v>
       </c>
       <c r="H6" t="n">
-        <v>44.52331152428975</v>
+        <v>44.36877117093805</v>
       </c>
       <c r="I6" t="n">
-        <v>48.87575649959534</v>
+        <v>48.61889231421684</v>
       </c>
       <c r="J6" t="n">
-        <v>53.20591002039668</v>
+        <v>52.81999937632638</v>
       </c>
       <c r="K6" t="n">
-        <v>58.1740801310312</v>
+        <v>57.62732791246666</v>
       </c>
       <c r="L6" t="n">
-        <v>63.82038693751828</v>
+        <v>63.07836873774585</v>
       </c>
       <c r="M6" t="n">
-        <v>69.17822323513417</v>
+        <v>68.21551988602273</v>
       </c>
       <c r="N6" t="n">
-        <v>73.14879738100569</v>
+        <v>71.95451358703583</v>
       </c>
       <c r="O6" t="n">
-        <v>71.59858257579317</v>
+        <v>70.23312506541158</v>
       </c>
     </row>
     <row r="7">
@@ -4248,46 +4248,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.34644687223924</v>
+        <v>16.34548478560967</v>
       </c>
       <c r="C7" t="n">
-        <v>21.33151298058788</v>
+        <v>21.31207986852925</v>
       </c>
       <c r="D7" t="n">
-        <v>26.16528042857513</v>
+        <v>26.08903439848091</v>
       </c>
       <c r="E7" t="n">
-        <v>30.87629448368428</v>
+        <v>30.68187215271869</v>
       </c>
       <c r="F7" t="n">
-        <v>35.24184682758641</v>
+        <v>34.85491505425711</v>
       </c>
       <c r="G7" t="n">
-        <v>39.3873194019841</v>
+        <v>38.72835498371424</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49033112084057</v>
+        <v>42.47981170641365</v>
       </c>
       <c r="I7" t="n">
-        <v>47.59605605611211</v>
+        <v>46.15890957153513</v>
       </c>
       <c r="J7" t="n">
-        <v>51.6344777961711</v>
+        <v>49.70467334210081</v>
       </c>
       <c r="K7" t="n">
-        <v>56.25984243810572</v>
+        <v>53.75089164111581</v>
       </c>
       <c r="L7" t="n">
-        <v>61.49924031565044</v>
+        <v>58.31319418481817</v>
       </c>
       <c r="M7" t="n">
-        <v>66.42460548216367</v>
+        <v>62.50115383899654</v>
       </c>
       <c r="N7" t="n">
-        <v>69.97399947853411</v>
+        <v>65.31500101425365</v>
       </c>
       <c r="O7" t="n">
-        <v>68.24163355115888</v>
+        <v>63.14581189730943</v>
       </c>
     </row>
     <row r="8">
@@ -4297,46 +4297,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06052262231808816</v>
+        <v>0.1097009052242623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07539356308482482</v>
+        <v>0.136392075758601</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08867481580205018</v>
+        <v>0.1606040648291323</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1006655274188484</v>
+        <v>0.1825384136311133</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1113488115570067</v>
+        <v>0.2018496808459967</v>
       </c>
       <c r="G8" t="n">
-        <v>0.120510909967401</v>
+        <v>0.2179540760576976</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1276296149315788</v>
+        <v>0.2298435507722351</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1319370032952902</v>
+        <v>0.2361841143788928</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1320575591212735</v>
+        <v>0.2346832432774753</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1267881729370365</v>
+        <v>0.2234695777408691</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1147357257130946</v>
+        <v>0.2004220263308822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.09432212962067069</v>
+        <v>0.1631805561973205</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06389576930639504</v>
+        <v>0.1093711259522793</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004949009981895766</v>
+        <v>0.004776673695362731</v>
       </c>
     </row>
     <row r="9">
@@ -4346,46 +4346,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002244134250421716</v>
+        <v>0.001186500054613893</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004545262107489729</v>
+        <v>0.002390129852942229</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0007453075604262594</v>
+        <v>0.003931955065141203</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00107537486562177</v>
+        <v>0.005690804210526433</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001407902351128047</v>
+        <v>0.00743937690485835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001711844369444275</v>
+        <v>0.008977313032947418</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001949170248002362</v>
+        <v>0.01008523757810022</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002069113031629857</v>
+        <v>0.01050923671681755</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002001982420233475</v>
+        <v>0.009942863095235642</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001741010031680888</v>
+        <v>0.008431236909692262</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001293674190991055</v>
+        <v>0.006095887219164675</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0007291686809013005</v>
+        <v>0.003336531798466315</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002341520733738048</v>
+        <v>0.001037419679473664</v>
       </c>
       <c r="O9" t="n">
-        <v>1.611358245340034e-07</v>
+        <v>1.431297655539799e-07</v>
       </c>
     </row>
     <row r="10">
@@ -4398,43 +4398,43 @@
         <v>0.002676056670607093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00586960071061638</v>
+        <v>0.006659706876357242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.009556437658761232</v>
+        <v>0.01231178826129813</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01321644106603555</v>
+        <v>0.01902929263117886</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01665253398812299</v>
+        <v>0.02639537855665181</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02000907640413577</v>
+        <v>0.03429932419594486</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02315711023962563</v>
+        <v>0.04234677178026088</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02614038987738599</v>
+        <v>0.05038110473876207</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02949729158290314</v>
+        <v>0.05879180628168811</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03287540909260778</v>
+        <v>0.06712102008831079</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03634971611732867</v>
+        <v>0.07544707894275569</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03979414988634019</v>
+        <v>0.08372038393706518</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04339871418340806</v>
+        <v>0.09225932915757172</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04688568883252696</v>
+        <v>0.1009112583150422</v>
       </c>
     </row>
     <row r="11">
@@ -4444,46 +4444,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.62432475130441</v>
+        <v>12.62377065759833</v>
       </c>
       <c r="C11" t="n">
-        <v>16.54235717485424</v>
+        <v>16.52300238841272</v>
       </c>
       <c r="D11" t="n">
-        <v>20.35811319986436</v>
+        <v>20.28871857687015</v>
       </c>
       <c r="E11" t="n">
-        <v>24.11352390185884</v>
+        <v>23.94565980605662</v>
       </c>
       <c r="F11" t="n">
-        <v>27.55663500193198</v>
+        <v>27.23263294128729</v>
       </c>
       <c r="G11" t="n">
-        <v>30.76124073127902</v>
+        <v>30.22050189412495</v>
       </c>
       <c r="H11" t="n">
-        <v>33.92130134928438</v>
+        <v>33.10298797336626</v>
       </c>
       <c r="I11" t="n">
-        <v>37.03916751865783</v>
+        <v>35.88694743312752</v>
       </c>
       <c r="J11" t="n">
-        <v>40.03022480140423</v>
+        <v>38.49767605737765</v>
       </c>
       <c r="K11" t="n">
-        <v>43.63109190687219</v>
+        <v>41.64786467308142</v>
       </c>
       <c r="L11" t="n">
-        <v>48.23629726511521</v>
+        <v>45.70346119344796</v>
       </c>
       <c r="M11" t="n">
-        <v>53.72256387209038</v>
+        <v>50.53066442245211</v>
       </c>
       <c r="N11" t="n">
-        <v>61.62760227790121</v>
+        <v>57.54738650927548</v>
       </c>
       <c r="O11" t="n">
-        <v>68.24163341379361</v>
+        <v>63.14581177683218</v>
       </c>
     </row>
     <row r="12">
@@ -4493,46 +4493,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9020312360864775</v>
+        <v>0.8548131248553986</v>
       </c>
       <c r="C12" t="n">
-        <v>1.017479040398489</v>
+        <v>0.9503292670000224</v>
       </c>
       <c r="D12" t="n">
-        <v>1.092676535248927</v>
+        <v>1.006423246918236</v>
       </c>
       <c r="E12" t="n">
-        <v>1.141301548625273</v>
+        <v>1.037133078241741</v>
       </c>
       <c r="F12" t="n">
-        <v>1.164423247756326</v>
+        <v>1.044886972378975</v>
       </c>
       <c r="G12" t="n">
-        <v>1.174257358824277</v>
+        <v>1.04207509905809</v>
       </c>
       <c r="H12" t="n">
-        <v>1.180631512406202</v>
+        <v>1.038681402585679</v>
       </c>
       <c r="I12" t="n">
-        <v>1.187645337494355</v>
+        <v>1.039527010832973</v>
       </c>
       <c r="J12" t="n">
-        <v>1.197295986116474</v>
+        <v>1.048070120627567</v>
       </c>
       <c r="K12" t="n">
-        <v>1.226173562700825</v>
+        <v>1.080164180265025</v>
       </c>
       <c r="L12" t="n">
-        <v>1.275575967889565</v>
+        <v>1.138715501426043</v>
       </c>
       <c r="M12" t="n">
-        <v>1.32863414605171</v>
+        <v>1.210534596812352</v>
       </c>
       <c r="N12" t="n">
-        <v>1.369043903743102</v>
+        <v>1.28127038995152</v>
       </c>
       <c r="O12" t="n">
-        <v>1.347508013187724</v>
+        <v>1.32203859887868</v>
       </c>
     </row>
     <row r="13">
@@ -4542,46 +4542,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9020312360864775</v>
+        <v>51.95025688801173</v>
       </c>
       <c r="C13" t="n">
-        <v>1.017479040398489</v>
+        <v>56.90916257408396</v>
       </c>
       <c r="D13" t="n">
-        <v>1.092676535248927</v>
+        <v>58.84488097216612</v>
       </c>
       <c r="E13" t="n">
-        <v>1.141301548625273</v>
+        <v>58.72887155952894</v>
       </c>
       <c r="F13" t="n">
-        <v>1.164423247756326</v>
+        <v>56.88811850582162</v>
       </c>
       <c r="G13" t="n">
-        <v>1.174257358824277</v>
+        <v>54.19394576973153</v>
       </c>
       <c r="H13" t="n">
-        <v>1.180631512406202</v>
+        <v>51.29234445537431</v>
       </c>
       <c r="I13" t="n">
-        <v>1.187645337494355</v>
+        <v>48.477927630354</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197295986116474</v>
+        <v>45.91896176065824</v>
       </c>
       <c r="K13" t="n">
-        <v>1.226173562700825</v>
+        <v>44.24990812800716</v>
       </c>
       <c r="L13" t="n">
-        <v>1.275575967889565</v>
+        <v>43.43222785139188</v>
       </c>
       <c r="M13" t="n">
-        <v>1.32863414605171</v>
+        <v>42.83781226070845</v>
       </c>
       <c r="N13" t="n">
-        <v>1.369043903743102</v>
+        <v>41.96449619765717</v>
       </c>
       <c r="O13" t="n">
-        <v>1.347508013187724</v>
+        <v>40.02230882255929</v>
       </c>
     </row>
     <row r="14">
@@ -4752,46 +4752,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67.32730762248437</v>
+        <v>67.3221217288725</v>
       </c>
       <c r="C2" t="n">
-        <v>59.61947790307769</v>
+        <v>59.60234028228784</v>
       </c>
       <c r="D2" t="n">
-        <v>50.59685118518736</v>
+        <v>50.56061820380886</v>
       </c>
       <c r="E2" t="n">
-        <v>41.8826484639972</v>
+        <v>41.82667615244113</v>
       </c>
       <c r="F2" t="n">
-        <v>34.89628620060567</v>
+        <v>34.82335271571012</v>
       </c>
       <c r="G2" t="n">
-        <v>29.52194394366171</v>
+        <v>29.4360318667581</v>
       </c>
       <c r="H2" t="n">
-        <v>24.89454115664953</v>
+        <v>24.80138489758101</v>
       </c>
       <c r="I2" t="n">
-        <v>20.93762453463168</v>
+        <v>20.84239985886031</v>
       </c>
       <c r="J2" t="n">
-        <v>17.56826208402158</v>
+        <v>17.47499840673951</v>
       </c>
       <c r="K2" t="n">
-        <v>15.05494745597645</v>
+        <v>14.96469061342343</v>
       </c>
       <c r="L2" t="n">
-        <v>13.18849067343592</v>
+        <v>13.10172075589196</v>
       </c>
       <c r="M2" t="n">
-        <v>11.55692484995703</v>
+        <v>11.4756064079252</v>
       </c>
       <c r="N2" t="n">
-        <v>10.15293904601182</v>
+        <v>10.07907207777726</v>
       </c>
       <c r="O2" t="n">
-        <v>8.879666503441062</v>
+        <v>8.810487150013619</v>
       </c>
     </row>
     <row r="3">
@@ -4804,43 +4804,43 @@
         <v>8.331421097670153</v>
       </c>
       <c r="C3" t="n">
-        <v>12.19982937688008</v>
+        <v>12.20829366741918</v>
       </c>
       <c r="D3" t="n">
-        <v>15.35020001600316</v>
+        <v>15.36867545919833</v>
       </c>
       <c r="E3" t="n">
-        <v>17.90689004141287</v>
+        <v>17.91912352975473</v>
       </c>
       <c r="F3" t="n">
-        <v>20.24637200638348</v>
+        <v>20.21938022192466</v>
       </c>
       <c r="G3" t="n">
-        <v>22.57903421275939</v>
+        <v>22.46771151680106</v>
       </c>
       <c r="H3" t="n">
-        <v>24.86697378299543</v>
+        <v>24.62082513192443</v>
       </c>
       <c r="I3" t="n">
-        <v>27.13251656623547</v>
+        <v>26.70067633510007</v>
       </c>
       <c r="J3" t="n">
-        <v>29.46832458293223</v>
+        <v>28.80048853739421</v>
       </c>
       <c r="K3" t="n">
-        <v>32.08915502853819</v>
+        <v>31.12878047607111</v>
       </c>
       <c r="L3" t="n">
-        <v>34.85797087732377</v>
+        <v>33.55177270550737</v>
       </c>
       <c r="M3" t="n">
-        <v>36.94649207688648</v>
+        <v>35.27766103886773</v>
       </c>
       <c r="N3" t="n">
-        <v>36.56096933603411</v>
+        <v>34.6166376352801</v>
       </c>
       <c r="O3" t="n">
-        <v>28.29946410409821</v>
+        <v>26.54129652944409</v>
       </c>
     </row>
     <row r="4">
@@ -4850,46 +4850,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2105207591791062</v>
+        <v>0.2107138028050622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2063766056538131</v>
+        <v>0.2067911477960574</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2053509688584661</v>
+        <v>0.2059555199481837</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2095226596092302</v>
+        <v>0.2102714461580535</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2138511122774051</v>
+        <v>0.2146915478508743</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2148555979778376</v>
+        <v>0.2157397563781371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2162096846048132</v>
+        <v>0.2171129635655557</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2187014087660245</v>
+        <v>0.2196086645884763</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2239614712221202</v>
+        <v>0.2248473240986854</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2253708680807746</v>
+        <v>0.2261859693555945</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2165197892488125</v>
+        <v>0.2171759421044985</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1918322818723495</v>
+        <v>0.1921642218990152</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1196707205313035</v>
+        <v>0.1193210095131336</v>
       </c>
       <c r="O4" t="n">
-        <v>1.642130328086967e-08</v>
+        <v>1.561618591941421e-08</v>
       </c>
     </row>
     <row r="5">
@@ -4899,46 +4899,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9294842464728216</v>
+        <v>0.9303306755267319</v>
       </c>
       <c r="C5" t="n">
-        <v>1.109638253938646</v>
+        <v>1.11119066669599</v>
       </c>
       <c r="D5" t="n">
-        <v>1.255460624460989</v>
+        <v>1.25603977442383</v>
       </c>
       <c r="E5" t="n">
-        <v>1.400262551970142</v>
+        <v>1.397136818161057</v>
       </c>
       <c r="F5" t="n">
-        <v>1.551956080388929</v>
+        <v>1.541764956123157</v>
       </c>
       <c r="G5" t="n">
-        <v>1.699415135472596</v>
+        <v>1.678681852762943</v>
       </c>
       <c r="H5" t="n">
-        <v>1.846193893757303</v>
+        <v>1.811592543412578</v>
       </c>
       <c r="I5" t="n">
-        <v>2.000780103062983</v>
+        <v>1.949053836325653</v>
       </c>
       <c r="J5" t="n">
-        <v>2.18141855806009</v>
+        <v>2.108667105873457</v>
       </c>
       <c r="K5" t="n">
-        <v>2.366917435784599</v>
+        <v>2.269783808689556</v>
       </c>
       <c r="L5" t="n">
-        <v>2.479226916633</v>
+        <v>2.357888126932166</v>
       </c>
       <c r="M5" t="n">
-        <v>2.367852411149832</v>
+        <v>2.231607781387115</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55514423474659</v>
+        <v>1.447122131726766</v>
       </c>
       <c r="O5" t="n">
-        <v>2.080766514756507e-07</v>
+        <v>1.830683596618172e-07</v>
       </c>
     </row>
     <row r="6">
@@ -4951,43 +4951,43 @@
         <v>4.422632286096618</v>
       </c>
       <c r="C6" t="n">
-        <v>5.402022583982865</v>
+        <v>5.403146694533288</v>
       </c>
       <c r="D6" t="n">
-        <v>6.16280109548074</v>
+        <v>6.165025415999316</v>
       </c>
       <c r="E6" t="n">
-        <v>6.758084645075376</v>
+        <v>6.759469394555873</v>
       </c>
       <c r="F6" t="n">
-        <v>7.360048566198287</v>
+        <v>7.357103540620465</v>
       </c>
       <c r="G6" t="n">
-        <v>8.043500564205342</v>
+        <v>8.03158277812628</v>
       </c>
       <c r="H6" t="n">
-        <v>8.705056092298767</v>
+        <v>8.679115622380674</v>
       </c>
       <c r="I6" t="n">
-        <v>9.347843834416047</v>
+        <v>9.302958938512786</v>
       </c>
       <c r="J6" t="n">
-        <v>9.974228627867996</v>
+        <v>9.905870401194159</v>
       </c>
       <c r="K6" t="n">
-        <v>10.77661256969539</v>
+        <v>10.67882371836753</v>
       </c>
       <c r="L6" t="n">
-        <v>11.77230095513405</v>
+        <v>11.63818795380353</v>
       </c>
       <c r="M6" t="n">
-        <v>12.71456336263236</v>
+        <v>12.53947697431192</v>
       </c>
       <c r="N6" t="n">
-        <v>13.41191142110149</v>
+        <v>13.1938283773877</v>
       </c>
       <c r="O6" t="n">
-        <v>13.10303269246658</v>
+        <v>12.85331057009536</v>
       </c>
     </row>
     <row r="7">
@@ -4997,46 +4997,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.415166704211046</v>
+        <v>4.415138748112336</v>
       </c>
       <c r="C7" t="n">
-        <v>5.376763758776084</v>
+        <v>5.373492427209092</v>
       </c>
       <c r="D7" t="n">
-        <v>6.113731196107915</v>
+        <v>6.09859728323784</v>
       </c>
       <c r="E7" t="n">
-        <v>6.683107949191266</v>
+        <v>6.644443854306683</v>
       </c>
       <c r="F7" t="n">
-        <v>7.257180305780921</v>
+        <v>7.181302531732987</v>
       </c>
       <c r="G7" t="n">
-        <v>7.909568805593285</v>
+        <v>7.781050099178937</v>
       </c>
       <c r="H7" t="n">
-        <v>8.53890470786156</v>
+        <v>8.344009098588812</v>
       </c>
       <c r="I7" t="n">
-        <v>9.148455487104329</v>
+        <v>8.875122664116994</v>
       </c>
       <c r="J7" t="n">
-        <v>9.740151045429618</v>
+        <v>9.378217483024009</v>
       </c>
       <c r="K7" t="n">
-        <v>10.50232204339861</v>
+        <v>10.03503362810782</v>
       </c>
       <c r="L7" t="n">
-        <v>11.4503479115436</v>
+        <v>10.85704108882199</v>
       </c>
       <c r="M7" t="n">
-        <v>12.34334694890126</v>
+        <v>11.61302431500415</v>
       </c>
       <c r="N7" t="n">
-        <v>12.99519404447637</v>
+        <v>12.12797425727011</v>
       </c>
       <c r="O7" t="n">
-        <v>12.67114113397161</v>
+        <v>11.72298796943912</v>
       </c>
     </row>
     <row r="8">
@@ -5046,46 +5046,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02638532036100722</v>
+        <v>0.04401321772420477</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03236448310273715</v>
+        <v>0.05458062628920068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03746915790387903</v>
+        <v>0.06394901723185677</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04184476574029371</v>
+        <v>0.07214524307023354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04560949349499489</v>
+        <v>0.07921010784363543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04882194240714172</v>
+        <v>0.0851450499092469</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05128515696585447</v>
+        <v>0.08954646685244742</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05267758067280952</v>
+        <v>0.09183562660675328</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05246255826302404</v>
+        <v>0.09110517758214179</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05017601658483047</v>
+        <v>0.08662476641761291</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04530924475768493</v>
+        <v>0.07761758831585917</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03725620332025311</v>
+        <v>0.06314959349589529</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0255629095895499</v>
+        <v>0.04241499736229656</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009288293105581305</v>
+        <v>0.008348886015908635</v>
       </c>
     </row>
     <row r="9">
@@ -5095,46 +5095,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.763559351330267e-06</v>
+        <v>3.671965806068091e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.543679473357989e-05</v>
+        <v>6.67057149106877e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>2.190138091192659e-05</v>
+        <v>9.787596483053778e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>2.734108773834358e-05</v>
+        <v>0.0001256872244305866</v>
       </c>
       <c r="F9" t="n">
-        <v>3.202526209233938e-05</v>
+        <v>0.0001501584841571264</v>
       </c>
       <c r="G9" t="n">
-        <v>3.61480177642879e-05</v>
+        <v>0.0001713028983838399</v>
       </c>
       <c r="H9" t="n">
-        <v>3.868142879836523e-05</v>
+        <v>0.0001836391831000452</v>
       </c>
       <c r="I9" t="n">
-        <v>3.889128290233084e-05</v>
+        <v>0.0001835020704053622</v>
       </c>
       <c r="J9" t="n">
-        <v>3.590350900759759e-05</v>
+        <v>0.0001672215649950802</v>
       </c>
       <c r="K9" t="n">
-        <v>3.017109279981742e-05</v>
+        <v>0.0001379242712636047</v>
       </c>
       <c r="L9" t="n">
-        <v>2.195932570886256e-05</v>
+        <v>9.799599133412504e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.222460360027189e-05</v>
+        <v>5.28316600622199e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>4.024624913507045e-06</v>
+        <v>1.634373132182926e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.079093362705031e-07</v>
+        <v>1.513061236222356e-07</v>
       </c>
     </row>
     <row r="10">
@@ -5147,43 +5147,43 @@
         <v>0.00168605885451114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00467295129178003</v>
+        <v>0.00547598710196426</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007958718321751455</v>
+        <v>0.01075912138569718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01109032495634528</v>
+        <v>0.01699835391181745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01397222236108045</v>
+        <v>0.02387500045819762</v>
       </c>
       <c r="G10" t="n">
-        <v>0.016646435159108</v>
+        <v>0.03117210927973119</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01908232425467834</v>
+        <v>0.03858951754774492</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02132571527295613</v>
+        <v>0.0459695431477174</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02346463948855727</v>
+        <v>0.05324980796656307</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02544958848898533</v>
+        <v>0.06027369520875001</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02734648778447553</v>
+        <v>0.06711086571998472</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02919519754948544</v>
+        <v>0.07387866571707892</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03107039249786431</v>
+        <v>0.08078305597983791</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0329611747694062</v>
+        <v>0.08794018033075496</v>
       </c>
     </row>
     <row r="11">
@@ -5193,46 +5193,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.485682457738224</v>
+        <v>3.484808072585604</v>
       </c>
       <c r="C11" t="n">
-        <v>4.267125504837439</v>
+        <v>4.262301760513101</v>
       </c>
       <c r="D11" t="n">
-        <v>4.858270571646926</v>
+        <v>4.84255750881401</v>
       </c>
       <c r="E11" t="n">
-        <v>5.282845397221124</v>
+        <v>5.247307036145626</v>
       </c>
       <c r="F11" t="n">
-        <v>5.705224225391992</v>
+        <v>5.63953757560983</v>
       </c>
       <c r="G11" t="n">
-        <v>6.210153670120689</v>
+        <v>6.102368246415994</v>
       </c>
       <c r="H11" t="n">
-        <v>6.692710814104257</v>
+        <v>6.532416555176234</v>
       </c>
       <c r="I11" t="n">
-        <v>7.147675384041346</v>
+        <v>6.926068827791341</v>
       </c>
       <c r="J11" t="n">
-        <v>7.558732487369531</v>
+        <v>7.269550377150553</v>
       </c>
       <c r="K11" t="n">
-        <v>8.135404607614012</v>
+        <v>7.765249819418266</v>
       </c>
       <c r="L11" t="n">
-        <v>8.971120994910599</v>
+        <v>8.499152961889822</v>
       </c>
       <c r="M11" t="n">
-        <v>9.975494537751427</v>
+        <v>9.381416533617033</v>
       </c>
       <c r="N11" t="n">
-        <v>11.44004980972978</v>
+        <v>10.68085212554335</v>
       </c>
       <c r="O11" t="n">
-        <v>12.67114092589496</v>
+        <v>11.72298778637076</v>
       </c>
     </row>
     <row r="12">
@@ -5242,46 +5242,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3731720291985767</v>
+        <v>0.3664155182635035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3860310319795563</v>
+        <v>0.3772465511446803</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3783752191610049</v>
+        <v>0.3680986756908345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3611119993965612</v>
+        <v>0.349763930749176</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3462507746413723</v>
+        <v>0.3339268758425694</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3366406357629445</v>
+        <v>0.3233054314285584</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3272572237047323</v>
+        <v>0.313123189498241</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3185485397849893</v>
+        <v>0.3039148488981505</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3108438372244279</v>
+        <v>0.2961234727406742</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3098107012663782</v>
+        <v>0.2952185632609146</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3148642522635103</v>
+        <v>0.3007430936157197</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3190885121015888</v>
+        <v>0.306230653650305</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3184838920027461</v>
+        <v>0.3078868605910465</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2969928349817506</v>
+        <v>0.2916088887642121</v>
       </c>
     </row>
     <row r="13">
@@ -5291,46 +5291,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3731720291985767</v>
+        <v>16.32869764655149</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3860310319795563</v>
+        <v>17.00047976019495</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3783752191610049</v>
+        <v>16.57470071450594</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3611119993965612</v>
+        <v>15.56913480968098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3462507746413723</v>
+        <v>14.55555125015862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3366406357629445</v>
+        <v>13.68430326224711</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3272572237047323</v>
+        <v>12.77362447220186</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3185485397849893</v>
+        <v>11.87035256136027</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3108438372244279</v>
+        <v>11.00894111339244</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3098107012663782</v>
+        <v>10.39255982126702</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3148642522635103</v>
+        <v>9.979293251447434</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3190885121015888</v>
+        <v>9.540150763778227</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3184838920027461</v>
+        <v>8.974934299849268</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2969928349817506</v>
+        <v>7.9313949139547</v>
       </c>
     </row>
     <row r="14">
@@ -5501,46 +5501,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.73093692018786</v>
+        <v>52.72598790345057</v>
       </c>
       <c r="C2" t="n">
-        <v>50.38008442086534</v>
+        <v>50.36128394672101</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1914294568022</v>
+        <v>45.15130690573898</v>
       </c>
       <c r="E2" t="n">
-        <v>39.59205920456427</v>
+        <v>39.52965780759456</v>
       </c>
       <c r="F2" t="n">
-        <v>34.20313720517598</v>
+        <v>34.12249236815237</v>
       </c>
       <c r="G2" t="n">
-        <v>29.27560501919591</v>
+        <v>29.18299862374919</v>
       </c>
       <c r="H2" t="n">
-        <v>24.86629547011412</v>
+        <v>24.76828937641717</v>
       </c>
       <c r="I2" t="n">
-        <v>20.99587874574277</v>
+        <v>20.89796127148881</v>
       </c>
       <c r="J2" t="n">
-        <v>17.63995148139051</v>
+        <v>17.54608123730005</v>
       </c>
       <c r="K2" t="n">
-        <v>15.20357697418102</v>
+        <v>15.11399566297833</v>
       </c>
       <c r="L2" t="n">
-        <v>13.46653659465288</v>
+        <v>13.38103512721987</v>
       </c>
       <c r="M2" t="n">
-        <v>11.92470209935937</v>
+        <v>11.84509194175796</v>
       </c>
       <c r="N2" t="n">
-        <v>10.58863747186179</v>
+        <v>10.51673947884567</v>
       </c>
       <c r="O2" t="n">
-        <v>9.344528954439514</v>
+        <v>9.277720580360139</v>
       </c>
     </row>
     <row r="3">
@@ -5553,43 +5553,43 @@
         <v>4.214901559230878</v>
       </c>
       <c r="C3" t="n">
-        <v>6.092837570708184</v>
+        <v>6.095393252455469</v>
       </c>
       <c r="D3" t="n">
-        <v>7.859971406370136</v>
+        <v>7.865602197099243</v>
       </c>
       <c r="E3" t="n">
-        <v>9.565965301172255</v>
+        <v>9.568466218592832</v>
       </c>
       <c r="F3" t="n">
-        <v>11.23896844233136</v>
+        <v>11.22501549325236</v>
       </c>
       <c r="G3" t="n">
-        <v>12.90580904222578</v>
+        <v>12.85642690422134</v>
       </c>
       <c r="H3" t="n">
-        <v>14.58156689750334</v>
+        <v>14.47418087525958</v>
       </c>
       <c r="I3" t="n">
-        <v>16.27503657381681</v>
+        <v>16.08587906705914</v>
       </c>
       <c r="J3" t="n">
-        <v>18.04814523149431</v>
+        <v>17.75264441656166</v>
       </c>
       <c r="K3" t="n">
-        <v>20.11221506435241</v>
+        <v>19.68020453465112</v>
       </c>
       <c r="L3" t="n">
-        <v>22.37848842397397</v>
+        <v>21.77931857781159</v>
       </c>
       <c r="M3" t="n">
-        <v>24.2773962774077</v>
+        <v>23.4966024872008</v>
       </c>
       <c r="N3" t="n">
-        <v>24.56979182081626</v>
+        <v>23.64201133450732</v>
       </c>
       <c r="O3" t="n">
-        <v>19.4494632743815</v>
+        <v>18.59349012003062</v>
       </c>
     </row>
     <row r="4">
@@ -5599,46 +5599,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2059600239451516</v>
+        <v>0.2060748975520239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204597527923663</v>
+        <v>0.2048598847230806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2059695491437088</v>
+        <v>0.206357288745358</v>
       </c>
       <c r="E4" t="n">
-        <v>0.207199577213902</v>
+        <v>0.2076775364653251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2084556312353866</v>
+        <v>0.2089911275323342</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2097903889764371</v>
+        <v>0.210357282543734</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2115861983178241</v>
+        <v>0.2121703718015421</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2148119152565666</v>
+        <v>0.2154065182100905</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2220209190301573</v>
+        <v>0.2226125217837783</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2249076834221383</v>
+        <v>0.2254606929229529</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2164806855397843</v>
+        <v>0.2169338381871851</v>
       </c>
       <c r="M4" t="n">
-        <v>0.192387107712325</v>
+        <v>0.192627416616703</v>
       </c>
       <c r="N4" t="n">
-        <v>0.121159461191942</v>
+        <v>0.1209420447649768</v>
       </c>
       <c r="O4" t="n">
-        <v>1.065135776531268e-08</v>
+        <v>1.023034910203991e-08</v>
       </c>
     </row>
     <row r="5">
@@ -5648,46 +5648,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4623192269860504</v>
+        <v>0.4625747951607788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5735530306432931</v>
+        <v>0.5740269986037004</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6825362731968512</v>
+        <v>0.6825900314061133</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7903522583067892</v>
+        <v>0.788869761800386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8987023057420553</v>
+        <v>0.8942506011935771</v>
       </c>
       <c r="G5" t="n">
-        <v>1.008158953243158</v>
+        <v>0.9991421997036012</v>
       </c>
       <c r="H5" t="n">
-        <v>1.119075857378155</v>
+        <v>1.103904425774838</v>
       </c>
       <c r="I5" t="n">
-        <v>1.237339086636541</v>
+        <v>1.214384519582223</v>
       </c>
       <c r="J5" t="n">
-        <v>1.381921593833672</v>
+        <v>1.349024017183442</v>
       </c>
       <c r="K5" t="n">
-        <v>1.536579264837985</v>
+        <v>1.491725555982049</v>
       </c>
       <c r="L5" t="n">
-        <v>1.647449984194055</v>
+        <v>1.59026236590485</v>
       </c>
       <c r="M5" t="n">
-        <v>1.61047871571202</v>
+        <v>1.544925263162036</v>
       </c>
       <c r="N5" t="n">
-        <v>1.088250658871754</v>
+        <v>1.035003048708808</v>
       </c>
       <c r="O5" t="n">
-        <v>9.497581872688456e-08</v>
+        <v>8.639544640627753e-08</v>
       </c>
     </row>
     <row r="6">
@@ -5700,43 +5700,43 @@
         <v>2.24719363913384</v>
       </c>
       <c r="C6" t="n">
-        <v>2.812361351598296</v>
+        <v>2.812715198826838</v>
       </c>
       <c r="D6" t="n">
-        <v>3.332151481500187</v>
+        <v>3.332867436208175</v>
       </c>
       <c r="E6" t="n">
-        <v>3.844043282188013</v>
+        <v>3.844344749576441</v>
       </c>
       <c r="F6" t="n">
-        <v>4.353479518779006</v>
+        <v>4.351857387053056</v>
       </c>
       <c r="G6" t="n">
-        <v>4.861692130644287</v>
+        <v>4.856103880312769</v>
       </c>
       <c r="H6" t="n">
-        <v>5.359843367996904</v>
+        <v>5.347970938913151</v>
       </c>
       <c r="I6" t="n">
-        <v>5.846370409887592</v>
+        <v>5.825902007298442</v>
       </c>
       <c r="J6" t="n">
-        <v>6.326632929772004</v>
+        <v>6.295377545457093</v>
       </c>
       <c r="K6" t="n">
-        <v>6.953558193647294</v>
+        <v>6.90840841599452</v>
       </c>
       <c r="L6" t="n">
-        <v>7.755128318975145</v>
+        <v>7.692243968982275</v>
       </c>
       <c r="M6" t="n">
-        <v>8.540819917496659</v>
+        <v>8.457469759152991</v>
       </c>
       <c r="N6" t="n">
-        <v>9.175323107663379</v>
+        <v>9.069978344802356</v>
       </c>
       <c r="O6" t="n">
-        <v>9.12006688277307</v>
+        <v>8.997751862786238</v>
       </c>
     </row>
     <row r="7">
@@ -5746,46 +5746,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.244703696039425</v>
+        <v>2.244692588256661</v>
       </c>
       <c r="C7" t="n">
-        <v>2.803323365946486</v>
+        <v>2.802046869154698</v>
       </c>
       <c r="D7" t="n">
-        <v>3.313772720455065</v>
+        <v>3.307806744100132</v>
       </c>
       <c r="E7" t="n">
-        <v>3.814449184376814</v>
+        <v>3.798531970414142</v>
       </c>
       <c r="F7" t="n">
-        <v>4.31124024050589</v>
+        <v>4.278892658039862</v>
       </c>
       <c r="G7" t="n">
-        <v>4.805553572601414</v>
+        <v>4.749739051681636</v>
       </c>
       <c r="H7" t="n">
-        <v>5.288983243118668</v>
+        <v>5.202915074341283</v>
       </c>
       <c r="I7" t="n">
-        <v>5.760104532184311</v>
+        <v>5.637640539725027</v>
       </c>
       <c r="J7" t="n">
-        <v>6.22428553070697</v>
+        <v>6.059964670333048</v>
       </c>
       <c r="K7" t="n">
-        <v>6.83204433684872</v>
+        <v>6.61634423563055</v>
       </c>
       <c r="L7" t="n">
-        <v>7.610147667844902</v>
+        <v>7.330633059341646</v>
       </c>
       <c r="M7" t="n">
-        <v>8.371032419283296</v>
+        <v>8.020277125120693</v>
       </c>
       <c r="N7" t="n">
-        <v>8.981970109191368</v>
+        <v>8.55784314478972</v>
       </c>
       <c r="O7" t="n">
-        <v>8.916780453679223</v>
+        <v>8.445014490175168</v>
       </c>
     </row>
     <row r="8">
@@ -5795,46 +5795,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02333270186940666</v>
+        <v>0.04081427308817863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02900105713526557</v>
+        <v>0.05114077404487261</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03417344690144086</v>
+        <v>0.06085525039067587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03894221172768722</v>
+        <v>0.06995271639915038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04334011563205731</v>
+        <v>0.07834082570039652</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04729181705864789</v>
+        <v>0.0857720839573773</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05057601320536617</v>
+        <v>0.09177367962911448</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05282231880458572</v>
+        <v>0.09564486869040438</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05342030369552348</v>
+        <v>0.09630327557154464</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05180014014154341</v>
+        <v>0.09280300771937788</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04737512848831905</v>
+        <v>0.08420873199328908</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03938318912514045</v>
+        <v>0.06929797393900292</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0271608315782657</v>
+        <v>0.0469569045949476</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008183072640653067</v>
+        <v>0.007576404185235355</v>
       </c>
     </row>
     <row r="9">
@@ -5844,46 +5844,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.933918399187937e-06</v>
+        <v>1.404170116335642e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.50478548697484e-06</v>
+        <v>2.695161222302296e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>8.536215000828533e-06</v>
+        <v>4.296003217793094e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>1.187960026670319e-05</v>
+        <v>6.125069223745215e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>1.536012529544967e-05</v>
+        <v>8.055778725159282e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>1.871660790609758e-05</v>
+        <v>9.901375899596575e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.147506124234288e-05</v>
+        <v>0.0001136415895486776</v>
       </c>
       <c r="I9" t="n">
-        <v>2.300183259619154e-05</v>
+        <v>0.000120837876089665</v>
       </c>
       <c r="J9" t="n">
-        <v>2.250101427799091e-05</v>
+        <v>0.0001165919098425227</v>
       </c>
       <c r="K9" t="n">
-        <v>2.000609283617977e-05</v>
+        <v>0.000101713902801564</v>
       </c>
       <c r="L9" t="n">
-        <v>1.541617426654839e-05</v>
+        <v>7.65419475571954e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>9.028837445731751e-06</v>
+        <v>4.350305542217096e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.072682804956493e-06</v>
+        <v>1.406761673112499e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>9.563045189498695e-08</v>
+        <v>7.604366463043508e-08</v>
       </c>
     </row>
     <row r="10">
@@ -5896,43 +5896,43 @@
         <v>0.001106717789115114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003211707080667304</v>
+        <v>0.003783311607359266</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00551302212162667</v>
+        <v>0.007506368781450207</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00769559966923518</v>
+        <v>0.01190099521514114</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009698889811169276</v>
+        <v>0.01674783080961616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01154327339677305</v>
+        <v>0.02188293691635223</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01321655222985879</v>
+        <v>0.02710228320944743</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01475152442014751</v>
+        <v>0.03229381981736588</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01617367392523032</v>
+        <v>0.03737604004131573</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01747218435832364</v>
+        <v>0.04226190011945665</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01869282221949532</v>
+        <v>0.04699985714843673</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01987847431698107</v>
+        <v>0.05168793308469549</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02107281929153179</v>
+        <v>0.05646332471009148</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02229000467610412</v>
+        <v>0.06143060010955531</v>
       </c>
     </row>
     <row r="11">
@@ -5942,46 +5942,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.782384469053375</v>
+        <v>1.782117793095882</v>
       </c>
       <c r="C11" t="n">
-        <v>2.229770335303193</v>
+        <v>2.228019870550998</v>
       </c>
       <c r="D11" t="n">
-        <v>2.631236447258214</v>
+        <v>2.625216712694018</v>
       </c>
       <c r="E11" t="n">
-        <v>3.024096926070025</v>
+        <v>3.009662208613756</v>
       </c>
       <c r="F11" t="n">
-        <v>3.412537934763835</v>
+        <v>3.384642056846285</v>
       </c>
       <c r="G11" t="n">
-        <v>3.797394619358257</v>
+        <v>3.750596851978034</v>
       </c>
       <c r="H11" t="n">
-        <v>4.169907385740514</v>
+        <v>4.099010648566446</v>
       </c>
       <c r="I11" t="n">
-        <v>4.52276544554777</v>
+        <v>4.423256020142802</v>
       </c>
       <c r="J11" t="n">
-        <v>4.842363936873298</v>
+        <v>4.710940653149605</v>
       </c>
       <c r="K11" t="n">
-        <v>5.295465072010736</v>
+        <v>5.124618679648501</v>
       </c>
       <c r="L11" t="n">
-        <v>5.962697683650847</v>
+        <v>5.740370693436796</v>
       </c>
       <c r="M11" t="n">
-        <v>6.760553703571275</v>
+        <v>6.475351861958655</v>
       </c>
       <c r="N11" t="n">
-        <v>7.893719450319612</v>
+        <v>7.522840096080913</v>
       </c>
       <c r="O11" t="n">
-        <v>8.916780358703404</v>
+        <v>8.445014403779721</v>
       </c>
     </row>
     <row r="12">
@@ -5991,46 +5991,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4125964167297926</v>
+        <v>0.4052112676032908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.43825088296682</v>
+        <v>0.4283122209617872</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4468237145442938</v>
+        <v>0.434573171983728</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4490925455102716</v>
+        <v>0.4346357350115041</v>
       </c>
       <c r="F12" t="n">
-        <v>0.448088265919366</v>
+        <v>0.4315334921486753</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4453540438937655</v>
+        <v>0.426874780881825</v>
       </c>
       <c r="H12" t="n">
-        <v>0.441117519973265</v>
+        <v>0.4210417199892675</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4361738435100239</v>
+        <v>0.4149961017389565</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4316639334893613</v>
+        <v>0.4100722964723221</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4376872362245925</v>
+        <v>0.4160413604627597</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4542541813973059</v>
+        <v>0.4331492608541548</v>
       </c>
       <c r="M12" t="n">
-        <v>0.469688639296683</v>
+        <v>0.4506209939487672</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4779825453720158</v>
+        <v>0.4628799959294242</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4549710984836567</v>
+        <v>0.4491437531237432</v>
       </c>
     </row>
     <row r="13">
@@ -6040,46 +6040,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4125964167297926</v>
+        <v>22.11408536345076</v>
       </c>
       <c r="C13" t="n">
-        <v>0.43825088296682</v>
+        <v>23.59485705742787</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4468237145442938</v>
+        <v>23.88139781191521</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4490925455102716</v>
+        <v>23.57774852146454</v>
       </c>
       <c r="F13" t="n">
-        <v>0.448088265919366</v>
+        <v>22.89403720923727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4453540438937655</v>
+        <v>21.96577661496311</v>
       </c>
       <c r="H13" t="n">
-        <v>0.441117519973265</v>
+        <v>20.86036370418142</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4361738435100239</v>
+        <v>19.66810042147604</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4316639334893613</v>
+        <v>18.48358435386623</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4376872362245925</v>
+        <v>17.74360543386872</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4542541813973059</v>
+        <v>17.40047161870726</v>
       </c>
       <c r="M13" t="n">
-        <v>0.469688639296683</v>
+        <v>16.98416287271604</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4779825453720158</v>
+        <v>16.31390396580743</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4549710984836567</v>
+        <v>14.76156757046792</v>
       </c>
     </row>
     <row r="14">
@@ -6250,46 +6250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.76768711625975</v>
+        <v>19.75661005013984</v>
       </c>
       <c r="C2" t="n">
-        <v>31.78626301410479</v>
+        <v>31.74837857116606</v>
       </c>
       <c r="D2" t="n">
-        <v>36.870488527009</v>
+        <v>36.78792059827843</v>
       </c>
       <c r="E2" t="n">
-        <v>37.74127442953992</v>
+        <v>37.61191342450415</v>
       </c>
       <c r="F2" t="n">
-        <v>35.97598964275747</v>
+        <v>35.81004533446336</v>
       </c>
       <c r="G2" t="n">
-        <v>32.98543235164932</v>
+        <v>32.79699902903526</v>
       </c>
       <c r="H2" t="n">
-        <v>29.56261268163836</v>
+        <v>29.36514479918234</v>
       </c>
       <c r="I2" t="n">
-        <v>26.07708456953763</v>
+        <v>25.8813928760422</v>
       </c>
       <c r="J2" t="n">
-        <v>22.73806662940262</v>
+        <v>22.55173148041742</v>
       </c>
       <c r="K2" t="n">
-        <v>19.99684075586276</v>
+        <v>19.82197677732088</v>
       </c>
       <c r="L2" t="n">
-        <v>17.7916011885527</v>
+        <v>17.62899933466814</v>
       </c>
       <c r="M2" t="n">
-        <v>15.78693355021892</v>
+        <v>15.63908421845832</v>
       </c>
       <c r="N2" t="n">
-        <v>14.02630900906731</v>
+        <v>13.89559870534104</v>
       </c>
       <c r="O2" t="n">
-        <v>12.36185898298567</v>
+        <v>12.24317579310645</v>
       </c>
     </row>
     <row r="3">
@@ -6302,43 +6302,43 @@
         <v>2.049368038767686</v>
       </c>
       <c r="C3" t="n">
-        <v>2.996433202262812</v>
+        <v>2.99805351038819</v>
       </c>
       <c r="D3" t="n">
-        <v>4.157950929756623</v>
+        <v>4.161549695651681</v>
       </c>
       <c r="E3" t="n">
-        <v>5.535904067320346</v>
+        <v>5.53751597235942</v>
       </c>
       <c r="F3" t="n">
-        <v>7.10775604510228</v>
+        <v>7.097195600241249</v>
       </c>
       <c r="G3" t="n">
-        <v>8.87582695069927</v>
+        <v>8.835954494887078</v>
       </c>
       <c r="H3" t="n">
-        <v>10.83454751898484</v>
+        <v>10.74161852001442</v>
       </c>
       <c r="I3" t="n">
-        <v>12.98883885612152</v>
+        <v>12.81384540445599</v>
       </c>
       <c r="J3" t="n">
-        <v>15.33882677001396</v>
+        <v>15.04872447431108</v>
       </c>
       <c r="K3" t="n">
-        <v>17.97873968533432</v>
+        <v>17.53443919371163</v>
       </c>
       <c r="L3" t="n">
-        <v>20.80553427663001</v>
+        <v>20.16712838232225</v>
       </c>
       <c r="M3" t="n">
-        <v>23.35439698367093</v>
+        <v>22.4959927748043</v>
       </c>
       <c r="N3" t="n">
-        <v>24.3903989199456</v>
+        <v>23.33996253546578</v>
       </c>
       <c r="O3" t="n">
-        <v>19.87986278798396</v>
+        <v>18.88357506011585</v>
       </c>
     </row>
     <row r="4">
@@ -6348,46 +6348,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2089328897041501</v>
+        <v>0.2090817745941403</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2071569171033902</v>
+        <v>0.2074610023272929</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2068825954421791</v>
+        <v>0.2073198748172409</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2064958832148192</v>
+        <v>0.2070321247587548</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2076644080817228</v>
+        <v>0.2082675021959141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2093389679472362</v>
+        <v>0.2099792719054731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2112818578925047</v>
+        <v>0.2119409437652854</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2137296442721213</v>
+        <v>0.2143945183083375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2181576101628915</v>
+        <v>0.2188128907922343</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2192518905569708</v>
+        <v>0.2198657953414832</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2118742645477401</v>
+        <v>0.2123864701025732</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1895835167699994</v>
+        <v>0.1898700606557635</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1211166936596928</v>
+        <v>0.1209011665726946</v>
       </c>
       <c r="O4" t="n">
-        <v>5.881271081254956e-09</v>
+        <v>5.569686836814944e-09</v>
       </c>
     </row>
     <row r="5">
@@ -6397,46 +6397,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2281862751314499</v>
+        <v>0.2283483059439877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3113159274927778</v>
+        <v>0.3116193074313197</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4086116223120462</v>
+        <v>0.4086473316080961</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5177505650365777</v>
+        <v>0.5166383168970131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6397505660281662</v>
+        <v>0.6361315403910376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7739738023217481</v>
+        <v>0.7660711689942605</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9211065728012556</v>
+        <v>0.9068474614748091</v>
       </c>
       <c r="I5" t="n">
-        <v>1.080989869895124</v>
+        <v>1.058081284700281</v>
       </c>
       <c r="J5" t="n">
-        <v>1.263042149420173</v>
+        <v>1.228727341851415</v>
       </c>
       <c r="K5" t="n">
-        <v>1.453673536818367</v>
+        <v>1.405324747623057</v>
       </c>
       <c r="L5" t="n">
-        <v>1.60999557466485</v>
+        <v>1.546414990915974</v>
       </c>
       <c r="M5" t="n">
-        <v>1.624722421020308</v>
+        <v>1.549609486624615</v>
       </c>
       <c r="N5" t="n">
-        <v>1.13754565391606</v>
+        <v>1.074543333125719</v>
       </c>
       <c r="O5" t="n">
-        <v>5.591720652552362e-08</v>
+        <v>4.976957397727232e-08</v>
       </c>
     </row>
     <row r="6">
@@ -6449,43 +6449,43 @@
         <v>1.09355370754314</v>
       </c>
       <c r="C6" t="n">
-        <v>1.508348024238624</v>
+        <v>1.508592667718189</v>
       </c>
       <c r="D6" t="n">
-        <v>1.987608088119147</v>
+        <v>1.988124022809881</v>
       </c>
       <c r="E6" t="n">
-        <v>2.529548176492105</v>
+        <v>2.529769114713336</v>
       </c>
       <c r="F6" t="n">
-        <v>3.115199546931532</v>
+        <v>3.113810289278608</v>
       </c>
       <c r="G6" t="n">
-        <v>3.746633435418771</v>
+        <v>3.741576229250137</v>
       </c>
       <c r="H6" t="n">
-        <v>4.426464550465889</v>
+        <v>4.415040322189201</v>
       </c>
       <c r="I6" t="n">
-        <v>5.144495794657149</v>
+        <v>5.12360406933207</v>
       </c>
       <c r="J6" t="n">
-        <v>5.898732085291174</v>
+        <v>5.865039424972975</v>
       </c>
       <c r="K6" t="n">
-        <v>6.76549353410346</v>
+        <v>6.714895743416159</v>
       </c>
       <c r="L6" t="n">
-        <v>7.765135762354585</v>
+        <v>7.692873839613272</v>
       </c>
       <c r="M6" t="n">
-        <v>8.769798375337189</v>
+        <v>8.671826104527591</v>
       </c>
       <c r="N6" t="n">
-        <v>9.624723033612819</v>
+        <v>9.498447271536932</v>
       </c>
       <c r="O6" t="n">
-        <v>9.757053149161717</v>
+        <v>9.607710792001559</v>
       </c>
     </row>
     <row r="7">
@@ -6495,46 +6495,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.092151051251733</v>
+        <v>1.092148306026418</v>
       </c>
       <c r="C7" t="n">
-        <v>1.502802473824239</v>
+        <v>1.502062093287805</v>
       </c>
       <c r="D7" t="n">
-        <v>1.975089404880594</v>
+        <v>1.97109578600861</v>
       </c>
       <c r="E7" t="n">
-        <v>2.507316644651738</v>
+        <v>2.495450005640566</v>
       </c>
       <c r="F7" t="n">
-        <v>3.080694337261699</v>
+        <v>3.054396550992571</v>
       </c>
       <c r="G7" t="n">
-        <v>3.697227563082416</v>
+        <v>3.648318055598958</v>
       </c>
       <c r="H7" t="n">
-        <v>4.359610342265606</v>
+        <v>4.278774291385152</v>
       </c>
       <c r="I7" t="n">
-        <v>5.057744205660136</v>
+        <v>4.935206800290349</v>
       </c>
       <c r="J7" t="n">
-        <v>5.789585559161096</v>
+        <v>5.615424838101092</v>
       </c>
       <c r="K7" t="n">
-        <v>6.630152803360398</v>
+        <v>6.39173885797191</v>
       </c>
       <c r="L7" t="n">
-        <v>7.598825549207185</v>
+        <v>7.281137024261125</v>
       </c>
       <c r="M7" t="n">
-        <v>8.569956126467483</v>
+        <v>8.161420927936996</v>
       </c>
       <c r="N7" t="n">
-        <v>9.392145868118517</v>
+        <v>8.887783001495075</v>
       </c>
       <c r="O7" t="n">
-        <v>9.507673724434397</v>
+        <v>8.935793956726895</v>
       </c>
     </row>
     <row r="8">
@@ -6544,46 +6544,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01688841713790911</v>
+        <v>0.03043763556701101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02174531803183727</v>
+        <v>0.04018028826550882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02686806946696385</v>
+        <v>0.05088528300154067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03216991682763908</v>
+        <v>0.06225796952804998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03750747640918576</v>
+        <v>0.07385160812671081</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04266799403786983</v>
+        <v>0.08507638141822287</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0473656613175536</v>
+        <v>0.09521000240337416</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05112528256780272</v>
+        <v>0.1031825611563284</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05327889154876808</v>
+        <v>0.1075874215169249</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05306448468139298</v>
+        <v>0.1069038429768568</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04966490776522066</v>
+        <v>0.09957472450580802</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04210432041980317</v>
+        <v>0.08379130836257809</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02942478240643974</v>
+        <v>0.05775680863027091</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007785337611910031</v>
+        <v>0.007131474397949598</v>
       </c>
     </row>
     <row r="9">
@@ -6593,46 +6593,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.530697751947911e-07</v>
+        <v>3.398295090426603e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1.403502750370259e-06</v>
+        <v>7.832422355103051e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>2.618259629227681e-06</v>
+        <v>1.565746594932615e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>4.39677486199276e-06</v>
+        <v>2.792918093175316e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>6.738860876296776e-06</v>
+        <v>4.49025165709151e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>9.551882896856193e-06</v>
+        <v>6.586904664004362e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.25820521320724e-05</v>
+        <v>8.864255845424245e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1.524936076278786e-05</v>
+        <v>0.000108493073980317</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67024744021256e-05</v>
+        <v>0.0001188148626825612</v>
       </c>
       <c r="K9" t="n">
-        <v>1.627503852048941e-05</v>
+        <v>0.0001148132582802499</v>
       </c>
       <c r="L9" t="n">
-        <v>1.34502911484569e-05</v>
+        <v>9.344364849559672e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>8.356646811052321e-06</v>
+        <v>5.675386806539858e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.958619265758151e-06</v>
+        <v>1.929502098318014e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>6.417700569990765e-08</v>
+        <v>4.943174667813011e-08</v>
       </c>
     </row>
     <row r="10">
@@ -6645,43 +6645,43 @@
         <v>0.001282061605169162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003675641710362232</v>
+        <v>0.004323726442270559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006297048725922273</v>
+        <v>0.008557101639603864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00878699811771474</v>
+        <v>0.01355506306579428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01107424108447178</v>
+        <v>0.01906629828216686</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01318418823322583</v>
+        <v>0.02490723130962797</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01510045441143675</v>
+        <v>0.03084397385029354</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01686002731819338</v>
+        <v>0.03674928300856926</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0185005560648868</v>
+        <v>0.04253948761995821</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02000215579578929</v>
+        <v>0.0481082781520068</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02141582168626827</v>
+        <v>0.053509700053059</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02278660052035816</v>
+        <v>0.05885132111405339</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02416424930492118</v>
+        <v>0.06428892613337676</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02555888102051991</v>
+        <v>0.06993515941426649</v>
       </c>
     </row>
     <row r="11">
@@ -6691,46 +6691,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8639647761202833</v>
+        <v>0.8638000000824301</v>
       </c>
       <c r="C11" t="n">
-        <v>1.191486546331462</v>
+        <v>1.190442785856485</v>
       </c>
       <c r="D11" t="n">
-        <v>1.566477782568548</v>
+        <v>1.562448454400514</v>
       </c>
       <c r="E11" t="n">
-        <v>1.98956607961516</v>
+        <v>1.978811688743553</v>
       </c>
       <c r="F11" t="n">
-        <v>2.440943771233533</v>
+        <v>2.418265010601534</v>
       </c>
       <c r="G11" t="n">
-        <v>2.923253760760668</v>
+        <v>2.882246886604698</v>
       </c>
       <c r="H11" t="n">
-        <v>3.438503769464351</v>
+        <v>3.371926829910342</v>
       </c>
       <c r="I11" t="n">
-        <v>3.976754335765013</v>
+        <v>3.877125515590068</v>
       </c>
       <c r="J11" t="n">
-        <v>4.526543409740923</v>
+        <v>4.386697496249678</v>
       </c>
       <c r="K11" t="n">
-        <v>5.176479266542031</v>
+        <v>4.986414110348852</v>
       </c>
       <c r="L11" t="n">
-        <v>5.988829974542336</v>
+        <v>5.734722033345151</v>
       </c>
       <c r="M11" t="n">
-        <v>6.945233705447175</v>
+        <v>6.611811441312383</v>
       </c>
       <c r="N11" t="n">
-        <v>8.254600214202457</v>
+        <v>7.813239668369355</v>
       </c>
       <c r="O11" t="n">
-        <v>9.507673668517191</v>
+        <v>8.935793906957322</v>
       </c>
     </row>
     <row r="12">
@@ -6740,46 +6740,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2285315731347034</v>
+        <v>0.2253819568995514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252094533565999</v>
+        <v>0.2473839911777687</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2707837926837911</v>
+        <v>0.2641693144662517</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2857825804041489</v>
+        <v>0.2769223120365163</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2964540060851943</v>
+        <v>0.285132560544288</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3046382984477636</v>
+        <v>0.2907502886282772</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3115904734621652</v>
+        <v>0.2951776111578835</v>
       </c>
       <c r="I12" t="n">
-        <v>0.317420602562691</v>
+        <v>0.2987879142650408</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3228588087645051</v>
+        <v>0.302599723632116</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3323683797667488</v>
+        <v>0.3111267168335434</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3464264213730269</v>
+        <v>0.3251782396092383</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3595291548908303</v>
+        <v>0.3400409795343288</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3669568387842349</v>
+        <v>0.3515711026834329</v>
       </c>
       <c r="O12" t="n">
-        <v>0.351180386654999</v>
+        <v>0.346033070644556</v>
       </c>
     </row>
     <row r="13">
@@ -6789,46 +6789,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2285315731347034</v>
+        <v>13.61355621195258</v>
       </c>
       <c r="C13" t="n">
-        <v>0.252094533565999</v>
+        <v>16.01996853302095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2707837926837911</v>
+        <v>18.01657155861965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2857825804041489</v>
+        <v>19.57699674454731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2964540060851943</v>
+        <v>20.60066163760364</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3046382984477636</v>
+        <v>21.19909443514848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3115904734621652</v>
+        <v>21.4760367783794</v>
       </c>
       <c r="I13" t="n">
-        <v>0.317420602562691</v>
+        <v>21.47536048292091</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3228588087645051</v>
+        <v>21.29328440518717</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3323683797667488</v>
+        <v>21.26199683386077</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3464264213730269</v>
+        <v>21.42644170412825</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3595291548908303</v>
+        <v>21.46591492685597</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3669568387842349</v>
+        <v>21.14562671865216</v>
       </c>
       <c r="O13" t="n">
-        <v>0.351180386654999</v>
+        <v>19.73765252280583</v>
       </c>
     </row>
     <row r="14">
@@ -6999,46 +6999,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>271.4773711446916</v>
+        <v>271.6225138565155</v>
       </c>
       <c r="C2" t="n">
-        <v>359.2264301988918</v>
+        <v>358.8584444881681</v>
       </c>
       <c r="D2" t="n">
-        <v>388.6144838161555</v>
+        <v>387.7334546222795</v>
       </c>
       <c r="E2" t="n">
-        <v>381.4976250728776</v>
+        <v>380.1563809972295</v>
       </c>
       <c r="F2" t="n">
-        <v>352.6100805969713</v>
+        <v>350.9371275542568</v>
       </c>
       <c r="G2" t="n">
-        <v>317.4473593287838</v>
+        <v>315.5757978688711</v>
       </c>
       <c r="H2" t="n">
-        <v>280.8537013959142</v>
+        <v>278.9083561158477</v>
       </c>
       <c r="I2" t="n">
-        <v>245.4462793831673</v>
+        <v>243.5269478789801</v>
       </c>
       <c r="J2" t="n">
-        <v>212.4338444601061</v>
+        <v>210.6073922662782</v>
       </c>
       <c r="K2" t="n">
-        <v>185.8746431779807</v>
+        <v>184.1553475034113</v>
       </c>
       <c r="L2" t="n">
-        <v>164.843283820138</v>
+        <v>163.2340938084175</v>
       </c>
       <c r="M2" t="n">
-        <v>145.9267069458725</v>
+        <v>144.4515216652912</v>
       </c>
       <c r="N2" t="n">
-        <v>129.4493804045056</v>
+        <v>128.132150409276</v>
       </c>
       <c r="O2" t="n">
-        <v>113.9057086273508</v>
+        <v>112.6929103578851</v>
       </c>
     </row>
     <row r="3">
@@ -7051,43 +7051,43 @@
         <v>22.26872927438124</v>
       </c>
       <c r="C3" t="n">
-        <v>33.67627648868589</v>
+        <v>33.63421146715134</v>
       </c>
       <c r="D3" t="n">
-        <v>46.93396148207399</v>
+        <v>46.83889068434869</v>
       </c>
       <c r="E3" t="n">
-        <v>61.65712218541563</v>
+        <v>61.44951077763373</v>
       </c>
       <c r="F3" t="n">
-        <v>77.53957228419172</v>
+        <v>77.09691355234317</v>
       </c>
       <c r="G3" t="n">
-        <v>94.76542156594357</v>
+        <v>93.90068986396334</v>
       </c>
       <c r="H3" t="n">
-        <v>113.3252856818759</v>
+        <v>111.7964532541115</v>
       </c>
       <c r="I3" t="n">
-        <v>133.0826633023986</v>
+        <v>130.6145008574074</v>
       </c>
       <c r="J3" t="n">
-        <v>154.3552797010657</v>
+        <v>150.6477554812977</v>
       </c>
       <c r="K3" t="n">
-        <v>177.553898049587</v>
+        <v>172.2718215028349</v>
       </c>
       <c r="L3" t="n">
-        <v>201.6614856511219</v>
+        <v>194.4899495918604</v>
       </c>
       <c r="M3" t="n">
-        <v>221.8279124258036</v>
+        <v>212.6374812874184</v>
       </c>
       <c r="N3" t="n">
-        <v>226.9296801169398</v>
+        <v>216.1359255649321</v>
       </c>
       <c r="O3" t="n">
-        <v>180.8048250609975</v>
+        <v>170.9169015872152</v>
       </c>
     </row>
     <row r="4">
@@ -7097,46 +7097,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2180786511872516</v>
+        <v>0.2177482259239593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2122197633784292</v>
+        <v>0.2120098846050405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2088414788893221</v>
+        <v>0.2087411272563421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2071038536171562</v>
+        <v>0.2070937207383227</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2084522875924611</v>
+        <v>0.2085147840253324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2099703605874275</v>
+        <v>0.2100912016323685</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2116212581776906</v>
+        <v>0.2117958776779354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2141983478937125</v>
+        <v>0.2144310819918165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2185371481572935</v>
+        <v>0.2188211221024163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2194751204428915</v>
+        <v>0.2197971275532339</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2114478297211968</v>
+        <v>0.2117588097249477</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1884583571526809</v>
+        <v>0.1886318738625925</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1189938379187987</v>
+        <v>0.1187052089952486</v>
       </c>
       <c r="O4" t="n">
-        <v>4.201281821670197e-10</v>
+        <v>3.933983478015627e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7146,46 +7146,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.591165070228543</v>
+        <v>2.586958568075088</v>
       </c>
       <c r="C5" t="n">
-        <v>3.519176992762268</v>
+        <v>3.511136629598883</v>
       </c>
       <c r="D5" t="n">
-        <v>4.529226170813257</v>
+        <v>4.51177994378006</v>
       </c>
       <c r="E5" t="n">
-        <v>5.60410630995259</v>
+        <v>5.56707939894897</v>
       </c>
       <c r="F5" t="n">
-        <v>6.77290444558704</v>
+        <v>6.701865831000776</v>
       </c>
       <c r="G5" t="n">
-        <v>8.028262631484381</v>
+        <v>7.905530718803086</v>
       </c>
       <c r="H5" t="n">
-        <v>9.35685794669552</v>
+        <v>9.163348792805129</v>
       </c>
       <c r="I5" t="n">
-        <v>10.79522242564319</v>
+        <v>10.51052950678968</v>
       </c>
       <c r="J5" t="n">
-        <v>12.37335399022202</v>
+        <v>11.97441971170497</v>
       </c>
       <c r="K5" t="n">
-        <v>13.97522694455175</v>
+        <v>13.44224795970663</v>
       </c>
       <c r="L5" t="n">
-        <v>15.15129001807219</v>
+        <v>14.48230290486008</v>
       </c>
       <c r="M5" t="n">
-        <v>14.95830696416711</v>
+        <v>14.19938202828421</v>
       </c>
       <c r="N5" t="n">
-        <v>10.16793381854309</v>
+        <v>9.555496421166499</v>
       </c>
       <c r="O5" t="n">
-        <v>3.569009880520268e-08</v>
+        <v>3.125075160173894e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7198,43 +7198,43 @@
         <v>11.9469150777149</v>
       </c>
       <c r="C6" t="n">
-        <v>16.73730658174228</v>
+        <v>16.73103186919508</v>
       </c>
       <c r="D6" t="n">
-        <v>21.99133535550356</v>
+        <v>21.97796198342349</v>
       </c>
       <c r="E6" t="n">
-        <v>27.57370748625202</v>
+        <v>27.54582080185247</v>
       </c>
       <c r="F6" t="n">
-        <v>33.26812034719329</v>
+        <v>33.21102971444743</v>
       </c>
       <c r="G6" t="n">
-        <v>39.35053001607758</v>
+        <v>39.24246246004988</v>
       </c>
       <c r="H6" t="n">
-        <v>45.73627569814894</v>
+        <v>45.55029123897141</v>
       </c>
       <c r="I6" t="n">
-        <v>52.39594515425514</v>
+        <v>52.10251080543311</v>
       </c>
       <c r="J6" t="n">
-        <v>59.2662588638939</v>
+        <v>58.83555662365876</v>
       </c>
       <c r="K6" t="n">
-        <v>67.15284774619543</v>
+        <v>66.54717819992136</v>
       </c>
       <c r="L6" t="n">
-        <v>76.19479932776888</v>
+        <v>75.37157490309183</v>
       </c>
       <c r="M6" t="n">
-        <v>85.11588154038439</v>
+        <v>84.04225361836342</v>
       </c>
       <c r="N6" t="n">
-        <v>92.47719963836248</v>
+        <v>91.1350356718772</v>
       </c>
       <c r="O6" t="n">
-        <v>92.75137323291086</v>
+        <v>91.19958179467103</v>
       </c>
     </row>
     <row r="7">
@@ -7244,46 +7244,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.88179152852362</v>
+        <v>11.8805035361275</v>
       </c>
       <c r="C7" t="n">
-        <v>16.58270152006008</v>
+        <v>16.56119306012492</v>
       </c>
       <c r="D7" t="n">
-        <v>21.68738794084853</v>
+        <v>21.61423579091542</v>
       </c>
       <c r="E7" t="n">
-        <v>27.05940141660576</v>
+        <v>26.88193238839607</v>
       </c>
       <c r="F7" t="n">
-        <v>32.49138939088327</v>
+        <v>32.14096238944175</v>
       </c>
       <c r="G7" t="n">
-        <v>38.23521857572641</v>
+        <v>37.62904232723039</v>
       </c>
       <c r="H7" t="n">
-        <v>44.21511348750657</v>
+        <v>43.26500068494844</v>
       </c>
       <c r="I7" t="n">
-        <v>50.39825251593393</v>
+        <v>49.01588617265289</v>
       </c>
       <c r="J7" t="n">
-        <v>56.61899633336579</v>
+        <v>54.72241251966759</v>
       </c>
       <c r="K7" t="n">
-        <v>63.67567729932365</v>
+        <v>61.15752334593624</v>
       </c>
       <c r="L7" t="n">
-        <v>71.65498003952004</v>
+        <v>68.39055680219897</v>
       </c>
       <c r="M7" t="n">
-        <v>79.3719482126682</v>
+        <v>75.27562409006045</v>
       </c>
       <c r="N7" t="n">
-        <v>85.44924675411912</v>
+        <v>80.49770100273336</v>
       </c>
       <c r="O7" t="n">
-        <v>84.95049920505994</v>
+        <v>79.43793301720318</v>
       </c>
     </row>
     <row r="8">
@@ -7293,46 +7293,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06387158129547148</v>
+        <v>0.107750142350904</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08148246024979727</v>
+        <v>0.1408473863091031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09949642513060121</v>
+        <v>0.1761432917971267</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1176631308218197</v>
+        <v>0.2126684263340598</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1354797696698219</v>
+        <v>0.2489175958590718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1523826135027146</v>
+        <v>0.2833189361826625</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1673635089592268</v>
+        <v>0.3135806337950011</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1789723916145149</v>
+        <v>0.3367257971680195</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1846600541046168</v>
+        <v>0.3479225782213282</v>
       </c>
       <c r="K8" t="n">
-        <v>0.182033912062145</v>
+        <v>0.3428120942220601</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1685038855569612</v>
+        <v>0.3167966026968923</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1412228773511084</v>
+        <v>0.2648664633767688</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09711914250665052</v>
+        <v>0.1816150767624267</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00299317124875864</v>
+        <v>0.002891753637729015</v>
       </c>
     </row>
     <row r="9">
@@ -7342,46 +7342,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003874561734774716</v>
+        <v>0.001675448569598975</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0008174662906955415</v>
+        <v>0.003782892960166429</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001460439351478872</v>
+        <v>0.007224096031441138</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002318576634196084</v>
+        <v>0.01214947012322213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003341832172553961</v>
+        <v>0.01832086302829912</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004489113119505828</v>
+        <v>0.02541667473520787</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005619004484513497</v>
+        <v>0.03246515120673699</v>
       </c>
       <c r="I9" t="n">
-        <v>0.006511933030064586</v>
+        <v>0.03800527450690647</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006815840456759661</v>
+        <v>0.03987115360754988</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006352549399628764</v>
+        <v>0.03704622778205299</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005016485859970368</v>
+        <v>0.02906427681134601</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002976931181760833</v>
+        <v>0.0171000448909105</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0009949110775105631</v>
+        <v>0.005657267706860232</v>
       </c>
       <c r="O9" t="n">
-        <v>5.175728133444475e-08</v>
+        <v>4.620906557154899e-08</v>
       </c>
     </row>
     <row r="10">
@@ -7394,43 +7394,43 @@
         <v>0.005418645114382654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009188312028606632</v>
+        <v>0.009925025390438382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01375482527157439</v>
+        <v>0.01622088966872895</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01856795983156536</v>
+        <v>0.02366017509593851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02324715421449161</v>
+        <v>0.03166858935180354</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02822890382360302</v>
+        <v>0.04046645797778217</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0331365679217118</v>
+        <v>0.04945798021350493</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03800257251642407</v>
+        <v>0.0585119471431854</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04455227545466075</v>
+        <v>0.06923148490713861</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05168534193204451</v>
+        <v>0.08043329215527978</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05951590977861799</v>
+        <v>0.09223575112142357</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06744870983709127</v>
+        <v>0.1041086966141162</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07598584300444083</v>
+        <v>0.1166585092990859</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0841052127243743</v>
+        <v>0.128966038163522</v>
       </c>
     </row>
     <row r="11">
@@ -7440,46 +7440,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.290626458295076</v>
+        <v>9.29354496805241</v>
       </c>
       <c r="C11" t="n">
-        <v>13.06352452729782</v>
+        <v>13.05005643052604</v>
       </c>
       <c r="D11" t="n">
-        <v>17.15816177003528</v>
+        <v>17.10245584713536</v>
       </c>
       <c r="E11" t="n">
-        <v>21.45529510665317</v>
+        <v>21.3148529894471</v>
       </c>
       <c r="F11" t="n">
-        <v>25.71848494529623</v>
+        <v>25.43909655844097</v>
       </c>
       <c r="G11" t="n">
-        <v>30.20695594424203</v>
+        <v>29.72351160842729</v>
       </c>
       <c r="H11" t="n">
-        <v>34.85825554081105</v>
+        <v>34.1016518921433</v>
       </c>
       <c r="I11" t="n">
-        <v>39.60303009029074</v>
+        <v>38.50535666586322</v>
       </c>
       <c r="J11" t="n">
-        <v>44.24564234314377</v>
+        <v>42.74799280796262</v>
       </c>
       <c r="K11" t="n">
-        <v>49.7004503547719</v>
+        <v>47.71527538622961</v>
       </c>
       <c r="L11" t="n">
-        <v>56.50369002144785</v>
+        <v>53.90825389733889</v>
       </c>
       <c r="M11" t="n">
-        <v>64.41364124850108</v>
+        <v>61.07624206177624</v>
       </c>
       <c r="N11" t="n">
-        <v>75.28131293557603</v>
+        <v>70.94220458156687</v>
       </c>
       <c r="O11" t="n">
-        <v>84.95049916936985</v>
+        <v>79.43793298595243</v>
       </c>
     </row>
     <row r="12">
@@ -7489,46 +7489,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.669209230668264</v>
+        <v>2.544097058174151</v>
       </c>
       <c r="C12" t="n">
-        <v>2.925184795634991</v>
+        <v>2.73510072296328</v>
       </c>
       <c r="D12" t="n">
-        <v>3.065219445169342</v>
+        <v>2.802616209304823</v>
       </c>
       <c r="E12" t="n">
-        <v>3.119451276595508</v>
+        <v>2.780750355508686</v>
       </c>
       <c r="F12" t="n">
-        <v>3.10504559205318</v>
+        <v>2.692988420199078</v>
       </c>
       <c r="G12" t="n">
-        <v>3.076901622732844</v>
+        <v>2.59445026180283</v>
       </c>
       <c r="H12" t="n">
-        <v>3.041742313723623</v>
+        <v>2.497392872236349</v>
       </c>
       <c r="I12" t="n">
-        <v>3.010749328072203</v>
+        <v>2.418638249133955</v>
       </c>
       <c r="J12" t="n">
-        <v>2.995237981170118</v>
+        <v>2.378067238466947</v>
       </c>
       <c r="K12" t="n">
-        <v>3.044657502675484</v>
+        <v>2.424141238135898</v>
       </c>
       <c r="L12" t="n">
-        <v>3.167719955462575</v>
+        <v>2.574653764684131</v>
       </c>
       <c r="M12" t="n">
-        <v>3.322514015815659</v>
+        <v>2.808275291685859</v>
       </c>
       <c r="N12" t="n">
-        <v>3.474627136452712</v>
+        <v>3.103745332546763</v>
       </c>
       <c r="O12" t="n">
-        <v>3.54549143674772</v>
+        <v>3.486527655395392</v>
       </c>
     </row>
     <row r="13">
@@ -7538,46 +7538,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.669209230668264</v>
+        <v>129.4727000254318</v>
       </c>
       <c r="C13" t="n">
-        <v>2.925184795634991</v>
+        <v>150.6594087660903</v>
       </c>
       <c r="D13" t="n">
-        <v>3.065219445169342</v>
+        <v>164.1143885681645</v>
       </c>
       <c r="E13" t="n">
-        <v>3.119451276595508</v>
+        <v>170.372020725735</v>
       </c>
       <c r="F13" t="n">
-        <v>3.10504559205318</v>
+        <v>170.2141374393684</v>
       </c>
       <c r="G13" t="n">
-        <v>3.076901622732844</v>
+        <v>167.0502554003864</v>
       </c>
       <c r="H13" t="n">
-        <v>3.041742313723623</v>
+        <v>161.9193196837063</v>
       </c>
       <c r="I13" t="n">
-        <v>3.010749328072203</v>
+        <v>156.1685586260967</v>
       </c>
       <c r="J13" t="n">
-        <v>2.995237981170118</v>
+        <v>151.2100513387484</v>
       </c>
       <c r="K13" t="n">
-        <v>3.044657502675484</v>
+        <v>150.073102989503</v>
       </c>
       <c r="L13" t="n">
-        <v>3.167719955462575</v>
+        <v>153.4910772027775</v>
       </c>
       <c r="M13" t="n">
-        <v>3.322514015815659</v>
+        <v>159.7143496093476</v>
       </c>
       <c r="N13" t="n">
-        <v>3.474627136452712</v>
+        <v>167.3266194754854</v>
       </c>
       <c r="O13" t="n">
-        <v>3.54549143674772</v>
+        <v>177.6580178119213</v>
       </c>
     </row>
     <row r="14">
@@ -7748,46 +7748,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-205.443485435071</v>
+        <v>-205.5910305419686</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.516808725295333</v>
+        <v>-7.478980593904354</v>
       </c>
       <c r="D2" t="n">
-        <v>133.0556423132346</v>
+        <v>130.9057744840955</v>
       </c>
       <c r="E2" t="n">
-        <v>219.4416587703178</v>
+        <v>216.0917351974792</v>
       </c>
       <c r="F2" t="n">
-        <v>259.2933265628119</v>
+        <v>255.0669619150599</v>
       </c>
       <c r="G2" t="n">
-        <v>268.0954428696219</v>
+        <v>263.3877292825339</v>
       </c>
       <c r="H2" t="n">
-        <v>261.1949174652846</v>
+        <v>256.3152466492509</v>
       </c>
       <c r="I2" t="n">
-        <v>245.6809048474969</v>
+        <v>240.8721770694351</v>
       </c>
       <c r="J2" t="n">
-        <v>225.8896524338664</v>
+        <v>221.3213857462445</v>
       </c>
       <c r="K2" t="n">
-        <v>204.367698192507</v>
+        <v>200.1489270488742</v>
       </c>
       <c r="L2" t="n">
-        <v>182.8434160972494</v>
+        <v>179.0328292707141</v>
       </c>
       <c r="M2" t="n">
-        <v>162.5991581628449</v>
+        <v>159.2233561703576</v>
       </c>
       <c r="N2" t="n">
-        <v>144.5688932279108</v>
+        <v>141.6538902643465</v>
       </c>
       <c r="O2" t="n">
-        <v>127.0933852759697</v>
+        <v>124.5093937688036</v>
       </c>
     </row>
     <row r="3">
@@ -7800,43 +7800,43 @@
         <v>8.636725107995959</v>
       </c>
       <c r="C3" t="n">
-        <v>13.40903036337503</v>
+        <v>13.41588601616303</v>
       </c>
       <c r="D3" t="n">
-        <v>20.25578658185385</v>
+        <v>20.26290285228934</v>
       </c>
       <c r="E3" t="n">
-        <v>29.3274958957897</v>
+        <v>29.28259718277561</v>
       </c>
       <c r="F3" t="n">
-        <v>40.46275467210275</v>
+        <v>40.2443451895448</v>
       </c>
       <c r="G3" t="n">
-        <v>53.68544435699224</v>
+        <v>53.08820629071565</v>
       </c>
       <c r="H3" t="n">
-        <v>69.27518372208992</v>
+        <v>68.0013047345864</v>
       </c>
       <c r="I3" t="n">
-        <v>87.237792210884</v>
+        <v>84.90777960761091</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5080379742663</v>
+        <v>103.6766526346277</v>
       </c>
       <c r="K3" t="n">
-        <v>129.6810870876779</v>
+        <v>123.8696120058273</v>
       </c>
       <c r="L3" t="n">
-        <v>152.6808495402992</v>
+        <v>144.4412294258113</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4813765844135</v>
+        <v>162.5400543569014</v>
       </c>
       <c r="N3" t="n">
-        <v>182.947924693481</v>
+        <v>169.7025914207134</v>
       </c>
       <c r="O3" t="n">
-        <v>150.4208891562996</v>
+        <v>137.9659522087882</v>
       </c>
     </row>
     <row r="4">
@@ -7846,46 +7846,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2271630129927229</v>
+        <v>0.2273190799104333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2215918327194919</v>
+        <v>0.2219648223147753</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2174796498086586</v>
+        <v>0.2180161460327706</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2124319223826336</v>
+        <v>0.2130781869011104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2113335520551838</v>
+        <v>0.212052372925684</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2132187104108815</v>
+        <v>0.2139802679251909</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2147859023127363</v>
+        <v>0.2155689257501819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.21596351767339</v>
+        <v>0.2167560296456974</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2162099564904072</v>
+        <v>0.2170008831770794</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2145091284848835</v>
+        <v>0.2152816505242913</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2077224160422513</v>
+        <v>0.2084096961681737</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1865192207441139</v>
+        <v>0.1869350853372282</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1199354710535158</v>
+        <v>0.1196305055315742</v>
       </c>
       <c r="O4" t="n">
-        <v>2.493361831012739e-10</v>
+        <v>2.145341300048311e-10</v>
       </c>
     </row>
     <row r="5">
@@ -7895,46 +7895,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.03975905251465</v>
+        <v>1.04044461779345</v>
       </c>
       <c r="C5" t="n">
-        <v>1.558034679149871</v>
+        <v>1.558507264361421</v>
       </c>
       <c r="D5" t="n">
-        <v>2.226473982743039</v>
+        <v>2.221735982434152</v>
       </c>
       <c r="E5" t="n">
-        <v>3.023688915111965</v>
+        <v>3.003413488177794</v>
       </c>
       <c r="F5" t="n">
-        <v>3.957695417577446</v>
+        <v>3.905587078717923</v>
       </c>
       <c r="G5" t="n">
-        <v>5.055622672761851</v>
+        <v>4.949059177743266</v>
       </c>
       <c r="H5" t="n">
-        <v>6.308302921302475</v>
+        <v>6.119719074799058</v>
       </c>
       <c r="I5" t="n">
-        <v>7.709010066840737</v>
+        <v>7.407114048869132</v>
       </c>
       <c r="J5" t="n">
-        <v>9.219535210859913</v>
+        <v>8.771979849039575</v>
       </c>
       <c r="K5" t="n">
-        <v>10.74638503840954</v>
+        <v>10.12505663358272</v>
       </c>
       <c r="L5" t="n">
-        <v>12.02448561335592</v>
+        <v>11.21765117945833</v>
       </c>
       <c r="M5" t="n">
-        <v>12.2458708919627</v>
+        <v>11.30283788137798</v>
       </c>
       <c r="N5" t="n">
-        <v>8.663089215464433</v>
+        <v>7.879431735128615</v>
       </c>
       <c r="O5" t="n">
-        <v>1.827661772712777e-08</v>
+        <v>1.418684922096782e-08</v>
       </c>
     </row>
     <row r="6">
@@ -7947,43 +7947,43 @@
         <v>4.604494857796085</v>
       </c>
       <c r="C6" t="n">
-        <v>7.116958405754355</v>
+        <v>7.118049819509904</v>
       </c>
       <c r="D6" t="n">
-        <v>10.42240775946056</v>
+        <v>10.42350610566079</v>
       </c>
       <c r="E6" t="n">
-        <v>14.56428907005454</v>
+        <v>14.55759635550544</v>
       </c>
       <c r="F6" t="n">
-        <v>19.24814132675773</v>
+        <v>19.21691302852025</v>
       </c>
       <c r="G6" t="n">
-        <v>24.46874284140463</v>
+        <v>24.38676013443141</v>
       </c>
       <c r="H6" t="n">
-        <v>30.41798211525741</v>
+        <v>30.24908679177317</v>
       </c>
       <c r="I6" t="n">
-        <v>37.09021609884456</v>
+        <v>36.79020510623773</v>
       </c>
       <c r="J6" t="n">
-        <v>44.44202863703221</v>
+        <v>43.9608300634386</v>
       </c>
       <c r="K6" t="n">
-        <v>52.35866298719749</v>
+        <v>51.64341922594511</v>
       </c>
       <c r="L6" t="n">
-        <v>60.66056796190028</v>
+        <v>59.65934141489979</v>
       </c>
       <c r="M6" t="n">
-        <v>68.97919958469421</v>
+        <v>67.64417632624885</v>
       </c>
       <c r="N6" t="n">
-        <v>76.09171522489683</v>
+        <v>74.3953292117763</v>
       </c>
       <c r="O6" t="n">
-        <v>77.43238588755479</v>
+        <v>75.45043926388864</v>
       </c>
     </row>
     <row r="7">
@@ -7993,46 +7993,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.577149417136663</v>
+        <v>4.577022827135314</v>
       </c>
       <c r="C7" t="n">
-        <v>7.031101552926601</v>
+        <v>7.021415592382709</v>
       </c>
       <c r="D7" t="n">
-        <v>10.23761986329259</v>
+        <v>10.19069469331962</v>
       </c>
       <c r="E7" t="n">
-        <v>14.23368428435007</v>
+        <v>14.09535875941951</v>
       </c>
       <c r="F7" t="n">
-        <v>18.72724600088114</v>
+        <v>18.41803053100791</v>
       </c>
       <c r="G7" t="n">
-        <v>23.71097106355935</v>
+        <v>23.12857734841931</v>
       </c>
       <c r="H7" t="n">
-        <v>29.37019074984423</v>
+        <v>28.38868846009403</v>
       </c>
       <c r="I7" t="n">
-        <v>35.69589044432666</v>
+        <v>34.17258592979659</v>
       </c>
       <c r="J7" t="n">
-        <v>42.64158487663803</v>
+        <v>40.42370574999628</v>
       </c>
       <c r="K7" t="n">
-        <v>50.09756514472454</v>
+        <v>47.0316750588098</v>
       </c>
       <c r="L7" t="n">
-        <v>57.88727977682535</v>
+        <v>53.82499656065129</v>
       </c>
       <c r="M7" t="n">
-        <v>65.65473972659811</v>
+        <v>60.46397261909302</v>
       </c>
       <c r="N7" t="n">
-        <v>72.23125185041316</v>
+        <v>65.86473659136205</v>
       </c>
       <c r="O7" t="n">
-        <v>73.30110495717457</v>
+        <v>66.12863519966892</v>
       </c>
     </row>
     <row r="8">
@@ -8042,46 +8042,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04237178033757004</v>
+        <v>0.06686500953912514</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05515164628529125</v>
+        <v>0.08860190209412742</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06957298202312365</v>
+        <v>0.1137950884470495</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08534220483423265</v>
+        <v>0.1417546097806977</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1018056098319067</v>
+        <v>0.1710650297389626</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1181160068466437</v>
+        <v>0.1999593185512575</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1332416785022171</v>
+        <v>0.2264190673549571</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1457746827440353</v>
+        <v>0.2478830057861507</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1537904195092466</v>
+        <v>0.2610460344348438</v>
       </c>
       <c r="K8" t="n">
-        <v>0.154850354164598</v>
+        <v>0.2618896007878164</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1460916431454799</v>
+        <v>0.2458484161657013</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1245337744661543</v>
+        <v>0.2083255609392966</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08692893638989568</v>
+        <v>0.1444338439965454</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002430956983399817</v>
+        <v>0.002294539791998029</v>
       </c>
     </row>
     <row r="9">
@@ -8091,46 +8091,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.893144364753935e-05</v>
+        <v>0.0001755214449960791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001235642985993617</v>
+        <v>0.0004660541558137264</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002757101196351648</v>
+        <v>0.001093479359442381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005516022254207344</v>
+        <v>0.002282820282711991</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009794461882216918</v>
+        <v>0.004181827201101251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001568088435939361</v>
+        <v>0.00682472409604006</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002296344923574851</v>
+        <v>0.01007820332164486</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003060291761164642</v>
+        <v>0.01342198332772638</v>
       </c>
       <c r="J9" t="n">
-        <v>0.003654940527277609</v>
+        <v>0.01590589883422387</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003799512227419073</v>
+        <v>0.01632041615827127</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003262811485711789</v>
+        <v>0.01378103005245771</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002085115907346528</v>
+        <v>0.008636098917070446</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0007435532005636204</v>
+        <v>0.003012542859901233</v>
       </c>
       <c r="O9" t="n">
-        <v>3.010863784684752e-08</v>
+        <v>2.495752613086463e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8140,46 +8140,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005928231013127825</v>
+        <v>0.005928231013127826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01204633828684952</v>
+        <v>0.01351046640721639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01770341271486501</v>
+        <v>0.02223032544259598</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02266181218262643</v>
+        <v>0.0315955164967375</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02701122518077178</v>
+        <v>0.04135423151116011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03090488523708486</v>
+        <v>0.05131300980606439</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03437095256773108</v>
+        <v>0.06116945417545899</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03751030619635796</v>
+        <v>0.07078506862360766</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04042994604368059</v>
+        <v>0.08009899743851531</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04311222253321337</v>
+        <v>0.08898372377349056</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04566434945563197</v>
+        <v>0.09756332682541444</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04816487813996323</v>
+        <v>0.106018995263344</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05072457375780996</v>
+        <v>0.1146252079430759</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05335339797319016</v>
+        <v>0.1235487047912843</v>
       </c>
     </row>
     <row r="11">
@@ -8189,46 +8189,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.537390364622013</v>
+        <v>3.536578209341865</v>
       </c>
       <c r="C11" t="n">
-        <v>5.47306687377673</v>
+        <v>5.462908328021289</v>
       </c>
       <c r="D11" t="n">
-        <v>8.011145880549547</v>
+        <v>7.968958710885472</v>
       </c>
       <c r="E11" t="n">
-        <v>11.2099953692381</v>
+        <v>11.09194527124171</v>
       </c>
       <c r="F11" t="n">
-        <v>14.76955058330369</v>
+        <v>14.51244345228999</v>
       </c>
       <c r="G11" t="n">
-        <v>18.6553483907975</v>
+        <v>18.17951817067604</v>
       </c>
       <c r="H11" t="n">
-        <v>23.06188782854176</v>
+        <v>22.26896938529498</v>
       </c>
       <c r="I11" t="n">
-        <v>27.98688037748593</v>
+        <v>26.76547188092746</v>
       </c>
       <c r="J11" t="n">
-        <v>33.42204966577812</v>
+        <v>31.65172590095671</v>
       </c>
       <c r="K11" t="n">
-        <v>39.35118010631501</v>
+        <v>36.90661842522708</v>
       </c>
       <c r="L11" t="n">
-        <v>45.86279416346944</v>
+        <v>42.60734538119295</v>
       </c>
       <c r="M11" t="n">
-        <v>53.40886883463541</v>
+        <v>49.16113473771505</v>
       </c>
       <c r="N11" t="n">
-        <v>63.56816263494873</v>
+        <v>57.98530485623343</v>
       </c>
       <c r="O11" t="n">
-        <v>73.30110493889795</v>
+        <v>66.12863518548207</v>
       </c>
     </row>
     <row r="12">
@@ -8238,46 +8238,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6924072395985956</v>
+        <v>0.6746975597123003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8633209937698136</v>
+        <v>0.8328847395143313</v>
       </c>
       <c r="D12" t="n">
-        <v>1.036001019782769</v>
+        <v>0.9868650927013416</v>
       </c>
       <c r="E12" t="n">
-        <v>1.203224440650778</v>
+        <v>1.128495593531298</v>
       </c>
       <c r="F12" t="n">
-        <v>1.339220628613691</v>
+        <v>1.233948628253305</v>
       </c>
       <c r="G12" t="n">
-        <v>1.452095649659145</v>
+        <v>1.312920064573763</v>
       </c>
       <c r="H12" t="n">
-        <v>1.559214965743307</v>
+        <v>1.383870970297809</v>
       </c>
       <c r="I12" t="n">
-        <v>1.663943443685655</v>
+        <v>1.45319658695376</v>
       </c>
       <c r="J12" t="n">
-        <v>1.770431387734682</v>
+        <v>1.529292490399805</v>
       </c>
       <c r="K12" t="n">
-        <v>1.883190218362485</v>
+        <v>1.622214729666674</v>
       </c>
       <c r="L12" t="n">
-        <v>2.007947224472908</v>
+        <v>1.74410111652356</v>
       </c>
       <c r="M12" t="n">
-        <v>2.146953534705053</v>
+        <v>1.903891235040836</v>
       </c>
       <c r="N12" t="n">
-        <v>2.279338376002771</v>
+        <v>2.088171266988079</v>
       </c>
       <c r="O12" t="n">
-        <v>2.351463775998208</v>
+        <v>2.291589426779844</v>
       </c>
     </row>
     <row r="13">
@@ -8287,46 +8287,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6924072395985956</v>
+        <v>28.82870980419846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8633209937698136</v>
+        <v>37.52494944630408</v>
       </c>
       <c r="D13" t="n">
-        <v>1.036001019782769</v>
+        <v>46.14663734922264</v>
       </c>
       <c r="E13" t="n">
-        <v>1.203224440650778</v>
+        <v>54.00784556247493</v>
       </c>
       <c r="F13" t="n">
-        <v>1.339220628613691</v>
+        <v>59.69748568807891</v>
       </c>
       <c r="G13" t="n">
-        <v>1.452095649659145</v>
+        <v>63.50648627233554</v>
       </c>
       <c r="H13" t="n">
-        <v>1.559214965743307</v>
+        <v>66.26567678797814</v>
       </c>
       <c r="I13" t="n">
-        <v>1.663943443685655</v>
+        <v>68.258564218359</v>
       </c>
       <c r="J13" t="n">
-        <v>1.770431387734682</v>
+        <v>69.85156085013347</v>
       </c>
       <c r="K13" t="n">
-        <v>1.883190218362485</v>
+        <v>71.44088144406284</v>
       </c>
       <c r="L13" t="n">
-        <v>2.007947224472908</v>
+        <v>73.44908473047404</v>
       </c>
       <c r="M13" t="n">
-        <v>2.146953534705053</v>
+        <v>76.10791848754556</v>
       </c>
       <c r="N13" t="n">
-        <v>2.279338376002771</v>
+        <v>78.79208353001597</v>
       </c>
       <c r="O13" t="n">
-        <v>2.351463775998208</v>
+        <v>81.3445548478274</v>
       </c>
     </row>
     <row r="14">
@@ -8497,46 +8497,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.8216521971943</v>
+        <v>135.8128230970119</v>
       </c>
       <c r="C2" t="n">
-        <v>174.7755366433959</v>
+        <v>174.566916033955</v>
       </c>
       <c r="D2" t="n">
-        <v>197.6576264247655</v>
+        <v>197.1440423957424</v>
       </c>
       <c r="E2" t="n">
-        <v>207.6935564424608</v>
+        <v>206.8234370339403</v>
       </c>
       <c r="F2" t="n">
-        <v>203.8997792478925</v>
+        <v>202.7090675355172</v>
       </c>
       <c r="G2" t="n">
-        <v>193.1222672420341</v>
+        <v>191.6845326415316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.6974901813431</v>
+        <v>179.0858504778894</v>
       </c>
       <c r="I2" t="n">
-        <v>167.6764326290015</v>
+        <v>165.9647606488258</v>
       </c>
       <c r="J2" t="n">
-        <v>154.7033539587011</v>
+        <v>152.9580708690846</v>
       </c>
       <c r="K2" t="n">
-        <v>138.8625605658716</v>
+        <v>137.1742572082695</v>
       </c>
       <c r="L2" t="n">
-        <v>121.3953343147411</v>
+        <v>119.8342882924672</v>
       </c>
       <c r="M2" t="n">
-        <v>105.9703736616692</v>
+        <v>104.5572123246184</v>
       </c>
       <c r="N2" t="n">
-        <v>92.73275374346062</v>
+        <v>91.48839567748121</v>
       </c>
       <c r="O2" t="n">
-        <v>80.52599318280473</v>
+        <v>79.39747007171864</v>
       </c>
     </row>
     <row r="3">
@@ -8549,43 +8549,43 @@
         <v>10.83233191914928</v>
       </c>
       <c r="C3" t="n">
-        <v>18.59225845344636</v>
+        <v>18.59129637616944</v>
       </c>
       <c r="D3" t="n">
-        <v>28.31264926559676</v>
+        <v>28.3035212067791</v>
       </c>
       <c r="E3" t="n">
-        <v>39.90194775631405</v>
+        <v>39.82751192828471</v>
       </c>
       <c r="F3" t="n">
-        <v>52.9464445520315</v>
+        <v>52.68033799658249</v>
       </c>
       <c r="G3" t="n">
-        <v>67.47483073063185</v>
+        <v>66.81437353263321</v>
       </c>
       <c r="H3" t="n">
-        <v>83.87402150066461</v>
+        <v>82.53776140676615</v>
       </c>
       <c r="I3" t="n">
-        <v>102.0854715234681</v>
+        <v>99.73043865728378</v>
       </c>
       <c r="J3" t="n">
-        <v>121.7414218883558</v>
+        <v>117.990007564036</v>
       </c>
       <c r="K3" t="n">
-        <v>140.9733457741565</v>
+        <v>135.5042146301758</v>
       </c>
       <c r="L3" t="n">
-        <v>157.9268443095907</v>
+        <v>150.5392751402612</v>
       </c>
       <c r="M3" t="n">
-        <v>170.8236096010234</v>
+        <v>161.4613037154719</v>
       </c>
       <c r="N3" t="n">
-        <v>171.7405729368175</v>
+        <v>160.8989613906836</v>
       </c>
       <c r="O3" t="n">
-        <v>134.684921318597</v>
+        <v>124.9196124077298</v>
       </c>
     </row>
     <row r="4">
@@ -8595,46 +8595,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2578105431080333</v>
+        <v>0.2578095929909294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2496242456061581</v>
+        <v>0.249852033568796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2425895179526069</v>
+        <v>0.2430024005400853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2351212780511254</v>
+        <v>0.2356678870776152</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2328676014546858</v>
+        <v>0.2335075612756975</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2337327603166158</v>
+        <v>0.2344296773317418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2337318411026614</v>
+        <v>0.2344550048835374</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2320266348133229</v>
+        <v>0.2327519823724109</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2256845389782159</v>
+        <v>0.2263929362431239</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2186702076926274</v>
+        <v>0.2193505703484305</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2105908264966301</v>
+        <v>0.2111860562672763</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1875541093937723</v>
+        <v>0.1878871617556775</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1180862521806851</v>
+        <v>0.1177445402636115</v>
       </c>
       <c r="O4" t="n">
-        <v>6.360944272238746e-10</v>
+        <v>5.835793294429423e-10</v>
       </c>
     </row>
     <row r="5">
@@ -8644,46 +8644,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.481525785723194</v>
+        <v>1.481429577995502</v>
       </c>
       <c r="C5" t="n">
-        <v>2.182992959011304</v>
+        <v>2.182113698689955</v>
       </c>
       <c r="D5" t="n">
-        <v>3.002993737528736</v>
+        <v>2.99586843045677</v>
       </c>
       <c r="E5" t="n">
-        <v>3.903349565140822</v>
+        <v>3.879334326436403</v>
       </c>
       <c r="F5" t="n">
-        <v>4.901354703538836</v>
+        <v>4.844587545604407</v>
       </c>
       <c r="G5" t="n">
-        <v>6.034700277549635</v>
+        <v>5.924102986714887</v>
       </c>
       <c r="H5" t="n">
-        <v>7.284040854170247</v>
+        <v>7.095130076062658</v>
       </c>
       <c r="I5" t="n">
-        <v>8.614641892067995</v>
+        <v>8.321615378252552</v>
       </c>
       <c r="J5" t="n">
-        <v>9.852473669456858</v>
+        <v>9.436364284536047</v>
       </c>
       <c r="K5" t="n">
-        <v>10.87724780093799</v>
+        <v>10.32918769560359</v>
       </c>
       <c r="L5" t="n">
-        <v>11.57579238772397</v>
+        <v>10.89715040857809</v>
       </c>
       <c r="M5" t="n">
-        <v>11.21780632088813</v>
+        <v>10.46008858746605</v>
       </c>
       <c r="N5" t="n">
-        <v>7.480268624510718</v>
+        <v>6.881761353631612</v>
       </c>
       <c r="O5" t="n">
-        <v>3.945340288051532e-08</v>
+        <v>3.308020472213764e-08</v>
       </c>
     </row>
     <row r="6">
@@ -8696,43 +8696,43 @@
         <v>5.773373341602125</v>
       </c>
       <c r="C6" t="n">
-        <v>8.829748408502969</v>
+        <v>8.829611334448472</v>
       </c>
       <c r="D6" t="n">
-        <v>12.55984147349198</v>
+        <v>12.55862654044369</v>
       </c>
       <c r="E6" t="n">
-        <v>16.91929147713932</v>
+        <v>16.9098165665688</v>
       </c>
       <c r="F6" t="n">
-        <v>21.53703935516495</v>
+        <v>21.5045087983451</v>
       </c>
       <c r="G6" t="n">
-        <v>26.51716692950672</v>
+        <v>26.43903207207657</v>
       </c>
       <c r="H6" t="n">
-        <v>32.11543371089427</v>
+        <v>31.96107344981911</v>
       </c>
       <c r="I6" t="n">
-        <v>38.38094307745497</v>
+        <v>38.11314427338307</v>
       </c>
       <c r="J6" t="n">
-        <v>45.2708676620826</v>
+        <v>44.84777235999874</v>
       </c>
       <c r="K6" t="n">
-        <v>51.73575804792841</v>
+        <v>51.12526307481831</v>
       </c>
       <c r="L6" t="n">
-        <v>57.33489988592644</v>
+        <v>56.51675490551803</v>
       </c>
       <c r="M6" t="n">
-        <v>62.56158222433044</v>
+        <v>61.51257278057204</v>
       </c>
       <c r="N6" t="n">
-        <v>66.44997767717379</v>
+        <v>65.16268026784088</v>
       </c>
       <c r="O6" t="n">
-        <v>65.25008684552607</v>
+        <v>63.79322960896344</v>
       </c>
     </row>
     <row r="7">
@@ -8742,46 +8742,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.746567878344577</v>
+        <v>5.746215882849728</v>
       </c>
       <c r="C7" t="n">
-        <v>8.74511589893995</v>
+        <v>8.733623927415891</v>
       </c>
       <c r="D7" t="n">
-        <v>12.37890970258414</v>
+        <v>12.3285548776403</v>
       </c>
       <c r="E7" t="n">
-        <v>16.60143053616809</v>
+        <v>16.46102222301835</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0478171841891</v>
+        <v>20.74702643091074</v>
       </c>
       <c r="G7" t="n">
-        <v>25.81880378845907</v>
+        <v>25.27027744158722</v>
       </c>
       <c r="H7" t="n">
-        <v>31.16409308978531</v>
+        <v>30.26222485456037</v>
       </c>
       <c r="I7" t="n">
-        <v>37.12781465368797</v>
+        <v>35.75314501484113</v>
       </c>
       <c r="J7" t="n">
-        <v>43.65595319051901</v>
+        <v>41.68135473273917</v>
       </c>
       <c r="K7" t="n">
-        <v>49.74270576551305</v>
+        <v>47.08986021415875</v>
       </c>
       <c r="L7" t="n">
-        <v>54.96817017292634</v>
+        <v>51.59976279298807</v>
       </c>
       <c r="M7" t="n">
-        <v>59.81103990281651</v>
+        <v>55.67218371773598</v>
       </c>
       <c r="N7" t="n">
-        <v>63.34580432839101</v>
+        <v>58.44654315371592</v>
       </c>
       <c r="O7" t="n">
-        <v>62.02444352908883</v>
+        <v>56.68501787702876</v>
       </c>
     </row>
     <row r="8">
@@ -8791,46 +8791,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0564297139430547</v>
+        <v>0.09387462411358975</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07250767184676235</v>
+        <v>0.1212902088358787</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08877303993149022</v>
+        <v>0.1495095621580399</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1050447636225162</v>
+        <v>0.1779066090831952</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1206061699295649</v>
+        <v>0.2049260741697799</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1346606938944975</v>
+        <v>0.228970469729302</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1462794091694803</v>
+        <v>0.2483577101064493</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1543405874759918</v>
+        <v>0.2611982430508796</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1575056097465811</v>
+        <v>0.2653325034624557</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1537019725038222</v>
+        <v>0.2574511318794436</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1407321102281912</v>
+        <v>0.2341638013008817</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1167414544018134</v>
+        <v>0.1927984853182017</v>
       </c>
       <c r="N8" t="n">
-        <v>0.07962386364307415</v>
+        <v>0.1303967206378121</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003097447826320134</v>
+        <v>0.002960184970226974</v>
       </c>
     </row>
     <row r="9">
@@ -8840,46 +8840,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001114518844994553</v>
+        <v>0.00046344737934869</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002796995284976387</v>
+        <v>0.001181196048081668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0005782100626058442</v>
+        <v>0.002488454421889649</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001041883056260808</v>
+        <v>0.004552659673359986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001648862880307132</v>
+        <v>0.007263828981174961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002358135965881718</v>
+        <v>0.01039430430196173</v>
       </c>
       <c r="H9" t="n">
-        <v>0.003100275246991409</v>
+        <v>0.01358351844839522</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003738179607351135</v>
+        <v>0.01619539659603813</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004082736970470891</v>
+        <v>0.01742038940387452</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003837682980971789</v>
+        <v>0.01607521743108882</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002944825102973665</v>
+        <v>0.01207736058618097</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001697008175345215</v>
+        <v>0.006798294171634611</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0005530799015265764</v>
+        <v>0.002158328565596987</v>
       </c>
       <c r="O9" t="n">
-        <v>5.508197726286931e-08</v>
+        <v>4.743343709262802e-08</v>
       </c>
     </row>
     <row r="10">
@@ -8892,43 +8892,43 @@
         <v>0.00462364198426167</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009553251817830961</v>
+        <v>0.01073730285438676</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01435954117939081</v>
+        <v>0.01812166383390667</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01872531472981826</v>
+        <v>0.02627123021283194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02263882700193925</v>
+        <v>0.03488656939287616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02624733656246274</v>
+        <v>0.04381250883275759</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02952600156043681</v>
+        <v>0.0527286756953454</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03255235916528435</v>
+        <v>0.06149594599531759</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03558208220387838</v>
+        <v>0.07021524308024628</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03844951102468792</v>
+        <v>0.07861725107179816</v>
       </c>
       <c r="L10" t="n">
-        <v>0.04122767969596441</v>
+        <v>0.08678691407994811</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04393823198847455</v>
+        <v>0.0948357466662519</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04670611454467843</v>
+        <v>0.10303411030467</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04943507997149442</v>
+        <v>0.1114258006714805</v>
       </c>
     </row>
     <row r="11">
@@ -8938,46 +8938,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.265042092621384</v>
+        <v>4.264786304854225</v>
       </c>
       <c r="C11" t="n">
-        <v>6.562122939928646</v>
+        <v>6.551510228725937</v>
       </c>
       <c r="D11" t="n">
-        <v>9.375915965055409</v>
+        <v>9.332686447183526</v>
       </c>
       <c r="E11" t="n">
-        <v>12.69808097102727</v>
+        <v>12.58168789658195</v>
       </c>
       <c r="F11" t="n">
-        <v>16.14646248065027</v>
+        <v>15.90243888530634</v>
       </c>
       <c r="G11" t="n">
-        <v>19.78410351090943</v>
+        <v>19.34617445487234</v>
       </c>
       <c r="H11" t="n">
-        <v>23.88005223561506</v>
+        <v>23.16709477849771</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51317276161997</v>
+        <v>27.43152963658858</v>
       </c>
       <c r="J11" t="n">
-        <v>33.80347952106216</v>
+        <v>32.24499044820313</v>
       </c>
       <c r="K11" t="n">
-        <v>38.86545796457506</v>
+        <v>36.76067251855516</v>
       </c>
       <c r="L11" t="n">
-        <v>43.39237778520237</v>
+        <v>40.70261238440999</v>
       </c>
       <c r="M11" t="n">
-        <v>48.59323358192839</v>
+        <v>45.21209513026993</v>
       </c>
       <c r="N11" t="n">
-        <v>55.86553570388029</v>
+        <v>51.56478180008431</v>
       </c>
       <c r="O11" t="n">
-        <v>62.02444348963543</v>
+        <v>56.68501784394855</v>
       </c>
     </row>
     <row r="12">
@@ -8987,46 +8987,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7663440864672705</v>
+        <v>0.7359322709390357</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9808454569333516</v>
+        <v>0.9292423242344229</v>
       </c>
       <c r="D12" t="n">
-        <v>1.182978163389216</v>
+        <v>1.104021651551483</v>
       </c>
       <c r="E12" t="n">
-        <v>1.367368059734487</v>
+        <v>1.255341824577761</v>
       </c>
       <c r="F12" t="n">
-        <v>1.510733873714496</v>
+        <v>1.36381539737805</v>
       </c>
       <c r="G12" t="n">
-        <v>1.632868886696166</v>
+        <v>1.450622214059949</v>
       </c>
       <c r="H12" t="n">
-        <v>1.756138887848721</v>
+        <v>1.538728070131109</v>
       </c>
       <c r="I12" t="n">
-        <v>1.886327524324731</v>
+        <v>1.636472348071366</v>
       </c>
       <c r="J12" t="n">
-        <v>2.02583965161014</v>
+        <v>1.750051919501131</v>
       </c>
       <c r="K12" t="n">
-        <v>2.139289566302222</v>
+        <v>1.854880876322684</v>
       </c>
       <c r="L12" t="n">
-        <v>2.227306114428979</v>
+        <v>1.956795205832404</v>
       </c>
       <c r="M12" t="n">
-        <v>2.323759936906967</v>
+        <v>2.088053145588018</v>
       </c>
       <c r="N12" t="n">
-        <v>2.403683151052472</v>
+        <v>2.227086771946572</v>
       </c>
       <c r="O12" t="n">
-        <v>2.399519610373999</v>
+        <v>2.346267865563919</v>
       </c>
     </row>
     <row r="13">
@@ -9036,46 +9036,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7663440864672705</v>
+        <v>35.85496509954316</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9808454569333516</v>
+        <v>45.86517061408236</v>
       </c>
       <c r="D13" t="n">
-        <v>1.182978163389216</v>
+        <v>54.56092950539612</v>
       </c>
       <c r="E13" t="n">
-        <v>1.367368059734487</v>
+        <v>61.47742306508615</v>
       </c>
       <c r="F13" t="n">
-        <v>1.510733873714496</v>
+        <v>65.57567805244879</v>
       </c>
       <c r="G13" t="n">
-        <v>1.632868886696166</v>
+        <v>67.91227618370876</v>
       </c>
       <c r="H13" t="n">
-        <v>1.756138887848721</v>
+        <v>69.60358044055386</v>
       </c>
       <c r="I13" t="n">
-        <v>1.886327524324731</v>
+        <v>71.01219009869349</v>
       </c>
       <c r="J13" t="n">
-        <v>2.02583965161014</v>
+        <v>72.35335231998086</v>
       </c>
       <c r="K13" t="n">
-        <v>2.139289566302222</v>
+        <v>72.58302028578707</v>
       </c>
       <c r="L13" t="n">
-        <v>2.227306114428979</v>
+        <v>72.02899305617426</v>
       </c>
       <c r="M13" t="n">
-        <v>2.323759936906967</v>
+        <v>71.93225459550503</v>
       </c>
       <c r="N13" t="n">
-        <v>2.403683151052472</v>
+        <v>71.54557928282789</v>
       </c>
       <c r="O13" t="n">
-        <v>2.399519610373999</v>
+        <v>70.15400414698567</v>
       </c>
     </row>
     <row r="14">
@@ -9246,46 +9246,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-356.8037512515442</v>
+        <v>-357.0392369371419</v>
       </c>
       <c r="C2" t="n">
-        <v>-178.0275250791432</v>
+        <v>-179.0467134594771</v>
       </c>
       <c r="D2" t="n">
-        <v>-23.57259687653664</v>
+        <v>-25.99212126592598</v>
       </c>
       <c r="E2" t="n">
-        <v>98.64877907346684</v>
+        <v>94.55368875828138</v>
       </c>
       <c r="F2" t="n">
-        <v>179.6819203086878</v>
+        <v>174.1713716587026</v>
       </c>
       <c r="G2" t="n">
-        <v>222.3719504146443</v>
+        <v>215.9312872144277</v>
       </c>
       <c r="H2" t="n">
-        <v>243.0042701539797</v>
+        <v>236.0025008028785</v>
       </c>
       <c r="I2" t="n">
-        <v>249.5210613639635</v>
+        <v>242.2908857910668</v>
       </c>
       <c r="J2" t="n">
-        <v>247.1798262126805</v>
+        <v>239.9909880818752</v>
       </c>
       <c r="K2" t="n">
-        <v>232.3778463075356</v>
+        <v>225.6146585128815</v>
       </c>
       <c r="L2" t="n">
-        <v>208.8104730184262</v>
+        <v>202.7419701664478</v>
       </c>
       <c r="M2" t="n">
-        <v>185.8334099952439</v>
+        <v>180.484911185956</v>
       </c>
       <c r="N2" t="n">
-        <v>165.1464565311034</v>
+        <v>160.546784473261</v>
       </c>
       <c r="O2" t="n">
-        <v>144.631640626427</v>
+        <v>140.5624704794939</v>
       </c>
     </row>
     <row r="3">
@@ -9298,43 +9298,43 @@
         <v>4.61992195780226</v>
       </c>
       <c r="C3" t="n">
-        <v>7.728804763081626</v>
+        <v>7.735758353357281</v>
       </c>
       <c r="D3" t="n">
-        <v>12.74682056784137</v>
+        <v>12.75958094506565</v>
       </c>
       <c r="E3" t="n">
-        <v>20.11281861470019</v>
+        <v>20.09662726864108</v>
       </c>
       <c r="F3" t="n">
-        <v>29.85538588768306</v>
+        <v>29.71228800403566</v>
       </c>
       <c r="G3" t="n">
-        <v>42.0765783907322</v>
+        <v>41.61925434733855</v>
       </c>
       <c r="H3" t="n">
-        <v>57.30520594241026</v>
+        <v>56.22985347649566</v>
       </c>
       <c r="I3" t="n">
-        <v>75.81332858992683</v>
+        <v>73.69248740204955</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32695394319846</v>
+        <v>93.62897274976388</v>
       </c>
       <c r="K3" t="n">
-        <v>119.7909901173807</v>
+        <v>113.998447880454</v>
       </c>
       <c r="L3" t="n">
-        <v>141.3360829074558</v>
+        <v>133.031044406138</v>
       </c>
       <c r="M3" t="n">
-        <v>160.1037150381202</v>
+        <v>149.0132869947082</v>
       </c>
       <c r="N3" t="n">
-        <v>167.7934816481759</v>
+        <v>154.3415521359399</v>
       </c>
       <c r="O3" t="n">
-        <v>136.8579846450578</v>
+        <v>124.2047463832891</v>
       </c>
     </row>
     <row r="4">
@@ -9344,46 +9344,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2503929145713579</v>
+        <v>0.250681644346691</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2445992537717274</v>
+        <v>0.2451576511178559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2378952596832088</v>
+        <v>0.2386622581356654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2277007698681993</v>
+        <v>0.2286081455227682</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2234229277239578</v>
+        <v>0.2244269532003032</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2251187967039689</v>
+        <v>0.2261787289289519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2259817548037155</v>
+        <v>0.2270543279209244</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2247244817618887</v>
+        <v>0.2257704288653795</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2177899833919697</v>
+        <v>0.2187738971632797</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2108553665184204</v>
+        <v>0.2117692678712141</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2042122948629108</v>
+        <v>0.2049943674195144</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1833760226984686</v>
+        <v>0.1838135384591163</v>
       </c>
       <c r="N4" t="n">
-        <v>0.117711156396136</v>
+        <v>0.1172894863271642</v>
       </c>
       <c r="O4" t="n">
-        <v>1.253767727052829e-10</v>
+        <v>9.103886962625651e-11</v>
       </c>
     </row>
     <row r="5">
@@ -9393,46 +9393,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6117937581451395</v>
+        <v>0.612489117172705</v>
       </c>
       <c r="C5" t="n">
-        <v>1.005195297921262</v>
+        <v>1.006228878942649</v>
       </c>
       <c r="D5" t="n">
-        <v>1.566827710287066</v>
+        <v>1.56476364883859</v>
       </c>
       <c r="E5" t="n">
-        <v>2.284247966709516</v>
+        <v>2.270502735673476</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166664901083131</v>
+        <v>3.125922011428945</v>
       </c>
       <c r="G5" t="n">
-        <v>4.263401022438438</v>
+        <v>4.171811679254051</v>
       </c>
       <c r="H5" t="n">
-        <v>5.583223877231795</v>
+        <v>5.408634980481349</v>
       </c>
       <c r="I5" t="n">
-        <v>7.089248079167404</v>
+        <v>6.793399119532833</v>
       </c>
       <c r="J5" t="n">
-        <v>8.585517963678171</v>
+        <v>8.135204371390092</v>
       </c>
       <c r="K5" t="n">
-        <v>9.956754733529293</v>
+        <v>9.328224342536016</v>
       </c>
       <c r="L5" t="n">
-        <v>11.08228701201043</v>
+        <v>10.26282299463021</v>
       </c>
       <c r="M5" t="n">
-        <v>11.19687680344692</v>
+        <v>10.23838316724514</v>
       </c>
       <c r="N5" t="n">
-        <v>7.835201520502381</v>
+        <v>7.038917474191675</v>
       </c>
       <c r="O5" t="n">
-        <v>8.388961780997154e-09</v>
+        <v>5.422531784241297e-09</v>
       </c>
     </row>
     <row r="6">
@@ -9445,43 +9445,43 @@
         <v>2.45867138086419</v>
       </c>
       <c r="C6" t="n">
-        <v>4.161772392403245</v>
+        <v>4.162895340365801</v>
       </c>
       <c r="D6" t="n">
-        <v>6.712875060022022</v>
+        <v>6.714890358396506</v>
       </c>
       <c r="E6" t="n">
-        <v>10.28679441790943</v>
+        <v>10.28430937587957</v>
       </c>
       <c r="F6" t="n">
-        <v>14.61499925732403</v>
+        <v>14.59394885010795</v>
       </c>
       <c r="G6" t="n">
-        <v>19.6334382757306</v>
+        <v>19.56917536240092</v>
       </c>
       <c r="H6" t="n">
-        <v>25.7427288705378</v>
+        <v>25.59684536870763</v>
       </c>
       <c r="I6" t="n">
-        <v>33.02830780360299</v>
+        <v>32.74836472916754</v>
       </c>
       <c r="J6" t="n">
-        <v>41.49419600213526</v>
+        <v>41.01478999359144</v>
       </c>
       <c r="K6" t="n">
-        <v>49.97052410526506</v>
+        <v>49.23300446807901</v>
       </c>
       <c r="L6" t="n">
-        <v>57.74050714371459</v>
+        <v>56.70098180822335</v>
       </c>
       <c r="M6" t="n">
-        <v>65.31823967044774</v>
+        <v>63.92659129881569</v>
       </c>
       <c r="N6" t="n">
-        <v>71.61130519946562</v>
+        <v>69.83834236006561</v>
       </c>
       <c r="O6" t="n">
-        <v>72.38679585592553</v>
+        <v>70.31043242664023</v>
       </c>
     </row>
     <row r="7">
@@ -9491,46 +9491,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.443334944970211</v>
+        <v>2.443294636784961</v>
       </c>
       <c r="C7" t="n">
-        <v>4.109559953356858</v>
+        <v>4.104415564248162</v>
       </c>
       <c r="D7" t="n">
-        <v>6.586208200926405</v>
+        <v>6.55639337808123</v>
       </c>
       <c r="E7" t="n">
-        <v>10.03179729270003</v>
+        <v>9.931854048688507</v>
       </c>
       <c r="F7" t="n">
-        <v>14.17341064027051</v>
+        <v>13.92846076130183</v>
       </c>
       <c r="G7" t="n">
-        <v>18.93844976456946</v>
+        <v>18.44475693629226</v>
       </c>
       <c r="H7" t="n">
-        <v>24.70652501163779</v>
+        <v>23.8208847636016</v>
       </c>
       <c r="I7" t="n">
-        <v>31.54639861036127</v>
+        <v>30.08985345721934</v>
       </c>
       <c r="J7" t="n">
-        <v>39.42108737033283</v>
+        <v>37.18544340469678</v>
       </c>
       <c r="K7" t="n">
-        <v>47.22077933292473</v>
+        <v>44.04899934871054</v>
       </c>
       <c r="L7" t="n">
-        <v>54.26846125719337</v>
+        <v>50.06392674988808</v>
       </c>
       <c r="M7" t="n">
-        <v>61.0596556664244</v>
+        <v>55.69983175924963</v>
       </c>
       <c r="N7" t="n">
-        <v>66.56294747572102</v>
+        <v>60.01320062531013</v>
       </c>
       <c r="O7" t="n">
-        <v>66.91001530815187</v>
+        <v>59.56281977689875</v>
       </c>
     </row>
     <row r="8">
@@ -9540,46 +9540,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03576126925089181</v>
+        <v>0.06322327182208269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04804484528819273</v>
+        <v>0.08636880717647587</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06256234731659986</v>
+        <v>0.1143266815623471</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07908565031196367</v>
+        <v>0.1464936589777517</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09678791180307227</v>
+        <v>0.1809693864394936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1144771406050782</v>
+        <v>0.2151189173165332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1309981944580289</v>
+        <v>0.2464763714918939</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1447553340855167</v>
+        <v>0.2719056090126463</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1538954411347655</v>
+        <v>0.2879533630657634</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1558164735213918</v>
+        <v>0.2899324956055634</v>
       </c>
       <c r="L8" t="n">
-        <v>0.147367870687127</v>
+        <v>0.2723801307477935</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1256826373566154</v>
+        <v>0.2305978130259005</v>
       </c>
       <c r="N8" t="n">
-        <v>0.08766654506129862</v>
+        <v>0.1595999394990823</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002433163865611322</v>
+        <v>0.002264631482124482</v>
       </c>
     </row>
     <row r="9">
@@ -9589,46 +9589,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.025498344861338e-05</v>
+        <v>5.056316869911254e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>3.098926270364899e-05</v>
+        <v>0.000160146242744537</v>
       </c>
       <c r="D9" t="n">
-        <v>8.323826574964784e-05</v>
+        <v>0.0004503914745068891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001986637157379749</v>
+        <v>0.001115919349911438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004073952625384487</v>
+        <v>0.00234630885409947</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0007274285633418552</v>
+        <v>0.004240861004930417</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001169496569198677</v>
+        <v>0.006825881808173067</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001686334627626451</v>
+        <v>0.00976879749435761</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002157699520786371</v>
+        <v>0.01232576899144274</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002328646254932361</v>
+        <v>0.0130544872529717</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002008306378417937</v>
+        <v>0.01101294007537296</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001278498859692417</v>
+        <v>0.006844963504122466</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000452186903943181</v>
+        <v>0.002360407797194688</v>
       </c>
       <c r="O9" t="n">
-        <v>1.780812938642654e-08</v>
+        <v>1.414790152176399e-08</v>
       </c>
     </row>
     <row r="10">
@@ -9641,43 +9641,43 @@
         <v>0.006233521498567667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01253827573053579</v>
+        <v>0.01400939132660724</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01885684147225171</v>
+        <v>0.02353673409471866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02476947153236145</v>
+        <v>0.0341626642101191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03018687952172813</v>
+        <v>0.04543950282155092</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03536115645398701</v>
+        <v>0.05724194016148478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04020686258772694</v>
+        <v>0.0691153420594964</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04481679374602015</v>
+        <v>0.08088167138698235</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04990941220249891</v>
+        <v>0.09306449748214363</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05498073464866108</v>
+        <v>0.1050301660202941</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06009710949555921</v>
+        <v>0.1168593895572701</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06517789711800343</v>
+        <v>0.1285836522675702</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07049034398682642</v>
+        <v>0.1406502649515284</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07565993860123138</v>
+        <v>0.1528594312325508</v>
       </c>
     </row>
     <row r="11">
@@ -9687,46 +9687,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.831541186825072</v>
+        <v>1.830805519612256</v>
       </c>
       <c r="C11" t="n">
-        <v>3.104364655435596</v>
+        <v>3.098186685305513</v>
       </c>
       <c r="D11" t="n">
-        <v>5.019380490639339</v>
+        <v>4.99162972924264</v>
       </c>
       <c r="E11" t="n">
-        <v>7.747549325990519</v>
+        <v>7.661351313015029</v>
       </c>
       <c r="F11" t="n">
-        <v>11.00674573918737</v>
+        <v>10.80253874987289</v>
       </c>
       <c r="G11" t="n">
-        <v>14.67504874213102</v>
+        <v>14.27294525703821</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12330113440599</v>
+        <v>18.41224978312025</v>
       </c>
       <c r="I11" t="n">
-        <v>24.45715053119387</v>
+        <v>23.29645433768651</v>
       </c>
       <c r="J11" t="n">
-        <v>30.83556940665465</v>
+        <v>29.05023903330669</v>
       </c>
       <c r="K11" t="n">
-        <v>37.26402459939543</v>
+        <v>34.72077500617451</v>
       </c>
       <c r="L11" t="n">
-        <v>43.18617424518295</v>
+        <v>39.80110375525786</v>
       </c>
       <c r="M11" t="n">
-        <v>49.86277886297749</v>
+        <v>45.46144859200449</v>
       </c>
       <c r="N11" t="n">
-        <v>58.72774595521864</v>
+        <v>52.97428315111845</v>
       </c>
       <c r="O11" t="n">
-        <v>66.9100152997629</v>
+        <v>59.56281977147621</v>
       </c>
     </row>
     <row r="12">
@@ -9736,46 +9736,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2349388163870778</v>
+        <v>0.2282476410858305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3209945247770845</v>
+        <v>0.3081550015168749</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4242753625831997</v>
+        <v>0.4009676573374943</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5399891850509674</v>
+        <v>0.500342789911243</v>
       </c>
       <c r="F12" t="n">
-        <v>0.645310272496271</v>
+        <v>0.584323017662832</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7383381213907403</v>
+        <v>0.6522822202921832</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8349104217773068</v>
+        <v>0.7198598321916011</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9362040211852033</v>
+        <v>0.7902620171638617</v>
       </c>
       <c r="J12" t="n">
-        <v>1.043051430616504</v>
+        <v>0.86764739203472</v>
       </c>
       <c r="K12" t="n">
-        <v>1.132947672679614</v>
+        <v>0.9388907313225526</v>
       </c>
       <c r="L12" t="n">
-        <v>1.204380990171279</v>
+        <v>1.00929177246898</v>
       </c>
       <c r="M12" t="n">
-        <v>1.281314437551894</v>
+        <v>1.10353753306748</v>
       </c>
       <c r="N12" t="n">
-        <v>1.352661363105383</v>
+        <v>1.215161196836015</v>
       </c>
       <c r="O12" t="n">
-        <v>1.387270306267032</v>
+        <v>1.347705097941247</v>
       </c>
     </row>
     <row r="13">
@@ -9785,46 +9785,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2349388163870778</v>
+        <v>13.69863451031849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3209945247770845</v>
+        <v>19.50134512063857</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4242753625831997</v>
+        <v>26.3385363541989</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5399891850509674</v>
+        <v>33.64572653120241</v>
       </c>
       <c r="F13" t="n">
-        <v>0.645310272496271</v>
+        <v>39.73849584683499</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7383381213907403</v>
+        <v>44.38072103638208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8349104217773068</v>
+        <v>48.52498346581329</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9362040211852033</v>
+        <v>52.29716948877037</v>
       </c>
       <c r="J13" t="n">
-        <v>1.043051430616504</v>
+        <v>55.87026815732937</v>
       </c>
       <c r="K13" t="n">
-        <v>1.132947672679614</v>
+        <v>58.30210291538642</v>
       </c>
       <c r="L13" t="n">
-        <v>1.204380990171279</v>
+        <v>59.90095012074821</v>
       </c>
       <c r="M13" t="n">
-        <v>1.281314437551894</v>
+        <v>62.10109103981938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.352661363105383</v>
+        <v>64.46646352385282</v>
       </c>
       <c r="O13" t="n">
-        <v>1.387270306267032</v>
+        <v>67.20116793908312</v>
       </c>
     </row>
     <row r="14">
